--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651E973D-CC5E-437E-B995-752C9E82A6F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67011F08-15B6-43C7-9B19-629B99638A77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,7 +501,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,6 +681,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -842,9 +848,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1203,7 +1210,7 @@
   <dimension ref="A1:AE79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,25 +1228,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1254,13 +1261,13 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="S1" t="s">
@@ -1278,10 +1285,10 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Z1" t="s">

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -1,486 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B245C956-7041-4058-B063-B31315BCE95B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3312" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="dfsimple" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="113">
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Survey</t>
-  </si>
-  <si>
-    <t>imws</t>
-  </si>
-  <si>
-    <t>phom</t>
-  </si>
-  <si>
-    <t>pipy</t>
-  </si>
-  <si>
-    <t>ptap</t>
-  </si>
-  <si>
-    <t>bore</t>
-  </si>
-  <si>
-    <t>pwel</t>
-  </si>
-  <si>
-    <t>pspr</t>
-  </si>
-  <si>
-    <t>rain</t>
-  </si>
-  <si>
-    <t>truc</t>
-  </si>
-  <si>
-    <t>ctan</t>
-  </si>
-  <si>
-    <t>bott</t>
-  </si>
-  <si>
-    <t>uiws</t>
-  </si>
-  <si>
-    <t>uwel</t>
-  </si>
-  <si>
-    <t>uspr</t>
-  </si>
-  <si>
-    <t>surw</t>
-  </si>
-  <si>
-    <t>othw</t>
-  </si>
-  <si>
-    <t>iwsp</t>
-  </si>
-  <si>
-    <t>basw</t>
-  </si>
-  <si>
-    <t>liws</t>
-  </si>
-  <si>
-    <t>watp</t>
-  </si>
-  <si>
-    <t>tles</t>
-  </si>
-  <si>
-    <t>tmor</t>
-  </si>
-  <si>
-    <t>bicy</t>
-  </si>
-  <si>
-    <t>acar</t>
-  </si>
-  <si>
-    <t>mcyc</t>
-  </si>
-  <si>
-    <t>pcar</t>
-  </si>
-  <si>
-    <t>boat</t>
-  </si>
-  <si>
-    <t>wigc</t>
-  </si>
-  <si>
-    <t>clusters</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>DHS</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Burki0 Faso</t>
-  </si>
-  <si>
-    <t>MIS</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>Congo Democratic Republic</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gha0</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guya0</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kyrgyz Republic</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>0mibia</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Viet0m</t>
-  </si>
-  <si>
-    <t>AIS</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -493,196 +31,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -690,215 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -913,44 +77,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -977,32 +141,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1029,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1058,266 +186,358 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Survey</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>imws</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>phom</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pipy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ptap</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bore</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pwel</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>pspr</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>truc</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ctan</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>bott</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>uiws</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>uwel</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>uspr</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>surw</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>othw</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>iwsp</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>basw</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>liws</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>watp</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>tles</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>tmor</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>bicy</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>acar</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>mcyc</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>pcar</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>wigc</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>clusters</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
       </c>
       <c r="B2">
         <v>2015</v>
       </c>
-      <c r="C2" t="s">
-        <v>33</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D2">
         <v>71.2</v>
       </c>
       <c r="E2">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F2">
         <v>4.8</v>
@@ -1326,7 +546,7 @@
         <v>14.2</v>
       </c>
       <c r="H2">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="I2">
         <v>18.5</v>
@@ -1341,7 +561,7 @@
         <v>1.5</v>
       </c>
       <c r="M2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="N2">
         <v>0.2</v>
@@ -1377,7 +597,7 @@
         <v>45.2</v>
       </c>
       <c r="Y2">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z2">
         <v>30</v>
@@ -1386,7 +606,7 @@
         <v>5.8</v>
       </c>
       <c r="AB2">
-        <v>35.200000000000003</v>
+        <v>35.2</v>
       </c>
       <c r="AC2">
         <v>11.8</v>
@@ -1401,18 +621,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>34</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
       </c>
       <c r="B3">
         <v>2018</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D3">
-        <v>98.4</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E3">
         <v>48.8</v>
@@ -1427,7 +651,7 @@
         <v>1.4</v>
       </c>
       <c r="I3">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="J3">
         <v>2.5</v>
@@ -1442,7 +666,7 @@
         <v>0.2</v>
       </c>
       <c r="N3">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="O3">
         <v>1.6</v>
@@ -1469,13 +693,13 @@
         <v>0.9</v>
       </c>
       <c r="W3">
-        <v>77.900000000000006</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="X3">
         <v>20.6</v>
       </c>
       <c r="Y3">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Z3">
         <v>26.4</v>
@@ -1499,24 +723,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>35</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
       </c>
       <c r="B4">
         <v>2016</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D4">
-        <v>66.900000000000006</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E4">
         <v>4.3</v>
       </c>
       <c r="F4">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G4">
         <v>10.3</v>
@@ -1534,7 +762,7 @@
         <v>1.7</v>
       </c>
       <c r="L4">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M4">
         <v>4.3</v>
@@ -1546,7 +774,7 @@
         <v>33.1</v>
       </c>
       <c r="P4">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Q4">
         <v>4.8</v>
@@ -1576,7 +804,7 @@
         <v>15.6</v>
       </c>
       <c r="Z4">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AA4">
         <v>1.3</v>
@@ -1594,21 +822,25 @@
         <v>0.3</v>
       </c>
       <c r="AF4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>36</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
       </c>
       <c r="B5">
         <v>2016</v>
       </c>
-      <c r="C5" t="s">
-        <v>33</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D5">
-        <v>99.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E5">
         <v>88.3</v>
@@ -1656,16 +888,16 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>97.6</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="U5">
-        <v>99.1</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="V5">
         <v>0.1</v>
       </c>
       <c r="W5">
-        <v>97.6</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="X5">
         <v>1.6</v>
@@ -1683,7 +915,7 @@
         <v>0.2</v>
       </c>
       <c r="AC5">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="AD5">
         <v>0.3</v>
@@ -1695,18 +927,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>37</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Azerbaijan</t>
+        </is>
       </c>
       <c r="B6">
         <v>2006</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D6">
-        <v>90.6</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E6">
         <v>34</v>
@@ -1718,7 +954,7 @@
         <v>3.5</v>
       </c>
       <c r="H6">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I6">
         <v>6.2</v>
@@ -1745,31 +981,31 @@
         <v>0.2</v>
       </c>
       <c r="Q6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="R6">
         <v>7</v>
       </c>
       <c r="S6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="T6">
         <v>71.2</v>
       </c>
       <c r="U6">
-        <v>86.4</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="V6">
         <v>3.4</v>
       </c>
       <c r="W6">
-        <v>75.900000000000006</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="X6">
         <v>18.7</v>
       </c>
       <c r="Y6">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="Z6">
         <v>6.9</v>
@@ -1778,10 +1014,10 @@
         <v>3.3</v>
       </c>
       <c r="AB6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AC6">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="AD6">
         <v>0.1</v>
@@ -1790,18 +1026,22 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
       </c>
       <c r="B7">
         <v>2014</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D7">
         <v>97.8</v>
@@ -1816,7 +1056,7 @@
         <v>2.7</v>
       </c>
       <c r="H7">
-        <v>86.4</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="I7">
         <v>0.2</v>
@@ -1837,7 +1077,7 @@
         <v>0.3</v>
       </c>
       <c r="O7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="P7">
         <v>0.6</v>
@@ -1852,10 +1092,10 @@
         <v>0.1</v>
       </c>
       <c r="T7">
-        <v>75.099999999999994</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="U7">
-        <v>96.4</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="V7">
         <v>1.3</v>
@@ -1888,24 +1128,28 @@
         <v>0.3</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>39</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Benin</t>
+        </is>
       </c>
       <c r="B8">
         <v>2018</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D8">
         <v>71.7</v>
       </c>
       <c r="E8">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="F8">
         <v>4.2</v>
@@ -1917,7 +1161,7 @@
         <v>28.9</v>
       </c>
       <c r="I8">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="J8">
         <v>0.3</v>
@@ -1968,7 +1212,7 @@
         <v>12.1</v>
       </c>
       <c r="Z8">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="AA8">
         <v>3.2</v>
@@ -1989,15 +1233,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>40</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
       </c>
       <c r="B9">
         <v>2008</v>
       </c>
-      <c r="C9" t="s">
-        <v>33</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D9">
         <v>87.3</v>
@@ -2084,18 +1332,22 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>41</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
       </c>
       <c r="B10">
         <v>1996</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D10">
         <v>76</v>
@@ -2182,21 +1434,25 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>42</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
       </c>
       <c r="B11">
         <v>2018</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D11">
-        <v>80.900000000000006</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E11">
         <v>2.6</v>
@@ -2205,7 +1461,7 @@
         <v>9.6</v>
       </c>
       <c r="G11">
-        <v>18.399999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="H11">
         <v>40.6</v>
@@ -2229,7 +1485,7 @@
         <v>0.2</v>
       </c>
       <c r="O11">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="P11">
         <v>16.3</v>
@@ -2253,7 +1509,7 @@
         <v>28.5</v>
       </c>
       <c r="W11">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="X11">
         <v>49.8</v>
@@ -2283,21 +1539,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>44</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Burundi</t>
+        </is>
       </c>
       <c r="B12">
         <v>2017</v>
       </c>
-      <c r="C12" t="s">
-        <v>33</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D12">
-        <v>82.9</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E12">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -2327,7 +1587,7 @@
         <v>0.1</v>
       </c>
       <c r="O12">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="P12">
         <v>1.7</v>
@@ -2348,13 +1608,13 @@
         <v>63.1</v>
       </c>
       <c r="V12">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="W12">
         <v>9.6</v>
       </c>
       <c r="X12">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="Y12">
         <v>25.5</v>
@@ -2366,10 +1626,10 @@
         <v>0.2</v>
       </c>
       <c r="AB12">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AC12">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD12">
         <v>0.2</v>
@@ -2378,18 +1638,22 @@
         <v>0.3</v>
       </c>
       <c r="AF12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>45</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
       </c>
       <c r="B13">
         <v>2014</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D13">
         <v>83.7</v>
@@ -2428,7 +1692,7 @@
         <v>16.2</v>
       </c>
       <c r="P13">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q13">
         <v>0.7</v>
@@ -2470,30 +1734,34 @@
         <v>14.1</v>
       </c>
       <c r="AD13">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AE13">
         <v>0.2</v>
       </c>
       <c r="AF13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>46</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
       </c>
       <c r="B14">
         <v>2018</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D14">
         <v>78.8</v>
       </c>
       <c r="E14">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F14">
         <v>6.9</v>
@@ -2508,7 +1776,7 @@
         <v>3.9</v>
       </c>
       <c r="J14">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="K14">
         <v>0.5</v>
@@ -2538,7 +1806,7 @@
         <v>0.1</v>
       </c>
       <c r="T14">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="U14">
         <v>71</v>
@@ -2547,7 +1815,7 @@
         <v>7.5</v>
       </c>
       <c r="W14">
-        <v>34.200000000000003</v>
+        <v>34.2</v>
       </c>
       <c r="X14">
         <v>54.6</v>
@@ -2577,15 +1845,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>47</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Central African Republic</t>
+        </is>
       </c>
       <c r="B15">
         <v>1995</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D15">
         <v>16.3</v>
@@ -2621,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>83.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2642,16 +1914,16 @@
         <v>15.2</v>
       </c>
       <c r="V15">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W15">
         <v>7.5</v>
       </c>
       <c r="X15">
-        <v>75.099999999999994</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="Y15">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="Z15">
         <v>11.5</v>
@@ -2672,18 +1944,22 @@
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>48</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
       </c>
       <c r="B16">
         <v>2015</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D16">
         <v>55.8</v>
@@ -2773,21 +2049,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>49</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
-      <c r="C17" t="s">
-        <v>33</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D17">
         <v>92.8</v>
       </c>
       <c r="E17">
-        <v>80.900000000000006</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2832,7 +2112,7 @@
         <v>0.7</v>
       </c>
       <c r="T17">
-        <v>91.1</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="U17">
         <v>92.5</v>
@@ -2841,7 +2121,7 @@
         <v>0.2</v>
       </c>
       <c r="W17">
-        <v>95.9</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="X17">
         <v>3.3</v>
@@ -2859,7 +2139,7 @@
         <v>26.9</v>
       </c>
       <c r="AC17">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -2871,15 +2151,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>50</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Comoros</t>
+        </is>
       </c>
       <c r="B18">
         <v>2012</v>
       </c>
-      <c r="C18" t="s">
-        <v>33</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D18">
         <v>91</v>
@@ -2903,7 +2187,7 @@
         <v>3.7</v>
       </c>
       <c r="K18">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="L18">
         <v>2.9</v>
@@ -2918,7 +2202,7 @@
         <v>8.9</v>
       </c>
       <c r="P18">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="Q18">
         <v>2.1</v>
@@ -2945,10 +2229,10 @@
         <v>20.7</v>
       </c>
       <c r="Y18">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z18">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AA18">
         <v>0.4</v>
@@ -2966,18 +2250,22 @@
         <v>0.2</v>
       </c>
       <c r="AF18">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>51</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Congo</t>
+        </is>
       </c>
       <c r="B19">
         <v>2012</v>
       </c>
-      <c r="C19" t="s">
-        <v>33</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D19">
         <v>75.7</v>
@@ -2995,7 +2283,7 @@
         <v>9.9</v>
       </c>
       <c r="I19">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="J19">
         <v>4.2</v>
@@ -3019,13 +2307,13 @@
         <v>5.2</v>
       </c>
       <c r="Q19">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="R19">
         <v>8.1</v>
       </c>
       <c r="S19">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T19">
         <v>34.6</v>
@@ -3037,7 +2325,7 @@
         <v>13.6</v>
       </c>
       <c r="W19">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="X19">
         <v>39</v>
@@ -3055,7 +2343,7 @@
         <v>4.8</v>
       </c>
       <c r="AC19">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AD19">
         <v>0.3</v>
@@ -3064,18 +2352,22 @@
         <v>0.3</v>
       </c>
       <c r="AF19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>52</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Congo Democratic Republic</t>
+        </is>
       </c>
       <c r="B20">
         <v>2014</v>
       </c>
-      <c r="C20" t="s">
-        <v>33</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D20">
         <v>48.8</v>
@@ -3087,10 +2379,10 @@
         <v>5.6</v>
       </c>
       <c r="G20">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H20">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -3117,10 +2409,10 @@
         <v>5.4</v>
       </c>
       <c r="Q20">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="R20">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S20">
         <v>0.3</v>
@@ -3129,7 +2421,7 @@
         <v>7</v>
       </c>
       <c r="U20">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="V20">
         <v>12.1</v>
@@ -3141,7 +2433,7 @@
         <v>59.3</v>
       </c>
       <c r="Y20">
-        <v>32.799999999999997</v>
+        <v>32.8</v>
       </c>
       <c r="Z20">
         <v>24.1</v>
@@ -3150,7 +2442,7 @@
         <v>0.1</v>
       </c>
       <c r="AB20">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AC20">
         <v>1.4</v>
@@ -3162,21 +2454,25 @@
         <v>0.4</v>
       </c>
       <c r="AF20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>53</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cote d'Ivoire</t>
+        </is>
       </c>
       <c r="B21">
         <v>2012</v>
       </c>
-      <c r="C21" t="s">
-        <v>33</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D21">
-        <v>78.400000000000006</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E21">
         <v>11.2</v>
@@ -3218,16 +2514,16 @@
         <v>2.7</v>
       </c>
       <c r="R21">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="S21">
         <v>0.7</v>
       </c>
       <c r="T21">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
       <c r="U21">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="V21">
         <v>5.3</v>
@@ -3242,7 +2538,7 @@
         <v>8.9</v>
       </c>
       <c r="Z21">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="AA21">
         <v>1.6</v>
@@ -3263,21 +2559,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Dominican Republic</t>
+        </is>
       </c>
       <c r="B22">
         <v>2013</v>
       </c>
-      <c r="C22" t="s">
-        <v>33</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D22">
         <v>98.7</v>
       </c>
       <c r="E22">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="F22">
         <v>6.6</v>
@@ -3322,16 +2622,16 @@
         <v>0.5</v>
       </c>
       <c r="T22">
-        <v>86.1</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="U22">
-        <v>97.6</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="V22">
         <v>0.9</v>
       </c>
       <c r="W22">
-        <v>86.9</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="X22">
         <v>12</v>
@@ -3358,24 +2658,28 @@
         <v>0.2</v>
       </c>
       <c r="AF22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>55</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
       </c>
       <c r="B23">
         <v>2014</v>
       </c>
-      <c r="C23" t="s">
-        <v>33</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D23">
-        <v>99.6</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E23">
-        <v>90.6</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F23">
         <v>0.4</v>
@@ -3420,10 +2724,10 @@
         <v>0.4</v>
       </c>
       <c r="T23">
-        <v>93.1</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="U23">
-        <v>98.9</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="V23">
         <v>0.6</v>
@@ -3447,7 +2751,7 @@
         <v>8.1</v>
       </c>
       <c r="AC23">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -3459,18 +2763,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>56</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Eritrea</t>
+        </is>
       </c>
       <c r="B24">
         <v>2002</v>
       </c>
-      <c r="C24" t="s">
-        <v>33</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D24">
-        <v>67.400000000000006</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E24">
         <v>16.3</v>
@@ -3485,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3506,7 +2814,7 @@
         <v>32.5</v>
       </c>
       <c r="P24">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3554,30 +2862,34 @@
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>57</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Eswatini</t>
+        </is>
       </c>
       <c r="B25">
         <v>2007</v>
       </c>
-      <c r="C25" t="s">
-        <v>33</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D25">
-        <v>71.400000000000006</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E25">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="F25">
         <v>21.3</v>
       </c>
       <c r="G25">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="H25">
         <v>6.9</v>
@@ -3604,7 +2916,7 @@
         <v>28.6</v>
       </c>
       <c r="P25">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -3619,7 +2931,7 @@
         <v>42.6</v>
       </c>
       <c r="U25">
-        <v>66.599999999999994</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="V25">
         <v>4.5</v>
@@ -3652,18 +2964,22 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>58</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ethiopia</t>
+        </is>
       </c>
       <c r="B26">
         <v>2016</v>
       </c>
-      <c r="C26" t="s">
-        <v>33</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D26">
         <v>65.2</v>
@@ -3699,10 +3015,10 @@
         <v>0.2</v>
       </c>
       <c r="O26">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="P26">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="Q26">
         <v>20</v>
@@ -3732,13 +3048,13 @@
         <v>28.2</v>
       </c>
       <c r="Z26">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AA26">
         <v>1.6</v>
       </c>
       <c r="AB26">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AC26">
         <v>0.8</v>
@@ -3750,21 +3066,25 @@
         <v>0.2</v>
       </c>
       <c r="AF26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>59</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Gabon</t>
+        </is>
       </c>
       <c r="B27">
         <v>2012</v>
       </c>
-      <c r="C27" t="s">
-        <v>33</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D27">
-        <v>93.1</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E27">
         <v>25.4</v>
@@ -3794,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="O27">
         <v>6.7</v>
@@ -3821,7 +3141,7 @@
         <v>7.2</v>
       </c>
       <c r="W27">
-        <v>65.599999999999994</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="X27">
         <v>23.1</v>
@@ -3848,18 +3168,22 @@
         <v>0.2</v>
       </c>
       <c r="AF27">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>60</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Gambia</t>
+        </is>
       </c>
       <c r="B28">
         <v>2013</v>
       </c>
-      <c r="C28" t="s">
-        <v>33</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D28">
         <v>91</v>
@@ -3868,13 +3192,13 @@
         <v>3.4</v>
       </c>
       <c r="F28">
-        <v>38.200000000000003</v>
+        <v>38.2</v>
       </c>
       <c r="G28">
-        <v>32.799999999999997</v>
+        <v>32.8</v>
       </c>
       <c r="H28">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I28">
         <v>7.4</v>
@@ -3913,7 +3237,7 @@
         <v>43.7</v>
       </c>
       <c r="U28">
-        <v>86.4</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="V28">
         <v>4</v>
@@ -3946,21 +3270,25 @@
         <v>0.2</v>
       </c>
       <c r="AF28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>61</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
-      <c r="C29" t="s">
-        <v>43</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D29">
-        <v>93.1</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E29">
         <v>2.7</v>
@@ -3972,10 +3300,10 @@
         <v>14.6</v>
       </c>
       <c r="H29">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="I29">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="J29">
         <v>0.1</v>
@@ -3990,7 +3318,7 @@
         <v>0.1</v>
       </c>
       <c r="N29">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="O29">
         <v>6.9</v>
@@ -4002,7 +3330,7 @@
         <v>0.6</v>
       </c>
       <c r="R29">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -4047,15 +3375,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>62</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
       </c>
       <c r="B30">
         <v>2015</v>
       </c>
-      <c r="C30" t="s">
-        <v>33</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D30">
         <v>86.5</v>
@@ -4109,7 +3441,7 @@
         <v>82.2</v>
       </c>
       <c r="U30">
-        <v>86.1</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="V30">
         <v>0.4</v>
@@ -4118,7 +3450,7 @@
         <v>89.5</v>
       </c>
       <c r="X30">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y30">
         <v>1.2</v>
@@ -4142,18 +3474,22 @@
         <v>0.3</v>
       </c>
       <c r="AF30">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>63</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guinea</t>
+        </is>
       </c>
       <c r="B31">
         <v>2018</v>
       </c>
-      <c r="C31" t="s">
-        <v>33</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D31">
         <v>79.3</v>
@@ -4186,16 +3522,16 @@
         <v>0.2</v>
       </c>
       <c r="N31">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="O31">
         <v>20.7</v>
       </c>
       <c r="P31">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="Q31">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="R31">
         <v>5.9</v>
@@ -4210,7 +3546,7 @@
         <v>60.2</v>
       </c>
       <c r="V31">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="W31">
         <v>31</v>
@@ -4243,15 +3579,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>64</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
       </c>
       <c r="B32">
         <v>2009</v>
       </c>
-      <c r="C32" t="s">
-        <v>33</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D32">
         <v>94.8</v>
@@ -4260,10 +3600,10 @@
         <v>14</v>
       </c>
       <c r="F32">
-        <v>18.399999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="G32">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -4284,7 +3624,7 @@
         <v>0.1</v>
       </c>
       <c r="N32">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="O32">
         <v>5.2</v>
@@ -4311,7 +3651,7 @@
         <v>0.2</v>
       </c>
       <c r="W32">
-        <v>92.6</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="X32">
         <v>6.5</v>
@@ -4323,7 +3663,7 @@
         <v>52.1</v>
       </c>
       <c r="AA32">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB32">
         <v>8.9</v>
@@ -4338,27 +3678,31 @@
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>65</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
       </c>
       <c r="B33">
         <v>2017</v>
       </c>
-      <c r="C33" t="s">
-        <v>33</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D33">
-        <v>75.599999999999994</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E33">
         <v>1.2</v>
       </c>
       <c r="F33">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G33">
         <v>18.8</v>
@@ -4382,7 +3726,7 @@
         <v>0.3</v>
       </c>
       <c r="N33">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="O33">
         <v>24.4</v>
@@ -4415,7 +3759,7 @@
         <v>66.5</v>
       </c>
       <c r="Y33">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="Z33">
         <v>5.7</v>
@@ -4424,10 +3768,10 @@
         <v>0.2</v>
       </c>
       <c r="AB33">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AC33">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AD33">
         <v>0.2</v>
@@ -4436,18 +3780,22 @@
         <v>0.4</v>
       </c>
       <c r="AF33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>66</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
       </c>
       <c r="B34">
         <v>2012</v>
       </c>
-      <c r="C34" t="s">
-        <v>33</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D34">
         <v>90.2</v>
@@ -4483,7 +3831,7 @@
         <v>38.6</v>
       </c>
       <c r="O34">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -4507,7 +3855,7 @@
         <v>0.1</v>
       </c>
       <c r="W34">
-        <v>88.4</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="X34">
         <v>10.8</v>
@@ -4516,16 +3864,16 @@
         <v>0.7</v>
       </c>
       <c r="Z34">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="AA34">
         <v>1.4</v>
       </c>
       <c r="AB34">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AC34">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="AD34">
         <v>0.4</v>
@@ -4537,21 +3885,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>67</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
       </c>
       <c r="B35">
         <v>2016</v>
       </c>
-      <c r="C35" t="s">
-        <v>33</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D35">
         <v>94.5</v>
       </c>
       <c r="E35">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="F35">
         <v>13.6</v>
@@ -4560,7 +3912,7 @@
         <v>15.9</v>
       </c>
       <c r="H35">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="I35">
         <v>3.7</v>
@@ -4596,7 +3948,7 @@
         <v>0.2</v>
       </c>
       <c r="T35">
-        <v>64.400000000000006</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="U35">
         <v>92.7</v>
@@ -4611,7 +3963,7 @@
         <v>31.4</v>
       </c>
       <c r="Y35">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="Z35">
         <v>52.1</v>
@@ -4620,7 +3972,7 @@
         <v>3.6</v>
       </c>
       <c r="AB35">
-        <v>37.700000000000003</v>
+        <v>37.7</v>
       </c>
       <c r="AC35">
         <v>6</v>
@@ -4632,27 +3984,31 @@
         <v>0.2</v>
       </c>
       <c r="AF35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>68</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
       </c>
       <c r="B36">
         <v>2017</v>
       </c>
-      <c r="C36" t="s">
-        <v>33</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D36">
-        <v>90.9</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E36">
         <v>7.3</v>
       </c>
       <c r="F36">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G36">
         <v>0.6</v>
@@ -4667,7 +4023,7 @@
         <v>9.6</v>
       </c>
       <c r="K36">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="L36">
         <v>0.4</v>
@@ -4682,7 +4038,7 @@
         <v>9.1</v>
       </c>
       <c r="P36">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -4712,7 +4068,7 @@
         <v>0.5</v>
       </c>
       <c r="Z36">
-        <v>39.299999999999997</v>
+        <v>39.3</v>
       </c>
       <c r="AA36">
         <v>0.2</v>
@@ -4730,18 +4086,22 @@
         <v>0.1</v>
       </c>
       <c r="AF36">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>69</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
       </c>
       <c r="B37">
         <v>2018</v>
       </c>
-      <c r="C37" t="s">
-        <v>33</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D37">
         <v>99.8</v>
@@ -4774,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>37.799999999999997</v>
+        <v>37.8</v>
       </c>
       <c r="O37">
         <v>0.2</v>
@@ -4795,7 +4155,7 @@
         <v>99.2</v>
       </c>
       <c r="U37">
-        <v>99.6</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="V37">
         <v>0.1</v>
@@ -4831,24 +4191,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>70</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
       </c>
       <c r="B38">
         <v>1999</v>
       </c>
-      <c r="C38" t="s">
-        <v>33</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D38">
-        <v>69.400000000000006</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E38">
         <v>49.5</v>
       </c>
       <c r="F38">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G38">
         <v>7.6</v>
@@ -4893,13 +4257,13 @@
         <v>59.3</v>
       </c>
       <c r="U38">
-        <v>68.400000000000006</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="V38">
         <v>0.8</v>
       </c>
       <c r="W38">
-        <v>70.099999999999994</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="X38">
         <v>26.4</v>
@@ -4929,15 +4293,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>71</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
       </c>
       <c r="B39">
         <v>2015</v>
       </c>
-      <c r="C39" t="s">
-        <v>43</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D39">
         <v>78.3</v>
@@ -4958,7 +4326,7 @@
         <v>7.9</v>
       </c>
       <c r="J39">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K39">
         <v>5.5</v>
@@ -4979,7 +4347,7 @@
         <v>2.4</v>
       </c>
       <c r="Q39">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="R39">
         <v>16.8</v>
@@ -4991,7 +4359,7 @@
         <v>45.4</v>
       </c>
       <c r="U39">
-        <v>71.599999999999994</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="V39">
         <v>6</v>
@@ -5006,10 +4374,10 @@
         <v>12.1</v>
       </c>
       <c r="Z39">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="AA39">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AB39">
         <v>9.5</v>
@@ -5024,18 +4392,22 @@
         <v>0.3</v>
       </c>
       <c r="AF39">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>72</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Kyrgyz Republic</t>
+        </is>
       </c>
       <c r="B40">
         <v>2012</v>
       </c>
-      <c r="C40" t="s">
-        <v>33</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D40">
         <v>89.2</v>
@@ -5053,7 +4425,7 @@
         <v>1.9</v>
       </c>
       <c r="I40">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -5080,7 +4452,7 @@
         <v>1.6</v>
       </c>
       <c r="R40">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S40">
         <v>0.1</v>
@@ -5089,7 +4461,7 @@
         <v>66.2</v>
       </c>
       <c r="U40">
-        <v>87.9</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="V40">
         <v>0.7</v>
@@ -5122,21 +4494,25 @@
         <v>0.2</v>
       </c>
       <c r="AF40">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>73</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Lesotho</t>
+        </is>
       </c>
       <c r="B41">
         <v>2014</v>
       </c>
-      <c r="C41" t="s">
-        <v>33</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D41">
-        <v>83.9</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -5145,13 +4521,13 @@
         <v>22.6</v>
       </c>
       <c r="G41">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="H41">
         <v>5.7</v>
       </c>
       <c r="I41">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="J41">
         <v>4.2</v>
@@ -5169,13 +4545,13 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="P41">
         <v>7.1</v>
       </c>
       <c r="Q41">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R41">
         <v>0.7</v>
@@ -5202,7 +4578,7 @@
         <v>16</v>
       </c>
       <c r="Z41">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AA41">
         <v>9.5</v>
@@ -5211,7 +4587,7 @@
         <v>0.2</v>
       </c>
       <c r="AC41">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AD41">
         <v>0</v>
@@ -5220,18 +4596,22 @@
         <v>0.4</v>
       </c>
       <c r="AF41">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>74</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
       </c>
       <c r="B42">
         <v>2016</v>
       </c>
-      <c r="C42" t="s">
-        <v>43</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D42">
         <v>84.8</v>
@@ -5270,7 +4650,7 @@
         <v>15.2</v>
       </c>
       <c r="P42">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="Q42">
         <v>1.4</v>
@@ -5294,7 +4674,7 @@
         <v>21.5</v>
       </c>
       <c r="X42">
-        <v>73.900000000000006</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="Y42">
         <v>3.8</v>
@@ -5321,15 +4701,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>75</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
       </c>
       <c r="B43">
         <v>2016</v>
       </c>
-      <c r="C43" t="s">
-        <v>43</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D43">
         <v>44.2</v>
@@ -5350,7 +4734,7 @@
         <v>11.5</v>
       </c>
       <c r="J43">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -5398,7 +4782,7 @@
         <v>5.9</v>
       </c>
       <c r="Z43">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="AA43">
         <v>8.6</v>
@@ -5416,18 +4800,22 @@
         <v>0.2</v>
       </c>
       <c r="AF43">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>76</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
       </c>
       <c r="B44">
         <v>2017</v>
       </c>
-      <c r="C44" t="s">
-        <v>43</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D44">
         <v>86.3</v>
@@ -5466,7 +4854,7 @@
         <v>13.7</v>
       </c>
       <c r="P44">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q44">
         <v>1.6</v>
@@ -5496,7 +4884,7 @@
         <v>12.4</v>
       </c>
       <c r="Z44">
-        <v>35.700000000000003</v>
+        <v>35.7</v>
       </c>
       <c r="AA44">
         <v>2</v>
@@ -5505,7 +4893,7 @@
         <v>2.8</v>
       </c>
       <c r="AC44">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AD44">
         <v>0.3</v>
@@ -5517,15 +4905,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>77</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Maldives</t>
+        </is>
       </c>
       <c r="B45">
         <v>2017</v>
       </c>
-      <c r="C45" t="s">
-        <v>33</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D45">
         <v>99.7</v>
@@ -5558,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="O45">
         <v>0.3</v>
@@ -5579,7 +4971,7 @@
         <v>96.7</v>
       </c>
       <c r="U45">
-        <v>99.4</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="V45">
         <v>0.1</v>
@@ -5612,18 +5004,22 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>78</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mali</t>
+        </is>
       </c>
       <c r="B46">
         <v>2018</v>
       </c>
-      <c r="C46" t="s">
-        <v>33</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D46">
         <v>69.3</v>
@@ -5689,7 +5085,7 @@
         <v>61.7</v>
       </c>
       <c r="Y46">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="Z46">
         <v>45.9</v>
@@ -5713,21 +5109,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>79</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mauritania</t>
+        </is>
       </c>
       <c r="B47">
         <v>2001</v>
       </c>
-      <c r="C47" t="s">
-        <v>33</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D47">
         <v>66.5</v>
       </c>
       <c r="E47">
-        <v>17.899999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5748,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5781,13 +5181,13 @@
         <v>9.1</v>
       </c>
       <c r="W47">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="X47">
         <v>45.6</v>
       </c>
       <c r="Y47">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5808,18 +5208,22 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>80</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Moldova</t>
+        </is>
       </c>
       <c r="B48">
         <v>2005</v>
       </c>
-      <c r="C48" t="s">
-        <v>33</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D48">
         <v>94.7</v>
@@ -5849,7 +5253,7 @@
         <v>0.3</v>
       </c>
       <c r="M48">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="N48">
         <v>2.5</v>
@@ -5906,18 +5310,22 @@
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>81</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
       </c>
       <c r="B49">
         <v>2004</v>
       </c>
-      <c r="C49" t="s">
-        <v>33</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D49">
         <v>79.8</v>
@@ -5926,7 +5334,7 @@
         <v>58.2</v>
       </c>
       <c r="F49">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="G49">
         <v>10.9</v>
@@ -5953,7 +5361,7 @@
         <v>0.5</v>
       </c>
       <c r="O49">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="P49">
         <v>10.7</v>
@@ -5962,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="S49">
         <v>0.2</v>
@@ -6004,24 +5412,28 @@
         <v>0</v>
       </c>
       <c r="AF49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>82</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mozambique</t>
+        </is>
       </c>
       <c r="B50">
         <v>2018</v>
       </c>
-      <c r="C50" t="s">
-        <v>43</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D50">
-        <v>64.099999999999994</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E50">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="F50">
         <v>14.2</v>
@@ -6033,7 +5445,7 @@
         <v>12.4</v>
       </c>
       <c r="I50">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J50">
         <v>0.6</v>
@@ -6060,7 +5472,7 @@
         <v>2</v>
       </c>
       <c r="R50">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S50">
         <v>0.3</v>
@@ -6102,21 +5514,25 @@
         <v>0.4</v>
       </c>
       <c r="AF50">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>83</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Myanmar</t>
+        </is>
       </c>
       <c r="B51">
         <v>2016</v>
       </c>
-      <c r="C51" t="s">
-        <v>33</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D51">
-        <v>82.4</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E51">
         <v>2.1</v>
@@ -6149,7 +5565,7 @@
         <v>15.5</v>
       </c>
       <c r="O51">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="P51">
         <v>8.5</v>
@@ -6191,7 +5607,7 @@
         <v>50.2</v>
       </c>
       <c r="AC51">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AD51">
         <v>0.9</v>
@@ -6203,21 +5619,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>84</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Namibia</t>
+        </is>
       </c>
       <c r="B52">
         <v>2013</v>
       </c>
-      <c r="C52" t="s">
-        <v>33</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D52">
         <v>87.5</v>
       </c>
       <c r="E52">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="F52">
         <v>14.2</v>
@@ -6265,7 +5685,7 @@
         <v>52.7</v>
       </c>
       <c r="U52">
-        <v>81.099999999999994</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="V52">
         <v>5.3</v>
@@ -6298,18 +5718,22 @@
         <v>0.4</v>
       </c>
       <c r="AF52">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>85</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
       </c>
       <c r="B53">
         <v>2016</v>
       </c>
-      <c r="C53" t="s">
-        <v>33</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D53">
         <v>96</v>
@@ -6321,7 +5745,7 @@
         <v>24.4</v>
       </c>
       <c r="G53">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="H53">
         <v>35.9</v>
@@ -6366,10 +5790,10 @@
         <v>94.8</v>
       </c>
       <c r="V53">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W53">
-        <v>69.099999999999994</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="X53">
         <v>28.9</v>
@@ -6378,13 +5802,13 @@
         <v>1.9</v>
       </c>
       <c r="Z53">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="AA53">
         <v>3</v>
       </c>
       <c r="AB53">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="AC53">
         <v>3.3</v>
@@ -6396,18 +5820,22 @@
         <v>0.3</v>
       </c>
       <c r="AF53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>86</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Nicaragua</t>
+        </is>
       </c>
       <c r="B54">
         <v>2001</v>
       </c>
-      <c r="C54" t="s">
-        <v>33</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D54">
         <v>70.7</v>
@@ -6467,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>76.099999999999994</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="X54">
         <v>21.2</v>
@@ -6494,21 +5922,25 @@
         <v>0</v>
       </c>
       <c r="AF54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>87</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Niger</t>
+        </is>
       </c>
       <c r="B55">
         <v>2012</v>
       </c>
-      <c r="C55" t="s">
-        <v>33</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D55">
-        <v>67.099999999999994</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E55">
         <v>2.7</v>
@@ -6523,7 +5955,7 @@
         <v>14.8</v>
       </c>
       <c r="I55">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="J55">
         <v>0.1</v>
@@ -6571,7 +6003,7 @@
         <v>54.4</v>
       </c>
       <c r="Y55">
-        <v>33.200000000000003</v>
+        <v>33.2</v>
       </c>
       <c r="Z55">
         <v>8.6</v>
@@ -6595,18 +6027,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>88</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
       </c>
       <c r="B56">
         <v>2018</v>
       </c>
-      <c r="C56" t="s">
-        <v>33</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D56">
-        <v>75.400000000000006</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E56">
         <v>1.7</v>
@@ -6618,7 +6054,7 @@
         <v>7.5</v>
       </c>
       <c r="H56">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="I56">
         <v>11.4</v>
@@ -6681,7 +6117,7 @@
         <v>27.5</v>
       </c>
       <c r="AC56">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD56">
         <v>0.6</v>
@@ -6693,21 +6129,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>89</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
       </c>
       <c r="B57">
         <v>2018</v>
       </c>
-      <c r="C57" t="s">
-        <v>33</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D57">
         <v>96</v>
       </c>
       <c r="E57">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="F57">
         <v>1.2</v>
@@ -6752,10 +6192,10 @@
         <v>0.1</v>
       </c>
       <c r="T57">
-        <v>73.099999999999994</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="U57">
-        <v>91.6</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="V57">
         <v>3.7</v>
@@ -6767,7 +6207,7 @@
         <v>20.5</v>
       </c>
       <c r="Y57">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="Z57">
         <v>20.3</v>
@@ -6779,7 +6219,7 @@
         <v>54.1</v>
       </c>
       <c r="AC57">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD57">
         <v>0.1</v>
@@ -6788,18 +6228,22 @@
         <v>0.3</v>
       </c>
       <c r="AF57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>90</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Papua New Guinea</t>
+        </is>
       </c>
       <c r="B58">
         <v>2018</v>
       </c>
-      <c r="C58" t="s">
-        <v>33</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D58">
         <v>45.5</v>
@@ -6856,7 +6300,7 @@
         <v>42.7</v>
       </c>
       <c r="V58">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="W58">
         <v>35</v>
@@ -6877,27 +6321,31 @@
         <v>0.6</v>
       </c>
       <c r="AC58">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AD58">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AE58">
         <v>0.5</v>
       </c>
       <c r="AF58">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>91</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
       </c>
       <c r="B59">
         <v>1990</v>
       </c>
-      <c r="C59" t="s">
-        <v>33</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D59">
         <v>0</v>
@@ -6984,21 +6432,25 @@
         <v>0</v>
       </c>
       <c r="AF59">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>92</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
       </c>
       <c r="B60">
         <v>2012</v>
       </c>
-      <c r="C60" t="s">
-        <v>33</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D60">
-        <v>85.9</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E60">
         <v>71.7</v>
@@ -7043,10 +6495,10 @@
         <v>2.9</v>
       </c>
       <c r="S60">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="T60">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="U60">
         <v>85.2</v>
@@ -7055,16 +6507,16 @@
         <v>0.5</v>
       </c>
       <c r="W60">
-        <v>78.599999999999994</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="X60">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="Y60">
         <v>1.7</v>
       </c>
       <c r="Z60">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="AA60">
         <v>1</v>
@@ -7085,21 +6537,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>93</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
       </c>
       <c r="B61">
         <v>2017</v>
       </c>
-      <c r="C61" t="s">
-        <v>33</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D61">
         <v>96.5</v>
       </c>
       <c r="E61">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="F61">
         <v>3.3</v>
@@ -7114,7 +6570,7 @@
         <v>3.5</v>
       </c>
       <c r="J61">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="K61">
         <v>0.4</v>
@@ -7144,13 +6600,13 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>80.599999999999994</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="U61">
         <v>95.2</v>
       </c>
       <c r="V61">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W61">
         <v>81.5</v>
@@ -7162,7 +6618,7 @@
         <v>1.6</v>
       </c>
       <c r="Z61">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="AA61">
         <v>1.9</v>
@@ -7180,18 +6636,22 @@
         <v>0.2</v>
       </c>
       <c r="AF61">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>94</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
       </c>
       <c r="B62">
         <v>2017</v>
       </c>
-      <c r="C62" t="s">
-        <v>43</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D62">
         <v>79.2</v>
@@ -7209,13 +6669,13 @@
         <v>1.2</v>
       </c>
       <c r="I62">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J62">
-        <v>32.799999999999997</v>
+        <v>32.8</v>
       </c>
       <c r="K62">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L62">
         <v>0.1</v>
@@ -7224,7 +6684,7 @@
         <v>0.4</v>
       </c>
       <c r="N62">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="O62">
         <v>20.7</v>
@@ -7248,7 +6708,7 @@
         <v>60.5</v>
       </c>
       <c r="V62">
-        <v>18.399999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="W62">
         <v>14.1</v>
@@ -7278,18 +6738,22 @@
         <v>0.3</v>
       </c>
       <c r="AF62">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>95</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sao Tome and Principe</t>
+        </is>
       </c>
       <c r="B63">
         <v>2009</v>
       </c>
-      <c r="C63" t="s">
-        <v>33</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D63">
         <v>94.2</v>
@@ -7376,21 +6840,25 @@
         <v>0</v>
       </c>
       <c r="AF63">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>96</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
       </c>
       <c r="B64">
         <v>2018</v>
       </c>
-      <c r="C64" t="s">
-        <v>33</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D64">
-        <v>85.6</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="E64">
         <v>22.1</v>
@@ -7438,7 +6906,7 @@
         <v>0.3</v>
       </c>
       <c r="T64">
-        <v>70.900000000000006</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="U64">
         <v>82.2</v>
@@ -7474,18 +6942,22 @@
         <v>0.3</v>
       </c>
       <c r="AF64">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>97</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Sierra Leone</t>
+        </is>
       </c>
       <c r="B65">
         <v>2016</v>
       </c>
-      <c r="C65" t="s">
-        <v>43</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D65">
         <v>70.5</v>
@@ -7572,18 +7044,22 @@
         <v>0.3</v>
       </c>
       <c r="AF65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>98</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
       </c>
       <c r="B66">
         <v>2016</v>
       </c>
-      <c r="C66" t="s">
-        <v>33</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D66">
         <v>95.3</v>
@@ -7628,7 +7104,7 @@
         <v>0.9</v>
       </c>
       <c r="R66">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="S66">
         <v>0.3</v>
@@ -7646,7 +7122,7 @@
         <v>78.5</v>
       </c>
       <c r="X66">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="Y66">
         <v>4.5</v>
@@ -7655,7 +7131,7 @@
         <v>7.8</v>
       </c>
       <c r="AA66">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB66">
         <v>2.4</v>
@@ -7673,15 +7149,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>99</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Tajikistan</t>
+        </is>
       </c>
       <c r="B67">
         <v>2017</v>
       </c>
-      <c r="C67" t="s">
-        <v>33</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D67">
         <v>85.8</v>
@@ -7696,7 +7176,7 @@
         <v>13.8</v>
       </c>
       <c r="H67">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I67">
         <v>2.1</v>
@@ -7747,10 +7227,10 @@
         <v>21.6</v>
       </c>
       <c r="Y67">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="Z67">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="AA67">
         <v>27.6</v>
@@ -7768,18 +7248,22 @@
         <v>0.2</v>
       </c>
       <c r="AF67">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>100</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Tanzania</t>
+        </is>
       </c>
       <c r="B68">
         <v>2017</v>
       </c>
-      <c r="C68" t="s">
-        <v>43</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D68">
         <v>65.5</v>
@@ -7800,7 +7284,7 @@
         <v>8.9</v>
       </c>
       <c r="J68">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K68">
         <v>2.4</v>
@@ -7812,7 +7296,7 @@
         <v>0.6</v>
       </c>
       <c r="N68">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="O68">
         <v>34.5</v>
@@ -7836,19 +7320,19 @@
         <v>57</v>
       </c>
       <c r="V68">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W68">
         <v>40.9</v>
       </c>
       <c r="X68">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="Y68">
         <v>22</v>
       </c>
       <c r="Z68">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="AA68">
         <v>3.3</v>
@@ -7866,27 +7350,31 @@
         <v>0.3</v>
       </c>
       <c r="AF68">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>101</v>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Timor-Leste</t>
+        </is>
       </c>
       <c r="B69">
         <v>2016</v>
       </c>
-      <c r="C69" t="s">
-        <v>33</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D69">
-        <v>80.400000000000006</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="E69">
         <v>22.8</v>
       </c>
       <c r="F69">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G69">
         <v>23.6</v>
@@ -7913,7 +7401,7 @@
         <v>5.3</v>
       </c>
       <c r="O69">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="P69">
         <v>3.4</v>
@@ -7937,7 +7425,7 @@
         <v>3.2</v>
       </c>
       <c r="W69">
-        <v>65.900000000000006</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="X69">
         <v>23.9</v>
@@ -7955,7 +7443,7 @@
         <v>31.8</v>
       </c>
       <c r="AC69">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AD69">
         <v>0.6</v>
@@ -7964,27 +7452,31 @@
         <v>0.2</v>
       </c>
       <c r="AF69">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>102</v>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
       </c>
       <c r="B70">
         <v>2017</v>
       </c>
-      <c r="C70" t="s">
-        <v>43</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D70">
-        <v>72.099999999999994</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E70">
         <v>1.9</v>
       </c>
       <c r="F70">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="G70">
         <v>16</v>
@@ -8029,7 +7521,7 @@
         <v>22.8</v>
       </c>
       <c r="U70">
-        <v>68.900000000000006</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="V70">
         <v>2.9</v>
@@ -8041,16 +7533,16 @@
         <v>62.5</v>
       </c>
       <c r="Y70">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Z70">
         <v>25.4</v>
       </c>
       <c r="AA70">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB70">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="AC70">
         <v>3.9</v>
@@ -8065,15 +7557,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>103</v>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
       </c>
       <c r="B71">
         <v>2013</v>
       </c>
-      <c r="C71" t="s">
-        <v>33</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D71">
         <v>99.2</v>
@@ -8088,7 +7584,7 @@
         <v>1.7</v>
       </c>
       <c r="H71">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="I71">
         <v>1.3</v>
@@ -8106,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="O71">
         <v>0.8</v>
@@ -8163,18 +7659,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>104</v>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Turkmenistan</t>
+        </is>
       </c>
       <c r="B72">
         <v>2000</v>
       </c>
-      <c r="C72" t="s">
-        <v>33</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D72">
-        <v>66.099999999999994</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E72">
         <v>25.7</v>
@@ -8231,13 +7731,13 @@
         <v>0.8</v>
       </c>
       <c r="W72">
-        <v>81.400000000000006</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="X72">
         <v>14.9</v>
       </c>
       <c r="Y72">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Z72">
         <v>13.1</v>
@@ -8258,18 +7758,22 @@
         <v>0</v>
       </c>
       <c r="AF72">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>105</v>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
       </c>
       <c r="B73">
         <v>2019</v>
       </c>
-      <c r="C73" t="s">
-        <v>43</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D73">
         <v>76.2</v>
@@ -8293,7 +7797,7 @@
         <v>5.2</v>
       </c>
       <c r="K73">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L73">
         <v>0.3</v>
@@ -8320,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="T73">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="U73">
         <v>54.3</v>
@@ -8359,15 +7863,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>106</v>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
       </c>
       <c r="B74">
         <v>2007</v>
       </c>
-      <c r="C74" t="s">
-        <v>33</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D74">
         <v>98.8</v>
@@ -8400,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="O74">
         <v>1.2</v>
@@ -8454,21 +7962,25 @@
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>107</v>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Uzbekistan</t>
+        </is>
       </c>
       <c r="B75">
         <v>1996</v>
       </c>
-      <c r="C75" t="s">
-        <v>33</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D75">
-        <v>80.599999999999994</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="E75">
         <v>59.7</v>
@@ -8492,7 +8004,7 @@
         <v>0.2</v>
       </c>
       <c r="L75">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -8501,7 +8013,7 @@
         <v>0.3</v>
       </c>
       <c r="O75">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -8531,7 +8043,7 @@
         <v>24.5</v>
       </c>
       <c r="Y75">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="Z75">
         <v>20</v>
@@ -8540,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="AB75">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AC75">
         <v>21.2</v>
@@ -8555,15 +8067,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>108</v>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
       </c>
       <c r="B76">
         <v>2005</v>
       </c>
-      <c r="C76" t="s">
-        <v>109</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>AIS</t>
+        </is>
       </c>
       <c r="D76">
         <v>34.4</v>
@@ -8572,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="G76">
         <v>1.4</v>
@@ -8599,7 +8115,7 @@
         <v>0.1</v>
       </c>
       <c r="O76">
-        <v>65.599999999999994</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -8632,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="Z76">
-        <v>77.400000000000006</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AA76">
         <v>4.2</v>
@@ -8650,18 +8166,22 @@
         <v>0</v>
       </c>
       <c r="AF76">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>110</v>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Yemen</t>
+        </is>
       </c>
       <c r="B77">
         <v>2013</v>
       </c>
-      <c r="C77" t="s">
-        <v>33</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D77">
         <v>74.2</v>
@@ -8682,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K77">
         <v>3.4</v>
@@ -8712,7 +8232,7 @@
         <v>0.8</v>
       </c>
       <c r="T77">
-        <v>67.099999999999994</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="U77">
         <v>69.2</v>
@@ -8727,7 +8247,7 @@
         <v>3.2</v>
       </c>
       <c r="Y77">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z77">
         <v>10.5</v>
@@ -8748,18 +8268,22 @@
         <v>0.2</v>
       </c>
       <c r="AF77">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>111</v>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
       </c>
       <c r="B78">
         <v>2018</v>
       </c>
-      <c r="C78" t="s">
-        <v>33</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D78">
         <v>72.3</v>
@@ -8771,7 +8295,7 @@
         <v>11.8</v>
       </c>
       <c r="G78">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H78">
         <v>23.9</v>
@@ -8828,7 +8352,7 @@
         <v>10.1</v>
       </c>
       <c r="Z78">
-        <v>37.799999999999997</v>
+        <v>37.8</v>
       </c>
       <c r="AA78">
         <v>4.7</v>
@@ -8849,24 +8373,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>112</v>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Zimbabwe</t>
+        </is>
       </c>
       <c r="B79">
         <v>2015</v>
       </c>
-      <c r="C79" t="s">
-        <v>33</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D79">
-        <v>78.400000000000006</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E79">
         <v>14.1</v>
       </c>
       <c r="F79">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G79">
         <v>5.5</v>
@@ -8908,7 +8436,7 @@
         <v>0.1</v>
       </c>
       <c r="T79">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="U79">
         <v>67.8</v>

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AE79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,7 +490,7 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>acar</t>
+          <t>cart</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
@@ -511,11 +511,6 @@
       <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>wigc</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>clusters</t>
         </is>
       </c>
     </row>
@@ -611,14 +606,8 @@
       <c r="AC2">
         <v>11.8</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
       <c r="AE2">
         <v>0.1</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -656,9 +645,6 @@
       <c r="J3">
         <v>2.5</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
         <v>14.1</v>
       </c>
@@ -677,9 +663,6 @@
       <c r="Q3">
         <v>0.8</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
         <v>0.1</v>
       </c>
@@ -719,9 +702,6 @@
       <c r="AE3">
         <v>0.1</v>
       </c>
-      <c r="AF3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -821,9 +801,6 @@
       <c r="AE4">
         <v>0.3</v>
       </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -860,15 +837,9 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>1.5</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -881,9 +852,6 @@
       <c r="Q5">
         <v>0.1</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
         <v>0</v>
       </c>
@@ -923,9 +891,6 @@
       <c r="AE5">
         <v>0.1</v>
       </c>
-      <c r="AF5">
-        <v>2</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1022,12 +987,6 @@
       <c r="AD6">
         <v>0.1</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>2</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1112,24 +1071,15 @@
       <c r="Z7">
         <v>25.1</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
       <c r="AB7">
         <v>6.4</v>
       </c>
       <c r="AC7">
         <v>0.8</v>
       </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
       <c r="AE7">
         <v>0.3</v>
       </c>
-      <c r="AF7">
-        <v>2</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1229,9 +1179,6 @@
       <c r="AE8">
         <v>0.3</v>
       </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1259,36 +1206,18 @@
       <c r="G9">
         <v>5.3</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>1.7</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
         <v>1.7</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>12.3</v>
       </c>
       <c r="P9">
         <v>6.2</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
       <c r="R9">
         <v>5.2</v>
       </c>
@@ -1316,24 +1245,12 @@
       <c r="Z9">
         <v>36.6</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
       <c r="AB9">
         <v>6.5</v>
       </c>
       <c r="AC9">
         <v>15.6</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>2</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1358,84 +1275,18 @@
       <c r="F10">
         <v>3.5</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
         <v>3.3</v>
       </c>
       <c r="O10">
         <v>24</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
         <v>2.7</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
       <c r="AC10">
         <v>30.2</v>
       </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>3</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1472,12 +1323,6 @@
       <c r="J11">
         <v>0.2</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
       <c r="M11">
         <v>0.2</v>
       </c>
@@ -1535,9 +1380,6 @@
       <c r="AE11">
         <v>0.2</v>
       </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1637,9 +1479,6 @@
       <c r="AE12">
         <v>0.3</v>
       </c>
-      <c r="AF12">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1703,24 +1542,6 @@
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
       <c r="Z13">
         <v>64.2</v>
       </c>
@@ -1739,9 +1560,6 @@
       <c r="AE13">
         <v>0.2</v>
       </c>
-      <c r="AF13">
-        <v>3</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1841,9 +1659,6 @@
       <c r="AE14">
         <v>0.4</v>
       </c>
-      <c r="AF14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1862,45 +1677,15 @@
       <c r="D15">
         <v>16.3</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
         <v>1.7</v>
       </c>
       <c r="G15">
         <v>14.6</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
         <v>83.59999999999999</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
       <c r="R15">
         <v>9.4</v>
       </c>
@@ -1928,24 +1713,12 @@
       <c r="Z15">
         <v>11.5</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
       <c r="AB15">
         <v>4.5</v>
       </c>
       <c r="AC15">
         <v>1.4</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2045,9 +1818,6 @@
       <c r="AE16">
         <v>0.1</v>
       </c>
-      <c r="AF16">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2069,21 +1839,12 @@
       <c r="E17">
         <v>80.90000000000001</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
         <v>0.1</v>
       </c>
       <c r="H17">
         <v>1.6</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
         <v>2</v>
       </c>
@@ -2102,9 +1863,6 @@
       <c r="P17">
         <v>1.4</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
       <c r="R17">
         <v>5.2</v>
       </c>
@@ -2132,23 +1890,14 @@
       <c r="Z17">
         <v>33.5</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
       <c r="AB17">
         <v>26.9</v>
       </c>
       <c r="AC17">
         <v>17.1</v>
       </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
       <c r="AE17">
         <v>0.1</v>
-      </c>
-      <c r="AF17">
-        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2249,9 +1998,6 @@
       <c r="AE18">
         <v>0.2</v>
       </c>
-      <c r="AF18">
-        <v>2</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2291,12 +2037,6 @@
       <c r="K19">
         <v>2.1</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
         <v>2.5</v>
       </c>
@@ -2336,9 +2076,6 @@
       <c r="Z19">
         <v>5.3</v>
       </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
       <c r="AB19">
         <v>4.8</v>
       </c>
@@ -2351,9 +2088,6 @@
       <c r="AE19">
         <v>0.3</v>
       </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2453,9 +2187,6 @@
       <c r="AE20">
         <v>0.4</v>
       </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2492,9 +2223,6 @@
       <c r="J21">
         <v>0.6</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>0</v>
       </c>
@@ -2555,9 +2283,6 @@
       <c r="AE21">
         <v>0.3</v>
       </c>
-      <c r="AF21">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2582,18 +2307,9 @@
       <c r="F22">
         <v>6.6</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
         <v>2.9</v>
       </c>
@@ -2609,12 +2325,6 @@
       <c r="O22">
         <v>1.3</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
       <c r="R22">
         <v>0.7</v>
       </c>
@@ -2642,23 +2352,14 @@
       <c r="Z22">
         <v>2.4</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
       <c r="AB22">
         <v>28.7</v>
       </c>
       <c r="AC22">
         <v>18.5</v>
       </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
       <c r="AE22">
         <v>0.2</v>
-      </c>
-      <c r="AF22">
-        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2696,9 +2397,6 @@
       <c r="J23">
         <v>0.1</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
         <v>1.7</v>
       </c>
@@ -2714,9 +2412,6 @@
       <c r="P23">
         <v>0</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
       <c r="R23">
         <v>0</v>
       </c>
@@ -2753,14 +2448,8 @@
       <c r="AC23">
         <v>8.699999999999999</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
       <c r="AE23">
         <v>0.1</v>
-      </c>
-      <c r="AF23">
-        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2783,42 +2472,21 @@
       <c r="E24">
         <v>16.3</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
       <c r="G24">
         <v>20.8</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
       <c r="I24">
         <v>18.1</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
       <c r="L24">
         <v>12.2</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
       <c r="O24">
         <v>32.5</v>
       </c>
       <c r="P24">
         <v>16.4</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
       <c r="R24">
         <v>5.4</v>
       </c>
@@ -2846,24 +2514,12 @@
       <c r="Z24">
         <v>10.5</v>
       </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
       <c r="AB24">
         <v>0.2</v>
       </c>
       <c r="AC24">
         <v>3.3</v>
       </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2906,9 +2562,6 @@
       <c r="L25">
         <v>1.6</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
         <v>0.1</v>
       </c>
@@ -2957,15 +2610,6 @@
       <c r="AC25">
         <v>18.5</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3065,9 +2709,6 @@
       <c r="AE26">
         <v>0.2</v>
       </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3095,9 +2736,6 @@
       <c r="G27">
         <v>20.2</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
       <c r="I27">
         <v>3.1</v>
       </c>
@@ -3110,9 +2748,6 @@
       <c r="L27">
         <v>0.1</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
       <c r="N27">
         <v>1.1</v>
       </c>
@@ -3122,9 +2757,6 @@
       <c r="P27">
         <v>1.5</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
       <c r="R27">
         <v>4.7</v>
       </c>
@@ -3152,9 +2784,6 @@
       <c r="Z27">
         <v>3.8</v>
       </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
       <c r="AB27">
         <v>1.3</v>
       </c>
@@ -3167,9 +2796,6 @@
       <c r="AE27">
         <v>0.2</v>
       </c>
-      <c r="AF27">
-        <v>2</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3203,18 +2829,6 @@
       <c r="I28">
         <v>7.4</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
         <v>0.4</v>
       </c>
@@ -3224,9 +2838,6 @@
       <c r="P28">
         <v>8</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
       <c r="R28">
         <v>0.1</v>
       </c>
@@ -3269,9 +2880,6 @@
       <c r="AE28">
         <v>0.2</v>
       </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3332,9 +2940,6 @@
       <c r="R29">
         <v>4.4</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29">
         <v>46.1</v>
       </c>
@@ -3371,9 +2976,6 @@
       <c r="AE29">
         <v>0.2</v>
       </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3401,12 +3003,6 @@
       <c r="G30">
         <v>1.9</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
         <v>0.8</v>
       </c>
@@ -3416,18 +3012,12 @@
       <c r="L30">
         <v>0.1</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
       <c r="N30">
         <v>28.4</v>
       </c>
       <c r="O30">
         <v>13.5</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
       <c r="Q30">
         <v>1.9</v>
       </c>
@@ -3473,9 +3063,6 @@
       <c r="AE30">
         <v>0.3</v>
       </c>
-      <c r="AF30">
-        <v>2</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3536,9 +3123,6 @@
       <c r="R31">
         <v>5.9</v>
       </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
       <c r="T31">
         <v>29.1</v>
       </c>
@@ -3575,9 +3159,6 @@
       <c r="AE31">
         <v>0.4</v>
       </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3674,12 +3255,6 @@
       <c r="AD32">
         <v>3.7</v>
       </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>2</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3707,9 +3282,6 @@
       <c r="G33">
         <v>18.8</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
       <c r="I33">
         <v>6.8</v>
       </c>
@@ -3779,9 +3351,6 @@
       <c r="AE33">
         <v>0.4</v>
       </c>
-      <c r="AF33">
-        <v>1</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3812,33 +3381,18 @@
       <c r="H34">
         <v>1.7</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
       <c r="K34">
         <v>0.2</v>
       </c>
       <c r="L34">
         <v>0.3</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
       <c r="N34">
         <v>38.6</v>
       </c>
       <c r="O34">
         <v>9.800000000000001</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
       <c r="R34">
         <v>7.9</v>
       </c>
@@ -3881,9 +3435,6 @@
       <c r="AE34">
         <v>0.3</v>
       </c>
-      <c r="AF34">
-        <v>2</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3977,14 +3528,8 @@
       <c r="AC35">
         <v>6</v>
       </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
       <c r="AE35">
         <v>0.2</v>
-      </c>
-      <c r="AF35">
-        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -4085,9 +3630,6 @@
       <c r="AE36">
         <v>0.1</v>
       </c>
-      <c r="AF36">
-        <v>2</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4112,44 +3654,20 @@
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
       <c r="K37">
         <v>2.8</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
       <c r="N37">
         <v>37.8</v>
       </c>
       <c r="O37">
         <v>0.2</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
       <c r="Q37">
         <v>0.2</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
       </c>
       <c r="T37">
         <v>99.2</v>
@@ -4169,27 +3687,12 @@
       <c r="Y37">
         <v>0.1</v>
       </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
       <c r="AC37">
         <v>57.8</v>
       </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
       <c r="AE37">
         <v>0</v>
       </c>
-      <c r="AF37">
-        <v>2</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4217,24 +3720,9 @@
       <c r="G38">
         <v>7.6</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
       <c r="L38">
         <v>3</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
       <c r="N38">
         <v>0.1</v>
       </c>
@@ -4244,9 +3732,6 @@
       <c r="P38">
         <v>28.9</v>
       </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
       <c r="R38">
         <v>1.3</v>
       </c>
@@ -4274,24 +3759,12 @@
       <c r="Z38">
         <v>14</v>
       </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
       <c r="AB38">
         <v>9.1</v>
       </c>
       <c r="AC38">
         <v>26.7</v>
       </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>2</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4391,9 +3864,6 @@
       <c r="AE39">
         <v>0.3</v>
       </c>
-      <c r="AF39">
-        <v>1</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4430,9 +3900,6 @@
       <c r="J40">
         <v>2</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
       <c r="L40">
         <v>0.9</v>
       </c>
@@ -4493,9 +3960,6 @@
       <c r="AE40">
         <v>0.2</v>
       </c>
-      <c r="AF40">
-        <v>2</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4538,9 +4002,6 @@
       <c r="L41">
         <v>0.4</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
       <c r="N41">
         <v>0</v>
       </c>
@@ -4556,9 +4017,6 @@
       <c r="R41">
         <v>0.7</v>
       </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
       <c r="T41">
         <v>26.9</v>
       </c>
@@ -4589,15 +4047,9 @@
       <c r="AC41">
         <v>10.2</v>
       </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
       <c r="AE41">
         <v>0.4</v>
       </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4682,23 +4134,14 @@
       <c r="Z42">
         <v>3</v>
       </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
       <c r="AB42">
         <v>6.8</v>
       </c>
       <c r="AC42">
         <v>5</v>
       </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
       <c r="AE42">
         <v>0.2</v>
-      </c>
-      <c r="AF42">
-        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -4745,9 +4188,6 @@
       <c r="M43">
         <v>0.3</v>
       </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
       <c r="O43">
         <v>55.8</v>
       </c>
@@ -4799,9 +4239,6 @@
       <c r="AE43">
         <v>0.2</v>
       </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4838,18 +4275,12 @@
       <c r="J44">
         <v>0.2</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44">
         <v>0.1</v>
       </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
       <c r="O44">
         <v>13.7</v>
       </c>
@@ -4901,9 +4332,6 @@
       <c r="AE44">
         <v>0.5</v>
       </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4931,24 +4359,12 @@
       <c r="G45">
         <v>0.1</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
       <c r="I45">
         <v>0.4</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
       <c r="K45">
         <v>46.7</v>
       </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
       <c r="N45">
         <v>36.7</v>
       </c>
@@ -4958,12 +4374,6 @@
       <c r="P45">
         <v>0</v>
       </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
       <c r="S45">
         <v>0.3</v>
       </c>
@@ -4988,9 +4398,6 @@
       <c r="Z45">
         <v>41.3</v>
       </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
       <c r="AB45">
         <v>59.9</v>
       </c>
@@ -5003,9 +4410,6 @@
       <c r="AE45">
         <v>0</v>
       </c>
-      <c r="AF45">
-        <v>2</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5105,9 +4509,6 @@
       <c r="AE46">
         <v>0.2</v>
       </c>
-      <c r="AF46">
-        <v>1</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5129,33 +4530,15 @@
       <c r="E47">
         <v>17.9</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
       <c r="G47">
         <v>27.6</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
       <c r="I47">
         <v>16.8</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
       <c r="L47">
         <v>4.1</v>
       </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
       <c r="O47">
         <v>33.1</v>
       </c>
@@ -5189,27 +4572,9 @@
       <c r="Y47">
         <v>17.4</v>
       </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
       <c r="AC47">
         <v>7.5</v>
       </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5267,51 +4632,18 @@
       <c r="Q48">
         <v>0.5</v>
       </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
       <c r="S48">
         <v>0</v>
       </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
       <c r="Z48">
         <v>27.2</v>
       </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
       <c r="AB48">
         <v>5.8</v>
       </c>
       <c r="AC48">
         <v>22.5</v>
       </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>3</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5339,24 +4671,15 @@
       <c r="G49">
         <v>10.9</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
       <c r="I49">
         <v>5.6</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
       <c r="K49">
         <v>1.5</v>
       </c>
       <c r="L49">
         <v>0.9</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
       <c r="N49">
         <v>0.5</v>
       </c>
@@ -5366,54 +4689,21 @@
       <c r="P49">
         <v>10.7</v>
       </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
       <c r="R49">
         <v>2.2</v>
       </c>
       <c r="S49">
         <v>0.2</v>
       </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
       <c r="Z49">
         <v>25.4</v>
       </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
       <c r="AB49">
         <v>11.3</v>
       </c>
       <c r="AC49">
         <v>14.1</v>
       </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>3</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5513,9 +4803,6 @@
       <c r="AE50">
         <v>0.4</v>
       </c>
-      <c r="AF50">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5615,9 +4902,6 @@
       <c r="AE51">
         <v>0.3</v>
       </c>
-      <c r="AF51">
-        <v>1</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5717,9 +5001,6 @@
       <c r="AE52">
         <v>0.4</v>
       </c>
-      <c r="AF52">
-        <v>2</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5813,15 +5094,9 @@
       <c r="AC53">
         <v>3.3</v>
       </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
       <c r="AE53">
         <v>0.3</v>
       </c>
-      <c r="AF53">
-        <v>2</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5849,36 +5124,12 @@
       <c r="G54">
         <v>3.2</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
       <c r="K54">
         <v>0.2</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
       </c>
       <c r="O54">
         <v>29.3</v>
       </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
       <c r="R54">
         <v>3.8</v>
       </c>
@@ -5906,24 +5157,12 @@
       <c r="Z54">
         <v>25.7</v>
       </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
       <c r="AB54">
         <v>2.1</v>
       </c>
       <c r="AC54">
         <v>10</v>
       </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>2</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6017,15 +5256,9 @@
       <c r="AC55">
         <v>2</v>
       </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
       <c r="AE55">
         <v>0.5</v>
       </c>
-      <c r="AF55">
-        <v>1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6125,9 +5358,6 @@
       <c r="AE56">
         <v>0.3</v>
       </c>
-      <c r="AF56">
-        <v>1</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6227,9 +5457,6 @@
       <c r="AE57">
         <v>0.3</v>
       </c>
-      <c r="AF57">
-        <v>2</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6329,9 +5556,6 @@
       <c r="AE58">
         <v>0.5</v>
       </c>
-      <c r="AF58">
-        <v>1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6347,93 +5571,6 @@
           <t>DHS</t>
         </is>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <v>0</v>
-      </c>
-      <c r="AD59">
-        <v>0</v>
-      </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <v>3</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6461,36 +5598,18 @@
       <c r="G60">
         <v>2.4</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
       <c r="K60">
         <v>0.1</v>
       </c>
       <c r="L60">
         <v>1.5</v>
       </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
       <c r="N60">
         <v>5.4</v>
       </c>
       <c r="O60">
         <v>14.1</v>
       </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
       <c r="R60">
         <v>2.9</v>
       </c>
@@ -6530,12 +5649,6 @@
       <c r="AD60">
         <v>0.3</v>
       </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
-      <c r="AF60">
-        <v>2</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6635,9 +5748,6 @@
       <c r="AE61">
         <v>0.2</v>
       </c>
-      <c r="AF61">
-        <v>2</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6737,9 +5847,6 @@
       <c r="AE62">
         <v>0.3</v>
       </c>
-      <c r="AF62">
-        <v>1</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6779,12 +5886,6 @@
       <c r="K63">
         <v>0</v>
       </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
       <c r="N63">
         <v>0.1</v>
       </c>
@@ -6794,15 +5895,9 @@
       <c r="P63">
         <v>0.4</v>
       </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
       <c r="R63">
         <v>5.3</v>
       </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
       <c r="T63">
         <v>25.4</v>
       </c>
@@ -6824,9 +5919,6 @@
       <c r="Z63">
         <v>13.6</v>
       </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
       <c r="AB63">
         <v>7.3</v>
       </c>
@@ -6836,12 +5928,6 @@
       <c r="AD63">
         <v>0.4</v>
       </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <v>1</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6941,9 +6027,6 @@
       <c r="AE64">
         <v>0.3</v>
       </c>
-      <c r="AF64">
-        <v>2</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7004,9 +6087,6 @@
       <c r="R65">
         <v>15.7</v>
       </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
       <c r="T65">
         <v>22</v>
       </c>
@@ -7043,9 +6123,6 @@
       <c r="AE65">
         <v>0.3</v>
       </c>
-      <c r="AF65">
-        <v>1</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7145,9 +6222,6 @@
       <c r="AE66">
         <v>0.2</v>
       </c>
-      <c r="AF66">
-        <v>2</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7208,9 +6282,6 @@
       <c r="R67">
         <v>12.1</v>
       </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
       <c r="T67">
         <v>67.7</v>
       </c>
@@ -7247,9 +6318,6 @@
       <c r="AE67">
         <v>0.2</v>
       </c>
-      <c r="AF67">
-        <v>2</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7349,9 +6417,6 @@
       <c r="AE68">
         <v>0.3</v>
       </c>
-      <c r="AF68">
-        <v>1</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7412,9 +6477,6 @@
       <c r="R69">
         <v>3.7</v>
       </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
       <c r="T69">
         <v>60.4</v>
       </c>
@@ -7451,9 +6513,6 @@
       <c r="AE69">
         <v>0.2</v>
       </c>
-      <c r="AF69">
-        <v>2</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7514,9 +6573,6 @@
       <c r="R70">
         <v>13.8</v>
       </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
       <c r="T70">
         <v>22.8</v>
       </c>
@@ -7553,9 +6609,6 @@
       <c r="AE70">
         <v>0.5</v>
       </c>
-      <c r="AF70">
-        <v>1</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7592,9 +6645,6 @@
       <c r="J71">
         <v>7.6</v>
       </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
       <c r="L71">
         <v>0.1</v>
       </c>
@@ -7637,26 +6687,14 @@
       <c r="Y71">
         <v>1.4</v>
       </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
       <c r="AB71">
         <v>6.7</v>
       </c>
       <c r="AC71">
         <v>37.6</v>
       </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
       <c r="AE71">
         <v>0.2</v>
-      </c>
-      <c r="AF71">
-        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -7685,39 +6723,15 @@
       <c r="G72">
         <v>6.9</v>
       </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
       <c r="L72">
         <v>4</v>
       </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
         <v>31.9</v>
       </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
       <c r="S72">
         <v>0.5</v>
       </c>
@@ -7742,24 +6756,12 @@
       <c r="Z72">
         <v>13.1</v>
       </c>
-      <c r="AA72">
-        <v>0</v>
-      </c>
       <c r="AB72">
         <v>17.8</v>
       </c>
       <c r="AC72">
         <v>29</v>
       </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
-      <c r="AE72">
-        <v>0</v>
-      </c>
-      <c r="AF72">
-        <v>2</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7859,9 +6861,6 @@
       <c r="AE73">
         <v>0.3</v>
       </c>
-      <c r="AF73">
-        <v>1</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7904,9 +6903,6 @@
       <c r="L74">
         <v>0.6</v>
       </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
       <c r="N74">
         <v>4.1</v>
       </c>
@@ -7925,24 +6921,6 @@
       <c r="S74">
         <v>0.1</v>
       </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
       <c r="Z74">
         <v>40.4</v>
       </c>
@@ -7958,12 +6936,6 @@
       <c r="AD74">
         <v>1.3</v>
       </c>
-      <c r="AE74">
-        <v>0</v>
-      </c>
-      <c r="AF74">
-        <v>3</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7985,48 +6957,24 @@
       <c r="E75">
         <v>59.7</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
       <c r="G75">
         <v>18</v>
       </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
       <c r="K75">
         <v>0.2</v>
       </c>
       <c r="L75">
         <v>2.3</v>
       </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
       <c r="N75">
         <v>0.3</v>
       </c>
       <c r="O75">
         <v>19.4</v>
       </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
       <c r="R75">
         <v>3.4</v>
       </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
       <c r="T75">
         <v>60.3</v>
       </c>
@@ -8048,24 +6996,12 @@
       <c r="Z75">
         <v>20</v>
       </c>
-      <c r="AA75">
-        <v>0</v>
-      </c>
       <c r="AB75">
         <v>10.2</v>
       </c>
       <c r="AC75">
         <v>21.2</v>
       </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
-      <c r="AE75">
-        <v>0</v>
-      </c>
-      <c r="AF75">
-        <v>2</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8084,69 +7020,30 @@
       <c r="D76">
         <v>34.4</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
       <c r="F76">
         <v>20.4</v>
       </c>
       <c r="G76">
         <v>1.4</v>
       </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
       <c r="K76">
         <v>11.8</v>
       </c>
       <c r="L76">
         <v>0.6</v>
       </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
       <c r="N76">
         <v>0.1</v>
       </c>
       <c r="O76">
         <v>65.59999999999999</v>
       </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
       <c r="R76">
         <v>6.2</v>
       </c>
       <c r="S76">
         <v>0.1</v>
       </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
       <c r="Z76">
         <v>77.40000000000001</v>
       </c>
@@ -8162,12 +7059,6 @@
       <c r="AD76">
         <v>5.9</v>
       </c>
-      <c r="AE76">
-        <v>0</v>
-      </c>
-      <c r="AF76">
-        <v>3</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8186,21 +7077,9 @@
       <c r="D77">
         <v>74.2</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
       <c r="H77">
         <v>13.9</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77">
         <v>2.2</v>
       </c>
@@ -8219,12 +7098,6 @@
       <c r="O77">
         <v>25.7</v>
       </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
       <c r="R77">
         <v>2</v>
       </c>
@@ -8267,9 +7140,6 @@
       <c r="AE77">
         <v>0.2</v>
       </c>
-      <c r="AF77">
-        <v>2</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8312,9 +7182,6 @@
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
       <c r="N78">
         <v>0.3</v>
       </c>
@@ -8369,9 +7236,6 @@
       <c r="AE78">
         <v>0.4</v>
       </c>
-      <c r="AF78">
-        <v>1</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8470,9 +7334,6 @@
       </c>
       <c r="AE79">
         <v>0.4</v>
-      </c>
-      <c r="AF79">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE79"/>
+  <dimension ref="A1:AF79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,6 +513,11 @@
           <t>wigc</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>clusters</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,8 +611,14 @@
       <c r="AC2">
         <v>11.8</v>
       </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
       <c r="AE2">
         <v>0.1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -645,6 +656,9 @@
       <c r="J3">
         <v>2.5</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <v>14.1</v>
       </c>
@@ -663,6 +677,9 @@
       <c r="Q3">
         <v>0.8</v>
       </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
       <c r="S3">
         <v>0.1</v>
       </c>
@@ -701,6 +718,9 @@
       </c>
       <c r="AE3">
         <v>0.1</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -801,6 +821,9 @@
       <c r="AE4">
         <v>0.3</v>
       </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -837,9 +860,15 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
       <c r="L5">
         <v>1.5</v>
       </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -852,6 +881,9 @@
       <c r="Q5">
         <v>0.1</v>
       </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
       <c r="S5">
         <v>0</v>
       </c>
@@ -890,6 +922,9 @@
       </c>
       <c r="AE5">
         <v>0.1</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -987,6 +1022,12 @@
       <c r="AD6">
         <v>0.1</v>
       </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1071,14 +1112,23 @@
       <c r="Z7">
         <v>25.1</v>
       </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
       <c r="AB7">
         <v>6.4</v>
       </c>
       <c r="AC7">
         <v>0.8</v>
       </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
       <c r="AE7">
         <v>0.3</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1179,6 +1229,9 @@
       <c r="AE8">
         <v>0.3</v>
       </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1206,18 +1259,36 @@
       <c r="G9">
         <v>5.3</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="I9">
         <v>1.7</v>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
       <c r="L9">
         <v>1.7</v>
       </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
       <c r="O9">
         <v>12.3</v>
       </c>
       <c r="P9">
         <v>6.2</v>
       </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
       <c r="R9">
         <v>5.2</v>
       </c>
@@ -1245,11 +1316,23 @@
       <c r="Z9">
         <v>36.6</v>
       </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
       <c r="AB9">
         <v>6.5</v>
       </c>
       <c r="AC9">
         <v>15.6</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1275,17 +1358,83 @@
       <c r="F10">
         <v>3.5</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
       <c r="N10">
         <v>3.3</v>
       </c>
       <c r="O10">
         <v>24</v>
       </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
       <c r="S10">
         <v>2.7</v>
       </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
       <c r="AC10">
         <v>30.2</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1323,6 +1472,12 @@
       <c r="J11">
         <v>0.2</v>
       </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
       <c r="M11">
         <v>0.2</v>
       </c>
@@ -1379,6 +1534,9 @@
       </c>
       <c r="AE11">
         <v>0.2</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1479,6 +1637,9 @@
       <c r="AE12">
         <v>0.3</v>
       </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1542,6 +1703,24 @@
       <c r="S13">
         <v>0</v>
       </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
       <c r="Z13">
         <v>64.2</v>
       </c>
@@ -1559,6 +1738,9 @@
       </c>
       <c r="AE13">
         <v>0.2</v>
+      </c>
+      <c r="AF13">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1659,6 +1841,9 @@
       <c r="AE14">
         <v>0.4</v>
       </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1677,15 +1862,45 @@
       <c r="D15">
         <v>16.3</v>
       </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
       <c r="F15">
         <v>1.7</v>
       </c>
       <c r="G15">
         <v>14.6</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
       <c r="O15">
         <v>83.59999999999999</v>
       </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
       <c r="R15">
         <v>9.4</v>
       </c>
@@ -1713,11 +1928,23 @@
       <c r="Z15">
         <v>11.5</v>
       </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
       <c r="AB15">
         <v>4.5</v>
       </c>
       <c r="AC15">
         <v>1.4</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1818,6 +2045,9 @@
       <c r="AE16">
         <v>0.1</v>
       </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1839,12 +2069,21 @@
       <c r="E17">
         <v>80.90000000000001</v>
       </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
       <c r="G17">
         <v>0.1</v>
       </c>
       <c r="H17">
         <v>1.6</v>
       </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
       <c r="K17">
         <v>2</v>
       </c>
@@ -1863,6 +2102,9 @@
       <c r="P17">
         <v>1.4</v>
       </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
       <c r="R17">
         <v>5.2</v>
       </c>
@@ -1890,14 +2132,23 @@
       <c r="Z17">
         <v>33.5</v>
       </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
       <c r="AB17">
         <v>26.9</v>
       </c>
       <c r="AC17">
         <v>17.1</v>
       </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
       <c r="AE17">
         <v>0.1</v>
+      </c>
+      <c r="AF17">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1998,6 +2249,9 @@
       <c r="AE18">
         <v>0.2</v>
       </c>
+      <c r="AF18">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2037,6 +2291,12 @@
       <c r="K19">
         <v>2.1</v>
       </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
       <c r="N19">
         <v>2.5</v>
       </c>
@@ -2076,6 +2336,9 @@
       <c r="Z19">
         <v>5.3</v>
       </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
       <c r="AB19">
         <v>4.8</v>
       </c>
@@ -2087,6 +2350,9 @@
       </c>
       <c r="AE19">
         <v>0.3</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2187,6 +2453,9 @@
       <c r="AE20">
         <v>0.4</v>
       </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2223,6 +2492,9 @@
       <c r="J21">
         <v>0.6</v>
       </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
       <c r="L21">
         <v>0</v>
       </c>
@@ -2282,6 +2554,9 @@
       </c>
       <c r="AE21">
         <v>0.3</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2307,9 +2582,18 @@
       <c r="F22">
         <v>6.6</v>
       </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
       <c r="H22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
       <c r="K22">
         <v>2.9</v>
       </c>
@@ -2325,6 +2609,12 @@
       <c r="O22">
         <v>1.3</v>
       </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
       <c r="R22">
         <v>0.7</v>
       </c>
@@ -2352,14 +2642,23 @@
       <c r="Z22">
         <v>2.4</v>
       </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
       <c r="AB22">
         <v>28.7</v>
       </c>
       <c r="AC22">
         <v>18.5</v>
       </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
       <c r="AE22">
         <v>0.2</v>
+      </c>
+      <c r="AF22">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2397,6 +2696,9 @@
       <c r="J23">
         <v>0.1</v>
       </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
       <c r="L23">
         <v>1.7</v>
       </c>
@@ -2412,6 +2714,9 @@
       <c r="P23">
         <v>0</v>
       </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
       <c r="R23">
         <v>0</v>
       </c>
@@ -2448,8 +2753,14 @@
       <c r="AC23">
         <v>8.699999999999999</v>
       </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
       <c r="AE23">
         <v>0.1</v>
+      </c>
+      <c r="AF23">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2472,21 +2783,42 @@
       <c r="E24">
         <v>16.3</v>
       </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
       <c r="G24">
         <v>20.8</v>
       </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
       <c r="I24">
         <v>18.1</v>
       </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
       <c r="L24">
         <v>12.2</v>
       </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
       <c r="O24">
         <v>32.5</v>
       </c>
       <c r="P24">
         <v>16.4</v>
       </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
       <c r="R24">
         <v>5.4</v>
       </c>
@@ -2514,11 +2846,23 @@
       <c r="Z24">
         <v>10.5</v>
       </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
       <c r="AB24">
         <v>0.2</v>
       </c>
       <c r="AC24">
         <v>3.3</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2562,6 +2906,9 @@
       <c r="L25">
         <v>1.6</v>
       </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
       <c r="N25">
         <v>0.1</v>
       </c>
@@ -2609,6 +2956,15 @@
       </c>
       <c r="AC25">
         <v>18.5</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2709,6 +3065,9 @@
       <c r="AE26">
         <v>0.2</v>
       </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2736,6 +3095,9 @@
       <c r="G27">
         <v>20.2</v>
       </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
       <c r="I27">
         <v>3.1</v>
       </c>
@@ -2748,6 +3110,9 @@
       <c r="L27">
         <v>0.1</v>
       </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
       <c r="N27">
         <v>1.1</v>
       </c>
@@ -2757,6 +3122,9 @@
       <c r="P27">
         <v>1.5</v>
       </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
       <c r="R27">
         <v>4.7</v>
       </c>
@@ -2784,6 +3152,9 @@
       <c r="Z27">
         <v>3.8</v>
       </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
       <c r="AB27">
         <v>1.3</v>
       </c>
@@ -2795,6 +3166,9 @@
       </c>
       <c r="AE27">
         <v>0.2</v>
+      </c>
+      <c r="AF27">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2829,6 +3203,18 @@
       <c r="I28">
         <v>7.4</v>
       </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
       <c r="N28">
         <v>0.4</v>
       </c>
@@ -2838,6 +3224,9 @@
       <c r="P28">
         <v>8</v>
       </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
       <c r="R28">
         <v>0.1</v>
       </c>
@@ -2879,6 +3268,9 @@
       </c>
       <c r="AE28">
         <v>0.2</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2940,6 +3332,9 @@
       <c r="R29">
         <v>4.4</v>
       </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
       <c r="T29">
         <v>46.1</v>
       </c>
@@ -2975,6 +3370,9 @@
       </c>
       <c r="AE29">
         <v>0.2</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -3003,6 +3401,12 @@
       <c r="G30">
         <v>1.9</v>
       </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
       <c r="J30">
         <v>0.8</v>
       </c>
@@ -3012,12 +3416,18 @@
       <c r="L30">
         <v>0.1</v>
       </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
       <c r="N30">
         <v>28.4</v>
       </c>
       <c r="O30">
         <v>13.5</v>
       </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
       <c r="Q30">
         <v>1.9</v>
       </c>
@@ -3062,6 +3472,9 @@
       </c>
       <c r="AE30">
         <v>0.3</v>
+      </c>
+      <c r="AF30">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -3123,6 +3536,9 @@
       <c r="R31">
         <v>5.9</v>
       </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
       <c r="T31">
         <v>29.1</v>
       </c>
@@ -3158,6 +3574,9 @@
       </c>
       <c r="AE31">
         <v>0.4</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -3255,6 +3674,12 @@
       <c r="AD32">
         <v>3.7</v>
       </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3282,6 +3707,9 @@
       <c r="G33">
         <v>18.8</v>
       </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
       <c r="I33">
         <v>6.8</v>
       </c>
@@ -3350,6 +3778,9 @@
       </c>
       <c r="AE33">
         <v>0.4</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -3381,18 +3812,33 @@
       <c r="H34">
         <v>1.7</v>
       </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
       <c r="K34">
         <v>0.2</v>
       </c>
       <c r="L34">
         <v>0.3</v>
       </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
       <c r="N34">
         <v>38.6</v>
       </c>
       <c r="O34">
         <v>9.800000000000001</v>
       </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
       <c r="R34">
         <v>7.9</v>
       </c>
@@ -3434,6 +3880,9 @@
       </c>
       <c r="AE34">
         <v>0.3</v>
+      </c>
+      <c r="AF34">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3528,8 +3977,14 @@
       <c r="AC35">
         <v>6</v>
       </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
       <c r="AE35">
         <v>0.2</v>
+      </c>
+      <c r="AF35">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3630,6 +4085,9 @@
       <c r="AE36">
         <v>0.1</v>
       </c>
+      <c r="AF36">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3654,21 +4112,45 @@
       <c r="F37">
         <v>1</v>
       </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
       <c r="K37">
         <v>2.8</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
       <c r="N37">
         <v>37.8</v>
       </c>
       <c r="O37">
         <v>0.2</v>
       </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
       <c r="Q37">
         <v>0.2</v>
       </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
       <c r="T37">
         <v>99.2</v>
       </c>
@@ -3687,11 +4169,26 @@
       <c r="Y37">
         <v>0.1</v>
       </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
       <c r="AC37">
         <v>57.8</v>
       </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
       <c r="AE37">
         <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3720,9 +4217,24 @@
       <c r="G38">
         <v>7.6</v>
       </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
       <c r="L38">
         <v>3</v>
       </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
       <c r="N38">
         <v>0.1</v>
       </c>
@@ -3732,6 +4244,9 @@
       <c r="P38">
         <v>28.9</v>
       </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
       <c r="R38">
         <v>1.3</v>
       </c>
@@ -3759,11 +4274,23 @@
       <c r="Z38">
         <v>14</v>
       </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
       <c r="AB38">
         <v>9.1</v>
       </c>
       <c r="AC38">
         <v>26.7</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3864,6 +4391,9 @@
       <c r="AE39">
         <v>0.3</v>
       </c>
+      <c r="AF39">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3900,6 +4430,9 @@
       <c r="J40">
         <v>2</v>
       </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
       <c r="L40">
         <v>0.9</v>
       </c>
@@ -3959,6 +4492,9 @@
       </c>
       <c r="AE40">
         <v>0.2</v>
+      </c>
+      <c r="AF40">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -4002,6 +4538,9 @@
       <c r="L41">
         <v>0.4</v>
       </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
       <c r="N41">
         <v>0</v>
       </c>
@@ -4017,6 +4556,9 @@
       <c r="R41">
         <v>0.7</v>
       </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
       <c r="T41">
         <v>26.9</v>
       </c>
@@ -4047,8 +4589,14 @@
       <c r="AC41">
         <v>10.2</v>
       </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
       <c r="AE41">
         <v>0.4</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -4134,14 +4682,23 @@
       <c r="Z42">
         <v>3</v>
       </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
       <c r="AB42">
         <v>6.8</v>
       </c>
       <c r="AC42">
         <v>5</v>
       </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
       <c r="AE42">
         <v>0.2</v>
+      </c>
+      <c r="AF42">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -4188,6 +4745,9 @@
       <c r="M43">
         <v>0.3</v>
       </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
       <c r="O43">
         <v>55.8</v>
       </c>
@@ -4238,6 +4798,9 @@
       </c>
       <c r="AE43">
         <v>0.2</v>
+      </c>
+      <c r="AF43">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -4275,12 +4838,18 @@
       <c r="J44">
         <v>0.2</v>
       </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44">
         <v>0.1</v>
       </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
       <c r="O44">
         <v>13.7</v>
       </c>
@@ -4331,6 +4900,9 @@
       </c>
       <c r="AE44">
         <v>0.5</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -4359,12 +4931,24 @@
       <c r="G45">
         <v>0.1</v>
       </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
       <c r="I45">
         <v>0.4</v>
       </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
       <c r="K45">
         <v>46.7</v>
       </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
       <c r="N45">
         <v>36.7</v>
       </c>
@@ -4374,6 +4958,12 @@
       <c r="P45">
         <v>0</v>
       </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
       <c r="S45">
         <v>0.3</v>
       </c>
@@ -4398,6 +4988,9 @@
       <c r="Z45">
         <v>41.3</v>
       </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
       <c r="AB45">
         <v>59.9</v>
       </c>
@@ -4409,6 +5002,9 @@
       </c>
       <c r="AE45">
         <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -4509,6 +5105,9 @@
       <c r="AE46">
         <v>0.2</v>
       </c>
+      <c r="AF46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4530,15 +5129,33 @@
       <c r="E47">
         <v>17.9</v>
       </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
       <c r="G47">
         <v>27.6</v>
       </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
       <c r="I47">
         <v>16.8</v>
       </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
       <c r="L47">
         <v>4.1</v>
       </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
       <c r="O47">
         <v>33.1</v>
       </c>
@@ -4572,8 +5189,26 @@
       <c r="Y47">
         <v>17.4</v>
       </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
       <c r="AC47">
         <v>7.5</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -4632,17 +5267,50 @@
       <c r="Q48">
         <v>0.5</v>
       </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
       <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
         <v>0</v>
       </c>
       <c r="Z48">
         <v>27.2</v>
       </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
       <c r="AB48">
         <v>5.8</v>
       </c>
       <c r="AC48">
         <v>22.5</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -4671,15 +5339,24 @@
       <c r="G49">
         <v>10.9</v>
       </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
       <c r="I49">
         <v>5.6</v>
       </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
       <c r="K49">
         <v>1.5</v>
       </c>
       <c r="L49">
         <v>0.9</v>
       </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
       <c r="N49">
         <v>0.5</v>
       </c>
@@ -4689,20 +5366,53 @@
       <c r="P49">
         <v>10.7</v>
       </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
       <c r="R49">
         <v>2.2</v>
       </c>
       <c r="S49">
         <v>0.2</v>
       </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
       <c r="Z49">
         <v>25.4</v>
       </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
       <c r="AB49">
         <v>11.3</v>
       </c>
       <c r="AC49">
         <v>14.1</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -4803,6 +5513,9 @@
       <c r="AE50">
         <v>0.4</v>
       </c>
+      <c r="AF50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4902,6 +5615,9 @@
       <c r="AE51">
         <v>0.3</v>
       </c>
+      <c r="AF51">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5001,6 +5717,9 @@
       <c r="AE52">
         <v>0.4</v>
       </c>
+      <c r="AF52">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5094,8 +5813,14 @@
       <c r="AC53">
         <v>3.3</v>
       </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
       <c r="AE53">
         <v>0.3</v>
+      </c>
+      <c r="AF53">
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -5124,12 +5849,36 @@
       <c r="G54">
         <v>3.2</v>
       </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
       <c r="K54">
         <v>0.2</v>
       </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
       <c r="O54">
         <v>29.3</v>
       </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
       <c r="R54">
         <v>3.8</v>
       </c>
@@ -5157,11 +5906,23 @@
       <c r="Z54">
         <v>25.7</v>
       </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
       <c r="AB54">
         <v>2.1</v>
       </c>
       <c r="AC54">
         <v>10</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
+      </c>
+      <c r="AF54">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -5256,8 +6017,14 @@
       <c r="AC55">
         <v>2</v>
       </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
       <c r="AE55">
         <v>0.5</v>
+      </c>
+      <c r="AF55">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -5358,6 +6125,9 @@
       <c r="AE56">
         <v>0.3</v>
       </c>
+      <c r="AF56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5457,6 +6227,9 @@
       <c r="AE57">
         <v>0.3</v>
       </c>
+      <c r="AF57">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5556,6 +6329,9 @@
       <c r="AE58">
         <v>0.5</v>
       </c>
+      <c r="AF58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5571,6 +6347,93 @@
           <t>DHS</t>
         </is>
       </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>3</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5598,18 +6461,36 @@
       <c r="G60">
         <v>2.4</v>
       </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
       <c r="K60">
         <v>0.1</v>
       </c>
       <c r="L60">
         <v>1.5</v>
       </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
       <c r="N60">
         <v>5.4</v>
       </c>
       <c r="O60">
         <v>14.1</v>
       </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
       <c r="R60">
         <v>2.9</v>
       </c>
@@ -5648,6 +6529,12 @@
       </c>
       <c r="AD60">
         <v>0.3</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
+      </c>
+      <c r="AF60">
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -5748,6 +6635,9 @@
       <c r="AE61">
         <v>0.2</v>
       </c>
+      <c r="AF61">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5847,6 +6737,9 @@
       <c r="AE62">
         <v>0.3</v>
       </c>
+      <c r="AF62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5886,6 +6779,12 @@
       <c r="K63">
         <v>0</v>
       </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
       <c r="N63">
         <v>0.1</v>
       </c>
@@ -5895,9 +6794,15 @@
       <c r="P63">
         <v>0.4</v>
       </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
       <c r="R63">
         <v>5.3</v>
       </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
       <c r="T63">
         <v>25.4</v>
       </c>
@@ -5919,6 +6824,9 @@
       <c r="Z63">
         <v>13.6</v>
       </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
       <c r="AB63">
         <v>7.3</v>
       </c>
@@ -5927,6 +6835,12 @@
       </c>
       <c r="AD63">
         <v>0.4</v>
+      </c>
+      <c r="AE63">
+        <v>0</v>
+      </c>
+      <c r="AF63">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -6027,6 +6941,9 @@
       <c r="AE64">
         <v>0.3</v>
       </c>
+      <c r="AF64">
+        <v>2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6087,6 +7004,9 @@
       <c r="R65">
         <v>15.7</v>
       </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
       <c r="T65">
         <v>22</v>
       </c>
@@ -6122,6 +7042,9 @@
       </c>
       <c r="AE65">
         <v>0.3</v>
+      </c>
+      <c r="AF65">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -6222,6 +7145,9 @@
       <c r="AE66">
         <v>0.2</v>
       </c>
+      <c r="AF66">
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6282,6 +7208,9 @@
       <c r="R67">
         <v>12.1</v>
       </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
       <c r="T67">
         <v>67.7</v>
       </c>
@@ -6317,6 +7246,9 @@
       </c>
       <c r="AE67">
         <v>0.2</v>
+      </c>
+      <c r="AF67">
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -6417,6 +7349,9 @@
       <c r="AE68">
         <v>0.3</v>
       </c>
+      <c r="AF68">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6477,6 +7412,9 @@
       <c r="R69">
         <v>3.7</v>
       </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
       <c r="T69">
         <v>60.4</v>
       </c>
@@ -6512,6 +7450,9 @@
       </c>
       <c r="AE69">
         <v>0.2</v>
+      </c>
+      <c r="AF69">
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -6573,6 +7514,9 @@
       <c r="R70">
         <v>13.8</v>
       </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
       <c r="T70">
         <v>22.8</v>
       </c>
@@ -6608,6 +7552,9 @@
       </c>
       <c r="AE70">
         <v>0.5</v>
+      </c>
+      <c r="AF70">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -6645,6 +7592,9 @@
       <c r="J71">
         <v>7.6</v>
       </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
       <c r="L71">
         <v>0.1</v>
       </c>
@@ -6687,14 +7637,26 @@
       <c r="Y71">
         <v>1.4</v>
       </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
       <c r="AB71">
         <v>6.7</v>
       </c>
       <c r="AC71">
         <v>37.6</v>
       </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
       <c r="AE71">
         <v>0.2</v>
+      </c>
+      <c r="AF71">
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -6723,15 +7685,39 @@
       <c r="G72">
         <v>6.9</v>
       </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
       <c r="L72">
         <v>4</v>
       </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
         <v>31.9</v>
       </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
       <c r="S72">
         <v>0.5</v>
       </c>
@@ -6756,11 +7742,23 @@
       <c r="Z72">
         <v>13.1</v>
       </c>
+      <c r="AA72">
+        <v>0</v>
+      </c>
       <c r="AB72">
         <v>17.8</v>
       </c>
       <c r="AC72">
         <v>29</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>0</v>
+      </c>
+      <c r="AF72">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -6861,6 +7859,9 @@
       <c r="AE73">
         <v>0.3</v>
       </c>
+      <c r="AF73">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6903,6 +7904,9 @@
       <c r="L74">
         <v>0.6</v>
       </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
       <c r="N74">
         <v>4.1</v>
       </c>
@@ -6921,6 +7925,24 @@
       <c r="S74">
         <v>0.1</v>
       </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
       <c r="Z74">
         <v>40.4</v>
       </c>
@@ -6935,6 +7957,12 @@
       </c>
       <c r="AD74">
         <v>1.3</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
+      </c>
+      <c r="AF74">
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -6957,24 +7985,48 @@
       <c r="E75">
         <v>59.7</v>
       </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
       <c r="G75">
         <v>18</v>
       </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
       <c r="K75">
         <v>0.2</v>
       </c>
       <c r="L75">
         <v>2.3</v>
       </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
       <c r="N75">
         <v>0.3</v>
       </c>
       <c r="O75">
         <v>19.4</v>
       </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
       <c r="R75">
         <v>3.4</v>
       </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
       <c r="T75">
         <v>60.3</v>
       </c>
@@ -6996,11 +8048,23 @@
       <c r="Z75">
         <v>20</v>
       </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
       <c r="AB75">
         <v>10.2</v>
       </c>
       <c r="AC75">
         <v>21.2</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -7020,30 +8084,69 @@
       <c r="D76">
         <v>34.4</v>
       </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
       <c r="F76">
         <v>20.4</v>
       </c>
       <c r="G76">
         <v>1.4</v>
       </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
       <c r="K76">
         <v>11.8</v>
       </c>
       <c r="L76">
         <v>0.6</v>
       </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
       <c r="N76">
         <v>0.1</v>
       </c>
       <c r="O76">
         <v>65.59999999999999</v>
       </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
       <c r="R76">
         <v>6.2</v>
       </c>
       <c r="S76">
         <v>0.1</v>
       </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
       <c r="Z76">
         <v>77.40000000000001</v>
       </c>
@@ -7058,6 +8161,12 @@
       </c>
       <c r="AD76">
         <v>5.9</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -7077,9 +8186,21 @@
       <c r="D77">
         <v>74.2</v>
       </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
       <c r="H77">
         <v>13.9</v>
       </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
       <c r="J77">
         <v>2.2</v>
       </c>
@@ -7098,6 +8219,12 @@
       <c r="O77">
         <v>25.7</v>
       </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
       <c r="R77">
         <v>2</v>
       </c>
@@ -7139,6 +8266,9 @@
       </c>
       <c r="AE77">
         <v>0.2</v>
+      </c>
+      <c r="AF77">
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -7182,6 +8312,9 @@
       <c r="L78">
         <v>0</v>
       </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
       <c r="N78">
         <v>0.3</v>
       </c>
@@ -7235,6 +8368,9 @@
       </c>
       <c r="AE78">
         <v>0.4</v>
+      </c>
+      <c r="AF78">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -7334,6 +8470,9 @@
       </c>
       <c r="AE79">
         <v>0.4</v>
+      </c>
+      <c r="AF79">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -1,21 +1,368 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B33C72-BA54-4F83-9961-6F1813FBBBD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="112">
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Survey</t>
+  </si>
+  <si>
+    <t>imws</t>
+  </si>
+  <si>
+    <t>phom</t>
+  </si>
+  <si>
+    <t>pipy</t>
+  </si>
+  <si>
+    <t>ptap</t>
+  </si>
+  <si>
+    <t>bore</t>
+  </si>
+  <si>
+    <t>pwel</t>
+  </si>
+  <si>
+    <t>pspr</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>truc</t>
+  </si>
+  <si>
+    <t>bott</t>
+  </si>
+  <si>
+    <t>uiws</t>
+  </si>
+  <si>
+    <t>uwel</t>
+  </si>
+  <si>
+    <t>uspr</t>
+  </si>
+  <si>
+    <t>surw</t>
+  </si>
+  <si>
+    <t>othw</t>
+  </si>
+  <si>
+    <t>iwsp</t>
+  </si>
+  <si>
+    <t>basw</t>
+  </si>
+  <si>
+    <t>liws</t>
+  </si>
+  <si>
+    <t>watp</t>
+  </si>
+  <si>
+    <t>tles</t>
+  </si>
+  <si>
+    <t>tmor</t>
+  </si>
+  <si>
+    <t>bicy</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>mcyc</t>
+  </si>
+  <si>
+    <t>pcar</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>wigc</t>
+  </si>
+  <si>
+    <t>clusters</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>DHS</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>MIS</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Congo Democratic Republic</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kyrgyz Republic</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>AIS</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +410,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +496,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +548,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,194 +741,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Country</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Survey</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>imws</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>phom</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pipy</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ptap</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>bore</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>pwel</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>pspr</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>rain</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>truc</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>ctan</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>bott</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>uiws</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>uwel</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>uspr</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>surw</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>othw</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>iwsp</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>basw</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>liws</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>watp</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>tles</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>tmor</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>bicy</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cart</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>mcyc</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>pcar</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>boat</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>wigc</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>clusters</t>
-        </is>
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Afghanistan</t>
-        </is>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
       <c r="B2">
         <v>2015</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C2" t="s">
+        <v>32</v>
       </c>
       <c r="D2">
         <v>71.2</v>
       </c>
       <c r="E2">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F2">
         <v>4.8</v>
@@ -546,7 +871,7 @@
         <v>14.2</v>
       </c>
       <c r="H2">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I2">
         <v>18.5</v>
@@ -561,7 +886,7 @@
         <v>1.5</v>
       </c>
       <c r="M2">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N2">
         <v>0.2</v>
@@ -597,7 +922,7 @@
         <v>45.2</v>
       </c>
       <c r="Y2">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Z2">
         <v>30</v>
@@ -606,7 +931,7 @@
         <v>5.8</v>
       </c>
       <c r="AB2">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="AC2">
         <v>11.8</v>
@@ -621,22 +946,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Albania</t>
-        </is>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
       </c>
       <c r="B3">
         <v>2018</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C3" t="s">
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>98.40000000000001</v>
+        <v>98.4</v>
       </c>
       <c r="E3">
         <v>48.8</v>
@@ -651,7 +972,7 @@
         <v>1.4</v>
       </c>
       <c r="I3">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J3">
         <v>2.5</v>
@@ -666,7 +987,7 @@
         <v>0.2</v>
       </c>
       <c r="N3">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="O3">
         <v>1.6</v>
@@ -693,13 +1014,13 @@
         <v>0.9</v>
       </c>
       <c r="W3">
-        <v>77.90000000000001</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="X3">
         <v>20.6</v>
       </c>
       <c r="Y3">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z3">
         <v>26.4</v>
@@ -723,28 +1044,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Angola</t>
-        </is>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
       </c>
       <c r="B4">
         <v>2016</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C4" t="s">
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>66.90000000000001</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="E4">
         <v>4.3</v>
       </c>
       <c r="F4">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G4">
         <v>10.3</v>
@@ -762,7 +1079,7 @@
         <v>1.7</v>
       </c>
       <c r="L4">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="M4">
         <v>4.3</v>
@@ -774,7 +1091,7 @@
         <v>33.1</v>
       </c>
       <c r="P4">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Q4">
         <v>4.8</v>
@@ -804,7 +1121,7 @@
         <v>15.6</v>
       </c>
       <c r="Z4">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="AA4">
         <v>1.3</v>
@@ -825,22 +1142,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Armenia</t>
-        </is>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
       </c>
       <c r="B5">
         <v>2016</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C5" t="s">
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="E5">
         <v>88.3</v>
@@ -888,16 +1201,16 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>97.59999999999999</v>
+        <v>97.6</v>
       </c>
       <c r="U5">
-        <v>99.09999999999999</v>
+        <v>99.1</v>
       </c>
       <c r="V5">
         <v>0.1</v>
       </c>
       <c r="W5">
-        <v>97.59999999999999</v>
+        <v>97.6</v>
       </c>
       <c r="X5">
         <v>1.6</v>
@@ -915,7 +1228,7 @@
         <v>0.2</v>
       </c>
       <c r="AC5">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="AD5">
         <v>0.3</v>
@@ -927,22 +1240,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Azerbaijan</t>
-        </is>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
       </c>
       <c r="B6">
         <v>2006</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C6" t="s">
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>90.59999999999999</v>
+        <v>90.6</v>
       </c>
       <c r="E6">
         <v>34</v>
@@ -954,7 +1263,7 @@
         <v>3.5</v>
       </c>
       <c r="H6">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I6">
         <v>6.2</v>
@@ -981,31 +1290,31 @@
         <v>0.2</v>
       </c>
       <c r="Q6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R6">
         <v>7</v>
       </c>
       <c r="S6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T6">
         <v>71.2</v>
       </c>
       <c r="U6">
-        <v>86.40000000000001</v>
+        <v>86.4</v>
       </c>
       <c r="V6">
         <v>3.4</v>
       </c>
       <c r="W6">
-        <v>75.90000000000001</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="X6">
         <v>18.7</v>
       </c>
       <c r="Y6">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Z6">
         <v>6.9</v>
@@ -1014,10 +1323,10 @@
         <v>3.3</v>
       </c>
       <c r="AB6">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC6">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="AD6">
         <v>0.1</v>
@@ -1029,19 +1338,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Bangladesh</t>
-        </is>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>37</v>
       </c>
       <c r="B7">
         <v>2014</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C7" t="s">
+        <v>32</v>
       </c>
       <c r="D7">
         <v>97.8</v>
@@ -1056,7 +1361,7 @@
         <v>2.7</v>
       </c>
       <c r="H7">
-        <v>86.40000000000001</v>
+        <v>86.4</v>
       </c>
       <c r="I7">
         <v>0.2</v>
@@ -1077,7 +1382,7 @@
         <v>0.3</v>
       </c>
       <c r="O7">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="P7">
         <v>0.6</v>
@@ -1092,10 +1397,10 @@
         <v>0.1</v>
       </c>
       <c r="T7">
-        <v>75.09999999999999</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="U7">
-        <v>96.40000000000001</v>
+        <v>96.4</v>
       </c>
       <c r="V7">
         <v>1.3</v>
@@ -1131,25 +1436,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Benin</t>
-        </is>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
       </c>
       <c r="B8">
         <v>2018</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C8" t="s">
+        <v>32</v>
       </c>
       <c r="D8">
         <v>71.7</v>
       </c>
       <c r="E8">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F8">
         <v>4.2</v>
@@ -1161,7 +1462,7 @@
         <v>28.9</v>
       </c>
       <c r="I8">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J8">
         <v>0.3</v>
@@ -1212,7 +1513,7 @@
         <v>12.1</v>
       </c>
       <c r="Z8">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AA8">
         <v>3.2</v>
@@ -1233,19 +1534,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Bolivia</t>
-        </is>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
       </c>
       <c r="B9">
         <v>2008</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C9" t="s">
+        <v>32</v>
       </c>
       <c r="D9">
         <v>87.3</v>
@@ -1335,19 +1632,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Brazil</t>
-        </is>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
       </c>
       <c r="B10">
         <v>1996</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C10" t="s">
+        <v>32</v>
       </c>
       <c r="D10">
         <v>76</v>
@@ -1437,22 +1730,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Burkina Faso</t>
-        </is>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
       </c>
       <c r="B11">
         <v>2018</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>MIS</t>
-        </is>
+      <c r="C11" t="s">
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>80.90000000000001</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="E11">
         <v>2.6</v>
@@ -1461,7 +1750,7 @@
         <v>9.6</v>
       </c>
       <c r="G11">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="H11">
         <v>40.6</v>
@@ -1485,7 +1774,7 @@
         <v>0.2</v>
       </c>
       <c r="O11">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="P11">
         <v>16.3</v>
@@ -1509,7 +1798,7 @@
         <v>28.5</v>
       </c>
       <c r="W11">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="X11">
         <v>49.8</v>
@@ -1539,25 +1828,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Burundi</t>
-        </is>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>43</v>
       </c>
       <c r="B12">
         <v>2017</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C12" t="s">
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>82.90000000000001</v>
+        <v>82.9</v>
       </c>
       <c r="E12">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -1587,7 +1872,7 @@
         <v>0.1</v>
       </c>
       <c r="O12">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="P12">
         <v>1.7</v>
@@ -1608,13 +1893,13 @@
         <v>63.1</v>
       </c>
       <c r="V12">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="W12">
         <v>9.6</v>
       </c>
       <c r="X12">
-        <v>64.90000000000001</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="Y12">
         <v>25.5</v>
@@ -1626,10 +1911,10 @@
         <v>0.2</v>
       </c>
       <c r="AB12">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AC12">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD12">
         <v>0.2</v>
@@ -1641,19 +1926,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Cambodia</t>
-        </is>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>44</v>
       </c>
       <c r="B13">
         <v>2014</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C13" t="s">
+        <v>32</v>
       </c>
       <c r="D13">
         <v>83.7</v>
@@ -1692,7 +1973,7 @@
         <v>16.2</v>
       </c>
       <c r="P13">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Q13">
         <v>0.7</v>
@@ -1734,7 +2015,7 @@
         <v>14.1</v>
       </c>
       <c r="AD13">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AE13">
         <v>0.2</v>
@@ -1743,25 +2024,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Cameroon</t>
-        </is>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
       </c>
       <c r="B14">
         <v>2018</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C14" t="s">
+        <v>32</v>
       </c>
       <c r="D14">
         <v>78.8</v>
       </c>
       <c r="E14">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F14">
         <v>6.9</v>
@@ -1776,7 +2053,7 @@
         <v>3.9</v>
       </c>
       <c r="J14">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K14">
         <v>0.5</v>
@@ -1806,7 +2083,7 @@
         <v>0.1</v>
       </c>
       <c r="T14">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="U14">
         <v>71</v>
@@ -1815,7 +2092,7 @@
         <v>7.5</v>
       </c>
       <c r="W14">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="X14">
         <v>54.6</v>
@@ -1845,19 +2122,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Central African Republic</t>
-        </is>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>46</v>
       </c>
       <c r="B15">
         <v>1995</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C15" t="s">
+        <v>32</v>
       </c>
       <c r="D15">
         <v>16.3</v>
@@ -1893,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>83.59999999999999</v>
+        <v>83.6</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1914,16 +2187,16 @@
         <v>15.2</v>
       </c>
       <c r="V15">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W15">
         <v>7.5</v>
       </c>
       <c r="X15">
-        <v>75.09999999999999</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="Y15">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="Z15">
         <v>11.5</v>
@@ -1947,19 +2220,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Chad</t>
-        </is>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>47</v>
       </c>
       <c r="B16">
         <v>2015</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C16" t="s">
+        <v>32</v>
       </c>
       <c r="D16">
         <v>55.8</v>
@@ -2049,25 +2318,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>48</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C17" t="s">
+        <v>32</v>
       </c>
       <c r="D17">
         <v>92.8</v>
       </c>
       <c r="E17">
-        <v>80.90000000000001</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2112,7 +2377,7 @@
         <v>0.7</v>
       </c>
       <c r="T17">
-        <v>91.09999999999999</v>
+        <v>91.1</v>
       </c>
       <c r="U17">
         <v>92.5</v>
@@ -2121,7 +2386,7 @@
         <v>0.2</v>
       </c>
       <c r="W17">
-        <v>95.90000000000001</v>
+        <v>95.9</v>
       </c>
       <c r="X17">
         <v>3.3</v>
@@ -2139,7 +2404,7 @@
         <v>26.9</v>
       </c>
       <c r="AC17">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -2151,19 +2416,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Comoros</t>
-        </is>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>49</v>
       </c>
       <c r="B18">
         <v>2012</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C18" t="s">
+        <v>32</v>
       </c>
       <c r="D18">
         <v>91</v>
@@ -2187,7 +2448,7 @@
         <v>3.7</v>
       </c>
       <c r="K18">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="L18">
         <v>2.9</v>
@@ -2202,7 +2463,7 @@
         <v>8.9</v>
       </c>
       <c r="P18">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q18">
         <v>2.1</v>
@@ -2229,10 +2490,10 @@
         <v>20.7</v>
       </c>
       <c r="Y18">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="Z18">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AA18">
         <v>0.4</v>
@@ -2253,19 +2514,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Congo</t>
-        </is>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>50</v>
       </c>
       <c r="B19">
         <v>2012</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C19" t="s">
+        <v>32</v>
       </c>
       <c r="D19">
         <v>75.7</v>
@@ -2283,7 +2540,7 @@
         <v>9.9</v>
       </c>
       <c r="I19">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J19">
         <v>4.2</v>
@@ -2307,13 +2564,13 @@
         <v>5.2</v>
       </c>
       <c r="Q19">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="R19">
         <v>8.1</v>
       </c>
       <c r="S19">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="T19">
         <v>34.6</v>
@@ -2325,7 +2582,7 @@
         <v>13.6</v>
       </c>
       <c r="W19">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="X19">
         <v>39</v>
@@ -2343,7 +2600,7 @@
         <v>4.8</v>
       </c>
       <c r="AC19">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AD19">
         <v>0.3</v>
@@ -2355,19 +2612,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Congo Democratic Republic</t>
-        </is>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>51</v>
       </c>
       <c r="B20">
         <v>2014</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C20" t="s">
+        <v>32</v>
       </c>
       <c r="D20">
         <v>48.8</v>
@@ -2379,10 +2632,10 @@
         <v>5.6</v>
       </c>
       <c r="G20">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H20">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -2409,10 +2662,10 @@
         <v>5.4</v>
       </c>
       <c r="Q20">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="R20">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="S20">
         <v>0.3</v>
@@ -2421,7 +2674,7 @@
         <v>7</v>
       </c>
       <c r="U20">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="V20">
         <v>12.1</v>
@@ -2433,7 +2686,7 @@
         <v>59.3</v>
       </c>
       <c r="Y20">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="Z20">
         <v>24.1</v>
@@ -2442,7 +2695,7 @@
         <v>0.1</v>
       </c>
       <c r="AB20">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AC20">
         <v>1.4</v>
@@ -2457,22 +2710,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Cote d'Ivoire</t>
-        </is>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>52</v>
       </c>
       <c r="B21">
         <v>2012</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C21" t="s">
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>78.40000000000001</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="E21">
         <v>11.2</v>
@@ -2514,16 +2763,16 @@
         <v>2.7</v>
       </c>
       <c r="R21">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="S21">
         <v>0.7</v>
       </c>
       <c r="T21">
-        <v>40.3</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="U21">
-        <v>72.59999999999999</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="V21">
         <v>5.3</v>
@@ -2538,7 +2787,7 @@
         <v>8.9</v>
       </c>
       <c r="Z21">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="AA21">
         <v>1.6</v>
@@ -2559,25 +2808,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Dominican Republic</t>
-        </is>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>53</v>
       </c>
       <c r="B22">
         <v>2013</v>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C22" t="s">
+        <v>32</v>
       </c>
       <c r="D22">
         <v>98.7</v>
       </c>
       <c r="E22">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F22">
         <v>6.6</v>
@@ -2622,16 +2867,16 @@
         <v>0.5</v>
       </c>
       <c r="T22">
-        <v>86.09999999999999</v>
+        <v>86.1</v>
       </c>
       <c r="U22">
-        <v>97.59999999999999</v>
+        <v>97.6</v>
       </c>
       <c r="V22">
         <v>0.9</v>
       </c>
       <c r="W22">
-        <v>86.90000000000001</v>
+        <v>86.9</v>
       </c>
       <c r="X22">
         <v>12</v>
@@ -2661,25 +2906,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Egypt</t>
-        </is>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>54</v>
       </c>
       <c r="B23">
         <v>2014</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C23" t="s">
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>99.59999999999999</v>
+        <v>99.6</v>
       </c>
       <c r="E23">
-        <v>90.59999999999999</v>
+        <v>90.6</v>
       </c>
       <c r="F23">
         <v>0.4</v>
@@ -2724,10 +2965,10 @@
         <v>0.4</v>
       </c>
       <c r="T23">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="U23">
-        <v>98.90000000000001</v>
+        <v>98.9</v>
       </c>
       <c r="V23">
         <v>0.6</v>
@@ -2751,7 +2992,7 @@
         <v>8.1</v>
       </c>
       <c r="AC23">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -2763,22 +3004,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Eritrea</t>
-        </is>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>55</v>
       </c>
       <c r="B24">
         <v>2002</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C24" t="s">
+        <v>32</v>
       </c>
       <c r="D24">
-        <v>67.40000000000001</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="E24">
         <v>16.3</v>
@@ -2793,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2814,7 +3051,7 @@
         <v>32.5</v>
       </c>
       <c r="P24">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2865,31 +3102,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Eswatini</t>
-        </is>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>56</v>
       </c>
       <c r="B25">
         <v>2007</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C25" t="s">
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>71.40000000000001</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="E25">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F25">
         <v>21.3</v>
       </c>
       <c r="G25">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="H25">
         <v>6.9</v>
@@ -2916,7 +3149,7 @@
         <v>28.6</v>
       </c>
       <c r="P25">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -2931,7 +3164,7 @@
         <v>42.6</v>
       </c>
       <c r="U25">
-        <v>66.59999999999999</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="V25">
         <v>4.5</v>
@@ -2967,19 +3200,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Ethiopia</t>
-        </is>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>57</v>
       </c>
       <c r="B26">
         <v>2016</v>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C26" t="s">
+        <v>32</v>
       </c>
       <c r="D26">
         <v>65.2</v>
@@ -3015,10 +3244,10 @@
         <v>0.2</v>
       </c>
       <c r="O26">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="P26">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="Q26">
         <v>20</v>
@@ -3048,13 +3277,13 @@
         <v>28.2</v>
       </c>
       <c r="Z26">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AA26">
         <v>1.6</v>
       </c>
       <c r="AB26">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC26">
         <v>0.8</v>
@@ -3069,22 +3298,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Gabon</t>
-        </is>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>58</v>
       </c>
       <c r="B27">
         <v>2012</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C27" t="s">
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="E27">
         <v>25.4</v>
@@ -3114,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O27">
         <v>6.7</v>
@@ -3141,7 +3366,7 @@
         <v>7.2</v>
       </c>
       <c r="W27">
-        <v>65.59999999999999</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="X27">
         <v>23.1</v>
@@ -3171,19 +3396,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Gambia</t>
-        </is>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>59</v>
       </c>
       <c r="B28">
         <v>2013</v>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C28" t="s">
+        <v>32</v>
       </c>
       <c r="D28">
         <v>91</v>
@@ -3192,13 +3413,13 @@
         <v>3.4</v>
       </c>
       <c r="F28">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="G28">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="H28">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I28">
         <v>7.4</v>
@@ -3237,7 +3458,7 @@
         <v>43.7</v>
       </c>
       <c r="U28">
-        <v>86.40000000000001</v>
+        <v>86.4</v>
       </c>
       <c r="V28">
         <v>4</v>
@@ -3273,22 +3494,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Ghana</t>
-        </is>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>60</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>MIS</t>
-        </is>
+      <c r="C29" t="s">
+        <v>42</v>
       </c>
       <c r="D29">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="E29">
         <v>2.7</v>
@@ -3300,10 +3517,10 @@
         <v>14.6</v>
       </c>
       <c r="H29">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="I29">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J29">
         <v>0.1</v>
@@ -3318,7 +3535,7 @@
         <v>0.1</v>
       </c>
       <c r="N29">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O29">
         <v>6.9</v>
@@ -3330,7 +3547,7 @@
         <v>0.6</v>
       </c>
       <c r="R29">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -3375,19 +3592,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Guatemala</t>
-        </is>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>61</v>
       </c>
       <c r="B30">
         <v>2015</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C30" t="s">
+        <v>32</v>
       </c>
       <c r="D30">
         <v>86.5</v>
@@ -3441,7 +3654,7 @@
         <v>82.2</v>
       </c>
       <c r="U30">
-        <v>86.09999999999999</v>
+        <v>86.1</v>
       </c>
       <c r="V30">
         <v>0.4</v>
@@ -3450,7 +3663,7 @@
         <v>89.5</v>
       </c>
       <c r="X30">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="Y30">
         <v>1.2</v>
@@ -3477,19 +3690,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Guinea</t>
-        </is>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>62</v>
       </c>
       <c r="B31">
         <v>2018</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C31" t="s">
+        <v>32</v>
       </c>
       <c r="D31">
         <v>79.3</v>
@@ -3522,16 +3731,16 @@
         <v>0.2</v>
       </c>
       <c r="N31">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O31">
         <v>20.7</v>
       </c>
       <c r="P31">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="Q31">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="R31">
         <v>5.9</v>
@@ -3546,7 +3755,7 @@
         <v>60.2</v>
       </c>
       <c r="V31">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="W31">
         <v>31</v>
@@ -3579,19 +3788,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Guyana</t>
-        </is>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>63</v>
       </c>
       <c r="B32">
         <v>2009</v>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C32" t="s">
+        <v>32</v>
       </c>
       <c r="D32">
         <v>94.8</v>
@@ -3600,10 +3805,10 @@
         <v>14</v>
       </c>
       <c r="F32">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="G32">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3624,7 +3829,7 @@
         <v>0.1</v>
       </c>
       <c r="N32">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="O32">
         <v>5.2</v>
@@ -3651,7 +3856,7 @@
         <v>0.2</v>
       </c>
       <c r="W32">
-        <v>92.59999999999999</v>
+        <v>92.6</v>
       </c>
       <c r="X32">
         <v>6.5</v>
@@ -3663,7 +3868,7 @@
         <v>52.1</v>
       </c>
       <c r="AA32">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB32">
         <v>8.9</v>
@@ -3681,28 +3886,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Haiti</t>
-        </is>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
       </c>
       <c r="B33">
         <v>2017</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C33" t="s">
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="E33">
         <v>1.2</v>
       </c>
       <c r="F33">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G33">
         <v>18.8</v>
@@ -3726,7 +3927,7 @@
         <v>0.3</v>
       </c>
       <c r="N33">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O33">
         <v>24.4</v>
@@ -3759,7 +3960,7 @@
         <v>66.5</v>
       </c>
       <c r="Y33">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="Z33">
         <v>5.7</v>
@@ -3768,10 +3969,10 @@
         <v>0.2</v>
       </c>
       <c r="AB33">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AC33">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AD33">
         <v>0.2</v>
@@ -3783,19 +3984,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Honduras</t>
-        </is>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>65</v>
       </c>
       <c r="B34">
         <v>2012</v>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C34" t="s">
+        <v>32</v>
       </c>
       <c r="D34">
         <v>90.2</v>
@@ -3831,7 +4028,7 @@
         <v>38.6</v>
       </c>
       <c r="O34">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -3855,7 +4052,7 @@
         <v>0.1</v>
       </c>
       <c r="W34">
-        <v>88.40000000000001</v>
+        <v>88.4</v>
       </c>
       <c r="X34">
         <v>10.8</v>
@@ -3864,16 +4061,16 @@
         <v>0.7</v>
       </c>
       <c r="Z34">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="AA34">
         <v>1.4</v>
       </c>
       <c r="AB34">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AC34">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="AD34">
         <v>0.4</v>
@@ -3885,25 +4082,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>66</v>
       </c>
       <c r="B35">
         <v>2016</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C35" t="s">
+        <v>32</v>
       </c>
       <c r="D35">
         <v>94.5</v>
       </c>
       <c r="E35">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F35">
         <v>13.6</v>
@@ -3912,7 +4105,7 @@
         <v>15.9</v>
       </c>
       <c r="H35">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="I35">
         <v>3.7</v>
@@ -3948,7 +4141,7 @@
         <v>0.2</v>
       </c>
       <c r="T35">
-        <v>64.40000000000001</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="U35">
         <v>92.7</v>
@@ -3963,7 +4156,7 @@
         <v>31.4</v>
       </c>
       <c r="Y35">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Z35">
         <v>52.1</v>
@@ -3972,7 +4165,7 @@
         <v>3.6</v>
       </c>
       <c r="AB35">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="AC35">
         <v>6</v>
@@ -3987,28 +4180,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Indonesia</t>
-        </is>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>67</v>
       </c>
       <c r="B36">
         <v>2017</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C36" t="s">
+        <v>32</v>
       </c>
       <c r="D36">
-        <v>90.90000000000001</v>
+        <v>90.9</v>
       </c>
       <c r="E36">
         <v>7.3</v>
       </c>
       <c r="F36">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G36">
         <v>0.6</v>
@@ -4023,7 +4212,7 @@
         <v>9.6</v>
       </c>
       <c r="K36">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L36">
         <v>0.4</v>
@@ -4038,7 +4227,7 @@
         <v>9.1</v>
       </c>
       <c r="P36">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -4068,7 +4257,7 @@
         <v>0.5</v>
       </c>
       <c r="Z36">
-        <v>39.3</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="AA36">
         <v>0.2</v>
@@ -4089,19 +4278,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Jordan</t>
-        </is>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>68</v>
       </c>
       <c r="B37">
         <v>2018</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C37" t="s">
+        <v>32</v>
       </c>
       <c r="D37">
         <v>99.8</v>
@@ -4134,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="O37">
         <v>0.2</v>
@@ -4155,7 +4340,7 @@
         <v>99.2</v>
       </c>
       <c r="U37">
-        <v>99.59999999999999</v>
+        <v>99.6</v>
       </c>
       <c r="V37">
         <v>0.1</v>
@@ -4191,28 +4376,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Kazakhstan</t>
-        </is>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>69</v>
       </c>
       <c r="B38">
         <v>1999</v>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C38" t="s">
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>69.40000000000001</v>
+        <v>69.400000000000006</v>
       </c>
       <c r="E38">
         <v>49.5</v>
       </c>
       <c r="F38">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G38">
         <v>7.6</v>
@@ -4257,13 +4438,13 @@
         <v>59.3</v>
       </c>
       <c r="U38">
-        <v>68.40000000000001</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="V38">
         <v>0.8</v>
       </c>
       <c r="W38">
-        <v>70.09999999999999</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="X38">
         <v>26.4</v>
@@ -4293,19 +4474,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Kenya</t>
-        </is>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>70</v>
       </c>
       <c r="B39">
         <v>2015</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>MIS</t>
-        </is>
+      <c r="C39" t="s">
+        <v>42</v>
       </c>
       <c r="D39">
         <v>78.3</v>
@@ -4326,7 +4503,7 @@
         <v>7.9</v>
       </c>
       <c r="J39">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K39">
         <v>5.5</v>
@@ -4347,7 +4524,7 @@
         <v>2.4</v>
       </c>
       <c r="Q39">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R39">
         <v>16.8</v>
@@ -4359,7 +4536,7 @@
         <v>45.4</v>
       </c>
       <c r="U39">
-        <v>71.59999999999999</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="V39">
         <v>6</v>
@@ -4374,10 +4551,10 @@
         <v>12.1</v>
       </c>
       <c r="Z39">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AA39">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AB39">
         <v>9.5</v>
@@ -4395,19 +4572,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Kyrgyz Republic</t>
-        </is>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>71</v>
       </c>
       <c r="B40">
         <v>2012</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C40" t="s">
+        <v>32</v>
       </c>
       <c r="D40">
         <v>89.2</v>
@@ -4425,7 +4598,7 @@
         <v>1.9</v>
       </c>
       <c r="I40">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -4452,7 +4625,7 @@
         <v>1.6</v>
       </c>
       <c r="R40">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="S40">
         <v>0.1</v>
@@ -4461,7 +4634,7 @@
         <v>66.2</v>
       </c>
       <c r="U40">
-        <v>87.90000000000001</v>
+        <v>87.9</v>
       </c>
       <c r="V40">
         <v>0.7</v>
@@ -4497,22 +4670,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Lesotho</t>
-        </is>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>72</v>
       </c>
       <c r="B41">
         <v>2014</v>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C41" t="s">
+        <v>32</v>
       </c>
       <c r="D41">
-        <v>83.90000000000001</v>
+        <v>83.9</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -4521,13 +4690,13 @@
         <v>22.6</v>
       </c>
       <c r="G41">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="H41">
         <v>5.7</v>
       </c>
       <c r="I41">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J41">
         <v>4.2</v>
@@ -4545,13 +4714,13 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="P41">
         <v>7.1</v>
       </c>
       <c r="Q41">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="R41">
         <v>0.7</v>
@@ -4578,7 +4747,7 @@
         <v>16</v>
       </c>
       <c r="Z41">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AA41">
         <v>9.5</v>
@@ -4587,7 +4756,7 @@
         <v>0.2</v>
       </c>
       <c r="AC41">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AD41">
         <v>0</v>
@@ -4599,19 +4768,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Liberia</t>
-        </is>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>73</v>
       </c>
       <c r="B42">
         <v>2016</v>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>MIS</t>
-        </is>
+      <c r="C42" t="s">
+        <v>42</v>
       </c>
       <c r="D42">
         <v>84.8</v>
@@ -4650,7 +4815,7 @@
         <v>15.2</v>
       </c>
       <c r="P42">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q42">
         <v>1.4</v>
@@ -4674,7 +4839,7 @@
         <v>21.5</v>
       </c>
       <c r="X42">
-        <v>73.90000000000001</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="Y42">
         <v>3.8</v>
@@ -4701,19 +4866,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Madagascar</t>
-        </is>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>74</v>
       </c>
       <c r="B43">
         <v>2016</v>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>MIS</t>
-        </is>
+      <c r="C43" t="s">
+        <v>42</v>
       </c>
       <c r="D43">
         <v>44.2</v>
@@ -4734,7 +4895,7 @@
         <v>11.5</v>
       </c>
       <c r="J43">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4782,7 +4943,7 @@
         <v>5.9</v>
       </c>
       <c r="Z43">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AA43">
         <v>8.6</v>
@@ -4803,19 +4964,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Malawi</t>
-        </is>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>75</v>
       </c>
       <c r="B44">
         <v>2017</v>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>MIS</t>
-        </is>
+      <c r="C44" t="s">
+        <v>42</v>
       </c>
       <c r="D44">
         <v>86.3</v>
@@ -4854,7 +5011,7 @@
         <v>13.7</v>
       </c>
       <c r="P44">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="Q44">
         <v>1.6</v>
@@ -4884,7 +5041,7 @@
         <v>12.4</v>
       </c>
       <c r="Z44">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="AA44">
         <v>2</v>
@@ -4893,7 +5050,7 @@
         <v>2.8</v>
       </c>
       <c r="AC44">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AD44">
         <v>0.3</v>
@@ -4905,19 +5062,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Maldives</t>
-        </is>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>76</v>
       </c>
       <c r="B45">
         <v>2017</v>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C45" t="s">
+        <v>32</v>
       </c>
       <c r="D45">
         <v>99.7</v>
@@ -4950,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="O45">
         <v>0.3</v>
@@ -4971,7 +5124,7 @@
         <v>96.7</v>
       </c>
       <c r="U45">
-        <v>99.40000000000001</v>
+        <v>99.4</v>
       </c>
       <c r="V45">
         <v>0.1</v>
@@ -5007,19 +5160,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Mali</t>
-        </is>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>77</v>
       </c>
       <c r="B46">
         <v>2018</v>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C46" t="s">
+        <v>32</v>
       </c>
       <c r="D46">
         <v>69.3</v>
@@ -5085,7 +5234,7 @@
         <v>61.7</v>
       </c>
       <c r="Y46">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Z46">
         <v>45.9</v>
@@ -5109,25 +5258,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Mauritania</t>
-        </is>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>78</v>
       </c>
       <c r="B47">
         <v>2001</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C47" t="s">
+        <v>32</v>
       </c>
       <c r="D47">
         <v>66.5</v>
       </c>
       <c r="E47">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5148,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5181,13 +5326,13 @@
         <v>9.1</v>
       </c>
       <c r="W47">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="X47">
         <v>45.6</v>
       </c>
       <c r="Y47">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5211,19 +5356,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Moldova</t>
-        </is>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>79</v>
       </c>
       <c r="B48">
         <v>2005</v>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C48" t="s">
+        <v>32</v>
       </c>
       <c r="D48">
         <v>94.7</v>
@@ -5253,7 +5394,7 @@
         <v>0.3</v>
       </c>
       <c r="M48">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N48">
         <v>2.5</v>
@@ -5313,19 +5454,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Morocco</t>
-        </is>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>80</v>
       </c>
       <c r="B49">
         <v>2004</v>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C49" t="s">
+        <v>32</v>
       </c>
       <c r="D49">
         <v>79.8</v>
@@ -5334,7 +5471,7 @@
         <v>58.2</v>
       </c>
       <c r="F49">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G49">
         <v>10.9</v>
@@ -5361,7 +5498,7 @@
         <v>0.5</v>
       </c>
       <c r="O49">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="P49">
         <v>10.7</v>
@@ -5370,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S49">
         <v>0.2</v>
@@ -5415,25 +5552,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Mozambique</t>
-        </is>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>81</v>
       </c>
       <c r="B50">
         <v>2018</v>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>MIS</t>
-        </is>
+      <c r="C50" t="s">
+        <v>42</v>
       </c>
       <c r="D50">
-        <v>64.09999999999999</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="E50">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F50">
         <v>14.2</v>
@@ -5445,7 +5578,7 @@
         <v>12.4</v>
       </c>
       <c r="I50">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="J50">
         <v>0.6</v>
@@ -5472,7 +5605,7 @@
         <v>2</v>
       </c>
       <c r="R50">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="S50">
         <v>0.3</v>
@@ -5517,22 +5650,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Myanmar</t>
-        </is>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>82</v>
       </c>
       <c r="B51">
         <v>2016</v>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C51" t="s">
+        <v>32</v>
       </c>
       <c r="D51">
-        <v>82.40000000000001</v>
+        <v>82.4</v>
       </c>
       <c r="E51">
         <v>2.1</v>
@@ -5565,7 +5694,7 @@
         <v>15.5</v>
       </c>
       <c r="O51">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="P51">
         <v>8.5</v>
@@ -5607,7 +5736,7 @@
         <v>50.2</v>
       </c>
       <c r="AC51">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AD51">
         <v>0.9</v>
@@ -5619,25 +5748,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Namibia</t>
-        </is>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>83</v>
       </c>
       <c r="B52">
         <v>2013</v>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C52" t="s">
+        <v>32</v>
       </c>
       <c r="D52">
         <v>87.5</v>
       </c>
       <c r="E52">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="F52">
         <v>14.2</v>
@@ -5685,7 +5810,7 @@
         <v>52.7</v>
       </c>
       <c r="U52">
-        <v>81.09999999999999</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="V52">
         <v>5.3</v>
@@ -5721,19 +5846,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Nepal</t>
-        </is>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>84</v>
       </c>
       <c r="B53">
         <v>2016</v>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C53" t="s">
+        <v>32</v>
       </c>
       <c r="D53">
         <v>96</v>
@@ -5745,7 +5866,7 @@
         <v>24.4</v>
       </c>
       <c r="G53">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="H53">
         <v>35.9</v>
@@ -5790,10 +5911,10 @@
         <v>94.8</v>
       </c>
       <c r="V53">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W53">
-        <v>69.09999999999999</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="X53">
         <v>28.9</v>
@@ -5802,13 +5923,13 @@
         <v>1.9</v>
       </c>
       <c r="Z53">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="AA53">
         <v>3</v>
       </c>
       <c r="AB53">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="AC53">
         <v>3.3</v>
@@ -5823,19 +5944,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Nicaragua</t>
-        </is>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>85</v>
       </c>
       <c r="B54">
         <v>2001</v>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C54" t="s">
+        <v>32</v>
       </c>
       <c r="D54">
         <v>70.7</v>
@@ -5895,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>76.09999999999999</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="X54">
         <v>21.2</v>
@@ -5925,22 +6042,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Niger</t>
-        </is>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>86</v>
       </c>
       <c r="B55">
         <v>2012</v>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C55" t="s">
+        <v>32</v>
       </c>
       <c r="D55">
-        <v>67.09999999999999</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E55">
         <v>2.7</v>
@@ -5955,7 +6068,7 @@
         <v>14.8</v>
       </c>
       <c r="I55">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="J55">
         <v>0.1</v>
@@ -6003,7 +6116,7 @@
         <v>54.4</v>
       </c>
       <c r="Y55">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="Z55">
         <v>8.6</v>
@@ -6027,22 +6140,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>87</v>
       </c>
       <c r="B56">
         <v>2018</v>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C56" t="s">
+        <v>32</v>
       </c>
       <c r="D56">
-        <v>75.40000000000001</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="E56">
         <v>1.7</v>
@@ -6054,7 +6163,7 @@
         <v>7.5</v>
       </c>
       <c r="H56">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="I56">
         <v>11.4</v>
@@ -6117,7 +6226,7 @@
         <v>27.5</v>
       </c>
       <c r="AC56">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="AD56">
         <v>0.6</v>
@@ -6129,25 +6238,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>88</v>
       </c>
       <c r="B57">
         <v>2018</v>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C57" t="s">
+        <v>32</v>
       </c>
       <c r="D57">
         <v>96</v>
       </c>
       <c r="E57">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F57">
         <v>1.2</v>
@@ -6192,10 +6297,10 @@
         <v>0.1</v>
       </c>
       <c r="T57">
-        <v>73.09999999999999</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="U57">
-        <v>91.59999999999999</v>
+        <v>91.6</v>
       </c>
       <c r="V57">
         <v>3.7</v>
@@ -6207,7 +6312,7 @@
         <v>20.5</v>
       </c>
       <c r="Y57">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Z57">
         <v>20.3</v>
@@ -6219,7 +6324,7 @@
         <v>54.1</v>
       </c>
       <c r="AC57">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="AD57">
         <v>0.1</v>
@@ -6231,19 +6336,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Papua New Guinea</t>
-        </is>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>89</v>
       </c>
       <c r="B58">
         <v>2018</v>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C58" t="s">
+        <v>32</v>
       </c>
       <c r="D58">
         <v>45.5</v>
@@ -6300,7 +6401,7 @@
         <v>42.7</v>
       </c>
       <c r="V58">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="W58">
         <v>35</v>
@@ -6321,10 +6422,10 @@
         <v>0.6</v>
       </c>
       <c r="AC58">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AD58">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AE58">
         <v>0.5</v>
@@ -6333,19 +6434,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>90</v>
       </c>
       <c r="B59">
         <v>1990</v>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C59" t="s">
+        <v>32</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -6435,22 +6532,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Peru</t>
-        </is>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>91</v>
       </c>
       <c r="B60">
         <v>2012</v>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C60" t="s">
+        <v>32</v>
       </c>
       <c r="D60">
-        <v>85.90000000000001</v>
+        <v>85.9</v>
       </c>
       <c r="E60">
         <v>71.7</v>
@@ -6495,10 +6588,10 @@
         <v>2.9</v>
       </c>
       <c r="S60">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="T60">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="U60">
         <v>85.2</v>
@@ -6507,16 +6600,16 @@
         <v>0.5</v>
       </c>
       <c r="W60">
-        <v>78.59999999999999</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="X60">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="Y60">
         <v>1.7</v>
       </c>
       <c r="Z60">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AA60">
         <v>1</v>
@@ -6537,25 +6630,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Philippines</t>
-        </is>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>92</v>
       </c>
       <c r="B61">
         <v>2017</v>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C61" t="s">
+        <v>32</v>
       </c>
       <c r="D61">
         <v>96.5</v>
       </c>
       <c r="E61">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F61">
         <v>3.3</v>
@@ -6570,7 +6659,7 @@
         <v>3.5</v>
       </c>
       <c r="J61">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K61">
         <v>0.4</v>
@@ -6600,13 +6689,13 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="U61">
         <v>95.2</v>
       </c>
       <c r="V61">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W61">
         <v>81.5</v>
@@ -6618,7 +6707,7 @@
         <v>1.6</v>
       </c>
       <c r="Z61">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AA61">
         <v>1.9</v>
@@ -6639,19 +6728,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>93</v>
       </c>
       <c r="B62">
         <v>2017</v>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>MIS</t>
-        </is>
+      <c r="C62" t="s">
+        <v>42</v>
       </c>
       <c r="D62">
         <v>79.2</v>
@@ -6669,13 +6754,13 @@
         <v>1.2</v>
       </c>
       <c r="I62">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J62">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="K62">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L62">
         <v>0.1</v>
@@ -6684,7 +6769,7 @@
         <v>0.4</v>
       </c>
       <c r="N62">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O62">
         <v>20.7</v>
@@ -6708,7 +6793,7 @@
         <v>60.5</v>
       </c>
       <c r="V62">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="W62">
         <v>14.1</v>
@@ -6741,19 +6826,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Sao Tome and Principe</t>
-        </is>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>94</v>
       </c>
       <c r="B63">
         <v>2009</v>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C63" t="s">
+        <v>32</v>
       </c>
       <c r="D63">
         <v>94.2</v>
@@ -6843,22 +6924,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>95</v>
       </c>
       <c r="B64">
         <v>2018</v>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C64" t="s">
+        <v>32</v>
       </c>
       <c r="D64">
-        <v>85.59999999999999</v>
+        <v>85.6</v>
       </c>
       <c r="E64">
         <v>22.1</v>
@@ -6906,7 +6983,7 @@
         <v>0.3</v>
       </c>
       <c r="T64">
-        <v>70.90000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="U64">
         <v>82.2</v>
@@ -6945,19 +7022,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Sierra Leone</t>
-        </is>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>96</v>
       </c>
       <c r="B65">
         <v>2016</v>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>MIS</t>
-        </is>
+      <c r="C65" t="s">
+        <v>42</v>
       </c>
       <c r="D65">
         <v>70.5</v>
@@ -7047,19 +7120,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>97</v>
       </c>
       <c r="B66">
         <v>2016</v>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C66" t="s">
+        <v>32</v>
       </c>
       <c r="D66">
         <v>95.3</v>
@@ -7104,7 +7173,7 @@
         <v>0.9</v>
       </c>
       <c r="R66">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="S66">
         <v>0.3</v>
@@ -7122,7 +7191,7 @@
         <v>78.5</v>
       </c>
       <c r="X66">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="Y66">
         <v>4.5</v>
@@ -7131,7 +7200,7 @@
         <v>7.8</v>
       </c>
       <c r="AA66">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB66">
         <v>2.4</v>
@@ -7149,19 +7218,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Tajikistan</t>
-        </is>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>98</v>
       </c>
       <c r="B67">
         <v>2017</v>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C67" t="s">
+        <v>32</v>
       </c>
       <c r="D67">
         <v>85.8</v>
@@ -7176,7 +7241,7 @@
         <v>13.8</v>
       </c>
       <c r="H67">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I67">
         <v>2.1</v>
@@ -7227,10 +7292,10 @@
         <v>21.6</v>
       </c>
       <c r="Y67">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Z67">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="AA67">
         <v>27.6</v>
@@ -7251,19 +7316,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>99</v>
       </c>
       <c r="B68">
         <v>2017</v>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>MIS</t>
-        </is>
+      <c r="C68" t="s">
+        <v>42</v>
       </c>
       <c r="D68">
         <v>65.5</v>
@@ -7284,7 +7345,7 @@
         <v>8.9</v>
       </c>
       <c r="J68">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K68">
         <v>2.4</v>
@@ -7296,7 +7357,7 @@
         <v>0.6</v>
       </c>
       <c r="N68">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O68">
         <v>34.5</v>
@@ -7320,19 +7381,19 @@
         <v>57</v>
       </c>
       <c r="V68">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="W68">
         <v>40.9</v>
       </c>
       <c r="X68">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="Y68">
         <v>22</v>
       </c>
       <c r="Z68">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="AA68">
         <v>3.3</v>
@@ -7353,28 +7414,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Timor-Leste</t>
-        </is>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>100</v>
       </c>
       <c r="B69">
         <v>2016</v>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C69" t="s">
+        <v>32</v>
       </c>
       <c r="D69">
-        <v>80.40000000000001</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="E69">
         <v>22.8</v>
       </c>
       <c r="F69">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G69">
         <v>23.6</v>
@@ -7401,7 +7458,7 @@
         <v>5.3</v>
       </c>
       <c r="O69">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="P69">
         <v>3.4</v>
@@ -7425,7 +7482,7 @@
         <v>3.2</v>
       </c>
       <c r="W69">
-        <v>65.90000000000001</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="X69">
         <v>23.9</v>
@@ -7443,7 +7500,7 @@
         <v>31.8</v>
       </c>
       <c r="AC69">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="AD69">
         <v>0.6</v>
@@ -7455,28 +7512,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>101</v>
       </c>
       <c r="B70">
         <v>2017</v>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>MIS</t>
-        </is>
+      <c r="C70" t="s">
+        <v>42</v>
       </c>
       <c r="D70">
-        <v>72.09999999999999</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="E70">
         <v>1.9</v>
       </c>
       <c r="F70">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G70">
         <v>16</v>
@@ -7521,7 +7574,7 @@
         <v>22.8</v>
       </c>
       <c r="U70">
-        <v>68.90000000000001</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="V70">
         <v>2.9</v>
@@ -7533,16 +7586,16 @@
         <v>62.5</v>
       </c>
       <c r="Y70">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="Z70">
         <v>25.4</v>
       </c>
       <c r="AA70">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB70">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="AC70">
         <v>3.9</v>
@@ -7557,19 +7610,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>102</v>
       </c>
       <c r="B71">
         <v>2013</v>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C71" t="s">
+        <v>32</v>
       </c>
       <c r="D71">
         <v>99.2</v>
@@ -7584,7 +7633,7 @@
         <v>1.7</v>
       </c>
       <c r="H71">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I71">
         <v>1.3</v>
@@ -7602,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="O71">
         <v>0.8</v>
@@ -7659,22 +7708,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Turkmenistan</t>
-        </is>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>103</v>
       </c>
       <c r="B72">
         <v>2000</v>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C72" t="s">
+        <v>32</v>
       </c>
       <c r="D72">
-        <v>66.09999999999999</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="E72">
         <v>25.7</v>
@@ -7731,13 +7776,13 @@
         <v>0.8</v>
       </c>
       <c r="W72">
-        <v>81.40000000000001</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="X72">
         <v>14.9</v>
       </c>
       <c r="Y72">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z72">
         <v>13.1</v>
@@ -7761,19 +7806,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>104</v>
       </c>
       <c r="B73">
         <v>2019</v>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>MIS</t>
-        </is>
+      <c r="C73" t="s">
+        <v>42</v>
       </c>
       <c r="D73">
         <v>76.2</v>
@@ -7797,7 +7838,7 @@
         <v>5.2</v>
       </c>
       <c r="K73">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L73">
         <v>0.3</v>
@@ -7824,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="T73">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="U73">
         <v>54.3</v>
@@ -7863,19 +7904,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>105</v>
       </c>
       <c r="B74">
         <v>2007</v>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C74" t="s">
+        <v>32</v>
       </c>
       <c r="D74">
         <v>98.8</v>
@@ -7908,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O74">
         <v>1.2</v>
@@ -7965,22 +8002,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Uzbekistan</t>
-        </is>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>106</v>
       </c>
       <c r="B75">
         <v>1996</v>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C75" t="s">
+        <v>32</v>
       </c>
       <c r="D75">
-        <v>80.59999999999999</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="E75">
         <v>59.7</v>
@@ -8004,7 +8037,7 @@
         <v>0.2</v>
       </c>
       <c r="L75">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -8013,7 +8046,7 @@
         <v>0.3</v>
       </c>
       <c r="O75">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -8043,7 +8076,7 @@
         <v>24.5</v>
       </c>
       <c r="Y75">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Z75">
         <v>20</v>
@@ -8052,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="AB75">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AC75">
         <v>21.2</v>
@@ -8067,19 +8100,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Vietnam</t>
-        </is>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>107</v>
       </c>
       <c r="B76">
         <v>2005</v>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>AIS</t>
-        </is>
+      <c r="C76" t="s">
+        <v>108</v>
       </c>
       <c r="D76">
         <v>34.4</v>
@@ -8088,7 +8117,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="G76">
         <v>1.4</v>
@@ -8115,7 +8144,7 @@
         <v>0.1</v>
       </c>
       <c r="O76">
-        <v>65.59999999999999</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -8148,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="Z76">
-        <v>77.40000000000001</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="AA76">
         <v>4.2</v>
@@ -8169,19 +8198,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>109</v>
       </c>
       <c r="B77">
         <v>2013</v>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C77" t="s">
+        <v>32</v>
       </c>
       <c r="D77">
         <v>74.2</v>
@@ -8202,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K77">
         <v>3.4</v>
@@ -8232,7 +8257,7 @@
         <v>0.8</v>
       </c>
       <c r="T77">
-        <v>67.09999999999999</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="U77">
         <v>69.2</v>
@@ -8247,7 +8272,7 @@
         <v>3.2</v>
       </c>
       <c r="Y77">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="Z77">
         <v>10.5</v>
@@ -8271,19 +8296,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>110</v>
       </c>
       <c r="B78">
         <v>2018</v>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C78" t="s">
+        <v>32</v>
       </c>
       <c r="D78">
         <v>72.3</v>
@@ -8295,7 +8316,7 @@
         <v>11.8</v>
       </c>
       <c r="G78">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H78">
         <v>23.9</v>
@@ -8352,7 +8373,7 @@
         <v>10.1</v>
       </c>
       <c r="Z78">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AA78">
         <v>4.7</v>
@@ -8373,28 +8394,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>111</v>
       </c>
       <c r="B79">
         <v>2015</v>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>DHS</t>
-        </is>
+      <c r="C79" t="s">
+        <v>32</v>
       </c>
       <c r="D79">
-        <v>78.40000000000001</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="E79">
         <v>14.1</v>
       </c>
       <c r="F79">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G79">
         <v>5.5</v>
@@ -8436,7 +8453,7 @@
         <v>0.1</v>
       </c>
       <c r="T79">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="U79">
         <v>67.8</v>

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -1,368 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichul\Desktop\2020-2021\Fall of 2020\Independent Study\water-accessibility\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B33C72-BA54-4F83-9961-6F1813FBBBD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="112">
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Survey</t>
-  </si>
-  <si>
-    <t>imws</t>
-  </si>
-  <si>
-    <t>phom</t>
-  </si>
-  <si>
-    <t>pipy</t>
-  </si>
-  <si>
-    <t>ptap</t>
-  </si>
-  <si>
-    <t>bore</t>
-  </si>
-  <si>
-    <t>pwel</t>
-  </si>
-  <si>
-    <t>pspr</t>
-  </si>
-  <si>
-    <t>rain</t>
-  </si>
-  <si>
-    <t>truc</t>
-  </si>
-  <si>
-    <t>bott</t>
-  </si>
-  <si>
-    <t>uiws</t>
-  </si>
-  <si>
-    <t>uwel</t>
-  </si>
-  <si>
-    <t>uspr</t>
-  </si>
-  <si>
-    <t>surw</t>
-  </si>
-  <si>
-    <t>othw</t>
-  </si>
-  <si>
-    <t>iwsp</t>
-  </si>
-  <si>
-    <t>basw</t>
-  </si>
-  <si>
-    <t>liws</t>
-  </si>
-  <si>
-    <t>watp</t>
-  </si>
-  <si>
-    <t>tles</t>
-  </si>
-  <si>
-    <t>tmor</t>
-  </si>
-  <si>
-    <t>bicy</t>
-  </si>
-  <si>
-    <t>cart</t>
-  </si>
-  <si>
-    <t>mcyc</t>
-  </si>
-  <si>
-    <t>pcar</t>
-  </si>
-  <si>
-    <t>boat</t>
-  </si>
-  <si>
-    <t>wigc</t>
-  </si>
-  <si>
-    <t>clusters</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>DHS</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>MIS</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>Congo Democratic Republic</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kyrgyz Republic</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>AIS</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,14 +63,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -464,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -741,128 +350,194 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Survey</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>imws</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>phom</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pipy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ptap</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>bore</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pwel</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>pspr</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>rain</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>truc</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ctan</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>bott</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>uiws</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>uwel</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>uspr</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>surw</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>othw</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>iwsp</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>basw</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>liws</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>watp</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>tles</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>tmor</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>bicy</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>cart</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>mcyc</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>pcar</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>boat</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>wigc</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>clusters</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>31</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Afghanistan</t>
+        </is>
       </c>
       <c r="B2">
         <v>2015</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D2">
         <v>71.2</v>
       </c>
       <c r="E2">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F2">
         <v>4.8</v>
@@ -871,7 +546,7 @@
         <v>14.2</v>
       </c>
       <c r="H2">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="I2">
         <v>18.5</v>
@@ -886,7 +561,7 @@
         <v>1.5</v>
       </c>
       <c r="M2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="N2">
         <v>0.2</v>
@@ -922,7 +597,7 @@
         <v>45.2</v>
       </c>
       <c r="Y2">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z2">
         <v>30</v>
@@ -931,7 +606,7 @@
         <v>5.8</v>
       </c>
       <c r="AB2">
-        <v>35.200000000000003</v>
+        <v>35.2</v>
       </c>
       <c r="AC2">
         <v>11.8</v>
@@ -946,18 +621,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>33</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Albania</t>
+        </is>
       </c>
       <c r="B3">
         <v>2018</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D3">
-        <v>98.4</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E3">
         <v>48.8</v>
@@ -972,7 +651,7 @@
         <v>1.4</v>
       </c>
       <c r="I3">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="J3">
         <v>2.5</v>
@@ -987,7 +666,7 @@
         <v>0.2</v>
       </c>
       <c r="N3">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="O3">
         <v>1.6</v>
@@ -1014,13 +693,13 @@
         <v>0.9</v>
       </c>
       <c r="W3">
-        <v>77.900000000000006</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="X3">
         <v>20.6</v>
       </c>
       <c r="Y3">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Z3">
         <v>26.4</v>
@@ -1044,24 +723,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>34</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
       </c>
       <c r="B4">
         <v>2016</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D4">
-        <v>66.900000000000006</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="E4">
         <v>4.3</v>
       </c>
       <c r="F4">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G4">
         <v>10.3</v>
@@ -1079,7 +762,7 @@
         <v>1.7</v>
       </c>
       <c r="L4">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M4">
         <v>4.3</v>
@@ -1091,7 +774,7 @@
         <v>33.1</v>
       </c>
       <c r="P4">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Q4">
         <v>4.8</v>
@@ -1121,7 +804,7 @@
         <v>15.6</v>
       </c>
       <c r="Z4">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AA4">
         <v>1.3</v>
@@ -1142,18 +825,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>35</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
       </c>
       <c r="B5">
         <v>2016</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D5">
-        <v>99.9</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E5">
         <v>88.3</v>
@@ -1201,16 +888,16 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>97.6</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="U5">
-        <v>99.1</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="V5">
         <v>0.1</v>
       </c>
       <c r="W5">
-        <v>97.6</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="X5">
         <v>1.6</v>
@@ -1228,7 +915,7 @@
         <v>0.2</v>
       </c>
       <c r="AC5">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="AD5">
         <v>0.3</v>
@@ -1240,18 +927,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>36</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Azerbaijan</t>
+        </is>
       </c>
       <c r="B6">
         <v>2006</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D6">
-        <v>90.6</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="E6">
         <v>34</v>
@@ -1263,7 +954,7 @@
         <v>3.5</v>
       </c>
       <c r="H6">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I6">
         <v>6.2</v>
@@ -1290,31 +981,31 @@
         <v>0.2</v>
       </c>
       <c r="Q6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="R6">
         <v>7</v>
       </c>
       <c r="S6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="T6">
         <v>71.2</v>
       </c>
       <c r="U6">
-        <v>86.4</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="V6">
         <v>3.4</v>
       </c>
       <c r="W6">
-        <v>75.900000000000006</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="X6">
         <v>18.7</v>
       </c>
       <c r="Y6">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="Z6">
         <v>6.9</v>
@@ -1323,10 +1014,10 @@
         <v>3.3</v>
       </c>
       <c r="AB6">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AC6">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="AD6">
         <v>0.1</v>
@@ -1338,15 +1029,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>37</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
       </c>
       <c r="B7">
         <v>2014</v>
       </c>
-      <c r="C7" t="s">
-        <v>32</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D7">
         <v>97.8</v>
@@ -1361,7 +1056,7 @@
         <v>2.7</v>
       </c>
       <c r="H7">
-        <v>86.4</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="I7">
         <v>0.2</v>
@@ -1382,7 +1077,7 @@
         <v>0.3</v>
       </c>
       <c r="O7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="P7">
         <v>0.6</v>
@@ -1397,10 +1092,10 @@
         <v>0.1</v>
       </c>
       <c r="T7">
-        <v>75.099999999999994</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="U7">
-        <v>96.4</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="V7">
         <v>1.3</v>
@@ -1436,21 +1131,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Benin</t>
+        </is>
       </c>
       <c r="B8">
         <v>2018</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D8">
         <v>71.7</v>
       </c>
       <c r="E8">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="F8">
         <v>4.2</v>
@@ -1462,7 +1161,7 @@
         <v>28.9</v>
       </c>
       <c r="I8">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="J8">
         <v>0.3</v>
@@ -1513,7 +1212,7 @@
         <v>12.1</v>
       </c>
       <c r="Z8">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="AA8">
         <v>3.2</v>
@@ -1534,15 +1233,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>39</v>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
       </c>
       <c r="B9">
         <v>2008</v>
       </c>
-      <c r="C9" t="s">
-        <v>32</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D9">
         <v>87.3</v>
@@ -1632,15 +1335,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>40</v>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
       </c>
       <c r="B10">
         <v>1996</v>
       </c>
-      <c r="C10" t="s">
-        <v>32</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D10">
         <v>76</v>
@@ -1730,18 +1437,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>41</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
       </c>
       <c r="B11">
         <v>2018</v>
       </c>
-      <c r="C11" t="s">
-        <v>42</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D11">
-        <v>80.900000000000006</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="E11">
         <v>2.6</v>
@@ -1750,7 +1461,7 @@
         <v>9.6</v>
       </c>
       <c r="G11">
-        <v>18.399999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="H11">
         <v>40.6</v>
@@ -1774,7 +1485,7 @@
         <v>0.2</v>
       </c>
       <c r="O11">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="P11">
         <v>16.3</v>
@@ -1798,7 +1509,7 @@
         <v>28.5</v>
       </c>
       <c r="W11">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="X11">
         <v>49.8</v>
@@ -1828,21 +1539,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>43</v>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Burundi</t>
+        </is>
       </c>
       <c r="B12">
         <v>2017</v>
       </c>
-      <c r="C12" t="s">
-        <v>32</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D12">
-        <v>82.9</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E12">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -1872,7 +1587,7 @@
         <v>0.1</v>
       </c>
       <c r="O12">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="P12">
         <v>1.7</v>
@@ -1893,13 +1608,13 @@
         <v>63.1</v>
       </c>
       <c r="V12">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="W12">
         <v>9.6</v>
       </c>
       <c r="X12">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="Y12">
         <v>25.5</v>
@@ -1911,10 +1626,10 @@
         <v>0.2</v>
       </c>
       <c r="AB12">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AC12">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AD12">
         <v>0.2</v>
@@ -1926,15 +1641,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>44</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
       </c>
       <c r="B13">
         <v>2014</v>
       </c>
-      <c r="C13" t="s">
-        <v>32</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D13">
         <v>83.7</v>
@@ -1973,7 +1692,7 @@
         <v>16.2</v>
       </c>
       <c r="P13">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q13">
         <v>0.7</v>
@@ -2015,7 +1734,7 @@
         <v>14.1</v>
       </c>
       <c r="AD13">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AE13">
         <v>0.2</v>
@@ -2024,21 +1743,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>45</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
       </c>
       <c r="B14">
         <v>2018</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D14">
         <v>78.8</v>
       </c>
       <c r="E14">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F14">
         <v>6.9</v>
@@ -2053,7 +1776,7 @@
         <v>3.9</v>
       </c>
       <c r="J14">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="K14">
         <v>0.5</v>
@@ -2083,7 +1806,7 @@
         <v>0.1</v>
       </c>
       <c r="T14">
-        <v>32.700000000000003</v>
+        <v>32.7</v>
       </c>
       <c r="U14">
         <v>71</v>
@@ -2092,7 +1815,7 @@
         <v>7.5</v>
       </c>
       <c r="W14">
-        <v>34.200000000000003</v>
+        <v>34.2</v>
       </c>
       <c r="X14">
         <v>54.6</v>
@@ -2122,15 +1845,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>46</v>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Central African Republic</t>
+        </is>
       </c>
       <c r="B15">
         <v>1995</v>
       </c>
-      <c r="C15" t="s">
-        <v>32</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D15">
         <v>16.3</v>
@@ -2166,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>83.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2187,16 +1914,16 @@
         <v>15.2</v>
       </c>
       <c r="V15">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W15">
         <v>7.5</v>
       </c>
       <c r="X15">
-        <v>75.099999999999994</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="Y15">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="Z15">
         <v>11.5</v>
@@ -2220,15 +1947,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>47</v>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
       </c>
       <c r="B16">
         <v>2015</v>
       </c>
-      <c r="C16" t="s">
-        <v>32</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D16">
         <v>55.8</v>
@@ -2318,21 +2049,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>48</v>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
-      <c r="C17" t="s">
-        <v>32</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D17">
         <v>92.8</v>
       </c>
       <c r="E17">
-        <v>80.900000000000006</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2377,7 +2112,7 @@
         <v>0.7</v>
       </c>
       <c r="T17">
-        <v>91.1</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="U17">
         <v>92.5</v>
@@ -2386,7 +2121,7 @@
         <v>0.2</v>
       </c>
       <c r="W17">
-        <v>95.9</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="X17">
         <v>3.3</v>
@@ -2404,7 +2139,7 @@
         <v>26.9</v>
       </c>
       <c r="AC17">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -2416,15 +2151,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>49</v>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Comoros</t>
+        </is>
       </c>
       <c r="B18">
         <v>2012</v>
       </c>
-      <c r="C18" t="s">
-        <v>32</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D18">
         <v>91</v>
@@ -2448,7 +2187,7 @@
         <v>3.7</v>
       </c>
       <c r="K18">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="L18">
         <v>2.9</v>
@@ -2463,7 +2202,7 @@
         <v>8.9</v>
       </c>
       <c r="P18">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="Q18">
         <v>2.1</v>
@@ -2490,10 +2229,10 @@
         <v>20.7</v>
       </c>
       <c r="Y18">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z18">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AA18">
         <v>0.4</v>
@@ -2514,15 +2253,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>50</v>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Congo</t>
+        </is>
       </c>
       <c r="B19">
         <v>2012</v>
       </c>
-      <c r="C19" t="s">
-        <v>32</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D19">
         <v>75.7</v>
@@ -2540,7 +2283,7 @@
         <v>9.9</v>
       </c>
       <c r="I19">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="J19">
         <v>4.2</v>
@@ -2564,13 +2307,13 @@
         <v>5.2</v>
       </c>
       <c r="Q19">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="R19">
         <v>8.1</v>
       </c>
       <c r="S19">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="T19">
         <v>34.6</v>
@@ -2582,7 +2325,7 @@
         <v>13.6</v>
       </c>
       <c r="W19">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="X19">
         <v>39</v>
@@ -2600,7 +2343,7 @@
         <v>4.8</v>
       </c>
       <c r="AC19">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AD19">
         <v>0.3</v>
@@ -2612,15 +2355,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>51</v>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Congo Democratic Republic</t>
+        </is>
       </c>
       <c r="B20">
         <v>2014</v>
       </c>
-      <c r="C20" t="s">
-        <v>32</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D20">
         <v>48.8</v>
@@ -2632,10 +2379,10 @@
         <v>5.6</v>
       </c>
       <c r="G20">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H20">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -2662,10 +2409,10 @@
         <v>5.4</v>
       </c>
       <c r="Q20">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="R20">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S20">
         <v>0.3</v>
@@ -2674,7 +2421,7 @@
         <v>7</v>
       </c>
       <c r="U20">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="V20">
         <v>12.1</v>
@@ -2686,7 +2433,7 @@
         <v>59.3</v>
       </c>
       <c r="Y20">
-        <v>32.799999999999997</v>
+        <v>32.8</v>
       </c>
       <c r="Z20">
         <v>24.1</v>
@@ -2695,7 +2442,7 @@
         <v>0.1</v>
       </c>
       <c r="AB20">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AC20">
         <v>1.4</v>
@@ -2710,18 +2457,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>52</v>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cote d'Ivoire</t>
+        </is>
       </c>
       <c r="B21">
         <v>2012</v>
       </c>
-      <c r="C21" t="s">
-        <v>32</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D21">
-        <v>78.400000000000006</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E21">
         <v>11.2</v>
@@ -2763,16 +2514,16 @@
         <v>2.7</v>
       </c>
       <c r="R21">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="S21">
         <v>0.7</v>
       </c>
       <c r="T21">
-        <v>40.299999999999997</v>
+        <v>40.3</v>
       </c>
       <c r="U21">
-        <v>72.599999999999994</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="V21">
         <v>5.3</v>
@@ -2787,7 +2538,7 @@
         <v>8.9</v>
       </c>
       <c r="Z21">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="AA21">
         <v>1.6</v>
@@ -2808,21 +2559,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>53</v>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Dominican Republic</t>
+        </is>
       </c>
       <c r="B22">
         <v>2013</v>
       </c>
-      <c r="C22" t="s">
-        <v>32</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D22">
         <v>98.7</v>
       </c>
       <c r="E22">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="F22">
         <v>6.6</v>
@@ -2867,16 +2622,16 @@
         <v>0.5</v>
       </c>
       <c r="T22">
-        <v>86.1</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="U22">
-        <v>97.6</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="V22">
         <v>0.9</v>
       </c>
       <c r="W22">
-        <v>86.9</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="X22">
         <v>12</v>
@@ -2906,21 +2661,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>54</v>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
       </c>
       <c r="B23">
         <v>2014</v>
       </c>
-      <c r="C23" t="s">
-        <v>32</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D23">
-        <v>99.6</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E23">
-        <v>90.6</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="F23">
         <v>0.4</v>
@@ -2965,10 +2724,10 @@
         <v>0.4</v>
       </c>
       <c r="T23">
-        <v>93.1</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="U23">
-        <v>98.9</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="V23">
         <v>0.6</v>
@@ -2992,7 +2751,7 @@
         <v>8.1</v>
       </c>
       <c r="AC23">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -3004,18 +2763,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>55</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Eritrea</t>
+        </is>
       </c>
       <c r="B24">
         <v>2002</v>
       </c>
-      <c r="C24" t="s">
-        <v>32</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D24">
-        <v>67.400000000000006</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E24">
         <v>16.3</v>
@@ -3030,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3051,7 +2814,7 @@
         <v>32.5</v>
       </c>
       <c r="P24">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3102,27 +2865,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>56</v>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Eswatini</t>
+        </is>
       </c>
       <c r="B25">
         <v>2007</v>
       </c>
-      <c r="C25" t="s">
-        <v>32</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D25">
-        <v>71.400000000000006</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E25">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="F25">
         <v>21.3</v>
       </c>
       <c r="G25">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="H25">
         <v>6.9</v>
@@ -3149,7 +2916,7 @@
         <v>28.6</v>
       </c>
       <c r="P25">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -3164,7 +2931,7 @@
         <v>42.6</v>
       </c>
       <c r="U25">
-        <v>66.599999999999994</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="V25">
         <v>4.5</v>
@@ -3200,15 +2967,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>57</v>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ethiopia</t>
+        </is>
       </c>
       <c r="B26">
         <v>2016</v>
       </c>
-      <c r="C26" t="s">
-        <v>32</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D26">
         <v>65.2</v>
@@ -3244,10 +3015,10 @@
         <v>0.2</v>
       </c>
       <c r="O26">
-        <v>34.799999999999997</v>
+        <v>34.8</v>
       </c>
       <c r="P26">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="Q26">
         <v>20</v>
@@ -3277,13 +3048,13 @@
         <v>28.2</v>
       </c>
       <c r="Z26">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AA26">
         <v>1.6</v>
       </c>
       <c r="AB26">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AC26">
         <v>0.8</v>
@@ -3298,18 +3069,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>58</v>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Gabon</t>
+        </is>
       </c>
       <c r="B27">
         <v>2012</v>
       </c>
-      <c r="C27" t="s">
-        <v>32</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D27">
-        <v>93.1</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E27">
         <v>25.4</v>
@@ -3339,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="O27">
         <v>6.7</v>
@@ -3366,7 +3141,7 @@
         <v>7.2</v>
       </c>
       <c r="W27">
-        <v>65.599999999999994</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="X27">
         <v>23.1</v>
@@ -3396,15 +3171,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>59</v>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Gambia</t>
+        </is>
       </c>
       <c r="B28">
         <v>2013</v>
       </c>
-      <c r="C28" t="s">
-        <v>32</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D28">
         <v>91</v>
@@ -3413,13 +3192,13 @@
         <v>3.4</v>
       </c>
       <c r="F28">
-        <v>38.200000000000003</v>
+        <v>38.2</v>
       </c>
       <c r="G28">
-        <v>32.799999999999997</v>
+        <v>32.8</v>
       </c>
       <c r="H28">
-        <v>8.8000000000000007</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I28">
         <v>7.4</v>
@@ -3458,7 +3237,7 @@
         <v>43.7</v>
       </c>
       <c r="U28">
-        <v>86.4</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="V28">
         <v>4</v>
@@ -3494,18 +3273,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>60</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
-      <c r="C29" t="s">
-        <v>42</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D29">
-        <v>93.1</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="E29">
         <v>2.7</v>
@@ -3517,10 +3300,10 @@
         <v>14.6</v>
       </c>
       <c r="H29">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="I29">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="J29">
         <v>0.1</v>
@@ -3535,7 +3318,7 @@
         <v>0.1</v>
       </c>
       <c r="N29">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="O29">
         <v>6.9</v>
@@ -3547,7 +3330,7 @@
         <v>0.6</v>
       </c>
       <c r="R29">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -3592,15 +3375,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>61</v>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
       </c>
       <c r="B30">
         <v>2015</v>
       </c>
-      <c r="C30" t="s">
-        <v>32</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D30">
         <v>86.5</v>
@@ -3654,7 +3441,7 @@
         <v>82.2</v>
       </c>
       <c r="U30">
-        <v>86.1</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="V30">
         <v>0.4</v>
@@ -3663,7 +3450,7 @@
         <v>89.5</v>
       </c>
       <c r="X30">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Y30">
         <v>1.2</v>
@@ -3690,15 +3477,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>62</v>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guinea</t>
+        </is>
       </c>
       <c r="B31">
         <v>2018</v>
       </c>
-      <c r="C31" t="s">
-        <v>32</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D31">
         <v>79.3</v>
@@ -3731,16 +3522,16 @@
         <v>0.2</v>
       </c>
       <c r="N31">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="O31">
         <v>20.7</v>
       </c>
       <c r="P31">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="Q31">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="R31">
         <v>5.9</v>
@@ -3755,7 +3546,7 @@
         <v>60.2</v>
       </c>
       <c r="V31">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="W31">
         <v>31</v>
@@ -3788,15 +3579,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>63</v>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
       </c>
       <c r="B32">
         <v>2009</v>
       </c>
-      <c r="C32" t="s">
-        <v>32</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D32">
         <v>94.8</v>
@@ -3805,10 +3600,10 @@
         <v>14</v>
       </c>
       <c r="F32">
-        <v>18.399999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="G32">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -3829,7 +3624,7 @@
         <v>0.1</v>
       </c>
       <c r="N32">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="O32">
         <v>5.2</v>
@@ -3856,7 +3651,7 @@
         <v>0.2</v>
       </c>
       <c r="W32">
-        <v>92.6</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="X32">
         <v>6.5</v>
@@ -3868,7 +3663,7 @@
         <v>52.1</v>
       </c>
       <c r="AA32">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB32">
         <v>8.9</v>
@@ -3886,24 +3681,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>64</v>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
       </c>
       <c r="B33">
         <v>2017</v>
       </c>
-      <c r="C33" t="s">
-        <v>32</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D33">
-        <v>75.599999999999994</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E33">
         <v>1.2</v>
       </c>
       <c r="F33">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="G33">
         <v>18.8</v>
@@ -3927,7 +3726,7 @@
         <v>0.3</v>
       </c>
       <c r="N33">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="O33">
         <v>24.4</v>
@@ -3960,7 +3759,7 @@
         <v>66.5</v>
       </c>
       <c r="Y33">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="Z33">
         <v>5.7</v>
@@ -3969,10 +3768,10 @@
         <v>0.2</v>
       </c>
       <c r="AB33">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AC33">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AD33">
         <v>0.2</v>
@@ -3984,15 +3783,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>65</v>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
       </c>
       <c r="B34">
         <v>2012</v>
       </c>
-      <c r="C34" t="s">
-        <v>32</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D34">
         <v>90.2</v>
@@ -4028,7 +3831,7 @@
         <v>38.6</v>
       </c>
       <c r="O34">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -4052,7 +3855,7 @@
         <v>0.1</v>
       </c>
       <c r="W34">
-        <v>88.4</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="X34">
         <v>10.8</v>
@@ -4061,16 +3864,16 @@
         <v>0.7</v>
       </c>
       <c r="Z34">
-        <v>33.299999999999997</v>
+        <v>33.3</v>
       </c>
       <c r="AA34">
         <v>1.4</v>
       </c>
       <c r="AB34">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AC34">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="AD34">
         <v>0.4</v>
@@ -4082,21 +3885,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>66</v>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
       </c>
       <c r="B35">
         <v>2016</v>
       </c>
-      <c r="C35" t="s">
-        <v>32</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D35">
         <v>94.5</v>
       </c>
       <c r="E35">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="F35">
         <v>13.6</v>
@@ -4105,7 +3912,7 @@
         <v>15.9</v>
       </c>
       <c r="H35">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="I35">
         <v>3.7</v>
@@ -4141,7 +3948,7 @@
         <v>0.2</v>
       </c>
       <c r="T35">
-        <v>64.400000000000006</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="U35">
         <v>92.7</v>
@@ -4156,7 +3963,7 @@
         <v>31.4</v>
       </c>
       <c r="Y35">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="Z35">
         <v>52.1</v>
@@ -4165,7 +3972,7 @@
         <v>3.6</v>
       </c>
       <c r="AB35">
-        <v>37.700000000000003</v>
+        <v>37.7</v>
       </c>
       <c r="AC35">
         <v>6</v>
@@ -4180,24 +3987,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>67</v>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
       </c>
       <c r="B36">
         <v>2017</v>
       </c>
-      <c r="C36" t="s">
-        <v>32</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D36">
-        <v>90.9</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E36">
         <v>7.3</v>
       </c>
       <c r="F36">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G36">
         <v>0.6</v>
@@ -4212,7 +4023,7 @@
         <v>9.6</v>
       </c>
       <c r="K36">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="L36">
         <v>0.4</v>
@@ -4227,7 +4038,7 @@
         <v>9.1</v>
       </c>
       <c r="P36">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="Q36">
         <v>2.5</v>
@@ -4257,7 +4068,7 @@
         <v>0.5</v>
       </c>
       <c r="Z36">
-        <v>39.299999999999997</v>
+        <v>39.3</v>
       </c>
       <c r="AA36">
         <v>0.2</v>
@@ -4278,15 +4089,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>68</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
       </c>
       <c r="B37">
         <v>2018</v>
       </c>
-      <c r="C37" t="s">
-        <v>32</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D37">
         <v>99.8</v>
@@ -4319,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>37.799999999999997</v>
+        <v>37.8</v>
       </c>
       <c r="O37">
         <v>0.2</v>
@@ -4340,7 +4155,7 @@
         <v>99.2</v>
       </c>
       <c r="U37">
-        <v>99.6</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="V37">
         <v>0.1</v>
@@ -4376,24 +4191,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>69</v>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
       </c>
       <c r="B38">
         <v>1999</v>
       </c>
-      <c r="C38" t="s">
-        <v>32</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D38">
-        <v>69.400000000000006</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E38">
         <v>49.5</v>
       </c>
       <c r="F38">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G38">
         <v>7.6</v>
@@ -4438,13 +4257,13 @@
         <v>59.3</v>
       </c>
       <c r="U38">
-        <v>68.400000000000006</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="V38">
         <v>0.8</v>
       </c>
       <c r="W38">
-        <v>70.099999999999994</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="X38">
         <v>26.4</v>
@@ -4474,15 +4293,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>70</v>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
       </c>
       <c r="B39">
         <v>2015</v>
       </c>
-      <c r="C39" t="s">
-        <v>42</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D39">
         <v>78.3</v>
@@ -4503,7 +4326,7 @@
         <v>7.9</v>
       </c>
       <c r="J39">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K39">
         <v>5.5</v>
@@ -4524,7 +4347,7 @@
         <v>2.4</v>
       </c>
       <c r="Q39">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="R39">
         <v>16.8</v>
@@ -4536,7 +4359,7 @@
         <v>45.4</v>
       </c>
       <c r="U39">
-        <v>71.599999999999994</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="V39">
         <v>6</v>
@@ -4551,10 +4374,10 @@
         <v>12.1</v>
       </c>
       <c r="Z39">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="AA39">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AB39">
         <v>9.5</v>
@@ -4572,15 +4395,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>71</v>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Kyrgyz Republic</t>
+        </is>
       </c>
       <c r="B40">
         <v>2012</v>
       </c>
-      <c r="C40" t="s">
-        <v>32</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D40">
         <v>89.2</v>
@@ -4598,7 +4425,7 @@
         <v>1.9</v>
       </c>
       <c r="I40">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J40">
         <v>2</v>
@@ -4625,7 +4452,7 @@
         <v>1.6</v>
       </c>
       <c r="R40">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S40">
         <v>0.1</v>
@@ -4634,7 +4461,7 @@
         <v>66.2</v>
       </c>
       <c r="U40">
-        <v>87.9</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="V40">
         <v>0.7</v>
@@ -4670,18 +4497,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>72</v>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Lesotho</t>
+        </is>
       </c>
       <c r="B41">
         <v>2014</v>
       </c>
-      <c r="C41" t="s">
-        <v>32</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D41">
-        <v>83.9</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -4690,13 +4521,13 @@
         <v>22.6</v>
       </c>
       <c r="G41">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="H41">
         <v>5.7</v>
       </c>
       <c r="I41">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="J41">
         <v>4.2</v>
@@ -4714,13 +4545,13 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="P41">
         <v>7.1</v>
       </c>
       <c r="Q41">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R41">
         <v>0.7</v>
@@ -4747,7 +4578,7 @@
         <v>16</v>
       </c>
       <c r="Z41">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AA41">
         <v>9.5</v>
@@ -4756,7 +4587,7 @@
         <v>0.2</v>
       </c>
       <c r="AC41">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AD41">
         <v>0</v>
@@ -4768,15 +4599,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>73</v>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Liberia</t>
+        </is>
       </c>
       <c r="B42">
         <v>2016</v>
       </c>
-      <c r="C42" t="s">
-        <v>42</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D42">
         <v>84.8</v>
@@ -4815,7 +4650,7 @@
         <v>15.2</v>
       </c>
       <c r="P42">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="Q42">
         <v>1.4</v>
@@ -4839,7 +4674,7 @@
         <v>21.5</v>
       </c>
       <c r="X42">
-        <v>73.900000000000006</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="Y42">
         <v>3.8</v>
@@ -4866,15 +4701,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>74</v>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
       </c>
       <c r="B43">
         <v>2016</v>
       </c>
-      <c r="C43" t="s">
-        <v>42</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D43">
         <v>44.2</v>
@@ -4895,7 +4734,7 @@
         <v>11.5</v>
       </c>
       <c r="J43">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -4943,7 +4782,7 @@
         <v>5.9</v>
       </c>
       <c r="Z43">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="AA43">
         <v>8.6</v>
@@ -4964,15 +4803,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>75</v>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
       </c>
       <c r="B44">
         <v>2017</v>
       </c>
-      <c r="C44" t="s">
-        <v>42</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D44">
         <v>86.3</v>
@@ -5011,7 +4854,7 @@
         <v>13.7</v>
       </c>
       <c r="P44">
-        <v>8.6999999999999993</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q44">
         <v>1.6</v>
@@ -5041,7 +4884,7 @@
         <v>12.4</v>
       </c>
       <c r="Z44">
-        <v>35.700000000000003</v>
+        <v>35.7</v>
       </c>
       <c r="AA44">
         <v>2</v>
@@ -5050,7 +4893,7 @@
         <v>2.8</v>
       </c>
       <c r="AC44">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AD44">
         <v>0.3</v>
@@ -5062,15 +4905,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>76</v>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Maldives</t>
+        </is>
       </c>
       <c r="B45">
         <v>2017</v>
       </c>
-      <c r="C45" t="s">
-        <v>32</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D45">
         <v>99.7</v>
@@ -5103,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="O45">
         <v>0.3</v>
@@ -5124,7 +4971,7 @@
         <v>96.7</v>
       </c>
       <c r="U45">
-        <v>99.4</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="V45">
         <v>0.1</v>
@@ -5160,15 +5007,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>77</v>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mali</t>
+        </is>
       </c>
       <c r="B46">
         <v>2018</v>
       </c>
-      <c r="C46" t="s">
-        <v>32</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D46">
         <v>69.3</v>
@@ -5234,7 +5085,7 @@
         <v>61.7</v>
       </c>
       <c r="Y46">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="Z46">
         <v>45.9</v>
@@ -5258,21 +5109,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>78</v>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mauritania</t>
+        </is>
       </c>
       <c r="B47">
         <v>2001</v>
       </c>
-      <c r="C47" t="s">
-        <v>32</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D47">
         <v>66.5</v>
       </c>
       <c r="E47">
-        <v>17.899999999999999</v>
+        <v>17.9</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5293,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5326,13 +5181,13 @@
         <v>9.1</v>
       </c>
       <c r="W47">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="X47">
         <v>45.6</v>
       </c>
       <c r="Y47">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5356,15 +5211,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>79</v>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Moldova</t>
+        </is>
       </c>
       <c r="B48">
         <v>2005</v>
       </c>
-      <c r="C48" t="s">
-        <v>32</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D48">
         <v>94.7</v>
@@ -5394,7 +5253,7 @@
         <v>0.3</v>
       </c>
       <c r="M48">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="N48">
         <v>2.5</v>
@@ -5454,15 +5313,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>80</v>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
       </c>
       <c r="B49">
         <v>2004</v>
       </c>
-      <c r="C49" t="s">
-        <v>32</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D49">
         <v>79.8</v>
@@ -5471,7 +5334,7 @@
         <v>58.2</v>
       </c>
       <c r="F49">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="G49">
         <v>10.9</v>
@@ -5498,7 +5361,7 @@
         <v>0.5</v>
       </c>
       <c r="O49">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="P49">
         <v>10.7</v>
@@ -5507,7 +5370,7 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="S49">
         <v>0.2</v>
@@ -5552,21 +5415,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>81</v>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Mozambique</t>
+        </is>
       </c>
       <c r="B50">
         <v>2018</v>
       </c>
-      <c r="C50" t="s">
-        <v>42</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D50">
-        <v>64.099999999999994</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E50">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="F50">
         <v>14.2</v>
@@ -5578,7 +5445,7 @@
         <v>12.4</v>
       </c>
       <c r="I50">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J50">
         <v>0.6</v>
@@ -5605,7 +5472,7 @@
         <v>2</v>
       </c>
       <c r="R50">
-        <v>9.1999999999999993</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S50">
         <v>0.3</v>
@@ -5650,18 +5517,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>82</v>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Myanmar</t>
+        </is>
       </c>
       <c r="B51">
         <v>2016</v>
       </c>
-      <c r="C51" t="s">
-        <v>32</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D51">
-        <v>82.4</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="E51">
         <v>2.1</v>
@@ -5694,7 +5565,7 @@
         <v>15.5</v>
       </c>
       <c r="O51">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="P51">
         <v>8.5</v>
@@ -5736,7 +5607,7 @@
         <v>50.2</v>
       </c>
       <c r="AC51">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AD51">
         <v>0.9</v>
@@ -5748,21 +5619,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>83</v>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Namibia</t>
+        </is>
       </c>
       <c r="B52">
         <v>2013</v>
       </c>
-      <c r="C52" t="s">
-        <v>32</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D52">
         <v>87.5</v>
       </c>
       <c r="E52">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="F52">
         <v>14.2</v>
@@ -5810,7 +5685,7 @@
         <v>52.7</v>
       </c>
       <c r="U52">
-        <v>81.099999999999994</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="V52">
         <v>5.3</v>
@@ -5846,15 +5721,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>84</v>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
       </c>
       <c r="B53">
         <v>2016</v>
       </c>
-      <c r="C53" t="s">
-        <v>32</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D53">
         <v>96</v>
@@ -5866,7 +5745,7 @@
         <v>24.4</v>
       </c>
       <c r="G53">
-        <v>19.899999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="H53">
         <v>35.9</v>
@@ -5911,10 +5790,10 @@
         <v>94.8</v>
       </c>
       <c r="V53">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W53">
-        <v>69.099999999999994</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="X53">
         <v>28.9</v>
@@ -5923,13 +5802,13 @@
         <v>1.9</v>
       </c>
       <c r="Z53">
-        <v>37.299999999999997</v>
+        <v>37.3</v>
       </c>
       <c r="AA53">
         <v>3</v>
       </c>
       <c r="AB53">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="AC53">
         <v>3.3</v>
@@ -5944,15 +5823,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>85</v>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Nicaragua</t>
+        </is>
       </c>
       <c r="B54">
         <v>2001</v>
       </c>
-      <c r="C54" t="s">
-        <v>32</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D54">
         <v>70.7</v>
@@ -6012,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="W54">
-        <v>76.099999999999994</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="X54">
         <v>21.2</v>
@@ -6042,18 +5925,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>86</v>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Niger</t>
+        </is>
       </c>
       <c r="B55">
         <v>2012</v>
       </c>
-      <c r="C55" t="s">
-        <v>32</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D55">
-        <v>67.099999999999994</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E55">
         <v>2.7</v>
@@ -6068,7 +5955,7 @@
         <v>14.8</v>
       </c>
       <c r="I55">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="J55">
         <v>0.1</v>
@@ -6116,7 +6003,7 @@
         <v>54.4</v>
       </c>
       <c r="Y55">
-        <v>33.200000000000003</v>
+        <v>33.2</v>
       </c>
       <c r="Z55">
         <v>8.6</v>
@@ -6140,18 +6027,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>87</v>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
       </c>
       <c r="B56">
         <v>2018</v>
       </c>
-      <c r="C56" t="s">
-        <v>32</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D56">
-        <v>75.400000000000006</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E56">
         <v>1.7</v>
@@ -6163,7 +6054,7 @@
         <v>7.5</v>
       </c>
       <c r="H56">
-        <v>37.200000000000003</v>
+        <v>37.2</v>
       </c>
       <c r="I56">
         <v>11.4</v>
@@ -6226,7 +6117,7 @@
         <v>27.5</v>
       </c>
       <c r="AC56">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD56">
         <v>0.6</v>
@@ -6238,21 +6129,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>88</v>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
       </c>
       <c r="B57">
         <v>2018</v>
       </c>
-      <c r="C57" t="s">
-        <v>32</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D57">
         <v>96</v>
       </c>
       <c r="E57">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="F57">
         <v>1.2</v>
@@ -6297,10 +6192,10 @@
         <v>0.1</v>
       </c>
       <c r="T57">
-        <v>73.099999999999994</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="U57">
-        <v>91.6</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="V57">
         <v>3.7</v>
@@ -6312,7 +6207,7 @@
         <v>20.5</v>
       </c>
       <c r="Y57">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="Z57">
         <v>20.3</v>
@@ -6324,7 +6219,7 @@
         <v>54.1</v>
       </c>
       <c r="AC57">
-        <v>9.8000000000000007</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD57">
         <v>0.1</v>
@@ -6336,15 +6231,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>89</v>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Papua New Guinea</t>
+        </is>
       </c>
       <c r="B58">
         <v>2018</v>
       </c>
-      <c r="C58" t="s">
-        <v>32</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D58">
         <v>45.5</v>
@@ -6401,7 +6300,7 @@
         <v>42.7</v>
       </c>
       <c r="V58">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="W58">
         <v>35</v>
@@ -6422,10 +6321,10 @@
         <v>0.6</v>
       </c>
       <c r="AC58">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AD58">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AE58">
         <v>0.5</v>
@@ -6434,15 +6333,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>90</v>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
       </c>
       <c r="B59">
         <v>1990</v>
       </c>
-      <c r="C59" t="s">
-        <v>32</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D59">
         <v>0</v>
@@ -6532,18 +6435,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>91</v>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
       </c>
       <c r="B60">
         <v>2012</v>
       </c>
-      <c r="C60" t="s">
-        <v>32</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D60">
-        <v>85.9</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E60">
         <v>71.7</v>
@@ -6588,10 +6495,10 @@
         <v>2.9</v>
       </c>
       <c r="S60">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="T60">
-        <v>76.400000000000006</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="U60">
         <v>85.2</v>
@@ -6600,16 +6507,16 @@
         <v>0.5</v>
       </c>
       <c r="W60">
-        <v>78.599999999999994</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="X60">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="Y60">
         <v>1.7</v>
       </c>
       <c r="Z60">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="AA60">
         <v>1</v>
@@ -6630,21 +6537,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>92</v>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
       </c>
       <c r="B61">
         <v>2017</v>
       </c>
-      <c r="C61" t="s">
-        <v>32</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D61">
         <v>96.5</v>
       </c>
       <c r="E61">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="F61">
         <v>3.3</v>
@@ -6659,7 +6570,7 @@
         <v>3.5</v>
       </c>
       <c r="J61">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="K61">
         <v>0.4</v>
@@ -6689,13 +6600,13 @@
         <v>0</v>
       </c>
       <c r="T61">
-        <v>80.599999999999994</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="U61">
         <v>95.2</v>
       </c>
       <c r="V61">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W61">
         <v>81.5</v>
@@ -6707,7 +6618,7 @@
         <v>1.6</v>
       </c>
       <c r="Z61">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="AA61">
         <v>1.9</v>
@@ -6728,15 +6639,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>93</v>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
       </c>
       <c r="B62">
         <v>2017</v>
       </c>
-      <c r="C62" t="s">
-        <v>42</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D62">
         <v>79.2</v>
@@ -6754,13 +6669,13 @@
         <v>1.2</v>
       </c>
       <c r="I62">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J62">
-        <v>32.799999999999997</v>
+        <v>32.8</v>
       </c>
       <c r="K62">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L62">
         <v>0.1</v>
@@ -6769,7 +6684,7 @@
         <v>0.4</v>
       </c>
       <c r="N62">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="O62">
         <v>20.7</v>
@@ -6793,7 +6708,7 @@
         <v>60.5</v>
       </c>
       <c r="V62">
-        <v>18.399999999999999</v>
+        <v>18.4</v>
       </c>
       <c r="W62">
         <v>14.1</v>
@@ -6826,15 +6741,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>94</v>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sao Tome and Principe</t>
+        </is>
       </c>
       <c r="B63">
         <v>2009</v>
       </c>
-      <c r="C63" t="s">
-        <v>32</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D63">
         <v>94.2</v>
@@ -6924,18 +6843,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>95</v>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
       </c>
       <c r="B64">
         <v>2018</v>
       </c>
-      <c r="C64" t="s">
-        <v>32</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D64">
-        <v>85.6</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="E64">
         <v>22.1</v>
@@ -6983,7 +6906,7 @@
         <v>0.3</v>
       </c>
       <c r="T64">
-        <v>70.900000000000006</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="U64">
         <v>82.2</v>
@@ -7022,15 +6945,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>96</v>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Sierra Leone</t>
+        </is>
       </c>
       <c r="B65">
         <v>2016</v>
       </c>
-      <c r="C65" t="s">
-        <v>42</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D65">
         <v>70.5</v>
@@ -7120,15 +7047,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>97</v>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
       </c>
       <c r="B66">
         <v>2016</v>
       </c>
-      <c r="C66" t="s">
-        <v>32</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D66">
         <v>95.3</v>
@@ -7173,7 +7104,7 @@
         <v>0.9</v>
       </c>
       <c r="R66">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="S66">
         <v>0.3</v>
@@ -7191,7 +7122,7 @@
         <v>78.5</v>
       </c>
       <c r="X66">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="Y66">
         <v>4.5</v>
@@ -7200,7 +7131,7 @@
         <v>7.8</v>
       </c>
       <c r="AA66">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB66">
         <v>2.4</v>
@@ -7218,15 +7149,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>98</v>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Tajikistan</t>
+        </is>
       </c>
       <c r="B67">
         <v>2017</v>
       </c>
-      <c r="C67" t="s">
-        <v>32</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D67">
         <v>85.8</v>
@@ -7241,7 +7176,7 @@
         <v>13.8</v>
       </c>
       <c r="H67">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I67">
         <v>2.1</v>
@@ -7292,10 +7227,10 @@
         <v>21.6</v>
       </c>
       <c r="Y67">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="Z67">
-        <v>36.700000000000003</v>
+        <v>36.7</v>
       </c>
       <c r="AA67">
         <v>27.6</v>
@@ -7316,15 +7251,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>99</v>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Tanzania</t>
+        </is>
       </c>
       <c r="B68">
         <v>2017</v>
       </c>
-      <c r="C68" t="s">
-        <v>42</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D68">
         <v>65.5</v>
@@ -7345,7 +7284,7 @@
         <v>8.9</v>
       </c>
       <c r="J68">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K68">
         <v>2.4</v>
@@ -7357,7 +7296,7 @@
         <v>0.6</v>
       </c>
       <c r="N68">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="O68">
         <v>34.5</v>
@@ -7381,19 +7320,19 @@
         <v>57</v>
       </c>
       <c r="V68">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W68">
         <v>40.9</v>
       </c>
       <c r="X68">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="Y68">
         <v>22</v>
       </c>
       <c r="Z68">
-        <v>38.799999999999997</v>
+        <v>38.8</v>
       </c>
       <c r="AA68">
         <v>3.3</v>
@@ -7414,24 +7353,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>100</v>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Timor-Leste</t>
+        </is>
       </c>
       <c r="B69">
         <v>2016</v>
       </c>
-      <c r="C69" t="s">
-        <v>32</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D69">
-        <v>80.400000000000006</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="E69">
         <v>22.8</v>
       </c>
       <c r="F69">
-        <v>9.6999999999999993</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G69">
         <v>23.6</v>
@@ -7458,7 +7401,7 @@
         <v>5.3</v>
       </c>
       <c r="O69">
-        <v>19.600000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="P69">
         <v>3.4</v>
@@ -7482,7 +7425,7 @@
         <v>3.2</v>
       </c>
       <c r="W69">
-        <v>65.900000000000006</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="X69">
         <v>23.9</v>
@@ -7500,7 +7443,7 @@
         <v>31.8</v>
       </c>
       <c r="AC69">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AD69">
         <v>0.6</v>
@@ -7512,24 +7455,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>101</v>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
       </c>
       <c r="B70">
         <v>2017</v>
       </c>
-      <c r="C70" t="s">
-        <v>42</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D70">
-        <v>72.099999999999994</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E70">
         <v>1.9</v>
       </c>
       <c r="F70">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="G70">
         <v>16</v>
@@ -7574,7 +7521,7 @@
         <v>22.8</v>
       </c>
       <c r="U70">
-        <v>68.900000000000006</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="V70">
         <v>2.9</v>
@@ -7586,16 +7533,16 @@
         <v>62.5</v>
       </c>
       <c r="Y70">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Z70">
         <v>25.4</v>
       </c>
       <c r="AA70">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB70">
-        <v>36.799999999999997</v>
+        <v>36.8</v>
       </c>
       <c r="AC70">
         <v>3.9</v>
@@ -7610,15 +7557,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>102</v>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
       </c>
       <c r="B71">
         <v>2013</v>
       </c>
-      <c r="C71" t="s">
-        <v>32</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D71">
         <v>99.2</v>
@@ -7633,7 +7584,7 @@
         <v>1.7</v>
       </c>
       <c r="H71">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="I71">
         <v>1.3</v>
@@ -7651,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="O71">
         <v>0.8</v>
@@ -7708,18 +7659,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>103</v>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Turkmenistan</t>
+        </is>
       </c>
       <c r="B72">
         <v>2000</v>
       </c>
-      <c r="C72" t="s">
-        <v>32</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D72">
-        <v>66.099999999999994</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E72">
         <v>25.7</v>
@@ -7776,13 +7731,13 @@
         <v>0.8</v>
       </c>
       <c r="W72">
-        <v>81.400000000000006</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="X72">
         <v>14.9</v>
       </c>
       <c r="Y72">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Z72">
         <v>13.1</v>
@@ -7806,15 +7761,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>104</v>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
       </c>
       <c r="B73">
         <v>2019</v>
       </c>
-      <c r="C73" t="s">
-        <v>42</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>MIS</t>
+        </is>
       </c>
       <c r="D73">
         <v>76.2</v>
@@ -7838,7 +7797,7 @@
         <v>5.2</v>
       </c>
       <c r="K73">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L73">
         <v>0.3</v>
@@ -7865,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="T73">
-        <v>17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="U73">
         <v>54.3</v>
@@ -7904,15 +7863,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>105</v>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
       </c>
       <c r="B74">
         <v>2007</v>
       </c>
-      <c r="C74" t="s">
-        <v>32</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D74">
         <v>98.8</v>
@@ -7945,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="O74">
         <v>1.2</v>
@@ -8002,18 +7965,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>106</v>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Uzbekistan</t>
+        </is>
       </c>
       <c r="B75">
         <v>1996</v>
       </c>
-      <c r="C75" t="s">
-        <v>32</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D75">
-        <v>80.599999999999994</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="E75">
         <v>59.7</v>
@@ -8037,7 +8004,7 @@
         <v>0.2</v>
       </c>
       <c r="L75">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="M75">
         <v>0</v>
@@ -8046,7 +8013,7 @@
         <v>0.3</v>
       </c>
       <c r="O75">
-        <v>19.399999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -8076,7 +8043,7 @@
         <v>24.5</v>
       </c>
       <c r="Y75">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="Z75">
         <v>20</v>
@@ -8085,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="AB75">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AC75">
         <v>21.2</v>
@@ -8100,15 +8067,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>107</v>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
       </c>
       <c r="B76">
         <v>2005</v>
       </c>
-      <c r="C76" t="s">
-        <v>108</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>AIS</t>
+        </is>
       </c>
       <c r="D76">
         <v>34.4</v>
@@ -8117,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="G76">
         <v>1.4</v>
@@ -8144,7 +8115,7 @@
         <v>0.1</v>
       </c>
       <c r="O76">
-        <v>65.599999999999994</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -8177,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="Z76">
-        <v>77.400000000000006</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="AA76">
         <v>4.2</v>
@@ -8198,15 +8169,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>109</v>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Yemen</t>
+        </is>
       </c>
       <c r="B77">
         <v>2013</v>
       </c>
-      <c r="C77" t="s">
-        <v>32</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D77">
         <v>74.2</v>
@@ -8227,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="J77">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K77">
         <v>3.4</v>
@@ -8257,7 +8232,7 @@
         <v>0.8</v>
       </c>
       <c r="T77">
-        <v>67.099999999999994</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="U77">
         <v>69.2</v>
@@ -8272,7 +8247,7 @@
         <v>3.2</v>
       </c>
       <c r="Y77">
-        <v>8.1999999999999993</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z77">
         <v>10.5</v>
@@ -8296,15 +8271,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>110</v>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
       </c>
       <c r="B78">
         <v>2018</v>
       </c>
-      <c r="C78" t="s">
-        <v>32</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D78">
         <v>72.3</v>
@@ -8316,7 +8295,7 @@
         <v>11.8</v>
       </c>
       <c r="G78">
-        <v>8.3000000000000007</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H78">
         <v>23.9</v>
@@ -8373,7 +8352,7 @@
         <v>10.1</v>
       </c>
       <c r="Z78">
-        <v>37.799999999999997</v>
+        <v>37.8</v>
       </c>
       <c r="AA78">
         <v>4.7</v>
@@ -8394,24 +8373,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>111</v>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Zimbabwe</t>
+        </is>
       </c>
       <c r="B79">
         <v>2015</v>
       </c>
-      <c r="C79" t="s">
-        <v>32</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
       </c>
       <c r="D79">
-        <v>78.400000000000006</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="E79">
         <v>14.1</v>
       </c>
       <c r="F79">
-        <v>9.3000000000000007</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G79">
         <v>5.5</v>
@@ -8453,7 +8436,7 @@
         <v>0.1</v>
       </c>
       <c r="T79">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="U79">
         <v>67.8</v>

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF79"/>
+  <dimension ref="A1:AE79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,11 +513,6 @@
           <t>wigc</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>clusters</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -611,14 +606,8 @@
       <c r="AC2">
         <v>11.8</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
       <c r="AE2">
         <v>0.1</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -656,9 +645,6 @@
       <c r="J3">
         <v>2.5</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
         <v>14.1</v>
       </c>
@@ -677,9 +663,6 @@
       <c r="Q3">
         <v>0.8</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
         <v>0.1</v>
       </c>
@@ -719,9 +702,6 @@
       <c r="AE3">
         <v>0.1</v>
       </c>
-      <c r="AF3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -821,9 +801,6 @@
       <c r="AE4">
         <v>0.3</v>
       </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -860,15 +837,9 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>1.5</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -881,9 +852,6 @@
       <c r="Q5">
         <v>0.1</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
         <v>0</v>
       </c>
@@ -923,9 +891,6 @@
       <c r="AE5">
         <v>0.1</v>
       </c>
-      <c r="AF5">
-        <v>2</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1022,12 +987,6 @@
       <c r="AD6">
         <v>0.1</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>2</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1112,24 +1071,15 @@
       <c r="Z7">
         <v>25.1</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
       <c r="AB7">
         <v>6.4</v>
       </c>
       <c r="AC7">
         <v>0.8</v>
       </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
       <c r="AE7">
         <v>0.3</v>
       </c>
-      <c r="AF7">
-        <v>2</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1229,9 +1179,6 @@
       <c r="AE8">
         <v>0.3</v>
       </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1259,36 +1206,18 @@
       <c r="G9">
         <v>5.3</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>1.7</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
         <v>1.7</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>12.3</v>
       </c>
       <c r="P9">
         <v>6.2</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
       <c r="R9">
         <v>5.2</v>
       </c>
@@ -1316,24 +1245,12 @@
       <c r="Z9">
         <v>36.6</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
       <c r="AB9">
         <v>6.5</v>
       </c>
       <c r="AC9">
         <v>15.6</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>2</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1358,84 +1275,18 @@
       <c r="F10">
         <v>3.5</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
         <v>3.3</v>
       </c>
       <c r="O10">
         <v>24</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
         <v>2.7</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
       <c r="AC10">
         <v>30.2</v>
       </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>3</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1472,12 +1323,6 @@
       <c r="J11">
         <v>0.2</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
       <c r="M11">
         <v>0.2</v>
       </c>
@@ -1535,9 +1380,6 @@
       <c r="AE11">
         <v>0.2</v>
       </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1637,9 +1479,6 @@
       <c r="AE12">
         <v>0.3</v>
       </c>
-      <c r="AF12">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1703,24 +1542,6 @@
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
       <c r="Z13">
         <v>64.2</v>
       </c>
@@ -1739,9 +1560,6 @@
       <c r="AE13">
         <v>0.2</v>
       </c>
-      <c r="AF13">
-        <v>3</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1841,9 +1659,6 @@
       <c r="AE14">
         <v>0.4</v>
       </c>
-      <c r="AF14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1862,45 +1677,15 @@
       <c r="D15">
         <v>16.3</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
         <v>1.7</v>
       </c>
       <c r="G15">
         <v>14.6</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
         <v>83.59999999999999</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
       <c r="R15">
         <v>9.4</v>
       </c>
@@ -1928,24 +1713,12 @@
       <c r="Z15">
         <v>11.5</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
       <c r="AB15">
         <v>4.5</v>
       </c>
       <c r="AC15">
         <v>1.4</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>1</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2045,9 +1818,6 @@
       <c r="AE16">
         <v>0.1</v>
       </c>
-      <c r="AF16">
-        <v>1</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2069,21 +1839,12 @@
       <c r="E17">
         <v>80.90000000000001</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
         <v>0.1</v>
       </c>
       <c r="H17">
         <v>1.6</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
         <v>2</v>
       </c>
@@ -2102,9 +1863,6 @@
       <c r="P17">
         <v>1.4</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
       <c r="R17">
         <v>5.2</v>
       </c>
@@ -2132,23 +1890,14 @@
       <c r="Z17">
         <v>33.5</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
       <c r="AB17">
         <v>26.9</v>
       </c>
       <c r="AC17">
         <v>17.1</v>
       </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
       <c r="AE17">
         <v>0.1</v>
-      </c>
-      <c r="AF17">
-        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2249,9 +1998,6 @@
       <c r="AE18">
         <v>0.2</v>
       </c>
-      <c r="AF18">
-        <v>2</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2291,12 +2037,6 @@
       <c r="K19">
         <v>2.1</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
         <v>2.5</v>
       </c>
@@ -2336,9 +2076,6 @@
       <c r="Z19">
         <v>5.3</v>
       </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
       <c r="AB19">
         <v>4.8</v>
       </c>
@@ -2351,9 +2088,6 @@
       <c r="AE19">
         <v>0.3</v>
       </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2453,9 +2187,6 @@
       <c r="AE20">
         <v>0.4</v>
       </c>
-      <c r="AF20">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2492,9 +2223,6 @@
       <c r="J21">
         <v>0.6</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>0</v>
       </c>
@@ -2555,9 +2283,6 @@
       <c r="AE21">
         <v>0.3</v>
       </c>
-      <c r="AF21">
-        <v>1</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2582,18 +2307,9 @@
       <c r="F22">
         <v>6.6</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
         <v>2.9</v>
       </c>
@@ -2609,12 +2325,6 @@
       <c r="O22">
         <v>1.3</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
       <c r="R22">
         <v>0.7</v>
       </c>
@@ -2642,23 +2352,14 @@
       <c r="Z22">
         <v>2.4</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
       <c r="AB22">
         <v>28.7</v>
       </c>
       <c r="AC22">
         <v>18.5</v>
       </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
       <c r="AE22">
         <v>0.2</v>
-      </c>
-      <c r="AF22">
-        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2696,9 +2397,6 @@
       <c r="J23">
         <v>0.1</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
         <v>1.7</v>
       </c>
@@ -2714,9 +2412,6 @@
       <c r="P23">
         <v>0</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
       <c r="R23">
         <v>0</v>
       </c>
@@ -2753,14 +2448,8 @@
       <c r="AC23">
         <v>8.699999999999999</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
       <c r="AE23">
         <v>0.1</v>
-      </c>
-      <c r="AF23">
-        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2783,42 +2472,21 @@
       <c r="E24">
         <v>16.3</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
       <c r="G24">
         <v>20.8</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
       <c r="I24">
         <v>18.1</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
       <c r="L24">
         <v>12.2</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
       <c r="O24">
         <v>32.5</v>
       </c>
       <c r="P24">
         <v>16.4</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
       <c r="R24">
         <v>5.4</v>
       </c>
@@ -2846,24 +2514,12 @@
       <c r="Z24">
         <v>10.5</v>
       </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
       <c r="AB24">
         <v>0.2</v>
       </c>
       <c r="AC24">
         <v>3.3</v>
       </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2906,9 +2562,6 @@
       <c r="L25">
         <v>1.6</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
         <v>0.1</v>
       </c>
@@ -2957,15 +2610,6 @@
       <c r="AC25">
         <v>18.5</v>
       </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>1</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3065,9 +2709,6 @@
       <c r="AE26">
         <v>0.2</v>
       </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3095,9 +2736,6 @@
       <c r="G27">
         <v>20.2</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
       <c r="I27">
         <v>3.1</v>
       </c>
@@ -3110,9 +2748,6 @@
       <c r="L27">
         <v>0.1</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
       <c r="N27">
         <v>1.1</v>
       </c>
@@ -3122,9 +2757,6 @@
       <c r="P27">
         <v>1.5</v>
       </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
       <c r="R27">
         <v>4.7</v>
       </c>
@@ -3152,9 +2784,6 @@
       <c r="Z27">
         <v>3.8</v>
       </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
       <c r="AB27">
         <v>1.3</v>
       </c>
@@ -3167,9 +2796,6 @@
       <c r="AE27">
         <v>0.2</v>
       </c>
-      <c r="AF27">
-        <v>2</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3203,18 +2829,6 @@
       <c r="I28">
         <v>7.4</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
         <v>0.4</v>
       </c>
@@ -3224,9 +2838,6 @@
       <c r="P28">
         <v>8</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
       <c r="R28">
         <v>0.1</v>
       </c>
@@ -3269,9 +2880,6 @@
       <c r="AE28">
         <v>0.2</v>
       </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3332,9 +2940,6 @@
       <c r="R29">
         <v>4.4</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29">
         <v>46.1</v>
       </c>
@@ -3371,9 +2976,6 @@
       <c r="AE29">
         <v>0.2</v>
       </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3401,12 +3003,6 @@
       <c r="G30">
         <v>1.9</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
         <v>0.8</v>
       </c>
@@ -3416,18 +3012,12 @@
       <c r="L30">
         <v>0.1</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
       <c r="N30">
         <v>28.4</v>
       </c>
       <c r="O30">
         <v>13.5</v>
       </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
       <c r="Q30">
         <v>1.9</v>
       </c>
@@ -3473,9 +3063,6 @@
       <c r="AE30">
         <v>0.3</v>
       </c>
-      <c r="AF30">
-        <v>2</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3536,9 +3123,6 @@
       <c r="R31">
         <v>5.9</v>
       </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
       <c r="T31">
         <v>29.1</v>
       </c>
@@ -3575,9 +3159,6 @@
       <c r="AE31">
         <v>0.4</v>
       </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3674,12 +3255,6 @@
       <c r="AD32">
         <v>3.7</v>
       </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>2</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3707,9 +3282,6 @@
       <c r="G33">
         <v>18.8</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
       <c r="I33">
         <v>6.8</v>
       </c>
@@ -3779,9 +3351,6 @@
       <c r="AE33">
         <v>0.4</v>
       </c>
-      <c r="AF33">
-        <v>1</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3812,33 +3381,18 @@
       <c r="H34">
         <v>1.7</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
       <c r="K34">
         <v>0.2</v>
       </c>
       <c r="L34">
         <v>0.3</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
       <c r="N34">
         <v>38.6</v>
       </c>
       <c r="O34">
         <v>9.800000000000001</v>
       </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
       <c r="R34">
         <v>7.9</v>
       </c>
@@ -3881,9 +3435,6 @@
       <c r="AE34">
         <v>0.3</v>
       </c>
-      <c r="AF34">
-        <v>2</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3977,14 +3528,8 @@
       <c r="AC35">
         <v>6</v>
       </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
       <c r="AE35">
         <v>0.2</v>
-      </c>
-      <c r="AF35">
-        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -4085,9 +3630,6 @@
       <c r="AE36">
         <v>0.1</v>
       </c>
-      <c r="AF36">
-        <v>2</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4112,44 +3654,20 @@
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
       <c r="K37">
         <v>2.8</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
       <c r="N37">
         <v>37.8</v>
       </c>
       <c r="O37">
         <v>0.2</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
       <c r="Q37">
         <v>0.2</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
       </c>
       <c r="T37">
         <v>99.2</v>
@@ -4169,27 +3687,12 @@
       <c r="Y37">
         <v>0.1</v>
       </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
       <c r="AC37">
         <v>57.8</v>
       </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
       <c r="AE37">
         <v>0</v>
       </c>
-      <c r="AF37">
-        <v>2</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4217,24 +3720,9 @@
       <c r="G38">
         <v>7.6</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
       <c r="L38">
         <v>3</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
       <c r="N38">
         <v>0.1</v>
       </c>
@@ -4244,9 +3732,6 @@
       <c r="P38">
         <v>28.9</v>
       </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
       <c r="R38">
         <v>1.3</v>
       </c>
@@ -4274,24 +3759,12 @@
       <c r="Z38">
         <v>14</v>
       </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
       <c r="AB38">
         <v>9.1</v>
       </c>
       <c r="AC38">
         <v>26.7</v>
       </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>2</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4391,9 +3864,6 @@
       <c r="AE39">
         <v>0.3</v>
       </c>
-      <c r="AF39">
-        <v>1</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4430,9 +3900,6 @@
       <c r="J40">
         <v>2</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
       <c r="L40">
         <v>0.9</v>
       </c>
@@ -4493,9 +3960,6 @@
       <c r="AE40">
         <v>0.2</v>
       </c>
-      <c r="AF40">
-        <v>2</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4538,9 +4002,6 @@
       <c r="L41">
         <v>0.4</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
       <c r="N41">
         <v>0</v>
       </c>
@@ -4556,9 +4017,6 @@
       <c r="R41">
         <v>0.7</v>
       </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
       <c r="T41">
         <v>26.9</v>
       </c>
@@ -4589,15 +4047,9 @@
       <c r="AC41">
         <v>10.2</v>
       </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
       <c r="AE41">
         <v>0.4</v>
       </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4682,23 +4134,14 @@
       <c r="Z42">
         <v>3</v>
       </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
       <c r="AB42">
         <v>6.8</v>
       </c>
       <c r="AC42">
         <v>5</v>
       </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
       <c r="AE42">
         <v>0.2</v>
-      </c>
-      <c r="AF42">
-        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -4745,9 +4188,6 @@
       <c r="M43">
         <v>0.3</v>
       </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
       <c r="O43">
         <v>55.8</v>
       </c>
@@ -4799,9 +4239,6 @@
       <c r="AE43">
         <v>0.2</v>
       </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4838,18 +4275,12 @@
       <c r="J44">
         <v>0.2</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44">
         <v>0.1</v>
       </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
       <c r="O44">
         <v>13.7</v>
       </c>
@@ -4901,9 +4332,6 @@
       <c r="AE44">
         <v>0.5</v>
       </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4931,24 +4359,12 @@
       <c r="G45">
         <v>0.1</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
       <c r="I45">
         <v>0.4</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
       <c r="K45">
         <v>46.7</v>
       </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
       <c r="N45">
         <v>36.7</v>
       </c>
@@ -4958,12 +4374,6 @@
       <c r="P45">
         <v>0</v>
       </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
       <c r="S45">
         <v>0.3</v>
       </c>
@@ -4988,9 +4398,6 @@
       <c r="Z45">
         <v>41.3</v>
       </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
       <c r="AB45">
         <v>59.9</v>
       </c>
@@ -5003,9 +4410,6 @@
       <c r="AE45">
         <v>0</v>
       </c>
-      <c r="AF45">
-        <v>2</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5105,9 +4509,6 @@
       <c r="AE46">
         <v>0.2</v>
       </c>
-      <c r="AF46">
-        <v>1</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5129,33 +4530,15 @@
       <c r="E47">
         <v>17.9</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
       <c r="G47">
         <v>27.6</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
       <c r="I47">
         <v>16.8</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
       <c r="L47">
         <v>4.1</v>
       </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
       <c r="O47">
         <v>33.1</v>
       </c>
@@ -5189,27 +4572,9 @@
       <c r="Y47">
         <v>17.4</v>
       </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
       <c r="AC47">
         <v>7.5</v>
       </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5267,51 +4632,18 @@
       <c r="Q48">
         <v>0.5</v>
       </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
       <c r="S48">
         <v>0</v>
       </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
       <c r="Z48">
         <v>27.2</v>
       </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
       <c r="AB48">
         <v>5.8</v>
       </c>
       <c r="AC48">
         <v>22.5</v>
       </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>3</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5339,24 +4671,15 @@
       <c r="G49">
         <v>10.9</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
       <c r="I49">
         <v>5.6</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
       <c r="K49">
         <v>1.5</v>
       </c>
       <c r="L49">
         <v>0.9</v>
       </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
       <c r="N49">
         <v>0.5</v>
       </c>
@@ -5366,54 +4689,21 @@
       <c r="P49">
         <v>10.7</v>
       </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
       <c r="R49">
         <v>2.2</v>
       </c>
       <c r="S49">
         <v>0.2</v>
       </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
       <c r="Z49">
         <v>25.4</v>
       </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
       <c r="AB49">
         <v>11.3</v>
       </c>
       <c r="AC49">
         <v>14.1</v>
       </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>3</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5513,9 +4803,6 @@
       <c r="AE50">
         <v>0.4</v>
       </c>
-      <c r="AF50">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5615,9 +4902,6 @@
       <c r="AE51">
         <v>0.3</v>
       </c>
-      <c r="AF51">
-        <v>1</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5717,9 +5001,6 @@
       <c r="AE52">
         <v>0.4</v>
       </c>
-      <c r="AF52">
-        <v>2</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5813,15 +5094,9 @@
       <c r="AC53">
         <v>3.3</v>
       </c>
-      <c r="AD53">
-        <v>0</v>
-      </c>
       <c r="AE53">
         <v>0.3</v>
       </c>
-      <c r="AF53">
-        <v>2</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5849,36 +5124,12 @@
       <c r="G54">
         <v>3.2</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
       <c r="K54">
         <v>0.2</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
       </c>
       <c r="O54">
         <v>29.3</v>
       </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
       <c r="R54">
         <v>3.8</v>
       </c>
@@ -5906,24 +5157,12 @@
       <c r="Z54">
         <v>25.7</v>
       </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
       <c r="AB54">
         <v>2.1</v>
       </c>
       <c r="AC54">
         <v>10</v>
       </c>
-      <c r="AD54">
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <v>0</v>
-      </c>
-      <c r="AF54">
-        <v>2</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6017,15 +5256,9 @@
       <c r="AC55">
         <v>2</v>
       </c>
-      <c r="AD55">
-        <v>0</v>
-      </c>
       <c r="AE55">
         <v>0.5</v>
       </c>
-      <c r="AF55">
-        <v>1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6125,9 +5358,6 @@
       <c r="AE56">
         <v>0.3</v>
       </c>
-      <c r="AF56">
-        <v>1</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6227,9 +5457,6 @@
       <c r="AE57">
         <v>0.3</v>
       </c>
-      <c r="AF57">
-        <v>2</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6329,9 +5556,6 @@
       <c r="AE58">
         <v>0.5</v>
       </c>
-      <c r="AF58">
-        <v>1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6347,93 +5571,6 @@
           <t>DHS</t>
         </is>
       </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <v>0</v>
-      </c>
-      <c r="AD59">
-        <v>0</v>
-      </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <v>3</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6461,36 +5598,18 @@
       <c r="G60">
         <v>2.4</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
       <c r="K60">
         <v>0.1</v>
       </c>
       <c r="L60">
         <v>1.5</v>
       </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
       <c r="N60">
         <v>5.4</v>
       </c>
       <c r="O60">
         <v>14.1</v>
       </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
       <c r="R60">
         <v>2.9</v>
       </c>
@@ -6530,12 +5649,6 @@
       <c r="AD60">
         <v>0.3</v>
       </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
-      <c r="AF60">
-        <v>2</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6635,9 +5748,6 @@
       <c r="AE61">
         <v>0.2</v>
       </c>
-      <c r="AF61">
-        <v>2</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6737,9 +5847,6 @@
       <c r="AE62">
         <v>0.3</v>
       </c>
-      <c r="AF62">
-        <v>1</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6779,12 +5886,6 @@
       <c r="K63">
         <v>0</v>
       </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
       <c r="N63">
         <v>0.1</v>
       </c>
@@ -6794,15 +5895,9 @@
       <c r="P63">
         <v>0.4</v>
       </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
       <c r="R63">
         <v>5.3</v>
       </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
       <c r="T63">
         <v>25.4</v>
       </c>
@@ -6824,9 +5919,6 @@
       <c r="Z63">
         <v>13.6</v>
       </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
       <c r="AB63">
         <v>7.3</v>
       </c>
@@ -6836,12 +5928,6 @@
       <c r="AD63">
         <v>0.4</v>
       </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <v>1</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6941,9 +6027,6 @@
       <c r="AE64">
         <v>0.3</v>
       </c>
-      <c r="AF64">
-        <v>2</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7004,9 +6087,6 @@
       <c r="R65">
         <v>15.7</v>
       </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
       <c r="T65">
         <v>22</v>
       </c>
@@ -7043,9 +6123,6 @@
       <c r="AE65">
         <v>0.3</v>
       </c>
-      <c r="AF65">
-        <v>1</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7145,9 +6222,6 @@
       <c r="AE66">
         <v>0.2</v>
       </c>
-      <c r="AF66">
-        <v>2</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7208,9 +6282,6 @@
       <c r="R67">
         <v>12.1</v>
       </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
       <c r="T67">
         <v>67.7</v>
       </c>
@@ -7247,9 +6318,6 @@
       <c r="AE67">
         <v>0.2</v>
       </c>
-      <c r="AF67">
-        <v>2</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7349,9 +6417,6 @@
       <c r="AE68">
         <v>0.3</v>
       </c>
-      <c r="AF68">
-        <v>1</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7412,9 +6477,6 @@
       <c r="R69">
         <v>3.7</v>
       </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
       <c r="T69">
         <v>60.4</v>
       </c>
@@ -7451,9 +6513,6 @@
       <c r="AE69">
         <v>0.2</v>
       </c>
-      <c r="AF69">
-        <v>2</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7514,9 +6573,6 @@
       <c r="R70">
         <v>13.8</v>
       </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
       <c r="T70">
         <v>22.8</v>
       </c>
@@ -7553,9 +6609,6 @@
       <c r="AE70">
         <v>0.5</v>
       </c>
-      <c r="AF70">
-        <v>1</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7592,9 +6645,6 @@
       <c r="J71">
         <v>7.6</v>
       </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
       <c r="L71">
         <v>0.1</v>
       </c>
@@ -7637,26 +6687,14 @@
       <c r="Y71">
         <v>1.4</v>
       </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
       <c r="AB71">
         <v>6.7</v>
       </c>
       <c r="AC71">
         <v>37.6</v>
       </c>
-      <c r="AD71">
-        <v>0</v>
-      </c>
       <c r="AE71">
         <v>0.2</v>
-      </c>
-      <c r="AF71">
-        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -7685,39 +6723,15 @@
       <c r="G72">
         <v>6.9</v>
       </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
       <c r="L72">
         <v>4</v>
       </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
       <c r="N72">
         <v>0</v>
       </c>
       <c r="O72">
         <v>31.9</v>
       </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
       <c r="S72">
         <v>0.5</v>
       </c>
@@ -7742,24 +6756,12 @@
       <c r="Z72">
         <v>13.1</v>
       </c>
-      <c r="AA72">
-        <v>0</v>
-      </c>
       <c r="AB72">
         <v>17.8</v>
       </c>
       <c r="AC72">
         <v>29</v>
       </c>
-      <c r="AD72">
-        <v>0</v>
-      </c>
-      <c r="AE72">
-        <v>0</v>
-      </c>
-      <c r="AF72">
-        <v>2</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7859,9 +6861,6 @@
       <c r="AE73">
         <v>0.3</v>
       </c>
-      <c r="AF73">
-        <v>1</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7904,9 +6903,6 @@
       <c r="L74">
         <v>0.6</v>
       </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
       <c r="N74">
         <v>4.1</v>
       </c>
@@ -7925,24 +6921,6 @@
       <c r="S74">
         <v>0.1</v>
       </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
       <c r="Z74">
         <v>40.4</v>
       </c>
@@ -7958,12 +6936,6 @@
       <c r="AD74">
         <v>1.3</v>
       </c>
-      <c r="AE74">
-        <v>0</v>
-      </c>
-      <c r="AF74">
-        <v>3</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7985,48 +6957,24 @@
       <c r="E75">
         <v>59.7</v>
       </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
       <c r="G75">
         <v>18</v>
       </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
       <c r="K75">
         <v>0.2</v>
       </c>
       <c r="L75">
         <v>2.3</v>
       </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
       <c r="N75">
         <v>0.3</v>
       </c>
       <c r="O75">
         <v>19.4</v>
       </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
       <c r="R75">
         <v>3.4</v>
       </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
       <c r="T75">
         <v>60.3</v>
       </c>
@@ -8048,24 +6996,12 @@
       <c r="Z75">
         <v>20</v>
       </c>
-      <c r="AA75">
-        <v>0</v>
-      </c>
       <c r="AB75">
         <v>10.2</v>
       </c>
       <c r="AC75">
         <v>21.2</v>
       </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
-      <c r="AE75">
-        <v>0</v>
-      </c>
-      <c r="AF75">
-        <v>2</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8084,69 +7020,30 @@
       <c r="D76">
         <v>34.4</v>
       </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
       <c r="F76">
         <v>20.4</v>
       </c>
       <c r="G76">
         <v>1.4</v>
       </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
       <c r="K76">
         <v>11.8</v>
       </c>
       <c r="L76">
         <v>0.6</v>
       </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
       <c r="N76">
         <v>0.1</v>
       </c>
       <c r="O76">
         <v>65.59999999999999</v>
       </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
       <c r="R76">
         <v>6.2</v>
       </c>
       <c r="S76">
         <v>0.1</v>
       </c>
-      <c r="T76">
-        <v>0</v>
-      </c>
-      <c r="U76">
-        <v>0</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
       <c r="Z76">
         <v>77.40000000000001</v>
       </c>
@@ -8162,12 +7059,6 @@
       <c r="AD76">
         <v>5.9</v>
       </c>
-      <c r="AE76">
-        <v>0</v>
-      </c>
-      <c r="AF76">
-        <v>3</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8186,21 +7077,9 @@
       <c r="D77">
         <v>74.2</v>
       </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
       <c r="H77">
         <v>13.9</v>
       </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
       <c r="J77">
         <v>2.2</v>
       </c>
@@ -8219,12 +7098,6 @@
       <c r="O77">
         <v>25.7</v>
       </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
       <c r="R77">
         <v>2</v>
       </c>
@@ -8267,9 +7140,6 @@
       <c r="AE77">
         <v>0.2</v>
       </c>
-      <c r="AF77">
-        <v>2</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8312,9 +7182,6 @@
       <c r="L78">
         <v>0</v>
       </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
       <c r="N78">
         <v>0.3</v>
       </c>
@@ -8369,9 +7236,6 @@
       <c r="AE78">
         <v>0.4</v>
       </c>
-      <c r="AF78">
-        <v>1</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8470,9 +7334,6 @@
       </c>
       <c r="AE79">
         <v>0.4</v>
-      </c>
-      <c r="AF79">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -924,7 +924,7 @@
         <v>0.1</v>
       </c>
       <c r="AF5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1128,7 +1128,7 @@
         <v>0.3</v>
       </c>
       <c r="AF7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1434,7 +1434,7 @@
         <v>0.2</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1740,7 +1740,7 @@
         <v>0.4</v>
       </c>
       <c r="AF13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1842,7 +1842,7 @@
         <v>0.1</v>
       </c>
       <c r="AF14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1944,7 +1944,7 @@
         <v>0.1</v>
       </c>
       <c r="AF15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2046,7 +2046,7 @@
         <v>0.2</v>
       </c>
       <c r="AF16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -2454,7 +2454,7 @@
         <v>0.2</v>
       </c>
       <c r="AF20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2556,7 +2556,7 @@
         <v>0.1</v>
       </c>
       <c r="AF21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2964,7 +2964,7 @@
         <v>0.2</v>
       </c>
       <c r="AF25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -3270,7 +3270,7 @@
         <v>0.3</v>
       </c>
       <c r="AF28">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
@@ -3372,7 +3372,7 @@
         <v>0.4</v>
       </c>
       <c r="AF29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -3780,7 +3780,7 @@
         <v>0.2</v>
       </c>
       <c r="AF33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -3882,7 +3882,7 @@
         <v>0.1</v>
       </c>
       <c r="AF34">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -4188,7 +4188,7 @@
         <v>0.2</v>
       </c>
       <c r="AF37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -4392,7 +4392,7 @@
         <v>0.2</v>
       </c>
       <c r="AF39">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -4596,7 +4596,7 @@
         <v>0.5</v>
       </c>
       <c r="AF41">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -5310,7 +5310,7 @@
         <v>0.3</v>
       </c>
       <c r="AF48">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -5412,7 +5412,7 @@
         <v>0.4</v>
       </c>
       <c r="AF49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -5514,7 +5514,7 @@
         <v>0.3</v>
       </c>
       <c r="AF50">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="AF51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -5922,7 +5922,7 @@
         <v>0.3</v>
       </c>
       <c r="AF54">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -6228,7 +6228,7 @@
         <v>0.2</v>
       </c>
       <c r="AF57">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -6534,7 +6534,7 @@
         <v>0.3</v>
       </c>
       <c r="AF60">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -6738,7 +6738,7 @@
         <v>0.2</v>
       </c>
       <c r="AF62">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -6840,7 +6840,7 @@
         <v>0.2</v>
       </c>
       <c r="AF63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -7044,7 +7044,7 @@
         <v>0.2</v>
       </c>
       <c r="AF65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="AF68">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -7452,7 +7452,7 @@
         <v>0.3</v>
       </c>
       <c r="AF69">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
@@ -7758,7 +7758,7 @@
         <v>0.2</v>
       </c>
       <c r="AF72">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -7962,7 +7962,7 @@
         <v>0.4</v>
       </c>
       <c r="AF74">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -1230,7 +1230,7 @@
         <v>0.3</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2454,7 +2454,7 @@
         <v>0.2</v>
       </c>
       <c r="AF20">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -3270,7 +3270,7 @@
         <v>0.3</v>
       </c>
       <c r="AF28">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -3882,7 +3882,7 @@
         <v>0.1</v>
       </c>
       <c r="AF34">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -4800,7 +4800,7 @@
         <v>0.2</v>
       </c>
       <c r="AF43">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -5820,7 +5820,7 @@
         <v>0.3</v>
       </c>
       <c r="AF53">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -6228,7 +6228,7 @@
         <v>0.2</v>
       </c>
       <c r="AF57">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -7146,7 +7146,7 @@
         <v>0.5</v>
       </c>
       <c r="AF66">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -7758,7 +7758,7 @@
         <v>0.2</v>
       </c>
       <c r="AF72">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -7860,7 +7860,7 @@
         <v>0.4</v>
       </c>
       <c r="AF73">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74">

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -924,7 +924,7 @@
         <v>0.1</v>
       </c>
       <c r="AF5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1230,7 +1230,7 @@
         <v>0.3</v>
       </c>
       <c r="AF8">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1536,7 +1536,7 @@
         <v>0.3</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1842,7 +1842,7 @@
         <v>0.1</v>
       </c>
       <c r="AF14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1944,7 +1944,7 @@
         <v>0.1</v>
       </c>
       <c r="AF15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2046,7 +2046,7 @@
         <v>0.2</v>
       </c>
       <c r="AF16">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -2148,7 +2148,7 @@
         <v>0.3</v>
       </c>
       <c r="AF17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -2250,7 +2250,7 @@
         <v>0.4</v>
       </c>
       <c r="AF18">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2352,7 +2352,7 @@
         <v>0.3</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2454,7 +2454,7 @@
         <v>0.2</v>
       </c>
       <c r="AF20">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -2556,7 +2556,7 @@
         <v>0.1</v>
       </c>
       <c r="AF21">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2862,7 +2862,7 @@
         <v>0.2</v>
       </c>
       <c r="AF24">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2964,7 +2964,7 @@
         <v>0.2</v>
       </c>
       <c r="AF25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -3066,7 +3066,7 @@
         <v>0.2</v>
       </c>
       <c r="AF26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -3168,7 +3168,7 @@
         <v>0.2</v>
       </c>
       <c r="AF27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -3270,7 +3270,7 @@
         <v>0.3</v>
       </c>
       <c r="AF28">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -3576,7 +3576,7 @@
         <v>0.4</v>
       </c>
       <c r="AF31">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -3678,7 +3678,7 @@
         <v>0.3</v>
       </c>
       <c r="AF32">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -3882,7 +3882,7 @@
         <v>0.1</v>
       </c>
       <c r="AF34">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -4086,7 +4086,7 @@
         <v>0.3</v>
       </c>
       <c r="AF36">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -4188,7 +4188,7 @@
         <v>0.2</v>
       </c>
       <c r="AF37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -4290,7 +4290,7 @@
         <v>0.4</v>
       </c>
       <c r="AF38">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -4800,7 +4800,7 @@
         <v>0.2</v>
       </c>
       <c r="AF43">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -5412,7 +5412,7 @@
         <v>0.4</v>
       </c>
       <c r="AF49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="AF51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -5820,7 +5820,7 @@
         <v>0.3</v>
       </c>
       <c r="AF53">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -6024,7 +6024,7 @@
         <v>0.5</v>
       </c>
       <c r="AF55">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -6228,7 +6228,7 @@
         <v>0.2</v>
       </c>
       <c r="AF57">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -6330,7 +6330,7 @@
         <v>0.3</v>
       </c>
       <c r="AF58">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="AF59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -6534,7 +6534,7 @@
         <v>0.3</v>
       </c>
       <c r="AF60">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -6738,7 +6738,7 @@
         <v>0.2</v>
       </c>
       <c r="AF62">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -6840,7 +6840,7 @@
         <v>0.2</v>
       </c>
       <c r="AF63">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -7044,7 +7044,7 @@
         <v>0.2</v>
       </c>
       <c r="AF65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -7146,7 +7146,7 @@
         <v>0.5</v>
       </c>
       <c r="AF66">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -7248,7 +7248,7 @@
         <v>0.2</v>
       </c>
       <c r="AF67">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -7350,7 +7350,7 @@
         <v>0</v>
       </c>
       <c r="AF68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -7758,7 +7758,7 @@
         <v>0.2</v>
       </c>
       <c r="AF72">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -7860,7 +7860,7 @@
         <v>0.4</v>
       </c>
       <c r="AF73">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -924,7 +924,7 @@
         <v>0.1</v>
       </c>
       <c r="AF5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1128,7 +1128,7 @@
         <v>0.3</v>
       </c>
       <c r="AF7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1434,7 +1434,7 @@
         <v>0.2</v>
       </c>
       <c r="AF10">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1536,7 +1536,7 @@
         <v>0.3</v>
       </c>
       <c r="AF11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1638,7 +1638,7 @@
         <v>0.2</v>
       </c>
       <c r="AF12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1740,7 +1740,7 @@
         <v>0.4</v>
       </c>
       <c r="AF13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1944,7 +1944,7 @@
         <v>0.1</v>
       </c>
       <c r="AF15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2046,7 +2046,7 @@
         <v>0.2</v>
       </c>
       <c r="AF16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -2148,7 +2148,7 @@
         <v>0.3</v>
       </c>
       <c r="AF17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2250,7 +2250,7 @@
         <v>0.4</v>
       </c>
       <c r="AF18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -2352,7 +2352,7 @@
         <v>0.3</v>
       </c>
       <c r="AF19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2454,7 +2454,7 @@
         <v>0.2</v>
       </c>
       <c r="AF20">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2556,7 +2556,7 @@
         <v>0.1</v>
       </c>
       <c r="AF21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2862,7 +2862,7 @@
         <v>0.2</v>
       </c>
       <c r="AF24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2964,7 +2964,7 @@
         <v>0.2</v>
       </c>
       <c r="AF25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -3066,7 +3066,7 @@
         <v>0.2</v>
       </c>
       <c r="AF26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -3168,7 +3168,7 @@
         <v>0.2</v>
       </c>
       <c r="AF27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -3270,7 +3270,7 @@
         <v>0.3</v>
       </c>
       <c r="AF28">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -3372,7 +3372,7 @@
         <v>0.4</v>
       </c>
       <c r="AF29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -3576,7 +3576,7 @@
         <v>0.4</v>
       </c>
       <c r="AF31">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -3678,7 +3678,7 @@
         <v>0.3</v>
       </c>
       <c r="AF32">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -3780,7 +3780,7 @@
         <v>0.2</v>
       </c>
       <c r="AF33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -3882,7 +3882,7 @@
         <v>0.1</v>
       </c>
       <c r="AF34">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -4086,7 +4086,7 @@
         <v>0.3</v>
       </c>
       <c r="AF36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -4188,7 +4188,7 @@
         <v>0.2</v>
       </c>
       <c r="AF37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -4290,7 +4290,7 @@
         <v>0.4</v>
       </c>
       <c r="AF38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -4392,7 +4392,7 @@
         <v>0.2</v>
       </c>
       <c r="AF39">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -4494,7 +4494,7 @@
         <v>0.2</v>
       </c>
       <c r="AF40">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -4596,7 +4596,7 @@
         <v>0.5</v>
       </c>
       <c r="AF41">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -5310,7 +5310,7 @@
         <v>0.3</v>
       </c>
       <c r="AF48">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -5412,7 +5412,7 @@
         <v>0.4</v>
       </c>
       <c r="AF49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -5514,7 +5514,7 @@
         <v>0.3</v>
       </c>
       <c r="AF50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -5922,7 +5922,7 @@
         <v>0.3</v>
       </c>
       <c r="AF54">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -6024,7 +6024,7 @@
         <v>0.5</v>
       </c>
       <c r="AF55">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -6228,7 +6228,7 @@
         <v>0.2</v>
       </c>
       <c r="AF57">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -6330,7 +6330,7 @@
         <v>0.3</v>
       </c>
       <c r="AF58">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="AF59">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -6534,7 +6534,7 @@
         <v>0.3</v>
       </c>
       <c r="AF60">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -6738,7 +6738,7 @@
         <v>0.2</v>
       </c>
       <c r="AF62">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -6840,7 +6840,7 @@
         <v>0.2</v>
       </c>
       <c r="AF63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -7044,7 +7044,7 @@
         <v>0.2</v>
       </c>
       <c r="AF65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -7248,7 +7248,7 @@
         <v>0.2</v>
       </c>
       <c r="AF67">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -7452,7 +7452,7 @@
         <v>0.3</v>
       </c>
       <c r="AF69">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -7962,7 +7962,7 @@
         <v>0.4</v>
       </c>
       <c r="AF74">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF74"/>
+  <dimension ref="A1:AE74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,11 +513,6 @@
           <t>wigc</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>clusters</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -611,14 +606,8 @@
       <c r="AC2">
         <v>11.8</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
       <c r="AE2">
         <v>0.1</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -656,9 +645,6 @@
       <c r="J3">
         <v>2.5</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
         <v>14.1</v>
       </c>
@@ -677,9 +663,6 @@
       <c r="Q3">
         <v>0.8</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
         <v>0.1</v>
       </c>
@@ -719,9 +702,6 @@
       <c r="AE3">
         <v>0.1</v>
       </c>
-      <c r="AF3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -821,9 +801,6 @@
       <c r="AE4">
         <v>0.3</v>
       </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -860,15 +837,9 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>1.5</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -881,9 +852,6 @@
       <c r="Q5">
         <v>0.1</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
         <v>0</v>
       </c>
@@ -923,9 +891,6 @@
       <c r="AE5">
         <v>0.1</v>
       </c>
-      <c r="AF5">
-        <v>3</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1022,12 +987,6 @@
       <c r="AD6">
         <v>0.1</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>2</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1112,24 +1071,15 @@
       <c r="Z7">
         <v>25.1</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
       <c r="AB7">
         <v>6.4</v>
       </c>
       <c r="AC7">
         <v>0.8</v>
       </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
       <c r="AE7">
         <v>0.3</v>
       </c>
-      <c r="AF7">
-        <v>2</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1229,9 +1179,6 @@
       <c r="AE8">
         <v>0.3</v>
       </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1259,36 +1206,18 @@
       <c r="G9">
         <v>5.3</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>1.7</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
         <v>1.7</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>12.3</v>
       </c>
       <c r="P9">
         <v>6.2</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
       <c r="R9">
         <v>5.2</v>
       </c>
@@ -1316,24 +1245,12 @@
       <c r="Z9">
         <v>36.6</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
       <c r="AB9">
         <v>6.5</v>
       </c>
       <c r="AC9">
         <v>15.6</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>2</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1370,12 +1287,6 @@
       <c r="J10">
         <v>0.2</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
         <v>0.2</v>
       </c>
@@ -1433,9 +1344,6 @@
       <c r="AE10">
         <v>0.2</v>
       </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1535,9 +1443,6 @@
       <c r="AE11">
         <v>0.3</v>
       </c>
-      <c r="AF11">
-        <v>4</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1601,24 +1506,6 @@
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
       <c r="Z12">
         <v>64.2</v>
       </c>
@@ -1637,9 +1524,6 @@
       <c r="AE12">
         <v>0.2</v>
       </c>
-      <c r="AF12">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1739,9 +1623,6 @@
       <c r="AE13">
         <v>0.4</v>
       </c>
-      <c r="AF13">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1841,9 +1722,6 @@
       <c r="AE14">
         <v>0.1</v>
       </c>
-      <c r="AF14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1865,21 +1743,12 @@
       <c r="E15">
         <v>80.90000000000001</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
         <v>0.1</v>
       </c>
       <c r="H15">
         <v>1.6</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
         <v>2</v>
       </c>
@@ -1898,9 +1767,6 @@
       <c r="P15">
         <v>1.4</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
       <c r="R15">
         <v>5.2</v>
       </c>
@@ -1928,23 +1794,14 @@
       <c r="Z15">
         <v>33.5</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
       <c r="AB15">
         <v>26.9</v>
       </c>
       <c r="AC15">
         <v>17.1</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
       <c r="AE15">
         <v>0.1</v>
-      </c>
-      <c r="AF15">
-        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2045,9 +1902,6 @@
       <c r="AE16">
         <v>0.2</v>
       </c>
-      <c r="AF16">
-        <v>2</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2087,12 +1941,6 @@
       <c r="K17">
         <v>2.1</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
         <v>2.5</v>
       </c>
@@ -2132,9 +1980,6 @@
       <c r="Z17">
         <v>5.3</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
       <c r="AB17">
         <v>4.8</v>
       </c>
@@ -2147,9 +1992,6 @@
       <c r="AE17">
         <v>0.3</v>
       </c>
-      <c r="AF17">
-        <v>2</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2249,9 +2091,6 @@
       <c r="AE18">
         <v>0.4</v>
       </c>
-      <c r="AF18">
-        <v>4</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2288,9 +2127,6 @@
       <c r="J19">
         <v>0.6</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
         <v>0</v>
       </c>
@@ -2351,9 +2187,6 @@
       <c r="AE19">
         <v>0.3</v>
       </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2378,18 +2211,9 @@
       <c r="F20">
         <v>6.6</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
         <v>2.9</v>
       </c>
@@ -2405,12 +2229,6 @@
       <c r="O20">
         <v>1.3</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
       <c r="R20">
         <v>0.7</v>
       </c>
@@ -2438,23 +2256,14 @@
       <c r="Z20">
         <v>2.4</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
       <c r="AB20">
         <v>28.7</v>
       </c>
       <c r="AC20">
         <v>18.5</v>
       </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
       <c r="AE20">
         <v>0.2</v>
-      </c>
-      <c r="AF20">
-        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2492,9 +2301,6 @@
       <c r="J21">
         <v>0.1</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>1.7</v>
       </c>
@@ -2510,9 +2316,6 @@
       <c r="P21">
         <v>0</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
       <c r="R21">
         <v>0</v>
       </c>
@@ -2549,14 +2352,8 @@
       <c r="AC21">
         <v>8.699999999999999</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
       <c r="AE21">
         <v>0.1</v>
-      </c>
-      <c r="AF21">
-        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2579,42 +2376,21 @@
       <c r="E22">
         <v>16.3</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
         <v>20.8</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="I22">
         <v>18.1</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
         <v>12.2</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
       <c r="O22">
         <v>32.5</v>
       </c>
       <c r="P22">
         <v>16.4</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
       <c r="R22">
         <v>5.4</v>
       </c>
@@ -2642,24 +2418,12 @@
       <c r="Z22">
         <v>10.5</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
       <c r="AB22">
         <v>0.2</v>
       </c>
       <c r="AC22">
         <v>3.3</v>
       </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2702,9 +2466,6 @@
       <c r="L23">
         <v>1.6</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
         <v>0.1</v>
       </c>
@@ -2753,15 +2514,6 @@
       <c r="AC23">
         <v>18.5</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>2</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2861,9 +2613,6 @@
       <c r="AE24">
         <v>0.2</v>
       </c>
-      <c r="AF24">
-        <v>4</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2891,9 +2640,6 @@
       <c r="G25">
         <v>20.2</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="I25">
         <v>3.1</v>
       </c>
@@ -2906,9 +2652,6 @@
       <c r="L25">
         <v>0.1</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
         <v>1.1</v>
       </c>
@@ -2918,9 +2661,6 @@
       <c r="P25">
         <v>1.5</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
       <c r="R25">
         <v>4.7</v>
       </c>
@@ -2948,9 +2688,6 @@
       <c r="Z25">
         <v>3.8</v>
       </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
       <c r="AB25">
         <v>1.3</v>
       </c>
@@ -2963,9 +2700,6 @@
       <c r="AE25">
         <v>0.2</v>
       </c>
-      <c r="AF25">
-        <v>2</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2999,18 +2733,6 @@
       <c r="I26">
         <v>7.4</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
         <v>0.4</v>
       </c>
@@ -3020,9 +2742,6 @@
       <c r="P26">
         <v>8</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
       <c r="R26">
         <v>0.1</v>
       </c>
@@ -3065,9 +2784,6 @@
       <c r="AE26">
         <v>0.2</v>
       </c>
-      <c r="AF26">
-        <v>2</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3128,9 +2844,6 @@
       <c r="R27">
         <v>4.4</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
       <c r="T27">
         <v>46.1</v>
       </c>
@@ -3167,9 +2880,6 @@
       <c r="AE27">
         <v>0.2</v>
       </c>
-      <c r="AF27">
-        <v>2</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3197,12 +2907,6 @@
       <c r="G28">
         <v>1.9</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
         <v>0.8</v>
       </c>
@@ -3212,18 +2916,12 @@
       <c r="L28">
         <v>0.1</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
         <v>28.4</v>
       </c>
       <c r="O28">
         <v>13.5</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
       <c r="Q28">
         <v>1.9</v>
       </c>
@@ -3269,9 +2967,6 @@
       <c r="AE28">
         <v>0.3</v>
       </c>
-      <c r="AF28">
-        <v>3</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3332,9 +3027,6 @@
       <c r="R29">
         <v>5.9</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29">
         <v>29.1</v>
       </c>
@@ -3371,9 +3063,6 @@
       <c r="AE29">
         <v>0.4</v>
       </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3470,12 +3159,6 @@
       <c r="AD30">
         <v>3.7</v>
       </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>3</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3503,9 +3186,6 @@
       <c r="G31">
         <v>18.8</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31">
         <v>6.8</v>
       </c>
@@ -3575,9 +3255,6 @@
       <c r="AE31">
         <v>0.4</v>
       </c>
-      <c r="AF31">
-        <v>4</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3608,33 +3285,18 @@
       <c r="H32">
         <v>1.7</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
       <c r="K32">
         <v>0.2</v>
       </c>
       <c r="L32">
         <v>0.3</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
       <c r="N32">
         <v>38.6</v>
       </c>
       <c r="O32">
         <v>9.800000000000001</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
       <c r="R32">
         <v>7.9</v>
       </c>
@@ -3677,9 +3339,6 @@
       <c r="AE32">
         <v>0.3</v>
       </c>
-      <c r="AF32">
-        <v>3</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3773,14 +3432,8 @@
       <c r="AC33">
         <v>6</v>
       </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
       <c r="AE33">
         <v>0.2</v>
-      </c>
-      <c r="AF33">
-        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -3881,9 +3534,6 @@
       <c r="AE34">
         <v>0.1</v>
       </c>
-      <c r="AF34">
-        <v>3</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3908,44 +3558,20 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
       <c r="K35">
         <v>2.8</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
       <c r="N35">
         <v>37.8</v>
       </c>
       <c r="O35">
         <v>0.2</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
       <c r="Q35">
         <v>0.2</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
       </c>
       <c r="T35">
         <v>99.2</v>
@@ -3965,27 +3591,12 @@
       <c r="Y35">
         <v>0.1</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
       <c r="AC35">
         <v>57.8</v>
       </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
       <c r="AE35">
         <v>0</v>
       </c>
-      <c r="AF35">
-        <v>3</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4085,9 +3696,6 @@
       <c r="AE36">
         <v>0.3</v>
       </c>
-      <c r="AF36">
-        <v>2</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4124,9 +3732,6 @@
       <c r="J37">
         <v>2</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
       <c r="L37">
         <v>0.9</v>
       </c>
@@ -4187,9 +3792,6 @@
       <c r="AE37">
         <v>0.2</v>
       </c>
-      <c r="AF37">
-        <v>2</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4232,9 +3834,6 @@
       <c r="L38">
         <v>0.4</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
       <c r="N38">
         <v>0</v>
       </c>
@@ -4250,9 +3849,6 @@
       <c r="R38">
         <v>0.7</v>
       </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
       <c r="T38">
         <v>26.9</v>
       </c>
@@ -4283,15 +3879,9 @@
       <c r="AC38">
         <v>10.2</v>
       </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
       <c r="AE38">
         <v>0.4</v>
       </c>
-      <c r="AF38">
-        <v>2</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4376,23 +3966,14 @@
       <c r="Z39">
         <v>3</v>
       </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
       <c r="AB39">
         <v>6.8</v>
       </c>
       <c r="AC39">
         <v>5</v>
       </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
       <c r="AE39">
         <v>0.2</v>
-      </c>
-      <c r="AF39">
-        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -4439,9 +4020,6 @@
       <c r="M40">
         <v>0.3</v>
       </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
       <c r="O40">
         <v>55.8</v>
       </c>
@@ -4493,9 +4071,6 @@
       <c r="AE40">
         <v>0.2</v>
       </c>
-      <c r="AF40">
-        <v>4</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4532,18 +4107,12 @@
       <c r="J41">
         <v>0.2</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
         <v>0.1</v>
       </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
       <c r="O41">
         <v>13.7</v>
       </c>
@@ -4595,9 +4164,6 @@
       <c r="AE41">
         <v>0.5</v>
       </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4625,24 +4191,12 @@
       <c r="G42">
         <v>0.1</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
       <c r="I42">
         <v>0.4</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
       <c r="K42">
         <v>46.7</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
       <c r="N42">
         <v>36.7</v>
       </c>
@@ -4652,12 +4206,6 @@
       <c r="P42">
         <v>0</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
       <c r="S42">
         <v>0.3</v>
       </c>
@@ -4682,9 +4230,6 @@
       <c r="Z42">
         <v>41.3</v>
       </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
       <c r="AB42">
         <v>59.9</v>
       </c>
@@ -4697,9 +4242,6 @@
       <c r="AE42">
         <v>0</v>
       </c>
-      <c r="AF42">
-        <v>3</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4799,9 +4341,6 @@
       <c r="AE43">
         <v>0.2</v>
       </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4823,33 +4362,15 @@
       <c r="E44">
         <v>17.9</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
       <c r="G44">
         <v>27.6</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
       <c r="I44">
         <v>16.8</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
       <c r="L44">
         <v>4.1</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
       <c r="O44">
         <v>33.1</v>
       </c>
@@ -4883,27 +4404,9 @@
       <c r="Y44">
         <v>17.4</v>
       </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
       <c r="AC44">
         <v>7.5</v>
       </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4961,51 +4464,18 @@
       <c r="Q45">
         <v>0.5</v>
       </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
       <c r="S45">
         <v>0</v>
       </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
       <c r="Z45">
         <v>27.2</v>
       </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
       <c r="AB45">
         <v>5.8</v>
       </c>
       <c r="AC45">
         <v>22.5</v>
       </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>1</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5033,24 +4503,15 @@
       <c r="G46">
         <v>10.9</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
       <c r="I46">
         <v>5.6</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
       <c r="K46">
         <v>1.5</v>
       </c>
       <c r="L46">
         <v>0.9</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
       <c r="N46">
         <v>0.5</v>
       </c>
@@ -5060,54 +4521,21 @@
       <c r="P46">
         <v>10.7</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
       <c r="R46">
         <v>2.2</v>
       </c>
       <c r="S46">
         <v>0.2</v>
       </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
       <c r="Z46">
         <v>25.4</v>
       </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
       <c r="AB46">
         <v>11.3</v>
       </c>
       <c r="AC46">
         <v>14.1</v>
       </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>2</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5207,9 +4635,6 @@
       <c r="AE47">
         <v>0.4</v>
       </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5309,9 +4734,6 @@
       <c r="AE48">
         <v>0.3</v>
       </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5411,9 +4833,6 @@
       <c r="AE49">
         <v>0.4</v>
       </c>
-      <c r="AF49">
-        <v>2</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5507,15 +4926,9 @@
       <c r="AC50">
         <v>3.3</v>
       </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
       <c r="AE50">
         <v>0.3</v>
       </c>
-      <c r="AF50">
-        <v>2</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5543,36 +4956,12 @@
       <c r="G51">
         <v>3.2</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51">
         <v>0.2</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
       </c>
       <c r="O51">
         <v>29.3</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
       <c r="R51">
         <v>3.8</v>
       </c>
@@ -5600,24 +4989,12 @@
       <c r="Z51">
         <v>25.7</v>
       </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
       <c r="AB51">
         <v>2.1</v>
       </c>
       <c r="AC51">
         <v>10</v>
       </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>3</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5711,15 +5088,9 @@
       <c r="AC52">
         <v>2</v>
       </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
       <c r="AE52">
         <v>0.5</v>
       </c>
-      <c r="AF52">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5819,9 +5190,6 @@
       <c r="AE53">
         <v>0.3</v>
       </c>
-      <c r="AF53">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5921,9 +5289,6 @@
       <c r="AE54">
         <v>0.3</v>
       </c>
-      <c r="AF54">
-        <v>2</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6023,9 +5388,6 @@
       <c r="AE55">
         <v>0.5</v>
       </c>
-      <c r="AF55">
-        <v>4</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6053,36 +5415,18 @@
       <c r="G56">
         <v>2.4</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
       <c r="K56">
         <v>0.1</v>
       </c>
       <c r="L56">
         <v>1.5</v>
       </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
       <c r="N56">
         <v>5.4</v>
       </c>
       <c r="O56">
         <v>14.1</v>
       </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
       <c r="R56">
         <v>2.9</v>
       </c>
@@ -6122,12 +5466,6 @@
       <c r="AD56">
         <v>0.3</v>
       </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-      <c r="AF56">
-        <v>3</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6227,9 +5565,6 @@
       <c r="AE57">
         <v>0.2</v>
       </c>
-      <c r="AF57">
-        <v>3</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6329,9 +5664,6 @@
       <c r="AE58">
         <v>0.3</v>
       </c>
-      <c r="AF58">
-        <v>4</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6371,12 +5703,6 @@
       <c r="K59">
         <v>0</v>
       </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
       <c r="N59">
         <v>0.1</v>
       </c>
@@ -6386,15 +5712,9 @@
       <c r="P59">
         <v>0.4</v>
       </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
       <c r="R59">
         <v>5.3</v>
       </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
       <c r="T59">
         <v>25.4</v>
       </c>
@@ -6416,9 +5736,6 @@
       <c r="Z59">
         <v>13.6</v>
       </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
       <c r="AB59">
         <v>7.3</v>
       </c>
@@ -6428,12 +5745,6 @@
       <c r="AD59">
         <v>0.4</v>
       </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <v>2</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6533,9 +5844,6 @@
       <c r="AE60">
         <v>0.3</v>
       </c>
-      <c r="AF60">
-        <v>2</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6596,9 +5904,6 @@
       <c r="R61">
         <v>15.7</v>
       </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
       <c r="T61">
         <v>22</v>
       </c>
@@ -6635,9 +5940,6 @@
       <c r="AE61">
         <v>0.3</v>
       </c>
-      <c r="AF61">
-        <v>1</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6737,9 +6039,6 @@
       <c r="AE62">
         <v>0.2</v>
       </c>
-      <c r="AF62">
-        <v>2</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6800,9 +6099,6 @@
       <c r="R63">
         <v>12.1</v>
       </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
       <c r="T63">
         <v>67.7</v>
       </c>
@@ -6839,9 +6135,6 @@
       <c r="AE63">
         <v>0.2</v>
       </c>
-      <c r="AF63">
-        <v>2</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6941,9 +6234,6 @@
       <c r="AE64">
         <v>0.3</v>
       </c>
-      <c r="AF64">
-        <v>1</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7004,9 +6294,6 @@
       <c r="R65">
         <v>3.7</v>
       </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
       <c r="T65">
         <v>60.4</v>
       </c>
@@ -7043,9 +6330,6 @@
       <c r="AE65">
         <v>0.2</v>
       </c>
-      <c r="AF65">
-        <v>2</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7106,9 +6390,6 @@
       <c r="R66">
         <v>13.8</v>
       </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
       <c r="T66">
         <v>22.8</v>
       </c>
@@ -7145,9 +6426,6 @@
       <c r="AE66">
         <v>0.5</v>
       </c>
-      <c r="AF66">
-        <v>1</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7184,9 +6462,6 @@
       <c r="J67">
         <v>7.6</v>
       </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
       <c r="L67">
         <v>0.1</v>
       </c>
@@ -7229,26 +6504,14 @@
       <c r="Y67">
         <v>1.4</v>
       </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
       <c r="AB67">
         <v>6.7</v>
       </c>
       <c r="AC67">
         <v>37.6</v>
       </c>
-      <c r="AD67">
-        <v>0</v>
-      </c>
       <c r="AE67">
         <v>0.2</v>
-      </c>
-      <c r="AF67">
-        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -7277,39 +6540,15 @@
       <c r="G68">
         <v>6.9</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
       <c r="L68">
         <v>4</v>
       </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
         <v>31.9</v>
       </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
       <c r="S68">
         <v>0.5</v>
       </c>
@@ -7334,24 +6573,12 @@
       <c r="Z68">
         <v>13.1</v>
       </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
       <c r="AB68">
         <v>17.8</v>
       </c>
       <c r="AC68">
         <v>29</v>
       </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
-      <c r="AE68">
-        <v>0</v>
-      </c>
-      <c r="AF68">
-        <v>3</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7451,9 +6678,6 @@
       <c r="AE69">
         <v>0.3</v>
       </c>
-      <c r="AF69">
-        <v>1</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7496,9 +6720,6 @@
       <c r="L70">
         <v>0.6</v>
       </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
       <c r="N70">
         <v>4.1</v>
       </c>
@@ -7517,24 +6738,6 @@
       <c r="S70">
         <v>0.1</v>
       </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
       <c r="Z70">
         <v>40.4</v>
       </c>
@@ -7550,12 +6753,6 @@
       <c r="AD70">
         <v>1.3</v>
       </c>
-      <c r="AE70">
-        <v>0</v>
-      </c>
-      <c r="AF70">
-        <v>2</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7574,69 +6771,30 @@
       <c r="D71">
         <v>34.4</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
       <c r="F71">
         <v>20.4</v>
       </c>
       <c r="G71">
         <v>1.4</v>
       </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
       <c r="K71">
         <v>11.8</v>
       </c>
       <c r="L71">
         <v>0.6</v>
       </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
       <c r="N71">
         <v>0.1</v>
       </c>
       <c r="O71">
         <v>65.59999999999999</v>
       </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
       <c r="R71">
         <v>6.2</v>
       </c>
       <c r="S71">
         <v>0.1</v>
       </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
       <c r="Z71">
         <v>77.40000000000001</v>
       </c>
@@ -7652,12 +6810,6 @@
       <c r="AD71">
         <v>5.9</v>
       </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-      <c r="AF71">
-        <v>3</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7676,21 +6828,9 @@
       <c r="D72">
         <v>74.2</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
       <c r="H72">
         <v>13.9</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
       <c r="J72">
         <v>2.2</v>
       </c>
@@ -7709,12 +6849,6 @@
       <c r="O72">
         <v>25.7</v>
       </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
       <c r="R72">
         <v>2</v>
       </c>
@@ -7757,9 +6891,6 @@
       <c r="AE72">
         <v>0.2</v>
       </c>
-      <c r="AF72">
-        <v>3</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7802,9 +6933,6 @@
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
       <c r="N73">
         <v>0.3</v>
       </c>
@@ -7859,9 +6987,6 @@
       <c r="AE73">
         <v>0.4</v>
       </c>
-      <c r="AF73">
-        <v>1</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7960,9 +7085,6 @@
       </c>
       <c r="AE74">
         <v>0.4</v>
-      </c>
-      <c r="AF74">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE74"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,6 +513,11 @@
           <t>wigc</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>clusters</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,8 +611,14 @@
       <c r="AC2">
         <v>11.8</v>
       </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
       <c r="AE2">
         <v>0.1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -645,6 +656,9 @@
       <c r="J3">
         <v>2.5</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <v>14.1</v>
       </c>
@@ -663,6 +677,9 @@
       <c r="Q3">
         <v>0.8</v>
       </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
       <c r="S3">
         <v>0.1</v>
       </c>
@@ -701,6 +718,9 @@
       </c>
       <c r="AE3">
         <v>0.1</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -801,6 +821,9 @@
       <c r="AE4">
         <v>0.3</v>
       </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -837,9 +860,15 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
       <c r="L5">
         <v>1.5</v>
       </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -851,6 +880,9 @@
       </c>
       <c r="Q5">
         <v>0.1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -890,6 +922,9 @@
       </c>
       <c r="AE5">
         <v>0.1</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -987,6 +1022,12 @@
       <c r="AD6">
         <v>0.1</v>
       </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1071,14 +1112,23 @@
       <c r="Z7">
         <v>25.1</v>
       </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
       <c r="AB7">
         <v>6.4</v>
       </c>
       <c r="AC7">
         <v>0.8</v>
       </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
       <c r="AE7">
         <v>0.3</v>
+      </c>
+      <c r="AF7">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1179,6 +1229,9 @@
       <c r="AE8">
         <v>0.3</v>
       </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1206,18 +1259,36 @@
       <c r="G9">
         <v>5.3</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="I9">
         <v>1.7</v>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
       <c r="L9">
         <v>1.7</v>
       </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
       <c r="O9">
         <v>12.3</v>
       </c>
       <c r="P9">
         <v>6.2</v>
       </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
       <c r="R9">
         <v>5.2</v>
       </c>
@@ -1245,11 +1316,23 @@
       <c r="Z9">
         <v>36.6</v>
       </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
       <c r="AB9">
         <v>6.5</v>
       </c>
       <c r="AC9">
         <v>15.6</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1287,6 +1370,12 @@
       <c r="J10">
         <v>0.2</v>
       </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
       <c r="M10">
         <v>0.2</v>
       </c>
@@ -1343,6 +1432,9 @@
       </c>
       <c r="AE10">
         <v>0.2</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1443,6 +1535,9 @@
       <c r="AE11">
         <v>0.3</v>
       </c>
+      <c r="AF11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1506,6 +1601,24 @@
       <c r="S12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
       <c r="Z12">
         <v>64.2</v>
       </c>
@@ -1523,6 +1636,9 @@
       </c>
       <c r="AE12">
         <v>0.2</v>
+      </c>
+      <c r="AF12">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1623,6 +1739,9 @@
       <c r="AE13">
         <v>0.4</v>
       </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1722,6 +1841,9 @@
       <c r="AE14">
         <v>0.1</v>
       </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1743,12 +1865,21 @@
       <c r="E15">
         <v>80.90000000000001</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
       <c r="G15">
         <v>0.1</v>
       </c>
       <c r="H15">
         <v>1.6</v>
       </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
       <c r="K15">
         <v>2</v>
       </c>
@@ -1767,6 +1898,9 @@
       <c r="P15">
         <v>1.4</v>
       </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
       <c r="R15">
         <v>5.2</v>
       </c>
@@ -1794,14 +1928,23 @@
       <c r="Z15">
         <v>33.5</v>
       </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
       <c r="AB15">
         <v>26.9</v>
       </c>
       <c r="AC15">
         <v>17.1</v>
       </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
       <c r="AE15">
         <v>0.1</v>
+      </c>
+      <c r="AF15">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1902,6 +2045,9 @@
       <c r="AE16">
         <v>0.2</v>
       </c>
+      <c r="AF16">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1941,6 +2087,12 @@
       <c r="K17">
         <v>2.1</v>
       </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
       <c r="N17">
         <v>2.5</v>
       </c>
@@ -1980,6 +2132,9 @@
       <c r="Z17">
         <v>5.3</v>
       </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
       <c r="AB17">
         <v>4.8</v>
       </c>
@@ -1991,6 +2146,9 @@
       </c>
       <c r="AE17">
         <v>0.3</v>
+      </c>
+      <c r="AF17">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -2091,6 +2249,9 @@
       <c r="AE18">
         <v>0.4</v>
       </c>
+      <c r="AF18">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2127,6 +2288,9 @@
       <c r="J19">
         <v>0.6</v>
       </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
       <c r="L19">
         <v>0</v>
       </c>
@@ -2186,6 +2350,9 @@
       </c>
       <c r="AE19">
         <v>0.3</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2211,9 +2378,18 @@
       <c r="F20">
         <v>6.6</v>
       </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
       <c r="H20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
       <c r="K20">
         <v>2.9</v>
       </c>
@@ -2229,6 +2405,12 @@
       <c r="O20">
         <v>1.3</v>
       </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
       <c r="R20">
         <v>0.7</v>
       </c>
@@ -2256,14 +2438,23 @@
       <c r="Z20">
         <v>2.4</v>
       </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
       <c r="AB20">
         <v>28.7</v>
       </c>
       <c r="AC20">
         <v>18.5</v>
       </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
       <c r="AE20">
         <v>0.2</v>
+      </c>
+      <c r="AF20">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2301,6 +2492,9 @@
       <c r="J21">
         <v>0.1</v>
       </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
       <c r="L21">
         <v>1.7</v>
       </c>
@@ -2316,6 +2510,9 @@
       <c r="P21">
         <v>0</v>
       </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
       <c r="R21">
         <v>0</v>
       </c>
@@ -2352,8 +2549,14 @@
       <c r="AC21">
         <v>8.699999999999999</v>
       </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
       <c r="AE21">
         <v>0.1</v>
+      </c>
+      <c r="AF21">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2376,21 +2579,42 @@
       <c r="E22">
         <v>16.3</v>
       </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
       <c r="G22">
         <v>20.8</v>
       </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
       <c r="I22">
         <v>18.1</v>
       </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
       <c r="L22">
         <v>12.2</v>
       </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
       <c r="O22">
         <v>32.5</v>
       </c>
       <c r="P22">
         <v>16.4</v>
       </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
       <c r="R22">
         <v>5.4</v>
       </c>
@@ -2418,11 +2642,23 @@
       <c r="Z22">
         <v>10.5</v>
       </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
       <c r="AB22">
         <v>0.2</v>
       </c>
       <c r="AC22">
         <v>3.3</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2466,6 +2702,9 @@
       <c r="L23">
         <v>1.6</v>
       </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
       <c r="N23">
         <v>0.1</v>
       </c>
@@ -2513,6 +2752,15 @@
       </c>
       <c r="AC23">
         <v>18.5</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2613,6 +2861,9 @@
       <c r="AE24">
         <v>0.2</v>
       </c>
+      <c r="AF24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2640,6 +2891,9 @@
       <c r="G25">
         <v>20.2</v>
       </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
       <c r="I25">
         <v>3.1</v>
       </c>
@@ -2652,6 +2906,9 @@
       <c r="L25">
         <v>0.1</v>
       </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
       <c r="N25">
         <v>1.1</v>
       </c>
@@ -2661,6 +2918,9 @@
       <c r="P25">
         <v>1.5</v>
       </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
       <c r="R25">
         <v>4.7</v>
       </c>
@@ -2688,6 +2948,9 @@
       <c r="Z25">
         <v>3.8</v>
       </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
       <c r="AB25">
         <v>1.3</v>
       </c>
@@ -2699,6 +2962,9 @@
       </c>
       <c r="AE25">
         <v>0.2</v>
+      </c>
+      <c r="AF25">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2733,6 +2999,18 @@
       <c r="I26">
         <v>7.4</v>
       </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
       <c r="N26">
         <v>0.4</v>
       </c>
@@ -2742,6 +3020,9 @@
       <c r="P26">
         <v>8</v>
       </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
       <c r="R26">
         <v>0.1</v>
       </c>
@@ -2783,6 +3064,9 @@
       </c>
       <c r="AE26">
         <v>0.2</v>
+      </c>
+      <c r="AF26">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2844,6 +3128,9 @@
       <c r="R27">
         <v>4.4</v>
       </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
       <c r="T27">
         <v>46.1</v>
       </c>
@@ -2879,6 +3166,9 @@
       </c>
       <c r="AE27">
         <v>0.2</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2907,6 +3197,12 @@
       <c r="G28">
         <v>1.9</v>
       </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
       <c r="J28">
         <v>0.8</v>
       </c>
@@ -2916,12 +3212,18 @@
       <c r="L28">
         <v>0.1</v>
       </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
       <c r="N28">
         <v>28.4</v>
       </c>
       <c r="O28">
         <v>13.5</v>
       </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
       <c r="Q28">
         <v>1.9</v>
       </c>
@@ -2966,6 +3268,9 @@
       </c>
       <c r="AE28">
         <v>0.3</v>
+      </c>
+      <c r="AF28">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -3027,6 +3332,9 @@
       <c r="R29">
         <v>5.9</v>
       </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
       <c r="T29">
         <v>29.1</v>
       </c>
@@ -3062,6 +3370,9 @@
       </c>
       <c r="AE29">
         <v>0.4</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -3159,6 +3470,12 @@
       <c r="AD30">
         <v>3.7</v>
       </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3186,6 +3503,9 @@
       <c r="G31">
         <v>18.8</v>
       </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
       <c r="I31">
         <v>6.8</v>
       </c>
@@ -3254,6 +3574,9 @@
       </c>
       <c r="AE31">
         <v>0.4</v>
+      </c>
+      <c r="AF31">
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -3285,18 +3608,33 @@
       <c r="H32">
         <v>1.7</v>
       </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
       <c r="K32">
         <v>0.2</v>
       </c>
       <c r="L32">
         <v>0.3</v>
       </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
       <c r="N32">
         <v>38.6</v>
       </c>
       <c r="O32">
         <v>9.800000000000001</v>
       </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
       <c r="R32">
         <v>7.9</v>
       </c>
@@ -3338,6 +3676,9 @@
       </c>
       <c r="AE32">
         <v>0.3</v>
+      </c>
+      <c r="AF32">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -3432,8 +3773,14 @@
       <c r="AC33">
         <v>6</v>
       </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
       <c r="AE33">
         <v>0.2</v>
+      </c>
+      <c r="AF33">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -3534,6 +3881,9 @@
       <c r="AE34">
         <v>0.1</v>
       </c>
+      <c r="AF34">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3558,21 +3908,45 @@
       <c r="F35">
         <v>1</v>
       </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
       <c r="K35">
         <v>2.8</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
       <c r="N35">
         <v>37.8</v>
       </c>
       <c r="O35">
         <v>0.2</v>
       </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
       <c r="Q35">
         <v>0.2</v>
       </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
       <c r="T35">
         <v>99.2</v>
       </c>
@@ -3591,11 +3965,26 @@
       <c r="Y35">
         <v>0.1</v>
       </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
       <c r="AC35">
         <v>57.8</v>
       </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
       <c r="AE35">
         <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3696,6 +4085,9 @@
       <c r="AE36">
         <v>0.3</v>
       </c>
+      <c r="AF36">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3732,6 +4124,9 @@
       <c r="J37">
         <v>2</v>
       </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
       <c r="L37">
         <v>0.9</v>
       </c>
@@ -3791,6 +4186,9 @@
       </c>
       <c r="AE37">
         <v>0.2</v>
+      </c>
+      <c r="AF37">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -3834,6 +4232,9 @@
       <c r="L38">
         <v>0.4</v>
       </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
       <c r="N38">
         <v>0</v>
       </c>
@@ -3849,6 +4250,9 @@
       <c r="R38">
         <v>0.7</v>
       </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
       <c r="T38">
         <v>26.9</v>
       </c>
@@ -3879,8 +4283,14 @@
       <c r="AC38">
         <v>10.2</v>
       </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
       <c r="AE38">
         <v>0.4</v>
+      </c>
+      <c r="AF38">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -3966,14 +4376,23 @@
       <c r="Z39">
         <v>3</v>
       </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
       <c r="AB39">
         <v>6.8</v>
       </c>
       <c r="AC39">
         <v>5</v>
       </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
       <c r="AE39">
         <v>0.2</v>
+      </c>
+      <c r="AF39">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -4020,6 +4439,9 @@
       <c r="M40">
         <v>0.3</v>
       </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
       <c r="O40">
         <v>55.8</v>
       </c>
@@ -4070,6 +4492,9 @@
       </c>
       <c r="AE40">
         <v>0.2</v>
+      </c>
+      <c r="AF40">
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -4107,11 +4532,17 @@
       <c r="J41">
         <v>0.2</v>
       </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
         <v>0.1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
       </c>
       <c r="O41">
         <v>13.7</v>
@@ -4163,6 +4594,9 @@
       </c>
       <c r="AE41">
         <v>0.5</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -4191,12 +4625,24 @@
       <c r="G42">
         <v>0.1</v>
       </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
       <c r="I42">
         <v>0.4</v>
       </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
       <c r="K42">
         <v>46.7</v>
       </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
       <c r="N42">
         <v>36.7</v>
       </c>
@@ -4206,6 +4652,12 @@
       <c r="P42">
         <v>0</v>
       </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
       <c r="S42">
         <v>0.3</v>
       </c>
@@ -4230,6 +4682,9 @@
       <c r="Z42">
         <v>41.3</v>
       </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
       <c r="AB42">
         <v>59.9</v>
       </c>
@@ -4241,6 +4696,9 @@
       </c>
       <c r="AE42">
         <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -4341,6 +4799,9 @@
       <c r="AE43">
         <v>0.2</v>
       </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4362,15 +4823,33 @@
       <c r="E44">
         <v>17.9</v>
       </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
       <c r="G44">
         <v>27.6</v>
       </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
       <c r="I44">
         <v>16.8</v>
       </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
       <c r="L44">
         <v>4.1</v>
       </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
       <c r="O44">
         <v>33.1</v>
       </c>
@@ -4404,8 +4883,26 @@
       <c r="Y44">
         <v>17.4</v>
       </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
       <c r="AC44">
         <v>7.5</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -4464,17 +4961,50 @@
       <c r="Q45">
         <v>0.5</v>
       </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
       <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
         <v>0</v>
       </c>
       <c r="Z45">
         <v>27.2</v>
       </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
       <c r="AB45">
         <v>5.8</v>
       </c>
       <c r="AC45">
         <v>22.5</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -4503,15 +5033,24 @@
       <c r="G46">
         <v>10.9</v>
       </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
       <c r="I46">
         <v>5.6</v>
       </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
       <c r="K46">
         <v>1.5</v>
       </c>
       <c r="L46">
         <v>0.9</v>
       </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
       <c r="N46">
         <v>0.5</v>
       </c>
@@ -4521,20 +5060,53 @@
       <c r="P46">
         <v>10.7</v>
       </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
       <c r="R46">
         <v>2.2</v>
       </c>
       <c r="S46">
         <v>0.2</v>
       </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
       <c r="Z46">
         <v>25.4</v>
       </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
       <c r="AB46">
         <v>11.3</v>
       </c>
       <c r="AC46">
         <v>14.1</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -4635,6 +5207,9 @@
       <c r="AE47">
         <v>0.4</v>
       </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4734,6 +5309,9 @@
       <c r="AE48">
         <v>0.3</v>
       </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4833,6 +5411,9 @@
       <c r="AE49">
         <v>0.4</v>
       </c>
+      <c r="AF49">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4926,8 +5507,14 @@
       <c r="AC50">
         <v>3.3</v>
       </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
       <c r="AE50">
         <v>0.3</v>
+      </c>
+      <c r="AF50">
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -4956,12 +5543,36 @@
       <c r="G51">
         <v>3.2</v>
       </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
       <c r="K51">
         <v>0.2</v>
       </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
       <c r="O51">
         <v>29.3</v>
       </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
       <c r="R51">
         <v>3.8</v>
       </c>
@@ -4989,11 +5600,23 @@
       <c r="Z51">
         <v>25.7</v>
       </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
       <c r="AB51">
         <v>2.1</v>
       </c>
       <c r="AC51">
         <v>10</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -5088,8 +5711,14 @@
       <c r="AC52">
         <v>2</v>
       </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
       <c r="AE52">
         <v>0.5</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -5190,6 +5819,9 @@
       <c r="AE53">
         <v>0.3</v>
       </c>
+      <c r="AF53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5289,6 +5921,9 @@
       <c r="AE54">
         <v>0.3</v>
       </c>
+      <c r="AF54">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5388,6 +6023,9 @@
       <c r="AE55">
         <v>0.5</v>
       </c>
+      <c r="AF55">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5415,18 +6053,36 @@
       <c r="G56">
         <v>2.4</v>
       </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
       <c r="K56">
         <v>0.1</v>
       </c>
       <c r="L56">
         <v>1.5</v>
       </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
       <c r="N56">
         <v>5.4</v>
       </c>
       <c r="O56">
         <v>14.1</v>
       </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
       <c r="R56">
         <v>2.9</v>
       </c>
@@ -5465,6 +6121,12 @@
       </c>
       <c r="AD56">
         <v>0.3</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -5565,6 +6227,9 @@
       <c r="AE57">
         <v>0.2</v>
       </c>
+      <c r="AF57">
+        <v>4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5664,6 +6329,9 @@
       <c r="AE58">
         <v>0.3</v>
       </c>
+      <c r="AF58">
+        <v>5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5703,6 +6371,12 @@
       <c r="K59">
         <v>0</v>
       </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
       <c r="N59">
         <v>0.1</v>
       </c>
@@ -5712,9 +6386,15 @@
       <c r="P59">
         <v>0.4</v>
       </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
       <c r="R59">
         <v>5.3</v>
       </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
       <c r="T59">
         <v>25.4</v>
       </c>
@@ -5736,6 +6416,9 @@
       <c r="Z59">
         <v>13.6</v>
       </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
       <c r="AB59">
         <v>7.3</v>
       </c>
@@ -5744,6 +6427,12 @@
       </c>
       <c r="AD59">
         <v>0.4</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -5844,6 +6533,9 @@
       <c r="AE60">
         <v>0.3</v>
       </c>
+      <c r="AF60">
+        <v>3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5904,6 +6596,9 @@
       <c r="R61">
         <v>15.7</v>
       </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
       <c r="T61">
         <v>22</v>
       </c>
@@ -5939,6 +6634,9 @@
       </c>
       <c r="AE61">
         <v>0.3</v>
+      </c>
+      <c r="AF61">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -6039,6 +6737,9 @@
       <c r="AE62">
         <v>0.2</v>
       </c>
+      <c r="AF62">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6099,6 +6800,9 @@
       <c r="R63">
         <v>12.1</v>
       </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
       <c r="T63">
         <v>67.7</v>
       </c>
@@ -6134,6 +6838,9 @@
       </c>
       <c r="AE63">
         <v>0.2</v>
+      </c>
+      <c r="AF63">
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -6234,6 +6941,9 @@
       <c r="AE64">
         <v>0.3</v>
       </c>
+      <c r="AF64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6294,6 +7004,9 @@
       <c r="R65">
         <v>3.7</v>
       </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
       <c r="T65">
         <v>60.4</v>
       </c>
@@ -6329,6 +7042,9 @@
       </c>
       <c r="AE65">
         <v>0.2</v>
+      </c>
+      <c r="AF65">
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -6390,6 +7106,9 @@
       <c r="R66">
         <v>13.8</v>
       </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
       <c r="T66">
         <v>22.8</v>
       </c>
@@ -6425,6 +7144,9 @@
       </c>
       <c r="AE66">
         <v>0.5</v>
+      </c>
+      <c r="AF66">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -6462,6 +7184,9 @@
       <c r="J67">
         <v>7.6</v>
       </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
       <c r="L67">
         <v>0.1</v>
       </c>
@@ -6504,14 +7229,26 @@
       <c r="Y67">
         <v>1.4</v>
       </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
       <c r="AB67">
         <v>6.7</v>
       </c>
       <c r="AC67">
         <v>37.6</v>
       </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
       <c r="AE67">
         <v>0.2</v>
+      </c>
+      <c r="AF67">
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -6540,15 +7277,39 @@
       <c r="G68">
         <v>6.9</v>
       </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
       <c r="L68">
         <v>4</v>
       </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
         <v>31.9</v>
       </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
       <c r="S68">
         <v>0.5</v>
       </c>
@@ -6573,11 +7334,23 @@
       <c r="Z68">
         <v>13.1</v>
       </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
       <c r="AB68">
         <v>17.8</v>
       </c>
       <c r="AC68">
         <v>29</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -6678,6 +7451,9 @@
       <c r="AE69">
         <v>0.3</v>
       </c>
+      <c r="AF69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6720,6 +7496,9 @@
       <c r="L70">
         <v>0.6</v>
       </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
       <c r="N70">
         <v>4.1</v>
       </c>
@@ -6738,6 +7517,24 @@
       <c r="S70">
         <v>0.1</v>
       </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
       <c r="Z70">
         <v>40.4</v>
       </c>
@@ -6752,6 +7549,12 @@
       </c>
       <c r="AD70">
         <v>1.3</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -6771,30 +7574,69 @@
       <c r="D71">
         <v>34.4</v>
       </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
       <c r="F71">
         <v>20.4</v>
       </c>
       <c r="G71">
         <v>1.4</v>
       </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
       <c r="K71">
         <v>11.8</v>
       </c>
       <c r="L71">
         <v>0.6</v>
       </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
       <c r="N71">
         <v>0.1</v>
       </c>
       <c r="O71">
         <v>65.59999999999999</v>
       </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
       <c r="R71">
         <v>6.2</v>
       </c>
       <c r="S71">
         <v>0.1</v>
       </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
       <c r="Z71">
         <v>77.40000000000001</v>
       </c>
@@ -6809,6 +7651,12 @@
       </c>
       <c r="AD71">
         <v>5.9</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -6828,9 +7676,21 @@
       <c r="D72">
         <v>74.2</v>
       </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
       <c r="H72">
         <v>13.9</v>
       </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
       <c r="J72">
         <v>2.2</v>
       </c>
@@ -6849,6 +7709,12 @@
       <c r="O72">
         <v>25.7</v>
       </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
       <c r="R72">
         <v>2</v>
       </c>
@@ -6890,6 +7756,9 @@
       </c>
       <c r="AE72">
         <v>0.2</v>
+      </c>
+      <c r="AF72">
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -6933,6 +7802,9 @@
       <c r="L73">
         <v>0</v>
       </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
       <c r="N73">
         <v>0.3</v>
       </c>
@@ -6986,6 +7858,9 @@
       </c>
       <c r="AE73">
         <v>0.4</v>
+      </c>
+      <c r="AF73">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -7085,6 +7960,9 @@
       </c>
       <c r="AE74">
         <v>0.4</v>
+      </c>
+      <c r="AF74">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -1128,7 +1128,7 @@
         <v>0.3</v>
       </c>
       <c r="AF7">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1536,7 +1536,7 @@
         <v>0.3</v>
       </c>
       <c r="AF11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1638,7 +1638,7 @@
         <v>0.2</v>
       </c>
       <c r="AF12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -2046,7 +2046,7 @@
         <v>0.2</v>
       </c>
       <c r="AF16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -2250,7 +2250,7 @@
         <v>0.4</v>
       </c>
       <c r="AF18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -2352,7 +2352,7 @@
         <v>0.3</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2454,7 +2454,7 @@
         <v>0.2</v>
       </c>
       <c r="AF20">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2862,7 +2862,7 @@
         <v>0.2</v>
       </c>
       <c r="AF24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -3270,7 +3270,7 @@
         <v>0.3</v>
       </c>
       <c r="AF28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -3576,7 +3576,7 @@
         <v>0.4</v>
       </c>
       <c r="AF31">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -3780,7 +3780,7 @@
         <v>0.2</v>
       </c>
       <c r="AF33">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -3882,7 +3882,7 @@
         <v>0.1</v>
       </c>
       <c r="AF34">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -4086,7 +4086,7 @@
         <v>0.3</v>
       </c>
       <c r="AF36">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -4494,7 +4494,7 @@
         <v>0.2</v>
       </c>
       <c r="AF40">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -5514,7 +5514,7 @@
         <v>0.3</v>
       </c>
       <c r="AF50">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -5922,7 +5922,7 @@
         <v>0.3</v>
       </c>
       <c r="AF54">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -6024,7 +6024,7 @@
         <v>0.5</v>
       </c>
       <c r="AF55">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -6228,7 +6228,7 @@
         <v>0.2</v>
       </c>
       <c r="AF57">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -6330,7 +6330,7 @@
         <v>0.3</v>
       </c>
       <c r="AF58">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -6636,7 +6636,7 @@
         <v>0.3</v>
       </c>
       <c r="AF61">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -7044,7 +7044,7 @@
         <v>0.2</v>
       </c>
       <c r="AF65">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -7758,7 +7758,7 @@
         <v>0.2</v>
       </c>
       <c r="AF72">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -1536,7 +1536,7 @@
         <v>0.3</v>
       </c>
       <c r="AF11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1638,7 +1638,7 @@
         <v>0.2</v>
       </c>
       <c r="AF12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2250,7 +2250,7 @@
         <v>0.4</v>
       </c>
       <c r="AF18">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2454,7 +2454,7 @@
         <v>0.2</v>
       </c>
       <c r="AF20">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2862,7 +2862,7 @@
         <v>0.2</v>
       </c>
       <c r="AF24">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -3576,7 +3576,7 @@
         <v>0.4</v>
       </c>
       <c r="AF31">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -3882,7 +3882,7 @@
         <v>0.1</v>
       </c>
       <c r="AF34">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -4494,7 +4494,7 @@
         <v>0.2</v>
       </c>
       <c r="AF40">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -6024,7 +6024,7 @@
         <v>0.5</v>
       </c>
       <c r="AF55">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -6228,7 +6228,7 @@
         <v>0.2</v>
       </c>
       <c r="AF57">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -6330,7 +6330,7 @@
         <v>0.3</v>
       </c>
       <c r="AF58">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -6636,7 +6636,7 @@
         <v>0.3</v>
       </c>
       <c r="AF61">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -7758,7 +7758,7 @@
         <v>0.2</v>
       </c>
       <c r="AF72">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF74"/>
+  <dimension ref="A1:AE74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,11 +513,6 @@
           <t>wigc</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>clusters</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -611,14 +606,8 @@
       <c r="AC2">
         <v>11.8</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
       <c r="AE2">
         <v>0.1</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -656,9 +645,6 @@
       <c r="J3">
         <v>2.5</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
         <v>14.1</v>
       </c>
@@ -677,9 +663,6 @@
       <c r="Q3">
         <v>0.8</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
         <v>0.1</v>
       </c>
@@ -719,9 +702,6 @@
       <c r="AE3">
         <v>0.1</v>
       </c>
-      <c r="AF3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -821,9 +801,6 @@
       <c r="AE4">
         <v>0.3</v>
       </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -860,15 +837,9 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>1.5</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -881,9 +852,6 @@
       <c r="Q5">
         <v>0.1</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
         <v>0</v>
       </c>
@@ -923,9 +891,6 @@
       <c r="AE5">
         <v>0.1</v>
       </c>
-      <c r="AF5">
-        <v>2</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1022,12 +987,6 @@
       <c r="AD6">
         <v>0.1</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>3</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1112,24 +1071,15 @@
       <c r="Z7">
         <v>25.1</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
       <c r="AB7">
         <v>6.4</v>
       </c>
       <c r="AC7">
         <v>0.8</v>
       </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
       <c r="AE7">
         <v>0.3</v>
       </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1229,9 +1179,6 @@
       <c r="AE8">
         <v>0.3</v>
       </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1259,36 +1206,18 @@
       <c r="G9">
         <v>5.3</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>1.7</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
         <v>1.7</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>12.3</v>
       </c>
       <c r="P9">
         <v>6.2</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
       <c r="R9">
         <v>5.2</v>
       </c>
@@ -1316,24 +1245,12 @@
       <c r="Z9">
         <v>36.6</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
       <c r="AB9">
         <v>6.5</v>
       </c>
       <c r="AC9">
         <v>15.6</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>3</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1370,12 +1287,6 @@
       <c r="J10">
         <v>0.2</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
         <v>0.2</v>
       </c>
@@ -1433,9 +1344,6 @@
       <c r="AE10">
         <v>0.2</v>
       </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1535,9 +1443,6 @@
       <c r="AE11">
         <v>0.3</v>
       </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1601,24 +1506,6 @@
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
       <c r="Z12">
         <v>64.2</v>
       </c>
@@ -1637,9 +1524,6 @@
       <c r="AE12">
         <v>0.2</v>
       </c>
-      <c r="AF12">
-        <v>2</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1739,9 +1623,6 @@
       <c r="AE13">
         <v>0.4</v>
       </c>
-      <c r="AF13">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1841,9 +1722,6 @@
       <c r="AE14">
         <v>0.1</v>
       </c>
-      <c r="AF14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1865,21 +1743,12 @@
       <c r="E15">
         <v>80.90000000000001</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
         <v>0.1</v>
       </c>
       <c r="H15">
         <v>1.6</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
         <v>2</v>
       </c>
@@ -1898,9 +1767,6 @@
       <c r="P15">
         <v>1.4</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
       <c r="R15">
         <v>5.2</v>
       </c>
@@ -1928,23 +1794,14 @@
       <c r="Z15">
         <v>33.5</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
       <c r="AB15">
         <v>26.9</v>
       </c>
       <c r="AC15">
         <v>17.1</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
       <c r="AE15">
         <v>0.1</v>
-      </c>
-      <c r="AF15">
-        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2045,9 +1902,6 @@
       <c r="AE16">
         <v>0.2</v>
       </c>
-      <c r="AF16">
-        <v>3</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2087,12 +1941,6 @@
       <c r="K17">
         <v>2.1</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
         <v>2.5</v>
       </c>
@@ -2132,9 +1980,6 @@
       <c r="Z17">
         <v>5.3</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
       <c r="AB17">
         <v>4.8</v>
       </c>
@@ -2147,9 +1992,6 @@
       <c r="AE17">
         <v>0.3</v>
       </c>
-      <c r="AF17">
-        <v>3</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2249,9 +2091,6 @@
       <c r="AE18">
         <v>0.4</v>
       </c>
-      <c r="AF18">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2288,9 +2127,6 @@
       <c r="J19">
         <v>0.6</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
         <v>0</v>
       </c>
@@ -2351,9 +2187,6 @@
       <c r="AE19">
         <v>0.3</v>
       </c>
-      <c r="AF19">
-        <v>3</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2378,18 +2211,9 @@
       <c r="F20">
         <v>6.6</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
         <v>2.9</v>
       </c>
@@ -2405,12 +2229,6 @@
       <c r="O20">
         <v>1.3</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
       <c r="R20">
         <v>0.7</v>
       </c>
@@ -2438,23 +2256,14 @@
       <c r="Z20">
         <v>2.4</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
       <c r="AB20">
         <v>28.7</v>
       </c>
       <c r="AC20">
         <v>18.5</v>
       </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
       <c r="AE20">
         <v>0.2</v>
-      </c>
-      <c r="AF20">
-        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2492,9 +2301,6 @@
       <c r="J21">
         <v>0.1</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>1.7</v>
       </c>
@@ -2510,9 +2316,6 @@
       <c r="P21">
         <v>0</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
       <c r="R21">
         <v>0</v>
       </c>
@@ -2549,14 +2352,8 @@
       <c r="AC21">
         <v>8.699999999999999</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
       <c r="AE21">
         <v>0.1</v>
-      </c>
-      <c r="AF21">
-        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2579,42 +2376,21 @@
       <c r="E22">
         <v>16.3</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
         <v>20.8</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="I22">
         <v>18.1</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
         <v>12.2</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
       <c r="O22">
         <v>32.5</v>
       </c>
       <c r="P22">
         <v>16.4</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
       <c r="R22">
         <v>5.4</v>
       </c>
@@ -2642,24 +2418,12 @@
       <c r="Z22">
         <v>10.5</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
       <c r="AB22">
         <v>0.2</v>
       </c>
       <c r="AC22">
         <v>3.3</v>
       </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2702,9 +2466,6 @@
       <c r="L23">
         <v>1.6</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
         <v>0.1</v>
       </c>
@@ -2753,15 +2514,6 @@
       <c r="AC23">
         <v>18.5</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>3</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2861,9 +2613,6 @@
       <c r="AE24">
         <v>0.2</v>
       </c>
-      <c r="AF24">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2891,9 +2640,6 @@
       <c r="G25">
         <v>20.2</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="I25">
         <v>3.1</v>
       </c>
@@ -2906,9 +2652,6 @@
       <c r="L25">
         <v>0.1</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
         <v>1.1</v>
       </c>
@@ -2918,9 +2661,6 @@
       <c r="P25">
         <v>1.5</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
       <c r="R25">
         <v>4.7</v>
       </c>
@@ -2948,9 +2688,6 @@
       <c r="Z25">
         <v>3.8</v>
       </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
       <c r="AB25">
         <v>1.3</v>
       </c>
@@ -2963,9 +2700,6 @@
       <c r="AE25">
         <v>0.2</v>
       </c>
-      <c r="AF25">
-        <v>3</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2999,18 +2733,6 @@
       <c r="I26">
         <v>7.4</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
         <v>0.4</v>
       </c>
@@ -3020,9 +2742,6 @@
       <c r="P26">
         <v>8</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
       <c r="R26">
         <v>0.1</v>
       </c>
@@ -3065,9 +2784,6 @@
       <c r="AE26">
         <v>0.2</v>
       </c>
-      <c r="AF26">
-        <v>3</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3128,9 +2844,6 @@
       <c r="R27">
         <v>4.4</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
       <c r="T27">
         <v>46.1</v>
       </c>
@@ -3167,9 +2880,6 @@
       <c r="AE27">
         <v>0.2</v>
       </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3197,12 +2907,6 @@
       <c r="G28">
         <v>1.9</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
         <v>0.8</v>
       </c>
@@ -3212,18 +2916,12 @@
       <c r="L28">
         <v>0.1</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
         <v>28.4</v>
       </c>
       <c r="O28">
         <v>13.5</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
       <c r="Q28">
         <v>1.9</v>
       </c>
@@ -3269,9 +2967,6 @@
       <c r="AE28">
         <v>0.3</v>
       </c>
-      <c r="AF28">
-        <v>3</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3332,9 +3027,6 @@
       <c r="R29">
         <v>5.9</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29">
         <v>29.1</v>
       </c>
@@ -3371,9 +3063,6 @@
       <c r="AE29">
         <v>0.4</v>
       </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3470,12 +3159,6 @@
       <c r="AD30">
         <v>3.7</v>
       </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>3</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3503,9 +3186,6 @@
       <c r="G31">
         <v>18.8</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31">
         <v>6.8</v>
       </c>
@@ -3575,9 +3255,6 @@
       <c r="AE31">
         <v>0.4</v>
       </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3608,33 +3285,18 @@
       <c r="H32">
         <v>1.7</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
       <c r="K32">
         <v>0.2</v>
       </c>
       <c r="L32">
         <v>0.3</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
       <c r="N32">
         <v>38.6</v>
       </c>
       <c r="O32">
         <v>9.800000000000001</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
       <c r="R32">
         <v>7.9</v>
       </c>
@@ -3677,9 +3339,6 @@
       <c r="AE32">
         <v>0.3</v>
       </c>
-      <c r="AF32">
-        <v>2</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3773,14 +3432,8 @@
       <c r="AC33">
         <v>6</v>
       </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
       <c r="AE33">
         <v>0.2</v>
-      </c>
-      <c r="AF33">
-        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -3881,9 +3534,6 @@
       <c r="AE34">
         <v>0.1</v>
       </c>
-      <c r="AF34">
-        <v>2</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3908,44 +3558,20 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
       <c r="K35">
         <v>2.8</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
       <c r="N35">
         <v>37.8</v>
       </c>
       <c r="O35">
         <v>0.2</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
       <c r="Q35">
         <v>0.2</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
       </c>
       <c r="T35">
         <v>99.2</v>
@@ -3965,27 +3591,12 @@
       <c r="Y35">
         <v>0.1</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
       <c r="AC35">
         <v>57.8</v>
       </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
       <c r="AE35">
         <v>0</v>
       </c>
-      <c r="AF35">
-        <v>2</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4085,9 +3696,6 @@
       <c r="AE36">
         <v>0.3</v>
       </c>
-      <c r="AF36">
-        <v>3</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4124,9 +3732,6 @@
       <c r="J37">
         <v>2</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
       <c r="L37">
         <v>0.9</v>
       </c>
@@ -4187,9 +3792,6 @@
       <c r="AE37">
         <v>0.2</v>
       </c>
-      <c r="AF37">
-        <v>3</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4232,9 +3834,6 @@
       <c r="L38">
         <v>0.4</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
       <c r="N38">
         <v>0</v>
       </c>
@@ -4250,9 +3849,6 @@
       <c r="R38">
         <v>0.7</v>
       </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
       <c r="T38">
         <v>26.9</v>
       </c>
@@ -4283,15 +3879,9 @@
       <c r="AC38">
         <v>10.2</v>
       </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
       <c r="AE38">
         <v>0.4</v>
       </c>
-      <c r="AF38">
-        <v>3</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4376,23 +3966,14 @@
       <c r="Z39">
         <v>3</v>
       </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
       <c r="AB39">
         <v>6.8</v>
       </c>
       <c r="AC39">
         <v>5</v>
       </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
       <c r="AE39">
         <v>0.2</v>
-      </c>
-      <c r="AF39">
-        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -4439,9 +4020,6 @@
       <c r="M40">
         <v>0.3</v>
       </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
       <c r="O40">
         <v>55.8</v>
       </c>
@@ -4493,9 +4071,6 @@
       <c r="AE40">
         <v>0.2</v>
       </c>
-      <c r="AF40">
-        <v>1</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4532,18 +4107,12 @@
       <c r="J41">
         <v>0.2</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
         <v>0.1</v>
       </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
       <c r="O41">
         <v>13.7</v>
       </c>
@@ -4595,9 +4164,6 @@
       <c r="AE41">
         <v>0.5</v>
       </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4625,24 +4191,12 @@
       <c r="G42">
         <v>0.1</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
       <c r="I42">
         <v>0.4</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
       <c r="K42">
         <v>46.7</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
       <c r="N42">
         <v>36.7</v>
       </c>
@@ -4652,12 +4206,6 @@
       <c r="P42">
         <v>0</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
       <c r="S42">
         <v>0.3</v>
       </c>
@@ -4682,9 +4230,6 @@
       <c r="Z42">
         <v>41.3</v>
       </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
       <c r="AB42">
         <v>59.9</v>
       </c>
@@ -4697,9 +4242,6 @@
       <c r="AE42">
         <v>0</v>
       </c>
-      <c r="AF42">
-        <v>2</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4799,9 +4341,6 @@
       <c r="AE43">
         <v>0.2</v>
       </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4823,33 +4362,15 @@
       <c r="E44">
         <v>17.9</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
       <c r="G44">
         <v>27.6</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
       <c r="I44">
         <v>16.8</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
       <c r="L44">
         <v>4.1</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
       <c r="O44">
         <v>33.1</v>
       </c>
@@ -4883,27 +4404,9 @@
       <c r="Y44">
         <v>17.4</v>
       </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
       <c r="AC44">
         <v>7.5</v>
       </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4961,51 +4464,18 @@
       <c r="Q45">
         <v>0.5</v>
       </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
       <c r="S45">
         <v>0</v>
       </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
       <c r="Z45">
         <v>27.2</v>
       </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
       <c r="AB45">
         <v>5.8</v>
       </c>
       <c r="AC45">
         <v>22.5</v>
       </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>2</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5033,24 +4503,15 @@
       <c r="G46">
         <v>10.9</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
       <c r="I46">
         <v>5.6</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
       <c r="K46">
         <v>1.5</v>
       </c>
       <c r="L46">
         <v>0.9</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
       <c r="N46">
         <v>0.5</v>
       </c>
@@ -5060,54 +4521,21 @@
       <c r="P46">
         <v>10.7</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
       <c r="R46">
         <v>2.2</v>
       </c>
       <c r="S46">
         <v>0.2</v>
       </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
       <c r="Z46">
         <v>25.4</v>
       </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
       <c r="AB46">
         <v>11.3</v>
       </c>
       <c r="AC46">
         <v>14.1</v>
       </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>2</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5207,9 +4635,6 @@
       <c r="AE47">
         <v>0.4</v>
       </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5309,9 +4734,6 @@
       <c r="AE48">
         <v>0.3</v>
       </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5411,9 +4833,6 @@
       <c r="AE49">
         <v>0.4</v>
       </c>
-      <c r="AF49">
-        <v>3</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5507,15 +4926,9 @@
       <c r="AC50">
         <v>3.3</v>
       </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
       <c r="AE50">
         <v>0.3</v>
       </c>
-      <c r="AF50">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5543,36 +4956,12 @@
       <c r="G51">
         <v>3.2</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51">
         <v>0.2</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
       </c>
       <c r="O51">
         <v>29.3</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
       <c r="R51">
         <v>3.8</v>
       </c>
@@ -5600,24 +4989,12 @@
       <c r="Z51">
         <v>25.7</v>
       </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
       <c r="AB51">
         <v>2.1</v>
       </c>
       <c r="AC51">
         <v>10</v>
       </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>3</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5711,15 +5088,9 @@
       <c r="AC52">
         <v>2</v>
       </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
       <c r="AE52">
         <v>0.5</v>
       </c>
-      <c r="AF52">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5819,9 +5190,6 @@
       <c r="AE53">
         <v>0.3</v>
       </c>
-      <c r="AF53">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5921,9 +5289,6 @@
       <c r="AE54">
         <v>0.3</v>
       </c>
-      <c r="AF54">
-        <v>1</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6023,9 +5388,6 @@
       <c r="AE55">
         <v>0.5</v>
       </c>
-      <c r="AF55">
-        <v>1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6053,36 +5415,18 @@
       <c r="G56">
         <v>2.4</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
       <c r="K56">
         <v>0.1</v>
       </c>
       <c r="L56">
         <v>1.5</v>
       </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
       <c r="N56">
         <v>5.4</v>
       </c>
       <c r="O56">
         <v>14.1</v>
       </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
       <c r="R56">
         <v>2.9</v>
       </c>
@@ -6122,12 +5466,6 @@
       <c r="AD56">
         <v>0.3</v>
       </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-      <c r="AF56">
-        <v>2</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6227,9 +5565,6 @@
       <c r="AE57">
         <v>0.2</v>
       </c>
-      <c r="AF57">
-        <v>2</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6329,9 +5664,6 @@
       <c r="AE58">
         <v>0.3</v>
       </c>
-      <c r="AF58">
-        <v>1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6371,12 +5703,6 @@
       <c r="K59">
         <v>0</v>
       </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
       <c r="N59">
         <v>0.1</v>
       </c>
@@ -6386,15 +5712,9 @@
       <c r="P59">
         <v>0.4</v>
       </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
       <c r="R59">
         <v>5.3</v>
       </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
       <c r="T59">
         <v>25.4</v>
       </c>
@@ -6416,9 +5736,6 @@
       <c r="Z59">
         <v>13.6</v>
       </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
       <c r="AB59">
         <v>7.3</v>
       </c>
@@ -6428,12 +5745,6 @@
       <c r="AD59">
         <v>0.4</v>
       </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <v>3</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6533,9 +5844,6 @@
       <c r="AE60">
         <v>0.3</v>
       </c>
-      <c r="AF60">
-        <v>3</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6596,9 +5904,6 @@
       <c r="R61">
         <v>15.7</v>
       </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
       <c r="T61">
         <v>22</v>
       </c>
@@ -6635,9 +5940,6 @@
       <c r="AE61">
         <v>0.3</v>
       </c>
-      <c r="AF61">
-        <v>1</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6737,9 +6039,6 @@
       <c r="AE62">
         <v>0.2</v>
       </c>
-      <c r="AF62">
-        <v>3</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6800,9 +6099,6 @@
       <c r="R63">
         <v>12.1</v>
       </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
       <c r="T63">
         <v>67.7</v>
       </c>
@@ -6839,9 +6135,6 @@
       <c r="AE63">
         <v>0.2</v>
       </c>
-      <c r="AF63">
-        <v>3</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6941,9 +6234,6 @@
       <c r="AE64">
         <v>0.3</v>
       </c>
-      <c r="AF64">
-        <v>1</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7004,9 +6294,6 @@
       <c r="R65">
         <v>3.7</v>
       </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
       <c r="T65">
         <v>60.4</v>
       </c>
@@ -7043,9 +6330,6 @@
       <c r="AE65">
         <v>0.2</v>
       </c>
-      <c r="AF65">
-        <v>3</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7106,9 +6390,6 @@
       <c r="R66">
         <v>13.8</v>
       </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
       <c r="T66">
         <v>22.8</v>
       </c>
@@ -7145,9 +6426,6 @@
       <c r="AE66">
         <v>0.5</v>
       </c>
-      <c r="AF66">
-        <v>1</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7184,9 +6462,6 @@
       <c r="J67">
         <v>7.6</v>
       </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
       <c r="L67">
         <v>0.1</v>
       </c>
@@ -7229,26 +6504,14 @@
       <c r="Y67">
         <v>1.4</v>
       </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
       <c r="AB67">
         <v>6.7</v>
       </c>
       <c r="AC67">
         <v>37.6</v>
       </c>
-      <c r="AD67">
-        <v>0</v>
-      </c>
       <c r="AE67">
         <v>0.2</v>
-      </c>
-      <c r="AF67">
-        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -7277,39 +6540,15 @@
       <c r="G68">
         <v>6.9</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
       <c r="L68">
         <v>4</v>
       </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
         <v>31.9</v>
       </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
       <c r="S68">
         <v>0.5</v>
       </c>
@@ -7334,24 +6573,12 @@
       <c r="Z68">
         <v>13.1</v>
       </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
       <c r="AB68">
         <v>17.8</v>
       </c>
       <c r="AC68">
         <v>29</v>
       </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
-      <c r="AE68">
-        <v>0</v>
-      </c>
-      <c r="AF68">
-        <v>3</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7451,9 +6678,6 @@
       <c r="AE69">
         <v>0.3</v>
       </c>
-      <c r="AF69">
-        <v>1</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7496,9 +6720,6 @@
       <c r="L70">
         <v>0.6</v>
       </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
       <c r="N70">
         <v>4.1</v>
       </c>
@@ -7517,24 +6738,6 @@
       <c r="S70">
         <v>0.1</v>
       </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
       <c r="Z70">
         <v>40.4</v>
       </c>
@@ -7550,12 +6753,6 @@
       <c r="AD70">
         <v>1.3</v>
       </c>
-      <c r="AE70">
-        <v>0</v>
-      </c>
-      <c r="AF70">
-        <v>2</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7574,69 +6771,30 @@
       <c r="D71">
         <v>34.4</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
       <c r="F71">
         <v>20.4</v>
       </c>
       <c r="G71">
         <v>1.4</v>
       </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
       <c r="K71">
         <v>11.8</v>
       </c>
       <c r="L71">
         <v>0.6</v>
       </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
       <c r="N71">
         <v>0.1</v>
       </c>
       <c r="O71">
         <v>65.59999999999999</v>
       </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
       <c r="R71">
         <v>6.2</v>
       </c>
       <c r="S71">
         <v>0.1</v>
       </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
       <c r="Z71">
         <v>77.40000000000001</v>
       </c>
@@ -7652,12 +6810,6 @@
       <c r="AD71">
         <v>5.9</v>
       </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-      <c r="AF71">
-        <v>3</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7676,21 +6828,9 @@
       <c r="D72">
         <v>74.2</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
       <c r="H72">
         <v>13.9</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
       <c r="J72">
         <v>2.2</v>
       </c>
@@ -7709,12 +6849,6 @@
       <c r="O72">
         <v>25.7</v>
       </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
       <c r="R72">
         <v>2</v>
       </c>
@@ -7757,9 +6891,6 @@
       <c r="AE72">
         <v>0.2</v>
       </c>
-      <c r="AF72">
-        <v>2</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7802,9 +6933,6 @@
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
       <c r="N73">
         <v>0.3</v>
       </c>
@@ -7859,9 +6987,6 @@
       <c r="AE73">
         <v>0.4</v>
       </c>
-      <c r="AF73">
-        <v>1</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7960,9 +7085,6 @@
       </c>
       <c r="AE74">
         <v>0.4</v>
-      </c>
-      <c r="AF74">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE74"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,6 +513,11 @@
           <t>wigc</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>clusters</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,8 +611,14 @@
       <c r="AC2">
         <v>11.8</v>
       </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
       <c r="AE2">
         <v>0.1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -645,6 +656,9 @@
       <c r="J3">
         <v>2.5</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <v>14.1</v>
       </c>
@@ -663,6 +677,9 @@
       <c r="Q3">
         <v>0.8</v>
       </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
       <c r="S3">
         <v>0.1</v>
       </c>
@@ -701,6 +718,9 @@
       </c>
       <c r="AE3">
         <v>0.1</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -801,6 +821,9 @@
       <c r="AE4">
         <v>0.3</v>
       </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -837,9 +860,15 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
       <c r="L5">
         <v>1.5</v>
       </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -851,6 +880,9 @@
       </c>
       <c r="Q5">
         <v>0.1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -890,6 +922,9 @@
       </c>
       <c r="AE5">
         <v>0.1</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -987,6 +1022,12 @@
       <c r="AD6">
         <v>0.1</v>
       </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1071,14 +1112,23 @@
       <c r="Z7">
         <v>25.1</v>
       </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
       <c r="AB7">
         <v>6.4</v>
       </c>
       <c r="AC7">
         <v>0.8</v>
       </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
       <c r="AE7">
         <v>0.3</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1179,6 +1229,9 @@
       <c r="AE8">
         <v>0.3</v>
       </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1206,18 +1259,36 @@
       <c r="G9">
         <v>5.3</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="I9">
         <v>1.7</v>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
       <c r="L9">
         <v>1.7</v>
       </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
       <c r="O9">
         <v>12.3</v>
       </c>
       <c r="P9">
         <v>6.2</v>
       </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
       <c r="R9">
         <v>5.2</v>
       </c>
@@ -1245,11 +1316,23 @@
       <c r="Z9">
         <v>36.6</v>
       </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
       <c r="AB9">
         <v>6.5</v>
       </c>
       <c r="AC9">
         <v>15.6</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1287,6 +1370,12 @@
       <c r="J10">
         <v>0.2</v>
       </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
       <c r="M10">
         <v>0.2</v>
       </c>
@@ -1343,6 +1432,9 @@
       </c>
       <c r="AE10">
         <v>0.2</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1443,6 +1535,9 @@
       <c r="AE11">
         <v>0.3</v>
       </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1506,6 +1601,24 @@
       <c r="S12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
       <c r="Z12">
         <v>64.2</v>
       </c>
@@ -1523,6 +1636,9 @@
       </c>
       <c r="AE12">
         <v>0.2</v>
+      </c>
+      <c r="AF12">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1623,6 +1739,9 @@
       <c r="AE13">
         <v>0.4</v>
       </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1722,6 +1841,9 @@
       <c r="AE14">
         <v>0.1</v>
       </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1743,12 +1865,21 @@
       <c r="E15">
         <v>80.90000000000001</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
       <c r="G15">
         <v>0.1</v>
       </c>
       <c r="H15">
         <v>1.6</v>
       </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
       <c r="K15">
         <v>2</v>
       </c>
@@ -1767,6 +1898,9 @@
       <c r="P15">
         <v>1.4</v>
       </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
       <c r="R15">
         <v>5.2</v>
       </c>
@@ -1794,14 +1928,23 @@
       <c r="Z15">
         <v>33.5</v>
       </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
       <c r="AB15">
         <v>26.9</v>
       </c>
       <c r="AC15">
         <v>17.1</v>
       </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
       <c r="AE15">
         <v>0.1</v>
+      </c>
+      <c r="AF15">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1902,6 +2045,9 @@
       <c r="AE16">
         <v>0.2</v>
       </c>
+      <c r="AF16">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1941,6 +2087,12 @@
       <c r="K17">
         <v>2.1</v>
       </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
       <c r="N17">
         <v>2.5</v>
       </c>
@@ -1980,6 +2132,9 @@
       <c r="Z17">
         <v>5.3</v>
       </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
       <c r="AB17">
         <v>4.8</v>
       </c>
@@ -1991,6 +2146,9 @@
       </c>
       <c r="AE17">
         <v>0.3</v>
+      </c>
+      <c r="AF17">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -2091,6 +2249,9 @@
       <c r="AE18">
         <v>0.4</v>
       </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2127,6 +2288,9 @@
       <c r="J19">
         <v>0.6</v>
       </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
       <c r="L19">
         <v>0</v>
       </c>
@@ -2186,6 +2350,9 @@
       </c>
       <c r="AE19">
         <v>0.3</v>
+      </c>
+      <c r="AF19">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2211,9 +2378,18 @@
       <c r="F20">
         <v>6.6</v>
       </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
       <c r="H20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
       <c r="K20">
         <v>2.9</v>
       </c>
@@ -2229,6 +2405,12 @@
       <c r="O20">
         <v>1.3</v>
       </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
       <c r="R20">
         <v>0.7</v>
       </c>
@@ -2256,14 +2438,23 @@
       <c r="Z20">
         <v>2.4</v>
       </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
       <c r="AB20">
         <v>28.7</v>
       </c>
       <c r="AC20">
         <v>18.5</v>
       </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
       <c r="AE20">
         <v>0.2</v>
+      </c>
+      <c r="AF20">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2301,6 +2492,9 @@
       <c r="J21">
         <v>0.1</v>
       </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
       <c r="L21">
         <v>1.7</v>
       </c>
@@ -2316,6 +2510,9 @@
       <c r="P21">
         <v>0</v>
       </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
       <c r="R21">
         <v>0</v>
       </c>
@@ -2352,8 +2549,14 @@
       <c r="AC21">
         <v>8.699999999999999</v>
       </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
       <c r="AE21">
         <v>0.1</v>
+      </c>
+      <c r="AF21">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2376,21 +2579,42 @@
       <c r="E22">
         <v>16.3</v>
       </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
       <c r="G22">
         <v>20.8</v>
       </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
       <c r="I22">
         <v>18.1</v>
       </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
       <c r="L22">
         <v>12.2</v>
       </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
       <c r="O22">
         <v>32.5</v>
       </c>
       <c r="P22">
         <v>16.4</v>
       </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
       <c r="R22">
         <v>5.4</v>
       </c>
@@ -2418,11 +2642,23 @@
       <c r="Z22">
         <v>10.5</v>
       </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
       <c r="AB22">
         <v>0.2</v>
       </c>
       <c r="AC22">
         <v>3.3</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2466,6 +2702,9 @@
       <c r="L23">
         <v>1.6</v>
       </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
       <c r="N23">
         <v>0.1</v>
       </c>
@@ -2513,6 +2752,15 @@
       </c>
       <c r="AC23">
         <v>18.5</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2613,6 +2861,9 @@
       <c r="AE24">
         <v>0.2</v>
       </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2640,6 +2891,9 @@
       <c r="G25">
         <v>20.2</v>
       </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
       <c r="I25">
         <v>3.1</v>
       </c>
@@ -2652,6 +2906,9 @@
       <c r="L25">
         <v>0.1</v>
       </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
       <c r="N25">
         <v>1.1</v>
       </c>
@@ -2661,6 +2918,9 @@
       <c r="P25">
         <v>1.5</v>
       </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
       <c r="R25">
         <v>4.7</v>
       </c>
@@ -2688,6 +2948,9 @@
       <c r="Z25">
         <v>3.8</v>
       </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
       <c r="AB25">
         <v>1.3</v>
       </c>
@@ -2699,6 +2962,9 @@
       </c>
       <c r="AE25">
         <v>0.2</v>
+      </c>
+      <c r="AF25">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2733,6 +2999,18 @@
       <c r="I26">
         <v>7.4</v>
       </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
       <c r="N26">
         <v>0.4</v>
       </c>
@@ -2742,6 +3020,9 @@
       <c r="P26">
         <v>8</v>
       </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
       <c r="R26">
         <v>0.1</v>
       </c>
@@ -2783,6 +3064,9 @@
       </c>
       <c r="AE26">
         <v>0.2</v>
+      </c>
+      <c r="AF26">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2844,6 +3128,9 @@
       <c r="R27">
         <v>4.4</v>
       </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
       <c r="T27">
         <v>46.1</v>
       </c>
@@ -2879,6 +3166,9 @@
       </c>
       <c r="AE27">
         <v>0.2</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2907,6 +3197,12 @@
       <c r="G28">
         <v>1.9</v>
       </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
       <c r="J28">
         <v>0.8</v>
       </c>
@@ -2916,12 +3212,18 @@
       <c r="L28">
         <v>0.1</v>
       </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
       <c r="N28">
         <v>28.4</v>
       </c>
       <c r="O28">
         <v>13.5</v>
       </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
       <c r="Q28">
         <v>1.9</v>
       </c>
@@ -2966,6 +3268,9 @@
       </c>
       <c r="AE28">
         <v>0.3</v>
+      </c>
+      <c r="AF28">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -3027,6 +3332,9 @@
       <c r="R29">
         <v>5.9</v>
       </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
       <c r="T29">
         <v>29.1</v>
       </c>
@@ -3062,6 +3370,9 @@
       </c>
       <c r="AE29">
         <v>0.4</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -3159,6 +3470,12 @@
       <c r="AD30">
         <v>3.7</v>
       </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3186,6 +3503,9 @@
       <c r="G31">
         <v>18.8</v>
       </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
       <c r="I31">
         <v>6.8</v>
       </c>
@@ -3254,6 +3574,9 @@
       </c>
       <c r="AE31">
         <v>0.4</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -3285,18 +3608,33 @@
       <c r="H32">
         <v>1.7</v>
       </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
       <c r="K32">
         <v>0.2</v>
       </c>
       <c r="L32">
         <v>0.3</v>
       </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
       <c r="N32">
         <v>38.6</v>
       </c>
       <c r="O32">
         <v>9.800000000000001</v>
       </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
       <c r="R32">
         <v>7.9</v>
       </c>
@@ -3338,6 +3676,9 @@
       </c>
       <c r="AE32">
         <v>0.3</v>
+      </c>
+      <c r="AF32">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -3432,8 +3773,14 @@
       <c r="AC33">
         <v>6</v>
       </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
       <c r="AE33">
         <v>0.2</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -3534,6 +3881,9 @@
       <c r="AE34">
         <v>0.1</v>
       </c>
+      <c r="AF34">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3558,21 +3908,45 @@
       <c r="F35">
         <v>1</v>
       </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
       <c r="K35">
         <v>2.8</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
       <c r="N35">
         <v>37.8</v>
       </c>
       <c r="O35">
         <v>0.2</v>
       </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
       <c r="Q35">
         <v>0.2</v>
       </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
       <c r="T35">
         <v>99.2</v>
       </c>
@@ -3591,11 +3965,26 @@
       <c r="Y35">
         <v>0.1</v>
       </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
       <c r="AC35">
         <v>57.8</v>
       </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
       <c r="AE35">
         <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3696,6 +4085,9 @@
       <c r="AE36">
         <v>0.3</v>
       </c>
+      <c r="AF36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3732,6 +4124,9 @@
       <c r="J37">
         <v>2</v>
       </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
       <c r="L37">
         <v>0.9</v>
       </c>
@@ -3791,6 +4186,9 @@
       </c>
       <c r="AE37">
         <v>0.2</v>
+      </c>
+      <c r="AF37">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -3834,6 +4232,9 @@
       <c r="L38">
         <v>0.4</v>
       </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
       <c r="N38">
         <v>0</v>
       </c>
@@ -3849,6 +4250,9 @@
       <c r="R38">
         <v>0.7</v>
       </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
       <c r="T38">
         <v>26.9</v>
       </c>
@@ -3879,8 +4283,14 @@
       <c r="AC38">
         <v>10.2</v>
       </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
       <c r="AE38">
         <v>0.4</v>
+      </c>
+      <c r="AF38">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -3966,14 +4376,23 @@
       <c r="Z39">
         <v>3</v>
       </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
       <c r="AB39">
         <v>6.8</v>
       </c>
       <c r="AC39">
         <v>5</v>
       </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
       <c r="AE39">
         <v>0.2</v>
+      </c>
+      <c r="AF39">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -4020,6 +4439,9 @@
       <c r="M40">
         <v>0.3</v>
       </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
       <c r="O40">
         <v>55.8</v>
       </c>
@@ -4070,6 +4492,9 @@
       </c>
       <c r="AE40">
         <v>0.2</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -4107,11 +4532,17 @@
       <c r="J41">
         <v>0.2</v>
       </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
         <v>0.1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
       </c>
       <c r="O41">
         <v>13.7</v>
@@ -4163,6 +4594,9 @@
       </c>
       <c r="AE41">
         <v>0.5</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -4191,12 +4625,24 @@
       <c r="G42">
         <v>0.1</v>
       </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
       <c r="I42">
         <v>0.4</v>
       </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
       <c r="K42">
         <v>46.7</v>
       </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
       <c r="N42">
         <v>36.7</v>
       </c>
@@ -4206,6 +4652,12 @@
       <c r="P42">
         <v>0</v>
       </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
       <c r="S42">
         <v>0.3</v>
       </c>
@@ -4230,6 +4682,9 @@
       <c r="Z42">
         <v>41.3</v>
       </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
       <c r="AB42">
         <v>59.9</v>
       </c>
@@ -4241,6 +4696,9 @@
       </c>
       <c r="AE42">
         <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -4341,6 +4799,9 @@
       <c r="AE43">
         <v>0.2</v>
       </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4362,15 +4823,33 @@
       <c r="E44">
         <v>17.9</v>
       </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
       <c r="G44">
         <v>27.6</v>
       </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
       <c r="I44">
         <v>16.8</v>
       </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
       <c r="L44">
         <v>4.1</v>
       </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
       <c r="O44">
         <v>33.1</v>
       </c>
@@ -4404,8 +4883,26 @@
       <c r="Y44">
         <v>17.4</v>
       </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
       <c r="AC44">
         <v>7.5</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -4464,17 +4961,50 @@
       <c r="Q45">
         <v>0.5</v>
       </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
       <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
         <v>0</v>
       </c>
       <c r="Z45">
         <v>27.2</v>
       </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
       <c r="AB45">
         <v>5.8</v>
       </c>
       <c r="AC45">
         <v>22.5</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -4503,15 +5033,24 @@
       <c r="G46">
         <v>10.9</v>
       </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
       <c r="I46">
         <v>5.6</v>
       </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
       <c r="K46">
         <v>1.5</v>
       </c>
       <c r="L46">
         <v>0.9</v>
       </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
       <c r="N46">
         <v>0.5</v>
       </c>
@@ -4521,20 +5060,53 @@
       <c r="P46">
         <v>10.7</v>
       </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
       <c r="R46">
         <v>2.2</v>
       </c>
       <c r="S46">
         <v>0.2</v>
       </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
       <c r="Z46">
         <v>25.4</v>
       </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
       <c r="AB46">
         <v>11.3</v>
       </c>
       <c r="AC46">
         <v>14.1</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -4635,6 +5207,9 @@
       <c r="AE47">
         <v>0.4</v>
       </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4734,6 +5309,9 @@
       <c r="AE48">
         <v>0.3</v>
       </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4833,6 +5411,9 @@
       <c r="AE49">
         <v>0.4</v>
       </c>
+      <c r="AF49">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4926,8 +5507,14 @@
       <c r="AC50">
         <v>3.3</v>
       </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
       <c r="AE50">
         <v>0.3</v>
+      </c>
+      <c r="AF50">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4956,12 +5543,36 @@
       <c r="G51">
         <v>3.2</v>
       </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
       <c r="K51">
         <v>0.2</v>
       </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
       <c r="O51">
         <v>29.3</v>
       </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
       <c r="R51">
         <v>3.8</v>
       </c>
@@ -4989,11 +5600,23 @@
       <c r="Z51">
         <v>25.7</v>
       </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
       <c r="AB51">
         <v>2.1</v>
       </c>
       <c r="AC51">
         <v>10</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -5088,8 +5711,14 @@
       <c r="AC52">
         <v>2</v>
       </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
       <c r="AE52">
         <v>0.5</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -5190,6 +5819,9 @@
       <c r="AE53">
         <v>0.3</v>
       </c>
+      <c r="AF53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5289,6 +5921,9 @@
       <c r="AE54">
         <v>0.3</v>
       </c>
+      <c r="AF54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5388,6 +6023,9 @@
       <c r="AE55">
         <v>0.5</v>
       </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5415,18 +6053,36 @@
       <c r="G56">
         <v>2.4</v>
       </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
       <c r="K56">
         <v>0.1</v>
       </c>
       <c r="L56">
         <v>1.5</v>
       </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
       <c r="N56">
         <v>5.4</v>
       </c>
       <c r="O56">
         <v>14.1</v>
       </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
       <c r="R56">
         <v>2.9</v>
       </c>
@@ -5465,6 +6121,12 @@
       </c>
       <c r="AD56">
         <v>0.3</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -5565,6 +6227,9 @@
       <c r="AE57">
         <v>0.2</v>
       </c>
+      <c r="AF57">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5664,6 +6329,9 @@
       <c r="AE58">
         <v>0.3</v>
       </c>
+      <c r="AF58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5703,6 +6371,12 @@
       <c r="K59">
         <v>0</v>
       </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
       <c r="N59">
         <v>0.1</v>
       </c>
@@ -5712,9 +6386,15 @@
       <c r="P59">
         <v>0.4</v>
       </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
       <c r="R59">
         <v>5.3</v>
       </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
       <c r="T59">
         <v>25.4</v>
       </c>
@@ -5736,6 +6416,9 @@
       <c r="Z59">
         <v>13.6</v>
       </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
       <c r="AB59">
         <v>7.3</v>
       </c>
@@ -5744,6 +6427,12 @@
       </c>
       <c r="AD59">
         <v>0.4</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -5844,6 +6533,9 @@
       <c r="AE60">
         <v>0.3</v>
       </c>
+      <c r="AF60">
+        <v>3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5904,6 +6596,9 @@
       <c r="R61">
         <v>15.7</v>
       </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
       <c r="T61">
         <v>22</v>
       </c>
@@ -5939,6 +6634,9 @@
       </c>
       <c r="AE61">
         <v>0.3</v>
+      </c>
+      <c r="AF61">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -6039,6 +6737,9 @@
       <c r="AE62">
         <v>0.2</v>
       </c>
+      <c r="AF62">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6099,6 +6800,9 @@
       <c r="R63">
         <v>12.1</v>
       </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
       <c r="T63">
         <v>67.7</v>
       </c>
@@ -6134,6 +6838,9 @@
       </c>
       <c r="AE63">
         <v>0.2</v>
+      </c>
+      <c r="AF63">
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -6234,6 +6941,9 @@
       <c r="AE64">
         <v>0.3</v>
       </c>
+      <c r="AF64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6294,6 +7004,9 @@
       <c r="R65">
         <v>3.7</v>
       </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
       <c r="T65">
         <v>60.4</v>
       </c>
@@ -6329,6 +7042,9 @@
       </c>
       <c r="AE65">
         <v>0.2</v>
+      </c>
+      <c r="AF65">
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -6390,6 +7106,9 @@
       <c r="R66">
         <v>13.8</v>
       </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
       <c r="T66">
         <v>22.8</v>
       </c>
@@ -6425,6 +7144,9 @@
       </c>
       <c r="AE66">
         <v>0.5</v>
+      </c>
+      <c r="AF66">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -6462,6 +7184,9 @@
       <c r="J67">
         <v>7.6</v>
       </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
       <c r="L67">
         <v>0.1</v>
       </c>
@@ -6504,14 +7229,26 @@
       <c r="Y67">
         <v>1.4</v>
       </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
       <c r="AB67">
         <v>6.7</v>
       </c>
       <c r="AC67">
         <v>37.6</v>
       </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
       <c r="AE67">
         <v>0.2</v>
+      </c>
+      <c r="AF67">
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -6540,15 +7277,39 @@
       <c r="G68">
         <v>6.9</v>
       </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
       <c r="L68">
         <v>4</v>
       </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
         <v>31.9</v>
       </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
       <c r="S68">
         <v>0.5</v>
       </c>
@@ -6573,11 +7334,23 @@
       <c r="Z68">
         <v>13.1</v>
       </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
       <c r="AB68">
         <v>17.8</v>
       </c>
       <c r="AC68">
         <v>29</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -6678,6 +7451,9 @@
       <c r="AE69">
         <v>0.3</v>
       </c>
+      <c r="AF69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6720,6 +7496,9 @@
       <c r="L70">
         <v>0.6</v>
       </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
       <c r="N70">
         <v>4.1</v>
       </c>
@@ -6738,6 +7517,24 @@
       <c r="S70">
         <v>0.1</v>
       </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
       <c r="Z70">
         <v>40.4</v>
       </c>
@@ -6752,6 +7549,12 @@
       </c>
       <c r="AD70">
         <v>1.3</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -6771,30 +7574,69 @@
       <c r="D71">
         <v>34.4</v>
       </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
       <c r="F71">
         <v>20.4</v>
       </c>
       <c r="G71">
         <v>1.4</v>
       </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
       <c r="K71">
         <v>11.8</v>
       </c>
       <c r="L71">
         <v>0.6</v>
       </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
       <c r="N71">
         <v>0.1</v>
       </c>
       <c r="O71">
         <v>65.59999999999999</v>
       </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
       <c r="R71">
         <v>6.2</v>
       </c>
       <c r="S71">
         <v>0.1</v>
       </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
       <c r="Z71">
         <v>77.40000000000001</v>
       </c>
@@ -6809,6 +7651,12 @@
       </c>
       <c r="AD71">
         <v>5.9</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -6828,9 +7676,21 @@
       <c r="D72">
         <v>74.2</v>
       </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
       <c r="H72">
         <v>13.9</v>
       </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
       <c r="J72">
         <v>2.2</v>
       </c>
@@ -6849,6 +7709,12 @@
       <c r="O72">
         <v>25.7</v>
       </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
       <c r="R72">
         <v>2</v>
       </c>
@@ -6890,6 +7756,9 @@
       </c>
       <c r="AE72">
         <v>0.2</v>
+      </c>
+      <c r="AF72">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -6933,6 +7802,9 @@
       <c r="L73">
         <v>0</v>
       </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
       <c r="N73">
         <v>0.3</v>
       </c>
@@ -6986,6 +7858,9 @@
       </c>
       <c r="AE73">
         <v>0.4</v>
+      </c>
+      <c r="AF73">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -7085,6 +7960,9 @@
       </c>
       <c r="AE74">
         <v>0.4</v>
+      </c>
+      <c r="AF74">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -1638,7 +1638,7 @@
         <v>0.2</v>
       </c>
       <c r="AF12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -2148,7 +2148,7 @@
         <v>0.3</v>
       </c>
       <c r="AF17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2352,7 +2352,7 @@
         <v>0.3</v>
       </c>
       <c r="AF19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2454,7 +2454,7 @@
         <v>0.2</v>
       </c>
       <c r="AF20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -3066,7 +3066,7 @@
         <v>0.2</v>
       </c>
       <c r="AF26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -3270,7 +3270,7 @@
         <v>0.3</v>
       </c>
       <c r="AF28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -3882,7 +3882,7 @@
         <v>0.1</v>
       </c>
       <c r="AF34">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -4290,7 +4290,7 @@
         <v>0.4</v>
       </c>
       <c r="AF38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -6228,7 +6228,7 @@
         <v>0.2</v>
       </c>
       <c r="AF57">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="AF59">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -7758,7 +7758,7 @@
         <v>0.2</v>
       </c>
       <c r="AF72">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF74"/>
+  <dimension ref="A1:AE74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,11 +513,6 @@
           <t>wigc</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>clusters</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -611,14 +606,8 @@
       <c r="AC2">
         <v>11.8</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
       <c r="AE2">
         <v>0.1</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -656,9 +645,6 @@
       <c r="J3">
         <v>2.5</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
         <v>14.1</v>
       </c>
@@ -677,9 +663,6 @@
       <c r="Q3">
         <v>0.8</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
         <v>0.1</v>
       </c>
@@ -719,9 +702,6 @@
       <c r="AE3">
         <v>0.1</v>
       </c>
-      <c r="AF3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -821,9 +801,6 @@
       <c r="AE4">
         <v>0.3</v>
       </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -860,15 +837,9 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>1.5</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -881,9 +852,6 @@
       <c r="Q5">
         <v>0.1</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
         <v>0</v>
       </c>
@@ -923,9 +891,6 @@
       <c r="AE5">
         <v>0.1</v>
       </c>
-      <c r="AF5">
-        <v>2</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1022,12 +987,6 @@
       <c r="AD6">
         <v>0.1</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>3</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1112,24 +1071,15 @@
       <c r="Z7">
         <v>25.1</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
       <c r="AB7">
         <v>6.4</v>
       </c>
       <c r="AC7">
         <v>0.8</v>
       </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
       <c r="AE7">
         <v>0.3</v>
       </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1229,9 +1179,6 @@
       <c r="AE8">
         <v>0.3</v>
       </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1259,36 +1206,18 @@
       <c r="G9">
         <v>5.3</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>1.7</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
         <v>1.7</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>12.3</v>
       </c>
       <c r="P9">
         <v>6.2</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
       <c r="R9">
         <v>5.2</v>
       </c>
@@ -1316,24 +1245,12 @@
       <c r="Z9">
         <v>36.6</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
       <c r="AB9">
         <v>6.5</v>
       </c>
       <c r="AC9">
         <v>15.6</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>3</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1370,12 +1287,6 @@
       <c r="J10">
         <v>0.2</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
         <v>0.2</v>
       </c>
@@ -1433,9 +1344,6 @@
       <c r="AE10">
         <v>0.2</v>
       </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1535,9 +1443,6 @@
       <c r="AE11">
         <v>0.3</v>
       </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1601,24 +1506,6 @@
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
       <c r="Z12">
         <v>64.2</v>
       </c>
@@ -1637,9 +1524,6 @@
       <c r="AE12">
         <v>0.2</v>
       </c>
-      <c r="AF12">
-        <v>4</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1739,9 +1623,6 @@
       <c r="AE13">
         <v>0.4</v>
       </c>
-      <c r="AF13">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1841,9 +1722,6 @@
       <c r="AE14">
         <v>0.1</v>
       </c>
-      <c r="AF14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1865,21 +1743,12 @@
       <c r="E15">
         <v>80.90000000000001</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
         <v>0.1</v>
       </c>
       <c r="H15">
         <v>1.6</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
         <v>2</v>
       </c>
@@ -1898,9 +1767,6 @@
       <c r="P15">
         <v>1.4</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
       <c r="R15">
         <v>5.2</v>
       </c>
@@ -1928,23 +1794,14 @@
       <c r="Z15">
         <v>33.5</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
       <c r="AB15">
         <v>26.9</v>
       </c>
       <c r="AC15">
         <v>17.1</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
       <c r="AE15">
         <v>0.1</v>
-      </c>
-      <c r="AF15">
-        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2045,9 +1902,6 @@
       <c r="AE16">
         <v>0.2</v>
       </c>
-      <c r="AF16">
-        <v>3</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2087,12 +1941,6 @@
       <c r="K17">
         <v>2.1</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
         <v>2.5</v>
       </c>
@@ -2132,9 +1980,6 @@
       <c r="Z17">
         <v>5.3</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
       <c r="AB17">
         <v>4.8</v>
       </c>
@@ -2147,9 +1992,6 @@
       <c r="AE17">
         <v>0.3</v>
       </c>
-      <c r="AF17">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2249,9 +2091,6 @@
       <c r="AE18">
         <v>0.4</v>
       </c>
-      <c r="AF18">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2288,9 +2127,6 @@
       <c r="J19">
         <v>0.6</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
         <v>0</v>
       </c>
@@ -2351,9 +2187,6 @@
       <c r="AE19">
         <v>0.3</v>
       </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2378,18 +2211,9 @@
       <c r="F20">
         <v>6.6</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
         <v>2.9</v>
       </c>
@@ -2405,12 +2229,6 @@
       <c r="O20">
         <v>1.3</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
       <c r="R20">
         <v>0.7</v>
       </c>
@@ -2438,23 +2256,14 @@
       <c r="Z20">
         <v>2.4</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
       <c r="AB20">
         <v>28.7</v>
       </c>
       <c r="AC20">
         <v>18.5</v>
       </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
       <c r="AE20">
         <v>0.2</v>
-      </c>
-      <c r="AF20">
-        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2492,9 +2301,6 @@
       <c r="J21">
         <v>0.1</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>1.7</v>
       </c>
@@ -2510,9 +2316,6 @@
       <c r="P21">
         <v>0</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
       <c r="R21">
         <v>0</v>
       </c>
@@ -2549,14 +2352,8 @@
       <c r="AC21">
         <v>8.699999999999999</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
       <c r="AE21">
         <v>0.1</v>
-      </c>
-      <c r="AF21">
-        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2579,42 +2376,21 @@
       <c r="E22">
         <v>16.3</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
         <v>20.8</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="I22">
         <v>18.1</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
         <v>12.2</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
       <c r="O22">
         <v>32.5</v>
       </c>
       <c r="P22">
         <v>16.4</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
       <c r="R22">
         <v>5.4</v>
       </c>
@@ -2642,24 +2418,12 @@
       <c r="Z22">
         <v>10.5</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
       <c r="AB22">
         <v>0.2</v>
       </c>
       <c r="AC22">
         <v>3.3</v>
       </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2702,9 +2466,6 @@
       <c r="L23">
         <v>1.6</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
         <v>0.1</v>
       </c>
@@ -2753,15 +2514,6 @@
       <c r="AC23">
         <v>18.5</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2861,9 +2613,6 @@
       <c r="AE24">
         <v>0.2</v>
       </c>
-      <c r="AF24">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2891,9 +2640,6 @@
       <c r="G25">
         <v>20.2</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="I25">
         <v>3.1</v>
       </c>
@@ -2906,9 +2652,6 @@
       <c r="L25">
         <v>0.1</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
         <v>1.1</v>
       </c>
@@ -2918,9 +2661,6 @@
       <c r="P25">
         <v>1.5</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
       <c r="R25">
         <v>4.7</v>
       </c>
@@ -2948,9 +2688,6 @@
       <c r="Z25">
         <v>3.8</v>
       </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
       <c r="AB25">
         <v>1.3</v>
       </c>
@@ -2963,9 +2700,6 @@
       <c r="AE25">
         <v>0.2</v>
       </c>
-      <c r="AF25">
-        <v>3</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2999,18 +2733,6 @@
       <c r="I26">
         <v>7.4</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
         <v>0.4</v>
       </c>
@@ -3020,9 +2742,6 @@
       <c r="P26">
         <v>8</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
       <c r="R26">
         <v>0.1</v>
       </c>
@@ -3065,9 +2784,6 @@
       <c r="AE26">
         <v>0.2</v>
       </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3128,9 +2844,6 @@
       <c r="R27">
         <v>4.4</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
       <c r="T27">
         <v>46.1</v>
       </c>
@@ -3167,9 +2880,6 @@
       <c r="AE27">
         <v>0.2</v>
       </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3197,12 +2907,6 @@
       <c r="G28">
         <v>1.9</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
         <v>0.8</v>
       </c>
@@ -3212,18 +2916,12 @@
       <c r="L28">
         <v>0.1</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
         <v>28.4</v>
       </c>
       <c r="O28">
         <v>13.5</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
       <c r="Q28">
         <v>1.9</v>
       </c>
@@ -3269,9 +2967,6 @@
       <c r="AE28">
         <v>0.3</v>
       </c>
-      <c r="AF28">
-        <v>4</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3332,9 +3027,6 @@
       <c r="R29">
         <v>5.9</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29">
         <v>29.1</v>
       </c>
@@ -3371,9 +3063,6 @@
       <c r="AE29">
         <v>0.4</v>
       </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3470,12 +3159,6 @@
       <c r="AD30">
         <v>3.7</v>
       </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>4</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3503,9 +3186,6 @@
       <c r="G31">
         <v>18.8</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31">
         <v>6.8</v>
       </c>
@@ -3575,9 +3255,6 @@
       <c r="AE31">
         <v>0.4</v>
       </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3608,33 +3285,18 @@
       <c r="H32">
         <v>1.7</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
       <c r="K32">
         <v>0.2</v>
       </c>
       <c r="L32">
         <v>0.3</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
       <c r="N32">
         <v>38.6</v>
       </c>
       <c r="O32">
         <v>9.800000000000001</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
       <c r="R32">
         <v>7.9</v>
       </c>
@@ -3677,9 +3339,6 @@
       <c r="AE32">
         <v>0.3</v>
       </c>
-      <c r="AF32">
-        <v>2</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3773,14 +3432,8 @@
       <c r="AC33">
         <v>6</v>
       </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
       <c r="AE33">
         <v>0.2</v>
-      </c>
-      <c r="AF33">
-        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -3881,9 +3534,6 @@
       <c r="AE34">
         <v>0.1</v>
       </c>
-      <c r="AF34">
-        <v>4</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3908,44 +3558,20 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
       <c r="K35">
         <v>2.8</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
       <c r="N35">
         <v>37.8</v>
       </c>
       <c r="O35">
         <v>0.2</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
       <c r="Q35">
         <v>0.2</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
       </c>
       <c r="T35">
         <v>99.2</v>
@@ -3965,27 +3591,12 @@
       <c r="Y35">
         <v>0.1</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
       <c r="AC35">
         <v>57.8</v>
       </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
       <c r="AE35">
         <v>0</v>
       </c>
-      <c r="AF35">
-        <v>2</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4085,9 +3696,6 @@
       <c r="AE36">
         <v>0.3</v>
       </c>
-      <c r="AF36">
-        <v>3</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4124,9 +3732,6 @@
       <c r="J37">
         <v>2</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
       <c r="L37">
         <v>0.9</v>
       </c>
@@ -4187,9 +3792,6 @@
       <c r="AE37">
         <v>0.2</v>
       </c>
-      <c r="AF37">
-        <v>3</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4232,9 +3834,6 @@
       <c r="L38">
         <v>0.4</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
       <c r="N38">
         <v>0</v>
       </c>
@@ -4250,9 +3849,6 @@
       <c r="R38">
         <v>0.7</v>
       </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
       <c r="T38">
         <v>26.9</v>
       </c>
@@ -4283,15 +3879,9 @@
       <c r="AC38">
         <v>10.2</v>
       </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
       <c r="AE38">
         <v>0.4</v>
       </c>
-      <c r="AF38">
-        <v>1</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4376,23 +3966,14 @@
       <c r="Z39">
         <v>3</v>
       </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
       <c r="AB39">
         <v>6.8</v>
       </c>
       <c r="AC39">
         <v>5</v>
       </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
       <c r="AE39">
         <v>0.2</v>
-      </c>
-      <c r="AF39">
-        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -4439,9 +4020,6 @@
       <c r="M40">
         <v>0.3</v>
       </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
       <c r="O40">
         <v>55.8</v>
       </c>
@@ -4493,9 +4071,6 @@
       <c r="AE40">
         <v>0.2</v>
       </c>
-      <c r="AF40">
-        <v>1</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4532,18 +4107,12 @@
       <c r="J41">
         <v>0.2</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
         <v>0.1</v>
       </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
       <c r="O41">
         <v>13.7</v>
       </c>
@@ -4595,9 +4164,6 @@
       <c r="AE41">
         <v>0.5</v>
       </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4625,24 +4191,12 @@
       <c r="G42">
         <v>0.1</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
       <c r="I42">
         <v>0.4</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
       <c r="K42">
         <v>46.7</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
       <c r="N42">
         <v>36.7</v>
       </c>
@@ -4652,12 +4206,6 @@
       <c r="P42">
         <v>0</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
       <c r="S42">
         <v>0.3</v>
       </c>
@@ -4682,9 +4230,6 @@
       <c r="Z42">
         <v>41.3</v>
       </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
       <c r="AB42">
         <v>59.9</v>
       </c>
@@ -4697,9 +4242,6 @@
       <c r="AE42">
         <v>0</v>
       </c>
-      <c r="AF42">
-        <v>4</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4799,9 +4341,6 @@
       <c r="AE43">
         <v>0.2</v>
       </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4823,33 +4362,15 @@
       <c r="E44">
         <v>17.9</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
       <c r="G44">
         <v>27.6</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
       <c r="I44">
         <v>16.8</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
       <c r="L44">
         <v>4.1</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
       <c r="O44">
         <v>33.1</v>
       </c>
@@ -4883,27 +4404,9 @@
       <c r="Y44">
         <v>17.4</v>
       </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
       <c r="AC44">
         <v>7.5</v>
       </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4961,51 +4464,18 @@
       <c r="Q45">
         <v>0.5</v>
       </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
       <c r="S45">
         <v>0</v>
       </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
       <c r="Z45">
         <v>27.2</v>
       </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
       <c r="AB45">
         <v>5.8</v>
       </c>
       <c r="AC45">
         <v>22.5</v>
       </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>2</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5033,24 +4503,15 @@
       <c r="G46">
         <v>10.9</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
       <c r="I46">
         <v>5.6</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
       <c r="K46">
         <v>1.5</v>
       </c>
       <c r="L46">
         <v>0.9</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
       <c r="N46">
         <v>0.5</v>
       </c>
@@ -5060,54 +4521,21 @@
       <c r="P46">
         <v>10.7</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
       <c r="R46">
         <v>2.2</v>
       </c>
       <c r="S46">
         <v>0.2</v>
       </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
       <c r="Z46">
         <v>25.4</v>
       </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
       <c r="AB46">
         <v>11.3</v>
       </c>
       <c r="AC46">
         <v>14.1</v>
       </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>2</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5207,9 +4635,6 @@
       <c r="AE47">
         <v>0.4</v>
       </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5309,9 +4734,6 @@
       <c r="AE48">
         <v>0.3</v>
       </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5411,9 +4833,6 @@
       <c r="AE49">
         <v>0.4</v>
       </c>
-      <c r="AF49">
-        <v>3</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5507,15 +4926,9 @@
       <c r="AC50">
         <v>3.3</v>
       </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
       <c r="AE50">
         <v>0.3</v>
       </c>
-      <c r="AF50">
-        <v>1</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5543,36 +4956,12 @@
       <c r="G51">
         <v>3.2</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51">
         <v>0.2</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
       </c>
       <c r="O51">
         <v>29.3</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
       <c r="R51">
         <v>3.8</v>
       </c>
@@ -5600,24 +4989,12 @@
       <c r="Z51">
         <v>25.7</v>
       </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
       <c r="AB51">
         <v>2.1</v>
       </c>
       <c r="AC51">
         <v>10</v>
       </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>3</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5711,15 +5088,9 @@
       <c r="AC52">
         <v>2</v>
       </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
       <c r="AE52">
         <v>0.5</v>
       </c>
-      <c r="AF52">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5819,9 +5190,6 @@
       <c r="AE53">
         <v>0.3</v>
       </c>
-      <c r="AF53">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5921,9 +5289,6 @@
       <c r="AE54">
         <v>0.3</v>
       </c>
-      <c r="AF54">
-        <v>1</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6023,9 +5388,6 @@
       <c r="AE55">
         <v>0.5</v>
       </c>
-      <c r="AF55">
-        <v>1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6053,36 +5415,18 @@
       <c r="G56">
         <v>2.4</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
       <c r="K56">
         <v>0.1</v>
       </c>
       <c r="L56">
         <v>1.5</v>
       </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
       <c r="N56">
         <v>5.4</v>
       </c>
       <c r="O56">
         <v>14.1</v>
       </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
       <c r="R56">
         <v>2.9</v>
       </c>
@@ -6122,12 +5466,6 @@
       <c r="AD56">
         <v>0.3</v>
       </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-      <c r="AF56">
-        <v>2</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6227,9 +5565,6 @@
       <c r="AE57">
         <v>0.2</v>
       </c>
-      <c r="AF57">
-        <v>4</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6329,9 +5664,6 @@
       <c r="AE58">
         <v>0.3</v>
       </c>
-      <c r="AF58">
-        <v>1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6371,12 +5703,6 @@
       <c r="K59">
         <v>0</v>
       </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
       <c r="N59">
         <v>0.1</v>
       </c>
@@ -6386,15 +5712,9 @@
       <c r="P59">
         <v>0.4</v>
       </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
       <c r="R59">
         <v>5.3</v>
       </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
       <c r="T59">
         <v>25.4</v>
       </c>
@@ -6416,9 +5736,6 @@
       <c r="Z59">
         <v>13.6</v>
       </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
       <c r="AB59">
         <v>7.3</v>
       </c>
@@ -6428,12 +5745,6 @@
       <c r="AD59">
         <v>0.4</v>
       </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <v>1</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6533,9 +5844,6 @@
       <c r="AE60">
         <v>0.3</v>
       </c>
-      <c r="AF60">
-        <v>3</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6596,9 +5904,6 @@
       <c r="R61">
         <v>15.7</v>
       </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
       <c r="T61">
         <v>22</v>
       </c>
@@ -6635,9 +5940,6 @@
       <c r="AE61">
         <v>0.3</v>
       </c>
-      <c r="AF61">
-        <v>1</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6737,9 +6039,6 @@
       <c r="AE62">
         <v>0.2</v>
       </c>
-      <c r="AF62">
-        <v>3</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6800,9 +6099,6 @@
       <c r="R63">
         <v>12.1</v>
       </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
       <c r="T63">
         <v>67.7</v>
       </c>
@@ -6839,9 +6135,6 @@
       <c r="AE63">
         <v>0.2</v>
       </c>
-      <c r="AF63">
-        <v>3</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6941,9 +6234,6 @@
       <c r="AE64">
         <v>0.3</v>
       </c>
-      <c r="AF64">
-        <v>1</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7004,9 +6294,6 @@
       <c r="R65">
         <v>3.7</v>
       </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
       <c r="T65">
         <v>60.4</v>
       </c>
@@ -7043,9 +6330,6 @@
       <c r="AE65">
         <v>0.2</v>
       </c>
-      <c r="AF65">
-        <v>3</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7106,9 +6390,6 @@
       <c r="R66">
         <v>13.8</v>
       </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
       <c r="T66">
         <v>22.8</v>
       </c>
@@ -7145,9 +6426,6 @@
       <c r="AE66">
         <v>0.5</v>
       </c>
-      <c r="AF66">
-        <v>1</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7184,9 +6462,6 @@
       <c r="J67">
         <v>7.6</v>
       </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
       <c r="L67">
         <v>0.1</v>
       </c>
@@ -7229,26 +6504,14 @@
       <c r="Y67">
         <v>1.4</v>
       </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
       <c r="AB67">
         <v>6.7</v>
       </c>
       <c r="AC67">
         <v>37.6</v>
       </c>
-      <c r="AD67">
-        <v>0</v>
-      </c>
       <c r="AE67">
         <v>0.2</v>
-      </c>
-      <c r="AF67">
-        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -7277,39 +6540,15 @@
       <c r="G68">
         <v>6.9</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
       <c r="L68">
         <v>4</v>
       </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
         <v>31.9</v>
       </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
       <c r="S68">
         <v>0.5</v>
       </c>
@@ -7334,24 +6573,12 @@
       <c r="Z68">
         <v>13.1</v>
       </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
       <c r="AB68">
         <v>17.8</v>
       </c>
       <c r="AC68">
         <v>29</v>
       </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
-      <c r="AE68">
-        <v>0</v>
-      </c>
-      <c r="AF68">
-        <v>3</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7451,9 +6678,6 @@
       <c r="AE69">
         <v>0.3</v>
       </c>
-      <c r="AF69">
-        <v>1</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7496,9 +6720,6 @@
       <c r="L70">
         <v>0.6</v>
       </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
       <c r="N70">
         <v>4.1</v>
       </c>
@@ -7517,24 +6738,6 @@
       <c r="S70">
         <v>0.1</v>
       </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
       <c r="Z70">
         <v>40.4</v>
       </c>
@@ -7550,12 +6753,6 @@
       <c r="AD70">
         <v>1.3</v>
       </c>
-      <c r="AE70">
-        <v>0</v>
-      </c>
-      <c r="AF70">
-        <v>2</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7574,69 +6771,30 @@
       <c r="D71">
         <v>34.4</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
       <c r="F71">
         <v>20.4</v>
       </c>
       <c r="G71">
         <v>1.4</v>
       </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
       <c r="K71">
         <v>11.8</v>
       </c>
       <c r="L71">
         <v>0.6</v>
       </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
       <c r="N71">
         <v>0.1</v>
       </c>
       <c r="O71">
         <v>65.59999999999999</v>
       </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
       <c r="R71">
         <v>6.2</v>
       </c>
       <c r="S71">
         <v>0.1</v>
       </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
       <c r="Z71">
         <v>77.40000000000001</v>
       </c>
@@ -7652,12 +6810,6 @@
       <c r="AD71">
         <v>5.9</v>
       </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-      <c r="AF71">
-        <v>3</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7676,21 +6828,9 @@
       <c r="D72">
         <v>74.2</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
       <c r="H72">
         <v>13.9</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
       <c r="J72">
         <v>2.2</v>
       </c>
@@ -7709,12 +6849,6 @@
       <c r="O72">
         <v>25.7</v>
       </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
       <c r="R72">
         <v>2</v>
       </c>
@@ -7757,9 +6891,6 @@
       <c r="AE72">
         <v>0.2</v>
       </c>
-      <c r="AF72">
-        <v>4</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7802,9 +6933,6 @@
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
       <c r="N73">
         <v>0.3</v>
       </c>
@@ -7859,9 +6987,6 @@
       <c r="AE73">
         <v>0.4</v>
       </c>
-      <c r="AF73">
-        <v>1</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7960,9 +7085,6 @@
       </c>
       <c r="AE74">
         <v>0.4</v>
-      </c>
-      <c r="AF74">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE74"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,6 +513,11 @@
           <t>wigc</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>clusters</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,8 +611,14 @@
       <c r="AC2">
         <v>11.8</v>
       </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
       <c r="AE2">
         <v>0.1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -645,6 +656,9 @@
       <c r="J3">
         <v>2.5</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <v>14.1</v>
       </c>
@@ -663,6 +677,9 @@
       <c r="Q3">
         <v>0.8</v>
       </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
       <c r="S3">
         <v>0.1</v>
       </c>
@@ -701,6 +718,9 @@
       </c>
       <c r="AE3">
         <v>0.1</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -801,6 +821,9 @@
       <c r="AE4">
         <v>0.3</v>
       </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -837,9 +860,15 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
       <c r="L5">
         <v>1.5</v>
       </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -851,6 +880,9 @@
       </c>
       <c r="Q5">
         <v>0.1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -890,6 +922,9 @@
       </c>
       <c r="AE5">
         <v>0.1</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -987,6 +1022,12 @@
       <c r="AD6">
         <v>0.1</v>
       </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1071,14 +1112,23 @@
       <c r="Z7">
         <v>25.1</v>
       </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
       <c r="AB7">
         <v>6.4</v>
       </c>
       <c r="AC7">
         <v>0.8</v>
       </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
       <c r="AE7">
         <v>0.3</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1179,6 +1229,9 @@
       <c r="AE8">
         <v>0.3</v>
       </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1206,18 +1259,36 @@
       <c r="G9">
         <v>5.3</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="I9">
         <v>1.7</v>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
       <c r="L9">
         <v>1.7</v>
       </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
       <c r="O9">
         <v>12.3</v>
       </c>
       <c r="P9">
         <v>6.2</v>
       </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
       <c r="R9">
         <v>5.2</v>
       </c>
@@ -1245,11 +1316,23 @@
       <c r="Z9">
         <v>36.6</v>
       </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
       <c r="AB9">
         <v>6.5</v>
       </c>
       <c r="AC9">
         <v>15.6</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1287,6 +1370,12 @@
       <c r="J10">
         <v>0.2</v>
       </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
       <c r="M10">
         <v>0.2</v>
       </c>
@@ -1343,6 +1432,9 @@
       </c>
       <c r="AE10">
         <v>0.2</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1443,6 +1535,9 @@
       <c r="AE11">
         <v>0.3</v>
       </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1506,6 +1601,24 @@
       <c r="S12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
       <c r="Z12">
         <v>64.2</v>
       </c>
@@ -1523,6 +1636,9 @@
       </c>
       <c r="AE12">
         <v>0.2</v>
+      </c>
+      <c r="AF12">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1623,6 +1739,9 @@
       <c r="AE13">
         <v>0.4</v>
       </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1722,6 +1841,9 @@
       <c r="AE14">
         <v>0.1</v>
       </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1743,12 +1865,21 @@
       <c r="E15">
         <v>80.90000000000001</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
       <c r="G15">
         <v>0.1</v>
       </c>
       <c r="H15">
         <v>1.6</v>
       </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
       <c r="K15">
         <v>2</v>
       </c>
@@ -1767,6 +1898,9 @@
       <c r="P15">
         <v>1.4</v>
       </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
       <c r="R15">
         <v>5.2</v>
       </c>
@@ -1794,14 +1928,23 @@
       <c r="Z15">
         <v>33.5</v>
       </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
       <c r="AB15">
         <v>26.9</v>
       </c>
       <c r="AC15">
         <v>17.1</v>
       </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
       <c r="AE15">
         <v>0.1</v>
+      </c>
+      <c r="AF15">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1902,6 +2045,9 @@
       <c r="AE16">
         <v>0.2</v>
       </c>
+      <c r="AF16">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1941,6 +2087,12 @@
       <c r="K17">
         <v>2.1</v>
       </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
       <c r="N17">
         <v>2.5</v>
       </c>
@@ -1980,6 +2132,9 @@
       <c r="Z17">
         <v>5.3</v>
       </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
       <c r="AB17">
         <v>4.8</v>
       </c>
@@ -1991,6 +2146,9 @@
       </c>
       <c r="AE17">
         <v>0.3</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2091,6 +2249,9 @@
       <c r="AE18">
         <v>0.4</v>
       </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2127,6 +2288,9 @@
       <c r="J19">
         <v>0.6</v>
       </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
       <c r="L19">
         <v>0</v>
       </c>
@@ -2186,6 +2350,9 @@
       </c>
       <c r="AE19">
         <v>0.3</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2211,9 +2378,18 @@
       <c r="F20">
         <v>6.6</v>
       </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
       <c r="H20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
       <c r="K20">
         <v>2.9</v>
       </c>
@@ -2229,6 +2405,12 @@
       <c r="O20">
         <v>1.3</v>
       </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
       <c r="R20">
         <v>0.7</v>
       </c>
@@ -2256,14 +2438,23 @@
       <c r="Z20">
         <v>2.4</v>
       </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
       <c r="AB20">
         <v>28.7</v>
       </c>
       <c r="AC20">
         <v>18.5</v>
       </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
       <c r="AE20">
         <v>0.2</v>
+      </c>
+      <c r="AF20">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2301,6 +2492,9 @@
       <c r="J21">
         <v>0.1</v>
       </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
       <c r="L21">
         <v>1.7</v>
       </c>
@@ -2316,6 +2510,9 @@
       <c r="P21">
         <v>0</v>
       </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
       <c r="R21">
         <v>0</v>
       </c>
@@ -2352,8 +2549,14 @@
       <c r="AC21">
         <v>8.699999999999999</v>
       </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
       <c r="AE21">
         <v>0.1</v>
+      </c>
+      <c r="AF21">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2376,21 +2579,42 @@
       <c r="E22">
         <v>16.3</v>
       </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
       <c r="G22">
         <v>20.8</v>
       </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
       <c r="I22">
         <v>18.1</v>
       </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
       <c r="L22">
         <v>12.2</v>
       </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
       <c r="O22">
         <v>32.5</v>
       </c>
       <c r="P22">
         <v>16.4</v>
       </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
       <c r="R22">
         <v>5.4</v>
       </c>
@@ -2418,11 +2642,23 @@
       <c r="Z22">
         <v>10.5</v>
       </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
       <c r="AB22">
         <v>0.2</v>
       </c>
       <c r="AC22">
         <v>3.3</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2466,6 +2702,9 @@
       <c r="L23">
         <v>1.6</v>
       </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
       <c r="N23">
         <v>0.1</v>
       </c>
@@ -2513,6 +2752,15 @@
       </c>
       <c r="AC23">
         <v>18.5</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2613,6 +2861,9 @@
       <c r="AE24">
         <v>0.2</v>
       </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2640,6 +2891,9 @@
       <c r="G25">
         <v>20.2</v>
       </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
       <c r="I25">
         <v>3.1</v>
       </c>
@@ -2652,6 +2906,9 @@
       <c r="L25">
         <v>0.1</v>
       </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
       <c r="N25">
         <v>1.1</v>
       </c>
@@ -2661,6 +2918,9 @@
       <c r="P25">
         <v>1.5</v>
       </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
       <c r="R25">
         <v>4.7</v>
       </c>
@@ -2688,6 +2948,9 @@
       <c r="Z25">
         <v>3.8</v>
       </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
       <c r="AB25">
         <v>1.3</v>
       </c>
@@ -2699,6 +2962,9 @@
       </c>
       <c r="AE25">
         <v>0.2</v>
+      </c>
+      <c r="AF25">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2733,6 +2999,18 @@
       <c r="I26">
         <v>7.4</v>
       </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
       <c r="N26">
         <v>0.4</v>
       </c>
@@ -2742,6 +3020,9 @@
       <c r="P26">
         <v>8</v>
       </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
       <c r="R26">
         <v>0.1</v>
       </c>
@@ -2783,6 +3064,9 @@
       </c>
       <c r="AE26">
         <v>0.2</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2844,6 +3128,9 @@
       <c r="R27">
         <v>4.4</v>
       </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
       <c r="T27">
         <v>46.1</v>
       </c>
@@ -2879,6 +3166,9 @@
       </c>
       <c r="AE27">
         <v>0.2</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2907,6 +3197,12 @@
       <c r="G28">
         <v>1.9</v>
       </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
       <c r="J28">
         <v>0.8</v>
       </c>
@@ -2916,12 +3212,18 @@
       <c r="L28">
         <v>0.1</v>
       </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
       <c r="N28">
         <v>28.4</v>
       </c>
       <c r="O28">
         <v>13.5</v>
       </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
       <c r="Q28">
         <v>1.9</v>
       </c>
@@ -2966,6 +3268,9 @@
       </c>
       <c r="AE28">
         <v>0.3</v>
+      </c>
+      <c r="AF28">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -3027,6 +3332,9 @@
       <c r="R29">
         <v>5.9</v>
       </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
       <c r="T29">
         <v>29.1</v>
       </c>
@@ -3062,6 +3370,9 @@
       </c>
       <c r="AE29">
         <v>0.4</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -3159,6 +3470,12 @@
       <c r="AD30">
         <v>3.7</v>
       </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>4</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3186,6 +3503,9 @@
       <c r="G31">
         <v>18.8</v>
       </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
       <c r="I31">
         <v>6.8</v>
       </c>
@@ -3254,6 +3574,9 @@
       </c>
       <c r="AE31">
         <v>0.4</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -3285,18 +3608,33 @@
       <c r="H32">
         <v>1.7</v>
       </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
       <c r="K32">
         <v>0.2</v>
       </c>
       <c r="L32">
         <v>0.3</v>
       </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
       <c r="N32">
         <v>38.6</v>
       </c>
       <c r="O32">
         <v>9.800000000000001</v>
       </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
       <c r="R32">
         <v>7.9</v>
       </c>
@@ -3338,6 +3676,9 @@
       </c>
       <c r="AE32">
         <v>0.3</v>
+      </c>
+      <c r="AF32">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -3432,8 +3773,14 @@
       <c r="AC33">
         <v>6</v>
       </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
       <c r="AE33">
         <v>0.2</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -3534,6 +3881,9 @@
       <c r="AE34">
         <v>0.1</v>
       </c>
+      <c r="AF34">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3558,21 +3908,45 @@
       <c r="F35">
         <v>1</v>
       </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
       <c r="K35">
         <v>2.8</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
       <c r="N35">
         <v>37.8</v>
       </c>
       <c r="O35">
         <v>0.2</v>
       </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
       <c r="Q35">
         <v>0.2</v>
       </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
       <c r="T35">
         <v>99.2</v>
       </c>
@@ -3591,11 +3965,26 @@
       <c r="Y35">
         <v>0.1</v>
       </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
       <c r="AC35">
         <v>57.8</v>
       </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
       <c r="AE35">
         <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3696,6 +4085,9 @@
       <c r="AE36">
         <v>0.3</v>
       </c>
+      <c r="AF36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3732,6 +4124,9 @@
       <c r="J37">
         <v>2</v>
       </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
       <c r="L37">
         <v>0.9</v>
       </c>
@@ -3791,6 +4186,9 @@
       </c>
       <c r="AE37">
         <v>0.2</v>
+      </c>
+      <c r="AF37">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -3834,6 +4232,9 @@
       <c r="L38">
         <v>0.4</v>
       </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
       <c r="N38">
         <v>0</v>
       </c>
@@ -3849,6 +4250,9 @@
       <c r="R38">
         <v>0.7</v>
       </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
       <c r="T38">
         <v>26.9</v>
       </c>
@@ -3879,8 +4283,14 @@
       <c r="AC38">
         <v>10.2</v>
       </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
       <c r="AE38">
         <v>0.4</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3966,14 +4376,23 @@
       <c r="Z39">
         <v>3</v>
       </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
       <c r="AB39">
         <v>6.8</v>
       </c>
       <c r="AC39">
         <v>5</v>
       </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
       <c r="AE39">
         <v>0.2</v>
+      </c>
+      <c r="AF39">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -4020,6 +4439,9 @@
       <c r="M40">
         <v>0.3</v>
       </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
       <c r="O40">
         <v>55.8</v>
       </c>
@@ -4070,6 +4492,9 @@
       </c>
       <c r="AE40">
         <v>0.2</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -4107,11 +4532,17 @@
       <c r="J41">
         <v>0.2</v>
       </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
         <v>0.1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
       </c>
       <c r="O41">
         <v>13.7</v>
@@ -4163,6 +4594,9 @@
       </c>
       <c r="AE41">
         <v>0.5</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -4191,12 +4625,24 @@
       <c r="G42">
         <v>0.1</v>
       </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
       <c r="I42">
         <v>0.4</v>
       </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
       <c r="K42">
         <v>46.7</v>
       </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
       <c r="N42">
         <v>36.7</v>
       </c>
@@ -4206,6 +4652,12 @@
       <c r="P42">
         <v>0</v>
       </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
       <c r="S42">
         <v>0.3</v>
       </c>
@@ -4230,6 +4682,9 @@
       <c r="Z42">
         <v>41.3</v>
       </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
       <c r="AB42">
         <v>59.9</v>
       </c>
@@ -4241,6 +4696,9 @@
       </c>
       <c r="AE42">
         <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -4341,6 +4799,9 @@
       <c r="AE43">
         <v>0.2</v>
       </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4362,15 +4823,33 @@
       <c r="E44">
         <v>17.9</v>
       </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
       <c r="G44">
         <v>27.6</v>
       </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
       <c r="I44">
         <v>16.8</v>
       </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
       <c r="L44">
         <v>4.1</v>
       </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
       <c r="O44">
         <v>33.1</v>
       </c>
@@ -4404,8 +4883,26 @@
       <c r="Y44">
         <v>17.4</v>
       </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
       <c r="AC44">
         <v>7.5</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -4464,17 +4961,50 @@
       <c r="Q45">
         <v>0.5</v>
       </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
       <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
         <v>0</v>
       </c>
       <c r="Z45">
         <v>27.2</v>
       </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
       <c r="AB45">
         <v>5.8</v>
       </c>
       <c r="AC45">
         <v>22.5</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -4503,15 +5033,24 @@
       <c r="G46">
         <v>10.9</v>
       </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
       <c r="I46">
         <v>5.6</v>
       </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
       <c r="K46">
         <v>1.5</v>
       </c>
       <c r="L46">
         <v>0.9</v>
       </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
       <c r="N46">
         <v>0.5</v>
       </c>
@@ -4521,20 +5060,53 @@
       <c r="P46">
         <v>10.7</v>
       </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
       <c r="R46">
         <v>2.2</v>
       </c>
       <c r="S46">
         <v>0.2</v>
       </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
       <c r="Z46">
         <v>25.4</v>
       </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
       <c r="AB46">
         <v>11.3</v>
       </c>
       <c r="AC46">
         <v>14.1</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -4635,6 +5207,9 @@
       <c r="AE47">
         <v>0.4</v>
       </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4734,6 +5309,9 @@
       <c r="AE48">
         <v>0.3</v>
       </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4833,6 +5411,9 @@
       <c r="AE49">
         <v>0.4</v>
       </c>
+      <c r="AF49">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4926,8 +5507,14 @@
       <c r="AC50">
         <v>3.3</v>
       </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
       <c r="AE50">
         <v>0.3</v>
+      </c>
+      <c r="AF50">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4956,12 +5543,36 @@
       <c r="G51">
         <v>3.2</v>
       </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
       <c r="K51">
         <v>0.2</v>
       </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
       <c r="O51">
         <v>29.3</v>
       </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
       <c r="R51">
         <v>3.8</v>
       </c>
@@ -4989,11 +5600,23 @@
       <c r="Z51">
         <v>25.7</v>
       </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
       <c r="AB51">
         <v>2.1</v>
       </c>
       <c r="AC51">
         <v>10</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -5088,8 +5711,14 @@
       <c r="AC52">
         <v>2</v>
       </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
       <c r="AE52">
         <v>0.5</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -5190,6 +5819,9 @@
       <c r="AE53">
         <v>0.3</v>
       </c>
+      <c r="AF53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5289,6 +5921,9 @@
       <c r="AE54">
         <v>0.3</v>
       </c>
+      <c r="AF54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5388,6 +6023,9 @@
       <c r="AE55">
         <v>0.5</v>
       </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5415,18 +6053,36 @@
       <c r="G56">
         <v>2.4</v>
       </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
       <c r="K56">
         <v>0.1</v>
       </c>
       <c r="L56">
         <v>1.5</v>
       </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
       <c r="N56">
         <v>5.4</v>
       </c>
       <c r="O56">
         <v>14.1</v>
       </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
       <c r="R56">
         <v>2.9</v>
       </c>
@@ -5465,6 +6121,12 @@
       </c>
       <c r="AD56">
         <v>0.3</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -5565,6 +6227,9 @@
       <c r="AE57">
         <v>0.2</v>
       </c>
+      <c r="AF57">
+        <v>4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5664,6 +6329,9 @@
       <c r="AE58">
         <v>0.3</v>
       </c>
+      <c r="AF58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5703,6 +6371,12 @@
       <c r="K59">
         <v>0</v>
       </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
       <c r="N59">
         <v>0.1</v>
       </c>
@@ -5712,9 +6386,15 @@
       <c r="P59">
         <v>0.4</v>
       </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
       <c r="R59">
         <v>5.3</v>
       </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
       <c r="T59">
         <v>25.4</v>
       </c>
@@ -5736,6 +6416,9 @@
       <c r="Z59">
         <v>13.6</v>
       </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
       <c r="AB59">
         <v>7.3</v>
       </c>
@@ -5744,6 +6427,12 @@
       </c>
       <c r="AD59">
         <v>0.4</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -5844,6 +6533,9 @@
       <c r="AE60">
         <v>0.3</v>
       </c>
+      <c r="AF60">
+        <v>3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5904,6 +6596,9 @@
       <c r="R61">
         <v>15.7</v>
       </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
       <c r="T61">
         <v>22</v>
       </c>
@@ -5939,6 +6634,9 @@
       </c>
       <c r="AE61">
         <v>0.3</v>
+      </c>
+      <c r="AF61">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -6039,6 +6737,9 @@
       <c r="AE62">
         <v>0.2</v>
       </c>
+      <c r="AF62">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6099,6 +6800,9 @@
       <c r="R63">
         <v>12.1</v>
       </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
       <c r="T63">
         <v>67.7</v>
       </c>
@@ -6134,6 +6838,9 @@
       </c>
       <c r="AE63">
         <v>0.2</v>
+      </c>
+      <c r="AF63">
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -6234,6 +6941,9 @@
       <c r="AE64">
         <v>0.3</v>
       </c>
+      <c r="AF64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6294,6 +7004,9 @@
       <c r="R65">
         <v>3.7</v>
       </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
       <c r="T65">
         <v>60.4</v>
       </c>
@@ -6329,6 +7042,9 @@
       </c>
       <c r="AE65">
         <v>0.2</v>
+      </c>
+      <c r="AF65">
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -6390,6 +7106,9 @@
       <c r="R66">
         <v>13.8</v>
       </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
       <c r="T66">
         <v>22.8</v>
       </c>
@@ -6425,6 +7144,9 @@
       </c>
       <c r="AE66">
         <v>0.5</v>
+      </c>
+      <c r="AF66">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -6462,6 +7184,9 @@
       <c r="J67">
         <v>7.6</v>
       </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
       <c r="L67">
         <v>0.1</v>
       </c>
@@ -6504,14 +7229,26 @@
       <c r="Y67">
         <v>1.4</v>
       </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
       <c r="AB67">
         <v>6.7</v>
       </c>
       <c r="AC67">
         <v>37.6</v>
       </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
       <c r="AE67">
         <v>0.2</v>
+      </c>
+      <c r="AF67">
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -6540,15 +7277,39 @@
       <c r="G68">
         <v>6.9</v>
       </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
       <c r="L68">
         <v>4</v>
       </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
         <v>31.9</v>
       </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
       <c r="S68">
         <v>0.5</v>
       </c>
@@ -6573,11 +7334,23 @@
       <c r="Z68">
         <v>13.1</v>
       </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
       <c r="AB68">
         <v>17.8</v>
       </c>
       <c r="AC68">
         <v>29</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -6678,6 +7451,9 @@
       <c r="AE69">
         <v>0.3</v>
       </c>
+      <c r="AF69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6720,6 +7496,9 @@
       <c r="L70">
         <v>0.6</v>
       </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
       <c r="N70">
         <v>4.1</v>
       </c>
@@ -6738,6 +7517,24 @@
       <c r="S70">
         <v>0.1</v>
       </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
       <c r="Z70">
         <v>40.4</v>
       </c>
@@ -6752,6 +7549,12 @@
       </c>
       <c r="AD70">
         <v>1.3</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -6771,30 +7574,69 @@
       <c r="D71">
         <v>34.4</v>
       </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
       <c r="F71">
         <v>20.4</v>
       </c>
       <c r="G71">
         <v>1.4</v>
       </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
       <c r="K71">
         <v>11.8</v>
       </c>
       <c r="L71">
         <v>0.6</v>
       </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
       <c r="N71">
         <v>0.1</v>
       </c>
       <c r="O71">
         <v>65.59999999999999</v>
       </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
       <c r="R71">
         <v>6.2</v>
       </c>
       <c r="S71">
         <v>0.1</v>
       </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
       <c r="Z71">
         <v>77.40000000000001</v>
       </c>
@@ -6809,6 +7651,12 @@
       </c>
       <c r="AD71">
         <v>5.9</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -6828,9 +7676,21 @@
       <c r="D72">
         <v>74.2</v>
       </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
       <c r="H72">
         <v>13.9</v>
       </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
       <c r="J72">
         <v>2.2</v>
       </c>
@@ -6849,6 +7709,12 @@
       <c r="O72">
         <v>25.7</v>
       </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
       <c r="R72">
         <v>2</v>
       </c>
@@ -6890,6 +7756,9 @@
       </c>
       <c r="AE72">
         <v>0.2</v>
+      </c>
+      <c r="AF72">
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -6933,6 +7802,9 @@
       <c r="L73">
         <v>0</v>
       </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
       <c r="N73">
         <v>0.3</v>
       </c>
@@ -6986,6 +7858,9 @@
       </c>
       <c r="AE73">
         <v>0.4</v>
+      </c>
+      <c r="AF73">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -7085,6 +7960,9 @@
       </c>
       <c r="AE74">
         <v>0.4</v>
+      </c>
+      <c r="AF74">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -924,7 +924,7 @@
         <v>0.1</v>
       </c>
       <c r="AF5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1128,7 +1128,7 @@
         <v>0.3</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1638,7 +1638,7 @@
         <v>0.2</v>
       </c>
       <c r="AF12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1944,7 +1944,7 @@
         <v>0.1</v>
       </c>
       <c r="AF15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2454,7 +2454,7 @@
         <v>0.2</v>
       </c>
       <c r="AF20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2556,7 +2556,7 @@
         <v>0.1</v>
       </c>
       <c r="AF21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -3270,7 +3270,7 @@
         <v>0.3</v>
       </c>
       <c r="AF28">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -3780,7 +3780,7 @@
         <v>0.2</v>
       </c>
       <c r="AF33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -3882,7 +3882,7 @@
         <v>0.1</v>
       </c>
       <c r="AF34">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -4086,7 +4086,7 @@
         <v>0.3</v>
       </c>
       <c r="AF36">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -5514,7 +5514,7 @@
         <v>0.3</v>
       </c>
       <c r="AF50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -5922,7 +5922,7 @@
         <v>0.3</v>
       </c>
       <c r="AF54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="AF56">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -6228,7 +6228,7 @@
         <v>0.2</v>
       </c>
       <c r="AF57">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -7758,7 +7758,7 @@
         <v>0.2</v>
       </c>
       <c r="AF72">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF74"/>
+  <dimension ref="A1:AE74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,11 +513,6 @@
           <t>wigc</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>clusters</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -611,14 +606,8 @@
       <c r="AC2">
         <v>11.8</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
       <c r="AE2">
         <v>0.1</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -656,9 +645,6 @@
       <c r="J3">
         <v>2.5</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
         <v>14.1</v>
       </c>
@@ -677,9 +663,6 @@
       <c r="Q3">
         <v>0.8</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
         <v>0.1</v>
       </c>
@@ -719,9 +702,6 @@
       <c r="AE3">
         <v>0.1</v>
       </c>
-      <c r="AF3">
-        <v>2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -821,9 +801,6 @@
       <c r="AE4">
         <v>0.3</v>
       </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -860,15 +837,9 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>1.5</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -881,9 +852,6 @@
       <c r="Q5">
         <v>0.1</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
         <v>0</v>
       </c>
@@ -923,9 +891,6 @@
       <c r="AE5">
         <v>0.1</v>
       </c>
-      <c r="AF5">
-        <v>3</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1022,12 +987,6 @@
       <c r="AD6">
         <v>0.1</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>3</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1112,24 +1071,15 @@
       <c r="Z7">
         <v>25.1</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
       <c r="AB7">
         <v>6.4</v>
       </c>
       <c r="AC7">
         <v>0.8</v>
       </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
       <c r="AE7">
         <v>0.3</v>
       </c>
-      <c r="AF7">
-        <v>2</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1229,9 +1179,6 @@
       <c r="AE8">
         <v>0.3</v>
       </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1259,36 +1206,18 @@
       <c r="G9">
         <v>5.3</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>1.7</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
         <v>1.7</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
         <v>12.3</v>
       </c>
       <c r="P9">
         <v>6.2</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
       <c r="R9">
         <v>5.2</v>
       </c>
@@ -1316,24 +1245,12 @@
       <c r="Z9">
         <v>36.6</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
       <c r="AB9">
         <v>6.5</v>
       </c>
       <c r="AC9">
         <v>15.6</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>3</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1370,12 +1287,6 @@
       <c r="J10">
         <v>0.2</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
         <v>0.2</v>
       </c>
@@ -1433,9 +1344,6 @@
       <c r="AE10">
         <v>0.2</v>
       </c>
-      <c r="AF10">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1535,9 +1443,6 @@
       <c r="AE11">
         <v>0.3</v>
       </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1601,24 +1506,6 @@
       <c r="S12">
         <v>0</v>
       </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
       <c r="Z12">
         <v>64.2</v>
       </c>
@@ -1637,9 +1524,6 @@
       <c r="AE12">
         <v>0.2</v>
       </c>
-      <c r="AF12">
-        <v>3</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1739,9 +1623,6 @@
       <c r="AE13">
         <v>0.4</v>
       </c>
-      <c r="AF13">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1841,9 +1722,6 @@
       <c r="AE14">
         <v>0.1</v>
       </c>
-      <c r="AF14">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1865,21 +1743,12 @@
       <c r="E15">
         <v>80.90000000000001</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
         <v>0.1</v>
       </c>
       <c r="H15">
         <v>1.6</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
         <v>2</v>
       </c>
@@ -1898,9 +1767,6 @@
       <c r="P15">
         <v>1.4</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
       <c r="R15">
         <v>5.2</v>
       </c>
@@ -1928,23 +1794,14 @@
       <c r="Z15">
         <v>33.5</v>
       </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
       <c r="AB15">
         <v>26.9</v>
       </c>
       <c r="AC15">
         <v>17.1</v>
       </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
       <c r="AE15">
         <v>0.1</v>
-      </c>
-      <c r="AF15">
-        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2045,9 +1902,6 @@
       <c r="AE16">
         <v>0.2</v>
       </c>
-      <c r="AF16">
-        <v>3</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2087,12 +1941,6 @@
       <c r="K17">
         <v>2.1</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
         <v>2.5</v>
       </c>
@@ -2132,9 +1980,6 @@
       <c r="Z17">
         <v>5.3</v>
       </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
       <c r="AB17">
         <v>4.8</v>
       </c>
@@ -2147,9 +1992,6 @@
       <c r="AE17">
         <v>0.3</v>
       </c>
-      <c r="AF17">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2249,9 +2091,6 @@
       <c r="AE18">
         <v>0.4</v>
       </c>
-      <c r="AF18">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2288,9 +2127,6 @@
       <c r="J19">
         <v>0.6</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
       <c r="L19">
         <v>0</v>
       </c>
@@ -2351,9 +2187,6 @@
       <c r="AE19">
         <v>0.3</v>
       </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2378,18 +2211,9 @@
       <c r="F20">
         <v>6.6</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
         <v>2.9</v>
       </c>
@@ -2405,12 +2229,6 @@
       <c r="O20">
         <v>1.3</v>
       </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
       <c r="R20">
         <v>0.7</v>
       </c>
@@ -2438,23 +2256,14 @@
       <c r="Z20">
         <v>2.4</v>
       </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
       <c r="AB20">
         <v>28.7</v>
       </c>
       <c r="AC20">
         <v>18.5</v>
       </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
       <c r="AE20">
         <v>0.2</v>
-      </c>
-      <c r="AF20">
-        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2492,9 +2301,6 @@
       <c r="J21">
         <v>0.1</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>1.7</v>
       </c>
@@ -2510,9 +2316,6 @@
       <c r="P21">
         <v>0</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
       <c r="R21">
         <v>0</v>
       </c>
@@ -2549,14 +2352,8 @@
       <c r="AC21">
         <v>8.699999999999999</v>
       </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
       <c r="AE21">
         <v>0.1</v>
-      </c>
-      <c r="AF21">
-        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2579,42 +2376,21 @@
       <c r="E22">
         <v>16.3</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
       <c r="G22">
         <v>20.8</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="I22">
         <v>18.1</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
         <v>12.2</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
       <c r="O22">
         <v>32.5</v>
       </c>
       <c r="P22">
         <v>16.4</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
       <c r="R22">
         <v>5.4</v>
       </c>
@@ -2642,24 +2418,12 @@
       <c r="Z22">
         <v>10.5</v>
       </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
       <c r="AB22">
         <v>0.2</v>
       </c>
       <c r="AC22">
         <v>3.3</v>
       </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2702,9 +2466,6 @@
       <c r="L23">
         <v>1.6</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
         <v>0.1</v>
       </c>
@@ -2753,15 +2514,6 @@
       <c r="AC23">
         <v>18.5</v>
       </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2861,9 +2613,6 @@
       <c r="AE24">
         <v>0.2</v>
       </c>
-      <c r="AF24">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2891,9 +2640,6 @@
       <c r="G25">
         <v>20.2</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="I25">
         <v>3.1</v>
       </c>
@@ -2906,9 +2652,6 @@
       <c r="L25">
         <v>0.1</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
       <c r="N25">
         <v>1.1</v>
       </c>
@@ -2918,9 +2661,6 @@
       <c r="P25">
         <v>1.5</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
       <c r="R25">
         <v>4.7</v>
       </c>
@@ -2948,9 +2688,6 @@
       <c r="Z25">
         <v>3.8</v>
       </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
       <c r="AB25">
         <v>1.3</v>
       </c>
@@ -2963,9 +2700,6 @@
       <c r="AE25">
         <v>0.2</v>
       </c>
-      <c r="AF25">
-        <v>3</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2999,18 +2733,6 @@
       <c r="I26">
         <v>7.4</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
       <c r="N26">
         <v>0.4</v>
       </c>
@@ -3020,9 +2742,6 @@
       <c r="P26">
         <v>8</v>
       </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
       <c r="R26">
         <v>0.1</v>
       </c>
@@ -3065,9 +2784,6 @@
       <c r="AE26">
         <v>0.2</v>
       </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3128,9 +2844,6 @@
       <c r="R27">
         <v>4.4</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
       <c r="T27">
         <v>46.1</v>
       </c>
@@ -3167,9 +2880,6 @@
       <c r="AE27">
         <v>0.2</v>
       </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3197,12 +2907,6 @@
       <c r="G28">
         <v>1.9</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
       <c r="J28">
         <v>0.8</v>
       </c>
@@ -3212,18 +2916,12 @@
       <c r="L28">
         <v>0.1</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
       <c r="N28">
         <v>28.4</v>
       </c>
       <c r="O28">
         <v>13.5</v>
       </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
       <c r="Q28">
         <v>1.9</v>
       </c>
@@ -3269,9 +2967,6 @@
       <c r="AE28">
         <v>0.3</v>
       </c>
-      <c r="AF28">
-        <v>2</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3332,9 +3027,6 @@
       <c r="R29">
         <v>5.9</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29">
         <v>29.1</v>
       </c>
@@ -3371,9 +3063,6 @@
       <c r="AE29">
         <v>0.4</v>
       </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3470,12 +3159,6 @@
       <c r="AD30">
         <v>3.7</v>
       </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>2</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3503,9 +3186,6 @@
       <c r="G31">
         <v>18.8</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31">
         <v>6.8</v>
       </c>
@@ -3575,9 +3255,6 @@
       <c r="AE31">
         <v>0.4</v>
       </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3608,33 +3285,18 @@
       <c r="H32">
         <v>1.7</v>
       </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
       <c r="K32">
         <v>0.2</v>
       </c>
       <c r="L32">
         <v>0.3</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
       <c r="N32">
         <v>38.6</v>
       </c>
       <c r="O32">
         <v>9.800000000000001</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
       <c r="R32">
         <v>7.9</v>
       </c>
@@ -3677,9 +3339,6 @@
       <c r="AE32">
         <v>0.3</v>
       </c>
-      <c r="AF32">
-        <v>2</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3773,14 +3432,8 @@
       <c r="AC33">
         <v>6</v>
       </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
       <c r="AE33">
         <v>0.2</v>
-      </c>
-      <c r="AF33">
-        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -3881,9 +3534,6 @@
       <c r="AE34">
         <v>0.1</v>
       </c>
-      <c r="AF34">
-        <v>2</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3908,44 +3558,20 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
       <c r="K35">
         <v>2.8</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
       <c r="N35">
         <v>37.8</v>
       </c>
       <c r="O35">
         <v>0.2</v>
       </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
       <c r="Q35">
         <v>0.2</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
       </c>
       <c r="T35">
         <v>99.2</v>
@@ -3965,27 +3591,12 @@
       <c r="Y35">
         <v>0.1</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
       <c r="AC35">
         <v>57.8</v>
       </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
       <c r="AE35">
         <v>0</v>
       </c>
-      <c r="AF35">
-        <v>2</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4085,9 +3696,6 @@
       <c r="AE36">
         <v>0.3</v>
       </c>
-      <c r="AF36">
-        <v>1</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4124,9 +3732,6 @@
       <c r="J37">
         <v>2</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
       <c r="L37">
         <v>0.9</v>
       </c>
@@ -4187,9 +3792,6 @@
       <c r="AE37">
         <v>0.2</v>
       </c>
-      <c r="AF37">
-        <v>3</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4232,9 +3834,6 @@
       <c r="L38">
         <v>0.4</v>
       </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
       <c r="N38">
         <v>0</v>
       </c>
@@ -4250,9 +3849,6 @@
       <c r="R38">
         <v>0.7</v>
       </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
       <c r="T38">
         <v>26.9</v>
       </c>
@@ -4283,15 +3879,9 @@
       <c r="AC38">
         <v>10.2</v>
       </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
       <c r="AE38">
         <v>0.4</v>
       </c>
-      <c r="AF38">
-        <v>1</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4376,23 +3966,14 @@
       <c r="Z39">
         <v>3</v>
       </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
       <c r="AB39">
         <v>6.8</v>
       </c>
       <c r="AC39">
         <v>5</v>
       </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
       <c r="AE39">
         <v>0.2</v>
-      </c>
-      <c r="AF39">
-        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -4439,9 +4020,6 @@
       <c r="M40">
         <v>0.3</v>
       </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
       <c r="O40">
         <v>55.8</v>
       </c>
@@ -4493,9 +4071,6 @@
       <c r="AE40">
         <v>0.2</v>
       </c>
-      <c r="AF40">
-        <v>1</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4532,18 +4107,12 @@
       <c r="J41">
         <v>0.2</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
         <v>0.1</v>
       </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
       <c r="O41">
         <v>13.7</v>
       </c>
@@ -4595,9 +4164,6 @@
       <c r="AE41">
         <v>0.5</v>
       </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4625,24 +4191,12 @@
       <c r="G42">
         <v>0.1</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
       <c r="I42">
         <v>0.4</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
       <c r="K42">
         <v>46.7</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
       <c r="N42">
         <v>36.7</v>
       </c>
@@ -4652,12 +4206,6 @@
       <c r="P42">
         <v>0</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
       <c r="S42">
         <v>0.3</v>
       </c>
@@ -4682,9 +4230,6 @@
       <c r="Z42">
         <v>41.3</v>
       </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
       <c r="AB42">
         <v>59.9</v>
       </c>
@@ -4697,9 +4242,6 @@
       <c r="AE42">
         <v>0</v>
       </c>
-      <c r="AF42">
-        <v>2</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4799,9 +4341,6 @@
       <c r="AE43">
         <v>0.2</v>
       </c>
-      <c r="AF43">
-        <v>1</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4823,33 +4362,15 @@
       <c r="E44">
         <v>17.9</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
       <c r="G44">
         <v>27.6</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
       <c r="I44">
         <v>16.8</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
       <c r="L44">
         <v>4.1</v>
       </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
       <c r="O44">
         <v>33.1</v>
       </c>
@@ -4883,27 +4404,9 @@
       <c r="Y44">
         <v>17.4</v>
       </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
       <c r="AC44">
         <v>7.5</v>
       </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4961,51 +4464,18 @@
       <c r="Q45">
         <v>0.5</v>
       </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
       <c r="S45">
         <v>0</v>
       </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
       <c r="Z45">
         <v>27.2</v>
       </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
       <c r="AB45">
         <v>5.8</v>
       </c>
       <c r="AC45">
         <v>22.5</v>
       </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>3</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5033,24 +4503,15 @@
       <c r="G46">
         <v>10.9</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
       <c r="I46">
         <v>5.6</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
       <c r="K46">
         <v>1.5</v>
       </c>
       <c r="L46">
         <v>0.9</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
       <c r="N46">
         <v>0.5</v>
       </c>
@@ -5060,54 +4521,21 @@
       <c r="P46">
         <v>10.7</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
       <c r="R46">
         <v>2.2</v>
       </c>
       <c r="S46">
         <v>0.2</v>
       </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
       <c r="Z46">
         <v>25.4</v>
       </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
       <c r="AB46">
         <v>11.3</v>
       </c>
       <c r="AC46">
         <v>14.1</v>
       </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>3</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5207,9 +4635,6 @@
       <c r="AE47">
         <v>0.4</v>
       </c>
-      <c r="AF47">
-        <v>1</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5309,9 +4734,6 @@
       <c r="AE48">
         <v>0.3</v>
       </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5411,9 +4833,6 @@
       <c r="AE49">
         <v>0.4</v>
       </c>
-      <c r="AF49">
-        <v>3</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5507,15 +4926,9 @@
       <c r="AC50">
         <v>3.3</v>
       </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
       <c r="AE50">
         <v>0.3</v>
       </c>
-      <c r="AF50">
-        <v>2</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5543,36 +4956,12 @@
       <c r="G51">
         <v>3.2</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
       <c r="K51">
         <v>0.2</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
       </c>
       <c r="O51">
         <v>29.3</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
       <c r="R51">
         <v>3.8</v>
       </c>
@@ -5600,24 +4989,12 @@
       <c r="Z51">
         <v>25.7</v>
       </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
       <c r="AB51">
         <v>2.1</v>
       </c>
       <c r="AC51">
         <v>10</v>
       </c>
-      <c r="AD51">
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <v>0</v>
-      </c>
-      <c r="AF51">
-        <v>3</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5711,15 +5088,9 @@
       <c r="AC52">
         <v>2</v>
       </c>
-      <c r="AD52">
-        <v>0</v>
-      </c>
       <c r="AE52">
         <v>0.5</v>
       </c>
-      <c r="AF52">
-        <v>1</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5819,9 +5190,6 @@
       <c r="AE53">
         <v>0.3</v>
       </c>
-      <c r="AF53">
-        <v>1</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5921,9 +5289,6 @@
       <c r="AE54">
         <v>0.3</v>
       </c>
-      <c r="AF54">
-        <v>2</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6023,9 +5388,6 @@
       <c r="AE55">
         <v>0.5</v>
       </c>
-      <c r="AF55">
-        <v>1</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6053,36 +5415,18 @@
       <c r="G56">
         <v>2.4</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
       <c r="K56">
         <v>0.1</v>
       </c>
       <c r="L56">
         <v>1.5</v>
       </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
       <c r="N56">
         <v>5.4</v>
       </c>
       <c r="O56">
         <v>14.1</v>
       </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
       <c r="R56">
         <v>2.9</v>
       </c>
@@ -6122,12 +5466,6 @@
       <c r="AD56">
         <v>0.3</v>
       </c>
-      <c r="AE56">
-        <v>0</v>
-      </c>
-      <c r="AF56">
-        <v>3</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6227,9 +5565,6 @@
       <c r="AE57">
         <v>0.2</v>
       </c>
-      <c r="AF57">
-        <v>2</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6329,9 +5664,6 @@
       <c r="AE58">
         <v>0.3</v>
       </c>
-      <c r="AF58">
-        <v>1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6371,12 +5703,6 @@
       <c r="K59">
         <v>0</v>
       </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
       <c r="N59">
         <v>0.1</v>
       </c>
@@ -6386,15 +5712,9 @@
       <c r="P59">
         <v>0.4</v>
       </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
       <c r="R59">
         <v>5.3</v>
       </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
       <c r="T59">
         <v>25.4</v>
       </c>
@@ -6416,9 +5736,6 @@
       <c r="Z59">
         <v>13.6</v>
       </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
       <c r="AB59">
         <v>7.3</v>
       </c>
@@ -6428,12 +5745,6 @@
       <c r="AD59">
         <v>0.4</v>
       </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <v>1</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6533,9 +5844,6 @@
       <c r="AE60">
         <v>0.3</v>
       </c>
-      <c r="AF60">
-        <v>3</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6596,9 +5904,6 @@
       <c r="R61">
         <v>15.7</v>
       </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
       <c r="T61">
         <v>22</v>
       </c>
@@ -6635,9 +5940,6 @@
       <c r="AE61">
         <v>0.3</v>
       </c>
-      <c r="AF61">
-        <v>1</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6737,9 +6039,6 @@
       <c r="AE62">
         <v>0.2</v>
       </c>
-      <c r="AF62">
-        <v>3</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6800,9 +6099,6 @@
       <c r="R63">
         <v>12.1</v>
       </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
       <c r="T63">
         <v>67.7</v>
       </c>
@@ -6839,9 +6135,6 @@
       <c r="AE63">
         <v>0.2</v>
       </c>
-      <c r="AF63">
-        <v>3</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6941,9 +6234,6 @@
       <c r="AE64">
         <v>0.3</v>
       </c>
-      <c r="AF64">
-        <v>1</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7004,9 +6294,6 @@
       <c r="R65">
         <v>3.7</v>
       </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
       <c r="T65">
         <v>60.4</v>
       </c>
@@ -7043,9 +6330,6 @@
       <c r="AE65">
         <v>0.2</v>
       </c>
-      <c r="AF65">
-        <v>3</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7106,9 +6390,6 @@
       <c r="R66">
         <v>13.8</v>
       </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
       <c r="T66">
         <v>22.8</v>
       </c>
@@ -7145,9 +6426,6 @@
       <c r="AE66">
         <v>0.5</v>
       </c>
-      <c r="AF66">
-        <v>1</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7184,9 +6462,6 @@
       <c r="J67">
         <v>7.6</v>
       </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
       <c r="L67">
         <v>0.1</v>
       </c>
@@ -7229,26 +6504,14 @@
       <c r="Y67">
         <v>1.4</v>
       </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
       <c r="AB67">
         <v>6.7</v>
       </c>
       <c r="AC67">
         <v>37.6</v>
       </c>
-      <c r="AD67">
-        <v>0</v>
-      </c>
       <c r="AE67">
         <v>0.2</v>
-      </c>
-      <c r="AF67">
-        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -7277,39 +6540,15 @@
       <c r="G68">
         <v>6.9</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
       <c r="L68">
         <v>4</v>
       </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
         <v>31.9</v>
       </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
       <c r="S68">
         <v>0.5</v>
       </c>
@@ -7334,24 +6573,12 @@
       <c r="Z68">
         <v>13.1</v>
       </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
       <c r="AB68">
         <v>17.8</v>
       </c>
       <c r="AC68">
         <v>29</v>
       </c>
-      <c r="AD68">
-        <v>0</v>
-      </c>
-      <c r="AE68">
-        <v>0</v>
-      </c>
-      <c r="AF68">
-        <v>3</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7451,9 +6678,6 @@
       <c r="AE69">
         <v>0.3</v>
       </c>
-      <c r="AF69">
-        <v>1</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7496,9 +6720,6 @@
       <c r="L70">
         <v>0.6</v>
       </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
       <c r="N70">
         <v>4.1</v>
       </c>
@@ -7517,24 +6738,6 @@
       <c r="S70">
         <v>0.1</v>
       </c>
-      <c r="T70">
-        <v>0</v>
-      </c>
-      <c r="U70">
-        <v>0</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
       <c r="Z70">
         <v>40.4</v>
       </c>
@@ -7550,12 +6753,6 @@
       <c r="AD70">
         <v>1.3</v>
       </c>
-      <c r="AE70">
-        <v>0</v>
-      </c>
-      <c r="AF70">
-        <v>3</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7574,69 +6771,30 @@
       <c r="D71">
         <v>34.4</v>
       </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
       <c r="F71">
         <v>20.4</v>
       </c>
       <c r="G71">
         <v>1.4</v>
       </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
       <c r="K71">
         <v>11.8</v>
       </c>
       <c r="L71">
         <v>0.6</v>
       </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
       <c r="N71">
         <v>0.1</v>
       </c>
       <c r="O71">
         <v>65.59999999999999</v>
       </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
       <c r="R71">
         <v>6.2</v>
       </c>
       <c r="S71">
         <v>0.1</v>
       </c>
-      <c r="T71">
-        <v>0</v>
-      </c>
-      <c r="U71">
-        <v>0</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
       <c r="Z71">
         <v>77.40000000000001</v>
       </c>
@@ -7652,12 +6810,6 @@
       <c r="AD71">
         <v>5.9</v>
       </c>
-      <c r="AE71">
-        <v>0</v>
-      </c>
-      <c r="AF71">
-        <v>3</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7676,21 +6828,9 @@
       <c r="D72">
         <v>74.2</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
       <c r="H72">
         <v>13.9</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
       <c r="J72">
         <v>2.2</v>
       </c>
@@ -7709,12 +6849,6 @@
       <c r="O72">
         <v>25.7</v>
       </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
       <c r="R72">
         <v>2</v>
       </c>
@@ -7757,9 +6891,6 @@
       <c r="AE72">
         <v>0.2</v>
       </c>
-      <c r="AF72">
-        <v>3</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7802,9 +6933,6 @@
       <c r="L73">
         <v>0</v>
       </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
       <c r="N73">
         <v>0.3</v>
       </c>
@@ -7859,9 +6987,6 @@
       <c r="AE73">
         <v>0.4</v>
       </c>
-      <c r="AF73">
-        <v>1</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7960,9 +7085,6 @@
       </c>
       <c r="AE74">
         <v>0.4</v>
-      </c>
-      <c r="AF74">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/results/dfsimple.xlsx
+++ b/results/dfsimple.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE74"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,6 +513,11 @@
           <t>wigc</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>clusters</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -606,8 +611,14 @@
       <c r="AC2">
         <v>11.8</v>
       </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
       <c r="AE2">
         <v>0.1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -645,6 +656,9 @@
       <c r="J3">
         <v>2.5</v>
       </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
       <c r="L3">
         <v>14.1</v>
       </c>
@@ -663,6 +677,9 @@
       <c r="Q3">
         <v>0.8</v>
       </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
       <c r="S3">
         <v>0.1</v>
       </c>
@@ -701,6 +718,9 @@
       </c>
       <c r="AE3">
         <v>0.1</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -801,6 +821,9 @@
       <c r="AE4">
         <v>0.3</v>
       </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -837,9 +860,15 @@
       <c r="J5">
         <v>1</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
       <c r="L5">
         <v>1.5</v>
       </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
       <c r="N5">
         <v>0</v>
       </c>
@@ -851,6 +880,9 @@
       </c>
       <c r="Q5">
         <v>0.1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -890,6 +922,9 @@
       </c>
       <c r="AE5">
         <v>0.1</v>
+      </c>
+      <c r="AF5">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -987,6 +1022,12 @@
       <c r="AD6">
         <v>0.1</v>
       </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1071,14 +1112,23 @@
       <c r="Z7">
         <v>25.1</v>
       </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
       <c r="AB7">
         <v>6.4</v>
       </c>
       <c r="AC7">
         <v>0.8</v>
       </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
       <c r="AE7">
         <v>0.3</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1179,6 +1229,9 @@
       <c r="AE8">
         <v>0.3</v>
       </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1206,18 +1259,36 @@
       <c r="G9">
         <v>5.3</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="I9">
         <v>1.7</v>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
       <c r="L9">
         <v>1.7</v>
       </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
       <c r="O9">
         <v>12.3</v>
       </c>
       <c r="P9">
         <v>6.2</v>
       </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
       <c r="R9">
         <v>5.2</v>
       </c>
@@ -1245,11 +1316,23 @@
       <c r="Z9">
         <v>36.6</v>
       </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
       <c r="AB9">
         <v>6.5</v>
       </c>
       <c r="AC9">
         <v>15.6</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1287,6 +1370,12 @@
       <c r="J10">
         <v>0.2</v>
       </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
       <c r="M10">
         <v>0.2</v>
       </c>
@@ -1343,6 +1432,9 @@
       </c>
       <c r="AE10">
         <v>0.2</v>
+      </c>
+      <c r="AF10">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1443,6 +1535,9 @@
       <c r="AE11">
         <v>0.3</v>
       </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1506,6 +1601,24 @@
       <c r="S12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
       <c r="Z12">
         <v>64.2</v>
       </c>
@@ -1523,6 +1636,9 @@
       </c>
       <c r="AE12">
         <v>0.2</v>
+      </c>
+      <c r="AF12">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1623,6 +1739,9 @@
       <c r="AE13">
         <v>0.4</v>
       </c>
+      <c r="AF13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1722,6 +1841,9 @@
       <c r="AE14">
         <v>0.1</v>
       </c>
+      <c r="AF14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1743,12 +1865,21 @@
       <c r="E15">
         <v>80.90000000000001</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
       <c r="G15">
         <v>0.1</v>
       </c>
       <c r="H15">
         <v>1.6</v>
       </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
       <c r="K15">
         <v>2</v>
       </c>
@@ -1767,6 +1898,9 @@
       <c r="P15">
         <v>1.4</v>
       </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
       <c r="R15">
         <v>5.2</v>
       </c>
@@ -1794,14 +1928,23 @@
       <c r="Z15">
         <v>33.5</v>
       </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
       <c r="AB15">
         <v>26.9</v>
       </c>
       <c r="AC15">
         <v>17.1</v>
       </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
       <c r="AE15">
         <v>0.1</v>
+      </c>
+      <c r="AF15">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1902,6 +2045,9 @@
       <c r="AE16">
         <v>0.2</v>
       </c>
+      <c r="AF16">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1941,6 +2087,12 @@
       <c r="K17">
         <v>2.1</v>
       </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
       <c r="N17">
         <v>2.5</v>
       </c>
@@ -1980,6 +2132,9 @@
       <c r="Z17">
         <v>5.3</v>
       </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
       <c r="AB17">
         <v>4.8</v>
       </c>
@@ -1991,6 +2146,9 @@
       </c>
       <c r="AE17">
         <v>0.3</v>
+      </c>
+      <c r="AF17">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2091,6 +2249,9 @@
       <c r="AE18">
         <v>0.4</v>
       </c>
+      <c r="AF18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2127,6 +2288,9 @@
       <c r="J19">
         <v>0.6</v>
       </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
       <c r="L19">
         <v>0</v>
       </c>
@@ -2186,6 +2350,9 @@
       </c>
       <c r="AE19">
         <v>0.3</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2211,9 +2378,18 @@
       <c r="F20">
         <v>6.6</v>
       </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
       <c r="H20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
       <c r="K20">
         <v>2.9</v>
       </c>
@@ -2229,6 +2405,12 @@
       <c r="O20">
         <v>1.3</v>
       </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
       <c r="R20">
         <v>0.7</v>
       </c>
@@ -2256,14 +2438,23 @@
       <c r="Z20">
         <v>2.4</v>
       </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
       <c r="AB20">
         <v>28.7</v>
       </c>
       <c r="AC20">
         <v>18.5</v>
       </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
       <c r="AE20">
         <v>0.2</v>
+      </c>
+      <c r="AF20">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2301,6 +2492,9 @@
       <c r="J21">
         <v>0.1</v>
       </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
       <c r="L21">
         <v>1.7</v>
       </c>
@@ -2316,6 +2510,9 @@
       <c r="P21">
         <v>0</v>
       </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
       <c r="R21">
         <v>0</v>
       </c>
@@ -2352,8 +2549,14 @@
       <c r="AC21">
         <v>8.699999999999999</v>
       </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
       <c r="AE21">
         <v>0.1</v>
+      </c>
+      <c r="AF21">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -2376,21 +2579,42 @@
       <c r="E22">
         <v>16.3</v>
       </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
       <c r="G22">
         <v>20.8</v>
       </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
       <c r="I22">
         <v>18.1</v>
       </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
       <c r="L22">
         <v>12.2</v>
       </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
       <c r="O22">
         <v>32.5</v>
       </c>
       <c r="P22">
         <v>16.4</v>
       </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
       <c r="R22">
         <v>5.4</v>
       </c>
@@ -2418,11 +2642,23 @@
       <c r="Z22">
         <v>10.5</v>
       </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
       <c r="AB22">
         <v>0.2</v>
       </c>
       <c r="AC22">
         <v>3.3</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2466,6 +2702,9 @@
       <c r="L23">
         <v>1.6</v>
       </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
       <c r="N23">
         <v>0.1</v>
       </c>
@@ -2513,6 +2752,15 @@
       </c>
       <c r="AC23">
         <v>18.5</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2613,6 +2861,9 @@
       <c r="AE24">
         <v>0.2</v>
       </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2640,6 +2891,9 @@
       <c r="G25">
         <v>20.2</v>
       </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
       <c r="I25">
         <v>3.1</v>
       </c>
@@ -2652,6 +2906,9 @@
       <c r="L25">
         <v>0.1</v>
       </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
       <c r="N25">
         <v>1.1</v>
       </c>
@@ -2661,6 +2918,9 @@
       <c r="P25">
         <v>1.5</v>
       </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
       <c r="R25">
         <v>4.7</v>
       </c>
@@ -2688,6 +2948,9 @@
       <c r="Z25">
         <v>3.8</v>
       </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
       <c r="AB25">
         <v>1.3</v>
       </c>
@@ -2699,6 +2962,9 @@
       </c>
       <c r="AE25">
         <v>0.2</v>
+      </c>
+      <c r="AF25">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2733,6 +2999,18 @@
       <c r="I26">
         <v>7.4</v>
       </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
       <c r="N26">
         <v>0.4</v>
       </c>
@@ -2742,6 +3020,9 @@
       <c r="P26">
         <v>8</v>
       </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
       <c r="R26">
         <v>0.1</v>
       </c>
@@ -2783,6 +3064,9 @@
       </c>
       <c r="AE26">
         <v>0.2</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2844,6 +3128,9 @@
       <c r="R27">
         <v>4.4</v>
       </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
       <c r="T27">
         <v>46.1</v>
       </c>
@@ -2879,6 +3166,9 @@
       </c>
       <c r="AE27">
         <v>0.2</v>
+      </c>
+      <c r="AF27">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2907,6 +3197,12 @@
       <c r="G28">
         <v>1.9</v>
       </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
       <c r="J28">
         <v>0.8</v>
       </c>
@@ -2916,12 +3212,18 @@
       <c r="L28">
         <v>0.1</v>
       </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
       <c r="N28">
         <v>28.4</v>
       </c>
       <c r="O28">
         <v>13.5</v>
       </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
       <c r="Q28">
         <v>1.9</v>
       </c>
@@ -2966,6 +3268,9 @@
       </c>
       <c r="AE28">
         <v>0.3</v>
+      </c>
+      <c r="AF28">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -3027,6 +3332,9 @@
       <c r="R29">
         <v>5.9</v>
       </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
       <c r="T29">
         <v>29.1</v>
       </c>
@@ -3062,6 +3370,9 @@
       </c>
       <c r="AE29">
         <v>0.4</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -3159,6 +3470,12 @@
       <c r="AD30">
         <v>3.7</v>
       </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3186,6 +3503,9 @@
       <c r="G31">
         <v>18.8</v>
       </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
       <c r="I31">
         <v>6.8</v>
       </c>
@@ -3254,6 +3574,9 @@
       </c>
       <c r="AE31">
         <v>0.4</v>
+      </c>
+      <c r="AF31">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -3285,18 +3608,33 @@
       <c r="H32">
         <v>1.7</v>
       </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
       <c r="K32">
         <v>0.2</v>
       </c>
       <c r="L32">
         <v>0.3</v>
       </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
       <c r="N32">
         <v>38.6</v>
       </c>
       <c r="O32">
         <v>9.800000000000001</v>
       </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
       <c r="R32">
         <v>7.9</v>
       </c>
@@ -3338,6 +3676,9 @@
       </c>
       <c r="AE32">
         <v>0.3</v>
+      </c>
+      <c r="AF32">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -3432,8 +3773,14 @@
       <c r="AC33">
         <v>6</v>
       </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
       <c r="AE33">
         <v>0.2</v>
+      </c>
+      <c r="AF33">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -3534,6 +3881,9 @@
       <c r="AE34">
         <v>0.1</v>
       </c>
+      <c r="AF34">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3558,21 +3908,45 @@
       <c r="F35">
         <v>1</v>
       </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
       <c r="K35">
         <v>2.8</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
       <c r="N35">
         <v>37.8</v>
       </c>
       <c r="O35">
         <v>0.2</v>
       </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
       <c r="Q35">
         <v>0.2</v>
       </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
       <c r="T35">
         <v>99.2</v>
       </c>
@@ -3591,11 +3965,26 @@
       <c r="Y35">
         <v>0.1</v>
       </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
       <c r="AC35">
         <v>57.8</v>
       </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
       <c r="AE35">
         <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3696,6 +4085,9 @@
       <c r="AE36">
         <v>0.3</v>
       </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3732,6 +4124,9 @@
       <c r="J37">
         <v>2</v>
       </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
       <c r="L37">
         <v>0.9</v>
       </c>
@@ -3791,6 +4186,9 @@
       </c>
       <c r="AE37">
         <v>0.2</v>
+      </c>
+      <c r="AF37">
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -3834,6 +4232,9 @@
       <c r="L38">
         <v>0.4</v>
       </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
       <c r="N38">
         <v>0</v>
       </c>
@@ -3849,6 +4250,9 @@
       <c r="R38">
         <v>0.7</v>
       </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
       <c r="T38">
         <v>26.9</v>
       </c>
@@ -3879,8 +4283,14 @@
       <c r="AC38">
         <v>10.2</v>
       </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
       <c r="AE38">
         <v>0.4</v>
+      </c>
+      <c r="AF38">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3966,14 +4376,23 @@
       <c r="Z39">
         <v>3</v>
       </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
       <c r="AB39">
         <v>6.8</v>
       </c>
       <c r="AC39">
         <v>5</v>
       </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
       <c r="AE39">
         <v>0.2</v>
+      </c>
+      <c r="AF39">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -4020,6 +4439,9 @@
       <c r="M40">
         <v>0.3</v>
       </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
       <c r="O40">
         <v>55.8</v>
       </c>
@@ -4070,6 +4492,9 @@
       </c>
       <c r="AE40">
         <v>0.2</v>
+      </c>
+      <c r="AF40">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -4107,11 +4532,17 @@
       <c r="J41">
         <v>0.2</v>
       </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
         <v>0.1</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
       </c>
       <c r="O41">
         <v>13.7</v>
@@ -4163,6 +4594,9 @@
       </c>
       <c r="AE41">
         <v>0.5</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -4191,12 +4625,24 @@
       <c r="G42">
         <v>0.1</v>
       </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
       <c r="I42">
         <v>0.4</v>
       </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
       <c r="K42">
         <v>46.7</v>
       </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
       <c r="N42">
         <v>36.7</v>
       </c>
@@ -4206,6 +4652,12 @@
       <c r="P42">
         <v>0</v>
       </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
       <c r="S42">
         <v>0.3</v>
       </c>
@@ -4230,6 +4682,9 @@
       <c r="Z42">
         <v>41.3</v>
       </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
       <c r="AB42">
         <v>59.9</v>
       </c>
@@ -4241,6 +4696,9 @@
       </c>
       <c r="AE42">
         <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -4341,6 +4799,9 @@
       <c r="AE43">
         <v>0.2</v>
       </c>
+      <c r="AF43">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4362,15 +4823,33 @@
       <c r="E44">
         <v>17.9</v>
       </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
       <c r="G44">
         <v>27.6</v>
       </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
       <c r="I44">
         <v>16.8</v>
       </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
       <c r="L44">
         <v>4.1</v>
       </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
       <c r="O44">
         <v>33.1</v>
       </c>
@@ -4404,8 +4883,26 @@
       <c r="Y44">
         <v>17.4</v>
       </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
       <c r="AC44">
         <v>7.5</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -4464,17 +4961,50 @@
       <c r="Q45">
         <v>0.5</v>
       </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
       <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
         <v>0</v>
       </c>
       <c r="Z45">
         <v>27.2</v>
       </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
       <c r="AB45">
         <v>5.8</v>
       </c>
       <c r="AC45">
         <v>22.5</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -4503,15 +5033,24 @@
       <c r="G46">
         <v>10.9</v>
       </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
       <c r="I46">
         <v>5.6</v>
       </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
       <c r="K46">
         <v>1.5</v>
       </c>
       <c r="L46">
         <v>0.9</v>
       </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
       <c r="N46">
         <v>0.5</v>
       </c>
@@ -4521,20 +5060,53 @@
       <c r="P46">
         <v>10.7</v>
       </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
       <c r="R46">
         <v>2.2</v>
       </c>
       <c r="S46">
         <v>0.2</v>
       </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
       <c r="Z46">
         <v>25.4</v>
       </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
       <c r="AB46">
         <v>11.3</v>
       </c>
       <c r="AC46">
         <v>14.1</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -4635,6 +5207,9 @@
       <c r="AE47">
         <v>0.4</v>
       </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4734,6 +5309,9 @@
       <c r="AE48">
         <v>0.3</v>
       </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4833,6 +5411,9 @@
       <c r="AE49">
         <v>0.4</v>
       </c>
+      <c r="AF49">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4926,8 +5507,14 @@
       <c r="AC50">
         <v>3.3</v>
       </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
       <c r="AE50">
         <v>0.3</v>
+      </c>
+      <c r="AF50">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -4956,12 +5543,36 @@
       <c r="G51">
         <v>3.2</v>
       </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
       <c r="K51">
         <v>0.2</v>
       </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
       <c r="O51">
         <v>29.3</v>
       </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
       <c r="R51">
         <v>3.8</v>
       </c>
@@ -4989,11 +5600,23 @@
       <c r="Z51">
         <v>25.7</v>
       </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
       <c r="AB51">
         <v>2.1</v>
       </c>
       <c r="AC51">
         <v>10</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -5088,8 +5711,14 @@
       <c r="AC52">
         <v>2</v>
       </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
       <c r="AE52">
         <v>0.5</v>
+      </c>
+      <c r="AF52">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -5190,6 +5819,9 @@
       <c r="AE53">
         <v>0.3</v>
       </c>
+      <c r="AF53">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5289,6 +5921,9 @@
       <c r="AE54">
         <v>0.3</v>
       </c>
+      <c r="AF54">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5388,6 +6023,9 @@
       <c r="AE55">
         <v>0.5</v>
       </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5415,18 +6053,36 @@
       <c r="G56">
         <v>2.4</v>
       </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
       <c r="K56">
         <v>0.1</v>
       </c>
       <c r="L56">
         <v>1.5</v>
       </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
       <c r="N56">
         <v>5.4</v>
       </c>
       <c r="O56">
         <v>14.1</v>
       </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
       <c r="R56">
         <v>2.9</v>
       </c>
@@ -5465,6 +6121,12 @@
       </c>
       <c r="AD56">
         <v>0.3</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
+      </c>
+      <c r="AF56">
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -5565,6 +6227,9 @@
       <c r="AE57">
         <v>0.2</v>
       </c>
+      <c r="AF57">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5664,6 +6329,9 @@
       <c r="AE58">
         <v>0.3</v>
       </c>
+      <c r="AF58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5703,6 +6371,12 @@
       <c r="K59">
         <v>0</v>
       </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
       <c r="N59">
         <v>0.1</v>
       </c>
@@ -5712,9 +6386,15 @@
       <c r="P59">
         <v>0.4</v>
       </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
       <c r="R59">
         <v>5.3</v>
       </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
       <c r="T59">
         <v>25.4</v>
       </c>
@@ -5736,6 +6416,9 @@
       <c r="Z59">
         <v>13.6</v>
       </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
       <c r="AB59">
         <v>7.3</v>
       </c>
@@ -5744,6 +6427,12 @@
       </c>
       <c r="AD59">
         <v>0.4</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -5844,6 +6533,9 @@
       <c r="AE60">
         <v>0.3</v>
       </c>
+      <c r="AF60">
+        <v>3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5904,6 +6596,9 @@
       <c r="R61">
         <v>15.7</v>
       </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
       <c r="T61">
         <v>22</v>
       </c>
@@ -5939,6 +6634,9 @@
       </c>
       <c r="AE61">
         <v>0.3</v>
+      </c>
+      <c r="AF61">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -6039,6 +6737,9 @@
       <c r="AE62">
         <v>0.2</v>
       </c>
+      <c r="AF62">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6099,6 +6800,9 @@
       <c r="R63">
         <v>12.1</v>
       </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
       <c r="T63">
         <v>67.7</v>
       </c>
@@ -6134,6 +6838,9 @@
       </c>
       <c r="AE63">
         <v>0.2</v>
+      </c>
+      <c r="AF63">
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -6234,6 +6941,9 @@
       <c r="AE64">
         <v>0.3</v>
       </c>
+      <c r="AF64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6294,6 +7004,9 @@
       <c r="R65">
         <v>3.7</v>
       </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
       <c r="T65">
         <v>60.4</v>
       </c>
@@ -6329,6 +7042,9 @@
       </c>
       <c r="AE65">
         <v>0.2</v>
+      </c>
+      <c r="AF65">
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -6390,6 +7106,9 @@
       <c r="R66">
         <v>13.8</v>
       </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
       <c r="T66">
         <v>22.8</v>
       </c>
@@ -6425,6 +7144,9 @@
       </c>
       <c r="AE66">
         <v>0.5</v>
+      </c>
+      <c r="AF66">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -6462,6 +7184,9 @@
       <c r="J67">
         <v>7.6</v>
       </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
       <c r="L67">
         <v>0.1</v>
       </c>
@@ -6504,14 +7229,26 @@
       <c r="Y67">
         <v>1.4</v>
       </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
       <c r="AB67">
         <v>6.7</v>
       </c>
       <c r="AC67">
         <v>37.6</v>
       </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
       <c r="AE67">
         <v>0.2</v>
+      </c>
+      <c r="AF67">
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -6540,15 +7277,39 @@
       <c r="G68">
         <v>6.9</v>
       </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
       <c r="L68">
         <v>4</v>
       </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
       <c r="N68">
         <v>0</v>
       </c>
       <c r="O68">
         <v>31.9</v>
       </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
       <c r="S68">
         <v>0.5</v>
       </c>
@@ -6573,11 +7334,23 @@
       <c r="Z68">
         <v>13.1</v>
       </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
       <c r="AB68">
         <v>17.8</v>
       </c>
       <c r="AC68">
         <v>29</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
+      </c>
+      <c r="AF68">
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -6678,6 +7451,9 @@
       <c r="AE69">
         <v>0.3</v>
       </c>
+      <c r="AF69">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6720,6 +7496,9 @@
       <c r="L70">
         <v>0.6</v>
       </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
       <c r="N70">
         <v>4.1</v>
       </c>
@@ -6738,6 +7517,24 @@
       <c r="S70">
         <v>0.1</v>
       </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
       <c r="Z70">
         <v>40.4</v>
       </c>
@@ -6752,6 +7549,12 @@
       </c>
       <c r="AD70">
         <v>1.3</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <v>3</v>
       </c>
     </row>
     <row r="71">
@@ -6771,30 +7574,69 @@
       <c r="D71">
         <v>34.4</v>
       </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
       <c r="F71">
         <v>20.4</v>
       </c>
       <c r="G71">
         <v>1.4</v>
       </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
       <c r="K71">
         <v>11.8</v>
       </c>
       <c r="L71">
         <v>0.6</v>
       </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
       <c r="N71">
         <v>0.1</v>
       </c>
       <c r="O71">
         <v>65.59999999999999</v>
       </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
       <c r="R71">
         <v>6.2</v>
       </c>
       <c r="S71">
         <v>0.1</v>
       </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
       <c r="Z71">
         <v>77.40000000000001</v>
       </c>
@@ -6809,6 +7651,12 @@
       </c>
       <c r="AD71">
         <v>5.9</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AF71">
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -6828,9 +7676,21 @@
       <c r="D72">
         <v>74.2</v>
       </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
       <c r="H72">
         <v>13.9</v>
       </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
       <c r="J72">
         <v>2.2</v>
       </c>
@@ -6849,6 +7709,12 @@
       <c r="O72">
         <v>25.7</v>
       </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
       <c r="R72">
         <v>2</v>
       </c>
@@ -6890,6 +7756,9 @@
       </c>
       <c r="AE72">
         <v>0.2</v>
+      </c>
+      <c r="AF72">
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -6933,6 +7802,9 @@
       <c r="L73">
         <v>0</v>
       </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
       <c r="N73">
         <v>0.3</v>
       </c>
@@ -6986,6 +7858,9 @@
       </c>
       <c r="AE73">
         <v>0.4</v>
+      </c>
+      <c r="AF73">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -7085,6 +7960,9 @@
       </c>
       <c r="AE74">
         <v>0.4</v>
+      </c>
+      <c r="AF74">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
